--- a/MiscSmallUploads_Apr2025.xlsx
+++ b/MiscSmallUploads_Apr2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BEAB3B-6F26-6546-8524-FB83A7ED4BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03092A6-ED8D-4F42-9DFF-2CB71A16E0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5660" windowWidth="34560" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2740" windowWidth="34560" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="80">
   <si>
     <r>
       <rPr>
@@ -318,7 +318,58 @@
     <t>Col5</t>
   </si>
   <si>
+    <t>hardness</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>compressive yield stress</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>UCS</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>minimum compressive ductility</t>
+  </si>
+  <si>
+    <t>tensile yield stress</t>
+  </si>
+  <si>
+    <t>tensile ductility</t>
+  </si>
+  <si>
+    <t>UTS</t>
+  </si>
+  <si>
+    <t>Nb3Cr2Ti0.9W0.4Fe6</t>
+  </si>
+  <si>
     <t>hardness HV</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>MA+DP-SLM(LPBF)</t>
+  </si>
+  <si>
+    <t>MA+GA-SLM(LPBF)</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>5e-3/s strain rate</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2025.180506</t>
   </si>
 </sst>
 </file>
@@ -2739,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:N22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -2992,7 +3043,7 @@
       </c>
       <c r="O7" s="94"/>
       <c r="P7" s="95" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="95" t="s">
         <v>36</v>
@@ -3097,19 +3148,40 @@
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="52"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
+      <c r="B10" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="E10" s="98"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
+      <c r="F10" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="100" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="101"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
+      <c r="I10" s="102">
+        <v>298</v>
+      </c>
+      <c r="J10" s="103">
+        <f>P10*9807000</f>
+        <v>6590304000</v>
+      </c>
       <c r="K10" s="103"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="104"/>
+      <c r="L10" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O10" s="105"/>
       <c r="P10" s="106">
         <v>672</v>
@@ -3121,19 +3193,39 @@
     </row>
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
+      <c r="B11" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="100"/>
+      <c r="F11" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" s="55"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="57"/>
+      <c r="I11" s="102">
+        <v>298</v>
+      </c>
+      <c r="J11" s="57">
+        <v>953000000</v>
+      </c>
       <c r="K11" s="57"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="104"/>
+      <c r="L11" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O11" s="59"/>
       <c r="P11" s="60"/>
       <c r="Q11" s="60"/>
@@ -3143,19 +3235,39 @@
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="52"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
+      <c r="B12" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="100"/>
+      <c r="F12" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="100" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="55"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="57"/>
+      <c r="I12" s="102">
+        <v>298</v>
+      </c>
+      <c r="J12" s="57">
+        <v>1159000000</v>
+      </c>
       <c r="K12" s="57"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="104"/>
+      <c r="L12" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O12" s="59"/>
       <c r="P12" s="60"/>
       <c r="Q12" s="60"/>
@@ -3165,19 +3277,39 @@
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="52"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
+      <c r="B13" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="100"/>
+      <c r="F13" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="100" t="s">
+        <v>29</v>
+      </c>
       <c r="H13" s="55"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="57"/>
+      <c r="I13" s="102">
+        <v>298</v>
+      </c>
+      <c r="J13" s="57">
+        <v>13.4</v>
+      </c>
       <c r="K13" s="57"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="104"/>
+      <c r="L13" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O13" s="59"/>
       <c r="P13" s="60"/>
       <c r="Q13" s="60"/>
@@ -3187,19 +3319,39 @@
     </row>
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
+      <c r="B14" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>76</v>
+      </c>
       <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="100"/>
+      <c r="F14" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="100" t="s">
+        <v>29</v>
+      </c>
       <c r="H14" s="55"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="57"/>
+      <c r="I14" s="102">
+        <v>298</v>
+      </c>
+      <c r="J14" s="57">
+        <v>984000000</v>
+      </c>
       <c r="K14" s="57"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="104"/>
+      <c r="L14" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O14" s="59"/>
       <c r="P14" s="60"/>
       <c r="Q14" s="60"/>
@@ -3209,19 +3361,39 @@
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="52"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
+      <c r="B15" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>76</v>
+      </c>
       <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="100"/>
+      <c r="F15" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="100" t="s">
+        <v>29</v>
+      </c>
       <c r="H15" s="55"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="87"/>
+      <c r="I15" s="102">
+        <v>298</v>
+      </c>
+      <c r="J15" s="87">
+        <v>1176000000</v>
+      </c>
       <c r="K15" s="57"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="104"/>
+      <c r="L15" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O15" s="59"/>
       <c r="P15" s="59"/>
       <c r="Q15" s="60"/>
@@ -3231,19 +3403,39 @@
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="52"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
+      <c r="B16" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>76</v>
+      </c>
       <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="100"/>
+      <c r="F16" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="100" t="s">
+        <v>29</v>
+      </c>
       <c r="H16" s="55"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="59"/>
+      <c r="I16" s="102">
+        <v>298</v>
+      </c>
+      <c r="J16" s="59">
+        <v>10.7</v>
+      </c>
       <c r="K16" s="60"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="104"/>
+      <c r="L16" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="60"/>
@@ -3253,19 +3445,41 @@
     </row>
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="60"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
+      <c r="B17" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="87"/>
+      <c r="F17" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="56">
+        <v>1273</v>
+      </c>
+      <c r="J17" s="87">
+        <v>90000000</v>
+      </c>
       <c r="K17" s="60"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="104"/>
+      <c r="L17" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
       <c r="Q17" s="61"/>
@@ -3275,19 +3489,41 @@
     </row>
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="60"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
+      <c r="B18" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="87"/>
+      <c r="F18" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="56">
+        <v>1273</v>
+      </c>
+      <c r="J18" s="87">
+        <v>148000000</v>
+      </c>
       <c r="K18" s="60"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="104"/>
+      <c r="L18" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
       <c r="Q18" s="61"/>
@@ -3297,19 +3533,41 @@
     </row>
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="60"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
+      <c r="B19" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="59"/>
+      <c r="F19" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="56">
+        <v>1273</v>
+      </c>
+      <c r="J19" s="59">
+        <v>60</v>
+      </c>
       <c r="K19" s="60"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="104"/>
+      <c r="L19" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="61"/>
@@ -3319,19 +3577,41 @@
     </row>
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="60"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
+      <c r="B20" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="87"/>
+      <c r="F20" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="56">
+        <v>1423</v>
+      </c>
+      <c r="J20" s="87">
+        <v>53000000</v>
+      </c>
       <c r="K20" s="60"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="104"/>
+      <c r="L20" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="61"/>
@@ -3341,19 +3621,41 @@
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="60"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
+      <c r="B21" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="87"/>
+      <c r="F21" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="56">
+        <v>1423</v>
+      </c>
+      <c r="J21" s="87">
+        <v>60000000</v>
+      </c>
       <c r="K21" s="60"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="104"/>
+      <c r="L21" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
       <c r="Q21" s="61"/>
@@ -3363,19 +3665,41 @@
     </row>
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="60"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
+      <c r="B22" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="99" t="s">
+        <v>75</v>
+      </c>
       <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="59"/>
+      <c r="F22" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="56">
+        <v>1423</v>
+      </c>
+      <c r="J22" s="59">
+        <v>60</v>
+      </c>
       <c r="K22" s="57"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="104"/>
+      <c r="L22" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="104" t="s">
+        <v>79</v>
+      </c>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
       <c r="Q22" s="61"/>

--- a/MiscSmallUploads_Apr2025.xlsx
+++ b/MiscSmallUploads_Apr2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03092A6-ED8D-4F42-9DFF-2CB71A16E0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC84D6B-F5C9-FF4A-84E3-2EA4329989B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2740" windowWidth="34560" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="3580" windowWidth="34560" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="94">
   <si>
     <r>
       <rPr>
@@ -348,6 +348,12 @@
     <t>UTS</t>
   </si>
   <si>
+    <t>FCC</t>
+  </si>
+  <si>
+    <t>FCC+BCC</t>
+  </si>
+  <si>
     <t>Nb3Cr2Ti0.9W0.4Fe6</t>
   </si>
   <si>
@@ -370,6 +376,42 @@
   </si>
   <si>
     <t>10.1016/j.jallcom.2025.180506</t>
+  </si>
+  <si>
+    <t>Al3</t>
+  </si>
+  <si>
+    <t>Si5</t>
+  </si>
+  <si>
+    <t>Al5Si5</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Fe40Mn20Cr10Ni20 Al5 Si5</t>
+  </si>
+  <si>
+    <t>Fe40Mn20Cr15Ni20 Si5</t>
+  </si>
+  <si>
+    <t>(Fe40Mn20Cr20Ni20)0.97 Al3</t>
+  </si>
+  <si>
+    <t>AAM+H+CR+RX+WQ</t>
+  </si>
+  <si>
+    <t>homogenized at 1473K for 5h; cold rolled 70%; recrystallized at 1373K for 10min and quenched in water</t>
+  </si>
+  <si>
+    <t>homogenized at 1473K for 5h; cold rolled 70%; recrystallized at 1073K for 1h and quenched in water</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2025.180279</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,6 +1670,7 @@
     <xf numFmtId="49" fontId="3" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2790,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="75" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3043,7 +3086,7 @@
       </c>
       <c r="O7" s="94"/>
       <c r="P7" s="95" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="95" t="s">
         <v>36</v>
@@ -3149,13 +3192,13 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="52"/>
       <c r="B10" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E10" s="98"/>
       <c r="F10" s="100" t="s">
@@ -3177,10 +3220,10 @@
         <v>33</v>
       </c>
       <c r="M10" s="100" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N10" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O10" s="105"/>
       <c r="P10" s="106">
@@ -3194,13 +3237,13 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="52"/>
       <c r="B11" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="54" t="s">
@@ -3224,7 +3267,7 @@
         <v>67</v>
       </c>
       <c r="N11" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O11" s="59"/>
       <c r="P11" s="60"/>
@@ -3236,13 +3279,13 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="52"/>
       <c r="B12" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="54" t="s">
@@ -3266,7 +3309,7 @@
         <v>67</v>
       </c>
       <c r="N12" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O12" s="59"/>
       <c r="P12" s="60"/>
@@ -3278,13 +3321,13 @@
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="52"/>
       <c r="B13" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54" t="s">
@@ -3308,7 +3351,7 @@
         <v>67</v>
       </c>
       <c r="N13" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O13" s="59"/>
       <c r="P13" s="60"/>
@@ -3320,13 +3363,13 @@
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="52"/>
       <c r="B14" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="54" t="s">
@@ -3350,7 +3393,7 @@
         <v>67</v>
       </c>
       <c r="N14" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O14" s="59"/>
       <c r="P14" s="60"/>
@@ -3362,13 +3405,13 @@
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="52"/>
       <c r="B15" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="99" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="54" t="s">
@@ -3392,7 +3435,7 @@
         <v>67</v>
       </c>
       <c r="N15" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O15" s="59"/>
       <c r="P15" s="59"/>
@@ -3404,13 +3447,13 @@
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="52"/>
       <c r="B16" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="99" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="54" t="s">
@@ -3434,7 +3477,7 @@
         <v>67</v>
       </c>
       <c r="N16" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
@@ -3446,13 +3489,13 @@
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="60"/>
       <c r="B17" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="54" t="s">
@@ -3462,7 +3505,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I17" s="56">
         <v>1273</v>
@@ -3475,10 +3518,10 @@
         <v>33</v>
       </c>
       <c r="M17" s="54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N17" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
@@ -3490,13 +3533,13 @@
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="60"/>
       <c r="B18" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54" t="s">
@@ -3506,7 +3549,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I18" s="56">
         <v>1273</v>
@@ -3519,10 +3562,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N18" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
@@ -3534,13 +3577,13 @@
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="60"/>
       <c r="B19" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="54" t="s">
@@ -3550,7 +3593,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I19" s="56">
         <v>1273</v>
@@ -3563,10 +3606,10 @@
         <v>65</v>
       </c>
       <c r="M19" s="54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N19" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
@@ -3578,13 +3621,13 @@
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="60"/>
       <c r="B20" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="54" t="s">
@@ -3594,7 +3637,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I20" s="56">
         <v>1423</v>
@@ -3607,10 +3650,10 @@
         <v>33</v>
       </c>
       <c r="M20" s="54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N20" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
@@ -3622,13 +3665,13 @@
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="60"/>
       <c r="B21" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="54" t="s">
@@ -3638,7 +3681,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I21" s="56">
         <v>1423</v>
@@ -3651,10 +3694,10 @@
         <v>33</v>
       </c>
       <c r="M21" s="54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N21" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
@@ -3666,13 +3709,13 @@
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="60"/>
       <c r="B22" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E22" s="53"/>
       <c r="F22" s="54" t="s">
@@ -3682,7 +3725,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I22" s="56">
         <v>1423</v>
@@ -3695,10 +3738,10 @@
         <v>65</v>
       </c>
       <c r="M22" s="54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N22" s="104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
@@ -3708,284 +3751,694 @@
       <c r="T22" s="59"/>
     </row>
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
+      <c r="A23" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="58"/>
+      <c r="I23" s="56">
+        <v>298</v>
+      </c>
+      <c r="J23" s="87">
+        <f>Q23*1000000</f>
+        <v>605000000</v>
+      </c>
+      <c r="K23" s="87">
+        <f>R23*1000000</f>
+        <v>20000000</v>
+      </c>
+      <c r="L23" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="59"/>
+      <c r="Q23" s="61">
+        <v>605</v>
+      </c>
+      <c r="R23" s="59">
+        <v>20</v>
+      </c>
       <c r="S23" s="59"/>
       <c r="T23" s="59"/>
     </row>
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
+      <c r="A24" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="58"/>
+      <c r="I24" s="56">
+        <v>298</v>
+      </c>
+      <c r="J24" s="87">
+        <f t="shared" ref="J24:K34" si="0">Q24*1000000</f>
+        <v>210000000</v>
+      </c>
+      <c r="K24" s="87">
+        <f t="shared" si="0"/>
+        <v>15000000</v>
+      </c>
+      <c r="L24" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="59"/>
+      <c r="Q24" s="61">
+        <v>210</v>
+      </c>
+      <c r="R24" s="59">
+        <v>15</v>
+      </c>
       <c r="S24" s="59"/>
       <c r="T24" s="59"/>
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
+      <c r="A25" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="58"/>
+      <c r="I25" s="56">
+        <v>298</v>
+      </c>
+      <c r="J25" s="87">
+        <f t="shared" si="0"/>
+        <v>600000000</v>
+      </c>
+      <c r="K25" s="87">
+        <f t="shared" si="0"/>
+        <v>20000000</v>
+      </c>
+      <c r="L25" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O25" s="59"/>
       <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="59"/>
+      <c r="Q25" s="61">
+        <v>600</v>
+      </c>
+      <c r="R25" s="59">
+        <v>20</v>
+      </c>
       <c r="S25" s="59"/>
       <c r="T25" s="59"/>
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="58"/>
+      <c r="A26" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56">
+        <v>298</v>
+      </c>
+      <c r="J26" s="87">
+        <f t="shared" si="0"/>
+        <v>335000000</v>
+      </c>
+      <c r="K26" s="87">
+        <f t="shared" si="0"/>
+        <v>15000000</v>
+      </c>
+      <c r="L26" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O26" s="59"/>
       <c r="P26" s="65"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="66"/>
+      <c r="Q26" s="61">
+        <v>335</v>
+      </c>
+      <c r="R26" s="66">
+        <v>15</v>
+      </c>
       <c r="S26" s="59"/>
       <c r="T26" s="59"/>
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="58"/>
+      <c r="A27" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56">
+        <v>298</v>
+      </c>
+      <c r="J27" s="87">
+        <f t="shared" si="0"/>
+        <v>805000000</v>
+      </c>
+      <c r="K27" s="87">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
+      <c r="L27" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O27" s="59"/>
       <c r="P27" s="65"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="66"/>
+      <c r="Q27" s="61">
+        <v>805</v>
+      </c>
+      <c r="R27" s="66">
+        <v>10</v>
+      </c>
       <c r="S27" s="59"/>
       <c r="T27" s="59"/>
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="58"/>
+      <c r="A28" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56">
+        <v>298</v>
+      </c>
+      <c r="J28" s="87">
+        <f t="shared" si="0"/>
+        <v>210000000</v>
+      </c>
+      <c r="K28" s="87">
+        <f t="shared" si="0"/>
+        <v>15000000</v>
+      </c>
+      <c r="L28" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N28" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O28" s="59"/>
       <c r="P28" s="65"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="66"/>
+      <c r="Q28" s="61">
+        <v>210</v>
+      </c>
+      <c r="R28" s="66">
+        <v>15</v>
+      </c>
       <c r="S28" s="59"/>
       <c r="T28" s="59"/>
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="58"/>
+      <c r="A29" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56">
+        <v>298</v>
+      </c>
+      <c r="J29" s="87">
+        <f t="shared" si="0"/>
+        <v>760000000</v>
+      </c>
+      <c r="K29" s="87">
+        <f t="shared" si="0"/>
+        <v>20000000</v>
+      </c>
+      <c r="L29" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N29" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O29" s="59"/>
       <c r="P29" s="65"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="66"/>
+      <c r="Q29" s="61">
+        <v>760</v>
+      </c>
+      <c r="R29" s="66">
+        <v>20</v>
+      </c>
       <c r="S29" s="59"/>
       <c r="T29" s="59"/>
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="58"/>
+      <c r="A30" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56">
+        <v>298</v>
+      </c>
+      <c r="J30" s="87">
+        <f t="shared" si="0"/>
+        <v>460000000</v>
+      </c>
+      <c r="K30" s="87">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
+      <c r="L30" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N30" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O30" s="59"/>
       <c r="P30" s="65"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="66"/>
+      <c r="Q30" s="61">
+        <v>460</v>
+      </c>
+      <c r="R30" s="66">
+        <v>10</v>
+      </c>
       <c r="S30" s="59"/>
       <c r="T30" s="59"/>
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="58"/>
+      <c r="A31" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56">
+        <v>298</v>
+      </c>
+      <c r="J31" s="87">
+        <f t="shared" si="0"/>
+        <v>845000000</v>
+      </c>
+      <c r="K31" s="87">
+        <f t="shared" si="0"/>
+        <v>30000000</v>
+      </c>
+      <c r="L31" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O31" s="59"/>
       <c r="P31" s="65"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="66"/>
+      <c r="Q31" s="61">
+        <v>845</v>
+      </c>
+      <c r="R31" s="66">
+        <v>30</v>
+      </c>
       <c r="S31" s="59"/>
       <c r="T31" s="59"/>
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="58"/>
+      <c r="A32" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56">
+        <v>298</v>
+      </c>
+      <c r="J32" s="87">
+        <f t="shared" si="0"/>
+        <v>670000000</v>
+      </c>
+      <c r="K32" s="87">
+        <f t="shared" si="0"/>
+        <v>20000000</v>
+      </c>
+      <c r="L32" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N32" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O32" s="59"/>
       <c r="P32" s="65"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="66"/>
+      <c r="Q32" s="61">
+        <v>670</v>
+      </c>
+      <c r="R32" s="66">
+        <v>20</v>
+      </c>
       <c r="S32" s="59"/>
       <c r="T32" s="59"/>
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="58"/>
+      <c r="A33" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="55"/>
+      <c r="I33" s="56">
+        <v>298</v>
+      </c>
+      <c r="J33" s="87">
+        <f t="shared" si="0"/>
+        <v>1060000000</v>
+      </c>
+      <c r="K33" s="87">
+        <f t="shared" si="0"/>
+        <v>15000000</v>
+      </c>
+      <c r="L33" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O33" s="59"/>
       <c r="P33" s="65"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="66"/>
+      <c r="Q33" s="61">
+        <v>1060</v>
+      </c>
+      <c r="R33" s="66">
+        <v>15</v>
+      </c>
       <c r="S33" s="59"/>
       <c r="T33" s="59"/>
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="58"/>
+      <c r="A34" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="55"/>
+      <c r="I34" s="56">
+        <v>298</v>
+      </c>
+      <c r="J34" s="87">
+        <f t="shared" si="0"/>
+        <v>540000000</v>
+      </c>
+      <c r="K34" s="87">
+        <f t="shared" si="0"/>
+        <v>20000000</v>
+      </c>
+      <c r="L34" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N34" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O34" s="59"/>
       <c r="P34" s="60"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="66"/>
+      <c r="Q34" s="61">
+        <v>540</v>
+      </c>
+      <c r="R34" s="66">
+        <v>20</v>
+      </c>
       <c r="S34" s="59"/>
       <c r="T34" s="59"/>
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="58"/>
+      <c r="A35" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56">
+        <v>298</v>
+      </c>
+      <c r="J35" s="60">
+        <v>11</v>
+      </c>
+      <c r="K35" s="60">
+        <v>1</v>
+      </c>
+      <c r="L35" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N35" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O35" s="59"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="61"/>
@@ -3994,20 +4447,46 @@
       <c r="T35" s="59"/>
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="58"/>
+      <c r="A36" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56">
+        <v>298</v>
+      </c>
+      <c r="J36" s="60">
+        <v>35</v>
+      </c>
+      <c r="K36" s="60">
+        <v>3</v>
+      </c>
+      <c r="L36" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O36" s="59"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="61"/>
@@ -4016,20 +4495,46 @@
       <c r="T36" s="59"/>
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A37" s="52"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="58"/>
+      <c r="A37" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="55"/>
+      <c r="I37" s="56">
+        <v>298</v>
+      </c>
+      <c r="J37" s="60">
+        <v>12</v>
+      </c>
+      <c r="K37" s="57">
+        <v>1</v>
+      </c>
+      <c r="L37" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N37" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O37" s="59"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="61"/>
@@ -4038,20 +4543,46 @@
       <c r="T37" s="59"/>
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A38" s="52"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="58"/>
+      <c r="A38" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56">
+        <v>298</v>
+      </c>
+      <c r="J38" s="60">
+        <v>35</v>
+      </c>
+      <c r="K38" s="57">
+        <v>3</v>
+      </c>
+      <c r="L38" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M38" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O38" s="68"/>
       <c r="P38" s="61"/>
       <c r="Q38" s="61"/>
@@ -4060,20 +4591,46 @@
       <c r="T38" s="59"/>
     </row>
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A39" s="52"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="58"/>
+      <c r="A39" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56">
+        <v>298</v>
+      </c>
+      <c r="J39" s="60">
+        <v>26</v>
+      </c>
+      <c r="K39" s="57">
+        <v>1</v>
+      </c>
+      <c r="L39" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M39" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N39" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O39" s="68"/>
       <c r="P39" s="61"/>
       <c r="Q39" s="61"/>
@@ -4082,20 +4639,46 @@
       <c r="T39" s="59"/>
     </row>
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
+      <c r="A40" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H40" s="55"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="52"/>
+      <c r="I40" s="56">
+        <v>298</v>
+      </c>
+      <c r="J40" s="68">
+        <v>44</v>
+      </c>
+      <c r="K40" s="69">
+        <v>3</v>
+      </c>
+      <c r="L40" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="N40" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O40" s="68"/>
       <c r="P40" s="61"/>
       <c r="Q40" s="68"/>
@@ -4104,20 +4687,44 @@
       <c r="T40" s="59"/>
     </row>
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
+      <c r="A41" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H41" s="55"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="68"/>
+      <c r="I41" s="56">
+        <v>77</v>
+      </c>
+      <c r="J41" s="134">
+        <v>1796000000</v>
+      </c>
       <c r="K41" s="69"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="52"/>
+      <c r="L41" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M41" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="N41" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O41" s="68"/>
       <c r="P41" s="61"/>
       <c r="Q41" s="68"/>
@@ -4126,20 +4733,44 @@
       <c r="T41" s="59"/>
     </row>
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
+      <c r="A42" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H42" s="55"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="68"/>
+      <c r="I42" s="56">
+        <v>77</v>
+      </c>
+      <c r="J42" s="134">
+        <v>821000000</v>
+      </c>
       <c r="K42" s="69"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="52"/>
+      <c r="L42" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="N42" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O42" s="68"/>
       <c r="P42" s="69"/>
       <c r="Q42" s="68"/>
@@ -4148,20 +4779,44 @@
       <c r="T42" s="59"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
-      <c r="A43" s="52"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
+      <c r="A43" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H43" s="55"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="68"/>
+      <c r="I43" s="56">
+        <v>77</v>
+      </c>
+      <c r="J43" s="134">
+        <v>2618000000</v>
+      </c>
       <c r="K43" s="69"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="52"/>
+      <c r="L43" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="N43" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O43" s="68"/>
       <c r="P43" s="69"/>
       <c r="Q43" s="68"/>
@@ -4170,20 +4825,44 @@
       <c r="T43" s="59"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="52"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="54"/>
+      <c r="A44" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H44" s="55"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="68"/>
+      <c r="I44" s="56">
+        <v>77</v>
+      </c>
+      <c r="J44" s="134">
+        <v>1524000000</v>
+      </c>
       <c r="K44" s="71"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="52"/>
+      <c r="L44" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="N44" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O44" s="68"/>
       <c r="P44" s="68"/>
       <c r="Q44" s="61"/>
@@ -4192,20 +4871,44 @@
       <c r="T44" s="59"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="52"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="54"/>
+      <c r="A45" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H45" s="55"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="68"/>
+      <c r="I45" s="56">
+        <v>77</v>
+      </c>
+      <c r="J45" s="68">
+        <v>17.2</v>
+      </c>
       <c r="K45" s="71"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="52"/>
+      <c r="L45" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M45" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="N45" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O45" s="68"/>
       <c r="P45" s="68"/>
       <c r="Q45" s="61"/>
@@ -4214,20 +4917,44 @@
       <c r="T45" s="59"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="52"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="54"/>
+      <c r="A46" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H46" s="55"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="68"/>
+      <c r="I46" s="56">
+        <v>77</v>
+      </c>
+      <c r="J46" s="68">
+        <v>50.7</v>
+      </c>
       <c r="K46" s="71"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="52"/>
+      <c r="L46" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M46" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="N46" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="O46" s="68"/>
       <c r="P46" s="68"/>
       <c r="Q46" s="61"/>

--- a/MiscSmallUploads_Apr2025.xlsx
+++ b/MiscSmallUploads_Apr2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC84D6B-F5C9-FF4A-84E3-2EA4329989B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF5B34-AFB8-6049-BA3C-92BC89372B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="3580" windowWidth="34560" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="3980" windowWidth="27720" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="111">
   <si>
     <r>
       <rPr>
@@ -327,10 +327,16 @@
     <t>compressive yield stress</t>
   </si>
   <si>
+    <t>compressive ductility</t>
+  </si>
+  <si>
     <t>%</t>
   </si>
   <si>
     <t>UCS</t>
+  </si>
+  <si>
+    <t>VAM</t>
   </si>
   <si>
     <t>T5</t>
@@ -412,6 +418,51 @@
   </si>
   <si>
     <t>10.1016/j.jallcom.2025.180279</t>
+  </si>
+  <si>
+    <t>10.2139/ssrn.5105896</t>
+  </si>
+  <si>
+    <t>NbCrTiTa</t>
+  </si>
+  <si>
+    <t>NbCrTiMoVTa</t>
+  </si>
+  <si>
+    <t>NbCrTiAlMoVTa</t>
+  </si>
+  <si>
+    <t>NbCrTiMoVHf</t>
+  </si>
+  <si>
+    <t>NbCrTiMoVTaWMn</t>
+  </si>
+  <si>
+    <t>BCC+?</t>
+  </si>
+  <si>
+    <t>BCC+HCP+laves</t>
+  </si>
+  <si>
+    <t>iteratively designed towards 8-component single BCC structure</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>F4a</t>
+  </si>
+  <si>
+    <t>iteratively designed 8-component single BCC structure</t>
   </si>
 </sst>
 </file>
@@ -2833,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3086,7 +3137,7 @@
       </c>
       <c r="O7" s="94"/>
       <c r="P7" s="95" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="95" t="s">
         <v>36</v>
@@ -3192,13 +3243,13 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="52"/>
       <c r="B10" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E10" s="98"/>
       <c r="F10" s="100" t="s">
@@ -3220,10 +3271,10 @@
         <v>33</v>
       </c>
       <c r="M10" s="100" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N10" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O10" s="105"/>
       <c r="P10" s="106">
@@ -3237,17 +3288,17 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="52"/>
       <c r="B11" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="100" t="s">
         <v>29</v>
@@ -3264,10 +3315,10 @@
         <v>33</v>
       </c>
       <c r="M11" s="54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N11" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O11" s="59"/>
       <c r="P11" s="60"/>
@@ -3279,17 +3330,17 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="52"/>
       <c r="B12" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" s="100" t="s">
         <v>29</v>
@@ -3306,10 +3357,10 @@
         <v>33</v>
       </c>
       <c r="M12" s="54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N12" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O12" s="59"/>
       <c r="P12" s="60"/>
@@ -3321,17 +3372,17 @@
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="52"/>
       <c r="B13" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G13" s="100" t="s">
         <v>29</v>
@@ -3345,13 +3396,13 @@
       </c>
       <c r="K13" s="57"/>
       <c r="L13" s="100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N13" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O13" s="59"/>
       <c r="P13" s="60"/>
@@ -3363,17 +3414,17 @@
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="52"/>
       <c r="B14" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G14" s="100" t="s">
         <v>29</v>
@@ -3390,10 +3441,10 @@
         <v>33</v>
       </c>
       <c r="M14" s="54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N14" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O14" s="59"/>
       <c r="P14" s="60"/>
@@ -3405,17 +3456,17 @@
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="52"/>
       <c r="B15" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="99" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G15" s="100" t="s">
         <v>29</v>
@@ -3432,10 +3483,10 @@
         <v>33</v>
       </c>
       <c r="M15" s="54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N15" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O15" s="59"/>
       <c r="P15" s="59"/>
@@ -3447,17 +3498,17 @@
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="52"/>
       <c r="B16" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="99" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G16" s="100" t="s">
         <v>29</v>
@@ -3471,13 +3522,13 @@
       </c>
       <c r="K16" s="60"/>
       <c r="L16" s="100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M16" s="54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N16" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
@@ -3489,13 +3540,13 @@
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="60"/>
       <c r="B17" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="54" t="s">
@@ -3505,7 +3556,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I17" s="56">
         <v>1273</v>
@@ -3518,10 +3569,10 @@
         <v>33</v>
       </c>
       <c r="M17" s="54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N17" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
@@ -3533,23 +3584,23 @@
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="60"/>
       <c r="B18" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="100" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I18" s="56">
         <v>1273</v>
@@ -3562,10 +3613,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N18" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
@@ -3577,23 +3628,23 @@
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="60"/>
       <c r="B19" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G19" s="100" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I19" s="56">
         <v>1273</v>
@@ -3603,13 +3654,13 @@
       </c>
       <c r="K19" s="60"/>
       <c r="L19" s="100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M19" s="54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N19" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
@@ -3621,13 +3672,13 @@
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="60"/>
       <c r="B20" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="54" t="s">
@@ -3637,7 +3688,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I20" s="56">
         <v>1423</v>
@@ -3650,10 +3701,10 @@
         <v>33</v>
       </c>
       <c r="M20" s="54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N20" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
@@ -3665,23 +3716,23 @@
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="60"/>
       <c r="B21" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="100" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I21" s="56">
         <v>1423</v>
@@ -3694,10 +3745,10 @@
         <v>33</v>
       </c>
       <c r="M21" s="54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N21" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
@@ -3709,23 +3760,23 @@
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="60"/>
       <c r="B22" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="99" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E22" s="53"/>
       <c r="F22" s="54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G22" s="100" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I22" s="56">
         <v>1423</v>
@@ -3735,13 +3786,13 @@
       </c>
       <c r="K22" s="57"/>
       <c r="L22" s="100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M22" s="54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N22" s="104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
@@ -3752,22 +3803,22 @@
     </row>
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>29</v>
@@ -3788,10 +3839,10 @@
         <v>33</v>
       </c>
       <c r="M23" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N23" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
@@ -3806,22 +3857,22 @@
     </row>
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F24" s="54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>29</v>
@@ -3842,10 +3893,10 @@
         <v>33</v>
       </c>
       <c r="M24" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N24" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
@@ -3860,22 +3911,22 @@
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>29</v>
@@ -3896,10 +3947,10 @@
         <v>33</v>
       </c>
       <c r="M25" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N25" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O25" s="59"/>
       <c r="P25" s="60"/>
@@ -3914,22 +3965,22 @@
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
       <c r="A26" s="52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>29</v>
@@ -3950,10 +4001,10 @@
         <v>33</v>
       </c>
       <c r="M26" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N26" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O26" s="59"/>
       <c r="P26" s="65"/>
@@ -3968,22 +4019,22 @@
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
       <c r="A27" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F27" s="54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G27" s="54" t="s">
         <v>29</v>
@@ -4004,10 +4055,10 @@
         <v>33</v>
       </c>
       <c r="M27" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N27" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O27" s="59"/>
       <c r="P27" s="65"/>
@@ -4022,22 +4073,22 @@
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
       <c r="A28" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G28" s="54" t="s">
         <v>29</v>
@@ -4058,10 +4109,10 @@
         <v>33</v>
       </c>
       <c r="M28" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N28" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O28" s="59"/>
       <c r="P28" s="65"/>
@@ -4076,22 +4127,22 @@
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
       <c r="A29" s="52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="54" t="s">
         <v>73</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="54" t="s">
-        <v>71</v>
       </c>
       <c r="G29" s="54" t="s">
         <v>29</v>
@@ -4112,10 +4163,10 @@
         <v>33</v>
       </c>
       <c r="M29" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N29" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O29" s="59"/>
       <c r="P29" s="65"/>
@@ -4130,22 +4181,22 @@
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
       <c r="A30" s="52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F30" s="54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G30" s="54" t="s">
         <v>29</v>
@@ -4166,10 +4217,10 @@
         <v>33</v>
       </c>
       <c r="M30" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N30" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="59"/>
       <c r="P30" s="65"/>
@@ -4184,22 +4235,22 @@
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
       <c r="A31" s="52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C31" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="54" t="s">
         <v>73</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>71</v>
       </c>
       <c r="G31" s="54" t="s">
         <v>29</v>
@@ -4220,10 +4271,10 @@
         <v>33</v>
       </c>
       <c r="M31" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N31" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O31" s="59"/>
       <c r="P31" s="65"/>
@@ -4238,22 +4289,22 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
       <c r="A32" s="52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F32" s="54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G32" s="54" t="s">
         <v>29</v>
@@ -4274,10 +4325,10 @@
         <v>33</v>
       </c>
       <c r="M32" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N32" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O32" s="59"/>
       <c r="P32" s="65"/>
@@ -4292,22 +4343,22 @@
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
       <c r="A33" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C33" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="54" t="s">
         <v>73</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="54" t="s">
-        <v>71</v>
       </c>
       <c r="G33" s="54" t="s">
         <v>29</v>
@@ -4328,10 +4379,10 @@
         <v>33</v>
       </c>
       <c r="M33" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N33" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O33" s="59"/>
       <c r="P33" s="65"/>
@@ -4346,22 +4397,22 @@
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
       <c r="A34" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F34" s="54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G34" s="54" t="s">
         <v>29</v>
@@ -4382,10 +4433,10 @@
         <v>33</v>
       </c>
       <c r="M34" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N34" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O34" s="59"/>
       <c r="P34" s="60"/>
@@ -4400,22 +4451,22 @@
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
       <c r="A35" s="52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F35" s="54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G35" s="54" t="s">
         <v>29</v>
@@ -4431,13 +4482,13 @@
         <v>1</v>
       </c>
       <c r="L35" s="54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M35" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N35" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O35" s="59"/>
       <c r="P35" s="60"/>
@@ -4448,22 +4499,22 @@
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
       <c r="A36" s="52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C36" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="54" t="s">
         <v>72</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="54" t="s">
-        <v>70</v>
       </c>
       <c r="G36" s="54" t="s">
         <v>29</v>
@@ -4479,13 +4530,13 @@
         <v>3</v>
       </c>
       <c r="L36" s="54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M36" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N36" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O36" s="59"/>
       <c r="P36" s="60"/>
@@ -4496,22 +4547,22 @@
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F37" s="54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G37" s="54" t="s">
         <v>29</v>
@@ -4527,13 +4578,13 @@
         <v>1</v>
       </c>
       <c r="L37" s="54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M37" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N37" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O37" s="59"/>
       <c r="P37" s="60"/>
@@ -4544,22 +4595,22 @@
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
       <c r="A38" s="52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="54" t="s">
         <v>72</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>70</v>
       </c>
       <c r="G38" s="54" t="s">
         <v>29</v>
@@ -4575,13 +4626,13 @@
         <v>3</v>
       </c>
       <c r="L38" s="54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M38" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N38" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O38" s="68"/>
       <c r="P38" s="61"/>
@@ -4592,22 +4643,22 @@
     </row>
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
       <c r="A39" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F39" s="54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G39" s="54" t="s">
         <v>29</v>
@@ -4623,13 +4674,13 @@
         <v>1</v>
       </c>
       <c r="L39" s="54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M39" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N39" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O39" s="68"/>
       <c r="P39" s="61"/>
@@ -4640,22 +4691,22 @@
     </row>
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
       <c r="A40" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C40" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="54" t="s">
         <v>72</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>70</v>
       </c>
       <c r="G40" s="54" t="s">
         <v>29</v>
@@ -4671,13 +4722,13 @@
         <v>3</v>
       </c>
       <c r="L40" s="54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M40" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N40" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O40" s="68"/>
       <c r="P40" s="61"/>
@@ -4688,22 +4739,22 @@
     </row>
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
       <c r="A41" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E41" s="53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F41" s="54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G41" s="54" t="s">
         <v>29</v>
@@ -4720,10 +4771,10 @@
         <v>33</v>
       </c>
       <c r="M41" s="54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N41" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O41" s="68"/>
       <c r="P41" s="61"/>
@@ -4734,22 +4785,22 @@
     </row>
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
       <c r="A42" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F42" s="54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G42" s="54" t="s">
         <v>29</v>
@@ -4766,10 +4817,10 @@
         <v>33</v>
       </c>
       <c r="M42" s="54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N42" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O42" s="68"/>
       <c r="P42" s="69"/>
@@ -4780,22 +4831,22 @@
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C43" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="54" t="s">
         <v>73</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="54" t="s">
-        <v>71</v>
       </c>
       <c r="G43" s="54" t="s">
         <v>29</v>
@@ -4812,10 +4863,10 @@
         <v>33</v>
       </c>
       <c r="M43" s="54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N43" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O43" s="68"/>
       <c r="P43" s="69"/>
@@ -4826,22 +4877,22 @@
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F44" s="54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G44" s="54" t="s">
         <v>29</v>
@@ -4858,10 +4909,10 @@
         <v>33</v>
       </c>
       <c r="M44" s="54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N44" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O44" s="68"/>
       <c r="P44" s="68"/>
@@ -4872,22 +4923,22 @@
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F45" s="54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G45" s="54" t="s">
         <v>29</v>
@@ -4901,13 +4952,13 @@
       </c>
       <c r="K45" s="71"/>
       <c r="L45" s="54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M45" s="54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N45" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O45" s="68"/>
       <c r="P45" s="68"/>
@@ -4918,22 +4969,22 @@
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C46" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="54" t="s">
         <v>72</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="54" t="s">
-        <v>70</v>
       </c>
       <c r="G46" s="54" t="s">
         <v>29</v>
@@ -4947,13 +4998,13 @@
       </c>
       <c r="K46" s="71"/>
       <c r="L46" s="54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M46" s="54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N46" s="58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O46" s="68"/>
       <c r="P46" s="68"/>
@@ -4964,10 +5015,18 @@
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="52"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="53"/>
+      <c r="B47" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="F47" s="70"/>
       <c r="G47" s="54"/>
       <c r="H47" s="55"/>
@@ -4975,8 +5034,12 @@
       <c r="J47" s="68"/>
       <c r="K47" s="71"/>
       <c r="L47" s="54"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="52"/>
+      <c r="M47" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="N47" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O47" s="68"/>
       <c r="P47" s="68"/>
       <c r="Q47" s="61"/>
@@ -4986,10 +5049,18 @@
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="52"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="53"/>
+      <c r="B48" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="F48" s="70"/>
       <c r="G48" s="54"/>
       <c r="H48" s="55"/>
@@ -4997,8 +5068,12 @@
       <c r="J48" s="68"/>
       <c r="K48" s="71"/>
       <c r="L48" s="54"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="52"/>
+      <c r="M48" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="N48" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O48" s="68"/>
       <c r="P48" s="68"/>
       <c r="Q48" s="61"/>
@@ -5008,10 +5083,18 @@
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
       <c r="A49" s="52"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="53"/>
+      <c r="B49" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="F49" s="70"/>
       <c r="G49" s="54"/>
       <c r="H49" s="55"/>
@@ -5019,8 +5102,12 @@
       <c r="J49" s="68"/>
       <c r="K49" s="71"/>
       <c r="L49" s="54"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="52"/>
+      <c r="M49" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="N49" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O49" s="68"/>
       <c r="P49" s="68"/>
       <c r="Q49" s="61"/>
@@ -5030,10 +5117,18 @@
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="52"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
+      <c r="B50" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="F50" s="70"/>
       <c r="G50" s="54"/>
       <c r="H50" s="55"/>
@@ -5041,8 +5136,12 @@
       <c r="J50" s="68"/>
       <c r="K50" s="71"/>
       <c r="L50" s="54"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="52"/>
+      <c r="M50" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="N50" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O50" s="68"/>
       <c r="P50" s="68"/>
       <c r="Q50" s="61"/>
@@ -5052,19 +5151,41 @@
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="52"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="54"/>
+      <c r="B51" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H51" s="55"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="68"/>
+      <c r="I51" s="56">
+        <v>303</v>
+      </c>
+      <c r="J51" s="134">
+        <v>1580000000</v>
+      </c>
       <c r="K51" s="71"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="52"/>
+      <c r="L51" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M51" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N51" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O51" s="68"/>
       <c r="P51" s="68"/>
       <c r="Q51" s="61"/>
@@ -5074,19 +5195,41 @@
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
       <c r="A52" s="52"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="54"/>
+      <c r="B52" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H52" s="55"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="71"/>
+      <c r="I52" s="56">
+        <v>1073</v>
+      </c>
+      <c r="J52" s="71">
+        <v>820000000</v>
+      </c>
       <c r="K52" s="71"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="52"/>
+      <c r="L52" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N52" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O52" s="68"/>
       <c r="P52" s="69"/>
       <c r="Q52" s="61"/>
@@ -5096,19 +5239,41 @@
     </row>
     <row r="53" spans="1:20" ht="18" customHeight="1">
       <c r="A53" s="52"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="54"/>
+      <c r="B53" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H53" s="55"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="71"/>
+      <c r="I53" s="56">
+        <v>1274</v>
+      </c>
+      <c r="J53" s="71">
+        <v>747000000</v>
+      </c>
       <c r="K53" s="71"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="52"/>
+      <c r="L53" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N53" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O53" s="68"/>
       <c r="P53" s="69"/>
       <c r="Q53" s="61"/>
@@ -5118,19 +5283,41 @@
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1">
       <c r="A54" s="52"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="54"/>
+      <c r="B54" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H54" s="55"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="71"/>
+      <c r="I54" s="56">
+        <v>1373</v>
+      </c>
+      <c r="J54" s="71">
+        <v>505000000</v>
+      </c>
       <c r="K54" s="71"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="52"/>
+      <c r="L54" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N54" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O54" s="68"/>
       <c r="P54" s="69"/>
       <c r="Q54" s="61"/>
@@ -5140,19 +5327,41 @@
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
       <c r="A55" s="52"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="54"/>
+      <c r="B55" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H55" s="55"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="71"/>
+      <c r="I55" s="56">
+        <v>303</v>
+      </c>
+      <c r="J55" s="71">
+        <v>1692000000</v>
+      </c>
       <c r="K55" s="71"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="52"/>
+      <c r="L55" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N55" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O55" s="68"/>
       <c r="P55" s="69"/>
       <c r="Q55" s="61"/>
@@ -5162,19 +5371,41 @@
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="52"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="54"/>
+      <c r="B56" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H56" s="55"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="71"/>
+      <c r="I56" s="56">
+        <v>1073</v>
+      </c>
+      <c r="J56" s="71">
+        <v>1074000000</v>
+      </c>
       <c r="K56" s="71"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="52"/>
+      <c r="L56" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M56" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N56" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O56" s="68"/>
       <c r="P56" s="68"/>
       <c r="Q56" s="68"/>
@@ -5184,19 +5415,41 @@
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
       <c r="A57" s="52"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="54"/>
+      <c r="B57" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H57" s="55"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="71"/>
+      <c r="I57" s="56">
+        <v>1274</v>
+      </c>
+      <c r="J57" s="71">
+        <v>878000000</v>
+      </c>
       <c r="K57" s="71"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="52"/>
+      <c r="L57" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M57" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N57" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O57" s="68"/>
       <c r="P57" s="68"/>
       <c r="Q57" s="68"/>
@@ -5206,19 +5459,41 @@
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
       <c r="A58" s="52"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="54"/>
+      <c r="B58" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H58" s="55"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="71"/>
+      <c r="I58" s="56">
+        <v>1373</v>
+      </c>
+      <c r="J58" s="71">
+        <v>601000000</v>
+      </c>
       <c r="K58" s="71"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="72"/>
-      <c r="N58" s="52"/>
+      <c r="L58" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M58" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N58" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O58" s="68"/>
       <c r="P58" s="68"/>
       <c r="Q58" s="68"/>
@@ -5228,19 +5503,41 @@
     </row>
     <row r="59" spans="1:20" ht="18" customHeight="1">
       <c r="A59" s="52"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="54"/>
+      <c r="B59" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H59" s="55"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="71"/>
+      <c r="I59" s="56">
+        <v>303</v>
+      </c>
+      <c r="J59" s="71">
+        <v>7.9</v>
+      </c>
       <c r="K59" s="71"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="52"/>
+      <c r="L59" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="M59" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N59" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O59" s="68"/>
       <c r="P59" s="68"/>
       <c r="Q59" s="68"/>
@@ -5250,19 +5547,41 @@
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
       <c r="A60" s="52"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="54"/>
+      <c r="B60" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H60" s="55"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="71"/>
+      <c r="I60" s="56">
+        <v>1073</v>
+      </c>
+      <c r="J60" s="71">
+        <v>15.5</v>
+      </c>
       <c r="K60" s="71"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="52"/>
+      <c r="L60" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="M60" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N60" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O60" s="68"/>
       <c r="P60" s="68"/>
       <c r="Q60" s="68"/>
@@ -5272,19 +5591,41 @@
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
       <c r="A61" s="52"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="54"/>
+      <c r="B61" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H61" s="55"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="71"/>
+      <c r="I61" s="56">
+        <v>1274</v>
+      </c>
+      <c r="J61" s="71">
+        <v>20.8</v>
+      </c>
       <c r="K61" s="71"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="52"/>
+      <c r="L61" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="M61" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N61" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O61" s="68"/>
       <c r="P61" s="68"/>
       <c r="Q61" s="68"/>
@@ -5294,19 +5635,41 @@
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
       <c r="A62" s="52"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="54"/>
+      <c r="B62" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H62" s="55"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="71"/>
+      <c r="I62" s="56">
+        <v>1373</v>
+      </c>
+      <c r="J62" s="71">
+        <v>24</v>
+      </c>
       <c r="K62" s="71"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="52"/>
+      <c r="L62" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="M62" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N62" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="O62" s="68"/>
       <c r="P62" s="68"/>
       <c r="Q62" s="68"/>

--- a/MiscSmallUploads_Apr2025.xlsx
+++ b/MiscSmallUploads_Apr2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF5B34-AFB8-6049-BA3C-92BC89372B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3087820-0486-D141-BC17-B57799C739B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="3980" windowWidth="27720" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3540" windowWidth="27720" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="122">
   <si>
     <r>
       <rPr>
@@ -464,6 +464,39 @@
   <si>
     <t>iteratively designed 8-component single BCC structure</t>
   </si>
+  <si>
+    <t>Ti50Zr18Nb15V12Al5</t>
+  </si>
+  <si>
+    <t>AAM+H+WQ+CR+RX+WQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fine grained </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coarse grained </t>
+  </si>
+  <si>
+    <t>homogenized at 1273K for 1h; cold rolled with 70% reduction; recrystallized at 973K for 30min; coarse grained at 160um</t>
+  </si>
+  <si>
+    <t>homogenized at 1273K for 1h; coarse grained at 160um</t>
+  </si>
+  <si>
+    <t>AAM+H+WQ</t>
+  </si>
+  <si>
+    <t>uniform elongation</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>1e-3/s strain rate</t>
+  </si>
+  <si>
+    <t>10.20517/microstructures.2024.2</t>
+  </si>
 </sst>
 </file>
 
@@ -635,7 +668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1422,11 +1455,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1722,6 +1766,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2884,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -5678,20 +5725,48 @@
       <c r="T62" s="59"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
-      <c r="A63" s="52"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="52"/>
+      <c r="A63" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I63" s="56">
+        <v>298</v>
+      </c>
+      <c r="J63" s="71">
+        <v>771000000</v>
+      </c>
+      <c r="K63" s="71">
+        <v>8500000</v>
+      </c>
+      <c r="L63" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N63" s="52" t="s">
+        <v>121</v>
+      </c>
       <c r="O63" s="68"/>
       <c r="P63" s="68"/>
       <c r="Q63" s="68"/>
@@ -5700,20 +5775,48 @@
       <c r="T63" s="59"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="52"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="72"/>
-      <c r="N64" s="52"/>
+      <c r="A64" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I64" s="56">
+        <v>298</v>
+      </c>
+      <c r="J64" s="71">
+        <v>818000000</v>
+      </c>
+      <c r="K64" s="71">
+        <v>7000000</v>
+      </c>
+      <c r="L64" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="M64" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N64" s="52" t="s">
+        <v>121</v>
+      </c>
       <c r="O64" s="68"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="68"/>
@@ -5722,20 +5825,46 @@
       <c r="T64" s="59"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
-      <c r="A65" s="52"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="71"/>
+      <c r="A65" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I65" s="56">
+        <v>298</v>
+      </c>
+      <c r="J65" s="71">
+        <v>791000000</v>
+      </c>
       <c r="K65" s="71"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="72"/>
-      <c r="N65" s="52"/>
+      <c r="L65" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="M65" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N65" s="52" t="s">
+        <v>121</v>
+      </c>
       <c r="O65" s="68"/>
       <c r="P65" s="68"/>
       <c r="Q65" s="68"/>
@@ -5744,20 +5873,46 @@
       <c r="T65" s="59"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="52"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="68"/>
+      <c r="A66" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I66" s="56">
+        <v>298</v>
+      </c>
+      <c r="J66" s="134">
+        <v>863000000</v>
+      </c>
       <c r="K66" s="69"/>
-      <c r="L66" s="72"/>
-      <c r="M66" s="72"/>
-      <c r="N66" s="52"/>
+      <c r="L66" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="M66" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N66" s="52" t="s">
+        <v>121</v>
+      </c>
       <c r="O66" s="68"/>
       <c r="P66" s="68"/>
       <c r="Q66" s="68"/>
@@ -5766,20 +5921,48 @@
       <c r="T66" s="59"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="52"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="52"/>
+      <c r="A67" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I67" s="56">
+        <v>298</v>
+      </c>
+      <c r="J67" s="68">
+        <v>19.8</v>
+      </c>
+      <c r="K67" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="L67" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="M67" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N67" s="52" t="s">
+        <v>121</v>
+      </c>
       <c r="O67" s="68"/>
       <c r="P67" s="68"/>
       <c r="Q67" s="68"/>
@@ -5788,20 +5971,48 @@
       <c r="T67" s="59"/>
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
-      <c r="A68" s="52"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="72"/>
-      <c r="N68" s="52"/>
+      <c r="A68" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I68" s="56">
+        <v>298</v>
+      </c>
+      <c r="J68" s="68">
+        <v>25.8</v>
+      </c>
+      <c r="K68" s="69">
+        <v>1</v>
+      </c>
+      <c r="L68" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="M68" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N68" s="52" t="s">
+        <v>121</v>
+      </c>
       <c r="O68" s="68"/>
       <c r="P68" s="68"/>
       <c r="Q68" s="68"/>
@@ -5810,20 +6021,48 @@
       <c r="T68" s="59"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="52"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="72"/>
-      <c r="M69" s="72"/>
-      <c r="N69" s="52"/>
+      <c r="A69" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G69" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I69" s="56">
+        <v>298</v>
+      </c>
+      <c r="J69" s="68">
+        <v>1.5</v>
+      </c>
+      <c r="K69" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="L69" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="M69" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N69" s="52" t="s">
+        <v>121</v>
+      </c>
       <c r="O69" s="68"/>
       <c r="P69" s="68"/>
       <c r="Q69" s="68"/>
@@ -5832,20 +6071,48 @@
       <c r="T69" s="59"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="52"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="73"/>
-      <c r="J70" s="68"/>
-      <c r="K70" s="69"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="52"/>
+      <c r="A70" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I70" s="56">
+        <v>298</v>
+      </c>
+      <c r="J70" s="68">
+        <v>12.2</v>
+      </c>
+      <c r="K70" s="69">
+        <v>4</v>
+      </c>
+      <c r="L70" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="M70" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="N70" s="52" t="s">
+        <v>121</v>
+      </c>
       <c r="O70" s="68"/>
       <c r="P70" s="68"/>
       <c r="Q70" s="68"/>

--- a/MiscSmallUploads_Apr2025.xlsx
+++ b/MiscSmallUploads_Apr2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3087820-0486-D141-BC17-B57799C739B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4AA935-5BAF-9241-8B1D-79E5BD21225D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3540" windowWidth="27720" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="6820" windowWidth="27720" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="135">
   <si>
     <r>
       <rPr>
@@ -321,6 +321,9 @@
     <t>hardness</t>
   </si>
   <si>
+    <t>AAM</t>
+  </si>
+  <si>
     <t>BCC</t>
   </si>
   <si>
@@ -354,10 +357,25 @@
     <t>UTS</t>
   </si>
   <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F6b</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
     <t>FCC</t>
   </si>
   <si>
     <t>FCC+BCC</t>
+  </si>
+  <si>
+    <t>F7</t>
   </si>
   <si>
     <t>Nb3Cr2Ti0.9W0.4Fe6</t>
@@ -496,6 +514,27 @@
   </si>
   <si>
     <t>10.20517/microstructures.2024.2</t>
+  </si>
+  <si>
+    <t>Ti50 V40 Cr5 Al5</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>1/K</t>
+  </si>
+  <si>
+    <t>CTE</t>
+  </si>
+  <si>
+    <t>thermal conductivity</t>
+  </si>
+  <si>
+    <t>W/(m*K)</t>
+  </si>
+  <si>
+    <t>10.1016/j.vacuum.2025.114110</t>
   </si>
 </sst>
 </file>
@@ -2931,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98:H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3184,7 +3223,7 @@
       </c>
       <c r="O7" s="94"/>
       <c r="P7" s="95" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="95" t="s">
         <v>36</v>
@@ -3290,13 +3329,13 @@
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="52"/>
       <c r="B10" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C10" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="99" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E10" s="98"/>
       <c r="F10" s="100" t="s">
@@ -3318,10 +3357,10 @@
         <v>33</v>
       </c>
       <c r="M10" s="100" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N10" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O10" s="105"/>
       <c r="P10" s="106">
@@ -3335,17 +3374,17 @@
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="52"/>
       <c r="B11" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="99" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="100" t="s">
         <v>29</v>
@@ -3362,10 +3401,10 @@
         <v>33</v>
       </c>
       <c r="M11" s="54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N11" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O11" s="59"/>
       <c r="P11" s="60"/>
@@ -3377,17 +3416,17 @@
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="52"/>
       <c r="B12" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C12" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="99" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="100" t="s">
         <v>29</v>
@@ -3404,10 +3443,10 @@
         <v>33</v>
       </c>
       <c r="M12" s="54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N12" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O12" s="59"/>
       <c r="P12" s="60"/>
@@ -3419,17 +3458,17 @@
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="52"/>
       <c r="B13" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C13" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="99" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="100" t="s">
         <v>29</v>
@@ -3443,13 +3482,13 @@
       </c>
       <c r="K13" s="57"/>
       <c r="L13" s="100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N13" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O13" s="59"/>
       <c r="P13" s="60"/>
@@ -3461,17 +3500,17 @@
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="52"/>
       <c r="B14" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="100" t="s">
         <v>29</v>
@@ -3488,10 +3527,10 @@
         <v>33</v>
       </c>
       <c r="M14" s="54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N14" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O14" s="59"/>
       <c r="P14" s="60"/>
@@ -3503,17 +3542,17 @@
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="52"/>
       <c r="B15" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C15" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="99" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" s="100" t="s">
         <v>29</v>
@@ -3530,10 +3569,10 @@
         <v>33</v>
       </c>
       <c r="M15" s="54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N15" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O15" s="59"/>
       <c r="P15" s="59"/>
@@ -3545,17 +3584,17 @@
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="52"/>
       <c r="B16" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="99" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" s="100" t="s">
         <v>29</v>
@@ -3569,13 +3608,13 @@
       </c>
       <c r="K16" s="60"/>
       <c r="L16" s="100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M16" s="54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N16" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
@@ -3587,23 +3626,23 @@
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="60"/>
       <c r="B17" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C17" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="99" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="100" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I17" s="56">
         <v>1273</v>
@@ -3616,10 +3655,10 @@
         <v>33</v>
       </c>
       <c r="M17" s="54" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="N17" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
@@ -3631,23 +3670,23 @@
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="60"/>
       <c r="B18" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C18" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="99" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" s="100" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I18" s="56">
         <v>1273</v>
@@ -3660,10 +3699,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="54" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="N18" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
@@ -3675,23 +3714,23 @@
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="60"/>
       <c r="B19" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="100" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I19" s="56">
         <v>1273</v>
@@ -3701,13 +3740,13 @@
       </c>
       <c r="K19" s="60"/>
       <c r="L19" s="100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M19" s="54" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="N19" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
@@ -3719,23 +3758,23 @@
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="60"/>
       <c r="B20" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" s="100" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I20" s="56">
         <v>1423</v>
@@ -3748,10 +3787,10 @@
         <v>33</v>
       </c>
       <c r="M20" s="54" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="N20" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
@@ -3763,23 +3802,23 @@
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="60"/>
       <c r="B21" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="99" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G21" s="100" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I21" s="56">
         <v>1423</v>
@@ -3792,10 +3831,10 @@
         <v>33</v>
       </c>
       <c r="M21" s="54" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="N21" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
@@ -3807,23 +3846,23 @@
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="60"/>
       <c r="B22" s="98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="99" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E22" s="53"/>
       <c r="F22" s="54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G22" s="100" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I22" s="56">
         <v>1423</v>
@@ -3833,13 +3872,13 @@
       </c>
       <c r="K22" s="57"/>
       <c r="L22" s="100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M22" s="54" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="N22" s="104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
@@ -3850,22 +3889,22 @@
     </row>
     <row r="23" spans="1:20" ht="18.75" customHeight="1">
       <c r="A23" s="52" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>29</v>
@@ -3886,10 +3925,10 @@
         <v>33</v>
       </c>
       <c r="M23" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N23" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
@@ -3904,22 +3943,22 @@
     </row>
     <row r="24" spans="1:20" ht="18.75" customHeight="1">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F24" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>29</v>
@@ -3940,10 +3979,10 @@
         <v>33</v>
       </c>
       <c r="M24" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N24" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
@@ -3958,22 +3997,22 @@
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>29</v>
@@ -3994,10 +4033,10 @@
         <v>33</v>
       </c>
       <c r="M25" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N25" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O25" s="59"/>
       <c r="P25" s="60"/>
@@ -4012,22 +4051,22 @@
     </row>
     <row r="26" spans="1:20" ht="18.75" customHeight="1">
       <c r="A26" s="52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>29</v>
@@ -4048,10 +4087,10 @@
         <v>33</v>
       </c>
       <c r="M26" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N26" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O26" s="59"/>
       <c r="P26" s="65"/>
@@ -4066,22 +4105,22 @@
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1">
       <c r="A27" s="52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F27" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" s="54" t="s">
         <v>29</v>
@@ -4102,10 +4141,10 @@
         <v>33</v>
       </c>
       <c r="M27" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N27" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O27" s="59"/>
       <c r="P27" s="65"/>
@@ -4120,22 +4159,22 @@
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1">
       <c r="A28" s="52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G28" s="54" t="s">
         <v>29</v>
@@ -4156,10 +4195,10 @@
         <v>33</v>
       </c>
       <c r="M28" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N28" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O28" s="59"/>
       <c r="P28" s="65"/>
@@ -4174,22 +4213,22 @@
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1">
       <c r="A29" s="52" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" s="54" t="s">
         <v>29</v>
@@ -4210,10 +4249,10 @@
         <v>33</v>
       </c>
       <c r="M29" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N29" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O29" s="59"/>
       <c r="P29" s="65"/>
@@ -4228,22 +4267,22 @@
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1">
       <c r="A30" s="52" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C30" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="54" t="s">
         <v>74</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>73</v>
       </c>
       <c r="G30" s="54" t="s">
         <v>29</v>
@@ -4264,10 +4303,10 @@
         <v>33</v>
       </c>
       <c r="M30" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N30" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O30" s="59"/>
       <c r="P30" s="65"/>
@@ -4282,22 +4321,22 @@
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1">
       <c r="A31" s="52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G31" s="54" t="s">
         <v>29</v>
@@ -4318,10 +4357,10 @@
         <v>33</v>
       </c>
       <c r="M31" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N31" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O31" s="59"/>
       <c r="P31" s="65"/>
@@ -4336,22 +4375,22 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1">
       <c r="A32" s="52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C32" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="54" t="s">
         <v>74</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>73</v>
       </c>
       <c r="G32" s="54" t="s">
         <v>29</v>
@@ -4372,10 +4411,10 @@
         <v>33</v>
       </c>
       <c r="M32" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N32" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O32" s="59"/>
       <c r="P32" s="65"/>
@@ -4390,22 +4429,22 @@
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1">
       <c r="A33" s="52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F33" s="54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G33" s="54" t="s">
         <v>29</v>
@@ -4426,10 +4465,10 @@
         <v>33</v>
       </c>
       <c r="M33" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N33" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O33" s="59"/>
       <c r="P33" s="65"/>
@@ -4444,22 +4483,22 @@
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1">
       <c r="A34" s="52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C34" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="54" t="s">
         <v>74</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="54" t="s">
-        <v>73</v>
       </c>
       <c r="G34" s="54" t="s">
         <v>29</v>
@@ -4480,10 +4519,10 @@
         <v>33</v>
       </c>
       <c r="M34" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N34" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O34" s="59"/>
       <c r="P34" s="60"/>
@@ -4498,22 +4537,22 @@
     </row>
     <row r="35" spans="1:20" ht="18.75" customHeight="1">
       <c r="A35" s="52" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F35" s="54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G35" s="54" t="s">
         <v>29</v>
@@ -4529,13 +4568,13 @@
         <v>1</v>
       </c>
       <c r="L35" s="54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M35" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N35" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O35" s="59"/>
       <c r="P35" s="60"/>
@@ -4546,22 +4585,22 @@
     </row>
     <row r="36" spans="1:20" ht="18.75" customHeight="1">
       <c r="A36" s="52" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F36" s="54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G36" s="54" t="s">
         <v>29</v>
@@ -4577,13 +4616,13 @@
         <v>3</v>
       </c>
       <c r="L36" s="54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M36" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N36" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O36" s="59"/>
       <c r="P36" s="60"/>
@@ -4594,22 +4633,22 @@
     </row>
     <row r="37" spans="1:20" ht="18.75" customHeight="1">
       <c r="A37" s="52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F37" s="54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G37" s="54" t="s">
         <v>29</v>
@@ -4625,13 +4664,13 @@
         <v>1</v>
       </c>
       <c r="L37" s="54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M37" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N37" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O37" s="59"/>
       <c r="P37" s="60"/>
@@ -4642,22 +4681,22 @@
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1">
       <c r="A38" s="52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F38" s="54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G38" s="54" t="s">
         <v>29</v>
@@ -4673,13 +4712,13 @@
         <v>3</v>
       </c>
       <c r="L38" s="54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M38" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N38" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O38" s="68"/>
       <c r="P38" s="61"/>
@@ -4690,22 +4729,22 @@
     </row>
     <row r="39" spans="1:20" ht="18.75" customHeight="1">
       <c r="A39" s="52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F39" s="54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G39" s="54" t="s">
         <v>29</v>
@@ -4721,13 +4760,13 @@
         <v>1</v>
       </c>
       <c r="L39" s="54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M39" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N39" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O39" s="68"/>
       <c r="P39" s="61"/>
@@ -4738,22 +4777,22 @@
     </row>
     <row r="40" spans="1:20" ht="18.75" customHeight="1">
       <c r="A40" s="52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B40" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F40" s="54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G40" s="54" t="s">
         <v>29</v>
@@ -4769,13 +4808,13 @@
         <v>3</v>
       </c>
       <c r="L40" s="54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M40" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N40" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O40" s="68"/>
       <c r="P40" s="61"/>
@@ -4786,22 +4825,22 @@
     </row>
     <row r="41" spans="1:20" ht="18.75" customHeight="1">
       <c r="A41" s="52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E41" s="53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F41" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G41" s="54" t="s">
         <v>29</v>
@@ -4818,10 +4857,10 @@
         <v>33</v>
       </c>
       <c r="M41" s="54" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N41" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O41" s="68"/>
       <c r="P41" s="61"/>
@@ -4832,22 +4871,22 @@
     </row>
     <row r="42" spans="1:20" ht="18.75" customHeight="1">
       <c r="A42" s="52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F42" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G42" s="54" t="s">
         <v>29</v>
@@ -4864,10 +4903,10 @@
         <v>33</v>
       </c>
       <c r="M42" s="54" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N42" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O42" s="68"/>
       <c r="P42" s="69"/>
@@ -4878,22 +4917,22 @@
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F43" s="54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G43" s="54" t="s">
         <v>29</v>
@@ -4910,10 +4949,10 @@
         <v>33</v>
       </c>
       <c r="M43" s="54" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N43" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O43" s="68"/>
       <c r="P43" s="69"/>
@@ -4924,22 +4963,22 @@
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C44" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="54" t="s">
         <v>74</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="54" t="s">
-        <v>73</v>
       </c>
       <c r="G44" s="54" t="s">
         <v>29</v>
@@ -4956,10 +4995,10 @@
         <v>33</v>
       </c>
       <c r="M44" s="54" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N44" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O44" s="68"/>
       <c r="P44" s="68"/>
@@ -4970,22 +5009,22 @@
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E45" s="53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F45" s="54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G45" s="54" t="s">
         <v>29</v>
@@ -4999,13 +5038,13 @@
       </c>
       <c r="K45" s="71"/>
       <c r="L45" s="54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M45" s="54" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N45" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O45" s="68"/>
       <c r="P45" s="68"/>
@@ -5016,22 +5055,22 @@
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F46" s="54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G46" s="54" t="s">
         <v>29</v>
@@ -5045,13 +5084,13 @@
       </c>
       <c r="K46" s="71"/>
       <c r="L46" s="54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M46" s="54" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N46" s="58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O46" s="68"/>
       <c r="P46" s="68"/>
@@ -5063,16 +5102,16 @@
     <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="52"/>
       <c r="B47" s="53" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F47" s="70"/>
       <c r="G47" s="54"/>
@@ -5082,10 +5121,10 @@
       <c r="K47" s="71"/>
       <c r="L47" s="54"/>
       <c r="M47" s="72" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N47" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O47" s="68"/>
       <c r="P47" s="68"/>
@@ -5097,16 +5136,16 @@
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="52"/>
       <c r="B48" s="53" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F48" s="70"/>
       <c r="G48" s="54"/>
@@ -5116,10 +5155,10 @@
       <c r="K48" s="71"/>
       <c r="L48" s="54"/>
       <c r="M48" s="72" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="N48" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O48" s="68"/>
       <c r="P48" s="68"/>
@@ -5131,16 +5170,16 @@
     <row r="49" spans="1:20" ht="18" customHeight="1">
       <c r="A49" s="52"/>
       <c r="B49" s="53" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F49" s="70"/>
       <c r="G49" s="54"/>
@@ -5150,10 +5189,10 @@
       <c r="K49" s="71"/>
       <c r="L49" s="54"/>
       <c r="M49" s="72" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N49" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O49" s="68"/>
       <c r="P49" s="68"/>
@@ -5165,16 +5204,16 @@
     <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="52"/>
       <c r="B50" s="53" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F50" s="70"/>
       <c r="G50" s="54"/>
@@ -5184,10 +5223,10 @@
       <c r="K50" s="71"/>
       <c r="L50" s="54"/>
       <c r="M50" s="72" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N50" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O50" s="68"/>
       <c r="P50" s="68"/>
@@ -5199,19 +5238,19 @@
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="52"/>
       <c r="B51" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G51" s="54" t="s">
         <v>29</v>
@@ -5228,10 +5267,10 @@
         <v>33</v>
       </c>
       <c r="M51" s="72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N51" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O51" s="68"/>
       <c r="P51" s="68"/>
@@ -5243,19 +5282,19 @@
     <row r="52" spans="1:20" ht="18" customHeight="1">
       <c r="A52" s="52"/>
       <c r="B52" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G52" s="54" t="s">
         <v>29</v>
@@ -5272,10 +5311,10 @@
         <v>33</v>
       </c>
       <c r="M52" s="72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N52" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O52" s="68"/>
       <c r="P52" s="69"/>
@@ -5287,19 +5326,19 @@
     <row r="53" spans="1:20" ht="18" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F53" s="70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G53" s="54" t="s">
         <v>29</v>
@@ -5316,10 +5355,10 @@
         <v>33</v>
       </c>
       <c r="M53" s="72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N53" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O53" s="68"/>
       <c r="P53" s="69"/>
@@ -5331,19 +5370,19 @@
     <row r="54" spans="1:20" ht="18" customHeight="1">
       <c r="A54" s="52"/>
       <c r="B54" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G54" s="54" t="s">
         <v>29</v>
@@ -5360,10 +5399,10 @@
         <v>33</v>
       </c>
       <c r="M54" s="72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N54" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O54" s="68"/>
       <c r="P54" s="69"/>
@@ -5375,19 +5414,19 @@
     <row r="55" spans="1:20" ht="18" customHeight="1">
       <c r="A55" s="52"/>
       <c r="B55" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="70" t="s">
         <v>68</v>
-      </c>
-      <c r="E55" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="F55" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="G55" s="54" t="s">
         <v>29</v>
@@ -5404,10 +5443,10 @@
         <v>33</v>
       </c>
       <c r="M55" s="72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N55" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O55" s="68"/>
       <c r="P55" s="69"/>
@@ -5419,19 +5458,19 @@
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="52"/>
       <c r="B56" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D56" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="70" t="s">
         <v>68</v>
-      </c>
-      <c r="E56" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="G56" s="54" t="s">
         <v>29</v>
@@ -5448,10 +5487,10 @@
         <v>33</v>
       </c>
       <c r="M56" s="72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N56" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O56" s="68"/>
       <c r="P56" s="68"/>
@@ -5463,19 +5502,19 @@
     <row r="57" spans="1:20" ht="18" customHeight="1">
       <c r="A57" s="52"/>
       <c r="B57" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D57" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="70" t="s">
         <v>68</v>
-      </c>
-      <c r="E57" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="G57" s="54" t="s">
         <v>29</v>
@@ -5492,10 +5531,10 @@
         <v>33</v>
       </c>
       <c r="M57" s="72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N57" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O57" s="68"/>
       <c r="P57" s="68"/>
@@ -5507,19 +5546,19 @@
     <row r="58" spans="1:20" ht="18" customHeight="1">
       <c r="A58" s="52"/>
       <c r="B58" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="70" t="s">
         <v>68</v>
-      </c>
-      <c r="E58" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="G58" s="54" t="s">
         <v>29</v>
@@ -5536,10 +5575,10 @@
         <v>33</v>
       </c>
       <c r="M58" s="72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N58" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O58" s="68"/>
       <c r="P58" s="68"/>
@@ -5551,19 +5590,19 @@
     <row r="59" spans="1:20" ht="18" customHeight="1">
       <c r="A59" s="52"/>
       <c r="B59" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F59" s="70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G59" s="54" t="s">
         <v>29</v>
@@ -5577,13 +5616,13 @@
       </c>
       <c r="K59" s="71"/>
       <c r="L59" s="72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M59" s="72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N59" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O59" s="68"/>
       <c r="P59" s="68"/>
@@ -5595,19 +5634,19 @@
     <row r="60" spans="1:20" ht="18" customHeight="1">
       <c r="A60" s="52"/>
       <c r="B60" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F60" s="70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G60" s="54" t="s">
         <v>29</v>
@@ -5621,13 +5660,13 @@
       </c>
       <c r="K60" s="71"/>
       <c r="L60" s="72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M60" s="72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N60" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O60" s="68"/>
       <c r="P60" s="68"/>
@@ -5639,19 +5678,19 @@
     <row r="61" spans="1:20" ht="18" customHeight="1">
       <c r="A61" s="52"/>
       <c r="B61" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F61" s="70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G61" s="54" t="s">
         <v>29</v>
@@ -5665,13 +5704,13 @@
       </c>
       <c r="K61" s="71"/>
       <c r="L61" s="72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M61" s="72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N61" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O61" s="68"/>
       <c r="P61" s="68"/>
@@ -5683,19 +5722,19 @@
     <row r="62" spans="1:20" ht="18" customHeight="1">
       <c r="A62" s="52"/>
       <c r="B62" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F62" s="70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G62" s="54" t="s">
         <v>29</v>
@@ -5709,13 +5748,13 @@
       </c>
       <c r="K62" s="71"/>
       <c r="L62" s="72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M62" s="72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N62" s="52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O62" s="68"/>
       <c r="P62" s="68"/>
@@ -5726,28 +5765,28 @@
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
       <c r="A63" s="52" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B63" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F63" s="70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G63" s="54" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="55" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I63" s="56">
         <v>298</v>
@@ -5762,10 +5801,10 @@
         <v>33</v>
       </c>
       <c r="M63" s="72" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N63" s="52" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O63" s="68"/>
       <c r="P63" s="68"/>
@@ -5776,28 +5815,28 @@
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
       <c r="A64" s="52" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B64" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F64" s="70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G64" s="54" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="55" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I64" s="56">
         <v>298</v>
@@ -5812,10 +5851,10 @@
         <v>33</v>
       </c>
       <c r="M64" s="72" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N64" s="52" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O64" s="68"/>
       <c r="P64" s="68"/>
@@ -5826,28 +5865,28 @@
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
       <c r="A65" s="52" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B65" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C65" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F65" s="70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G65" s="54" t="s">
         <v>29</v>
       </c>
       <c r="H65" s="55" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I65" s="56">
         <v>298</v>
@@ -5860,10 +5899,10 @@
         <v>33</v>
       </c>
       <c r="M65" s="72" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N65" s="52" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O65" s="68"/>
       <c r="P65" s="68"/>
@@ -5874,28 +5913,28 @@
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
       <c r="A66" s="52" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B66" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E66" s="53" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F66" s="70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G66" s="54" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="55" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I66" s="56">
         <v>298</v>
@@ -5908,10 +5947,10 @@
         <v>33</v>
       </c>
       <c r="M66" s="72" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N66" s="52" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O66" s="68"/>
       <c r="P66" s="68"/>
@@ -5922,28 +5961,28 @@
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
       <c r="A67" s="52" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B67" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E67" s="53" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F67" s="70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G67" s="54" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="55" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I67" s="56">
         <v>298</v>
@@ -5955,13 +5994,13 @@
         <v>1.2</v>
       </c>
       <c r="L67" s="135" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M67" s="72" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N67" s="52" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O67" s="68"/>
       <c r="P67" s="68"/>
@@ -5972,28 +6011,28 @@
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
       <c r="A68" s="52" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B68" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E68" s="53" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F68" s="70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G68" s="54" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="55" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I68" s="56">
         <v>298</v>
@@ -6005,13 +6044,13 @@
         <v>1</v>
       </c>
       <c r="L68" s="135" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M68" s="72" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N68" s="52" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O68" s="68"/>
       <c r="P68" s="68"/>
@@ -6022,28 +6061,28 @@
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
       <c r="A69" s="52" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B69" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E69" s="53" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F69" s="70" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G69" s="54" t="s">
         <v>29</v>
       </c>
       <c r="H69" s="55" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I69" s="56">
         <v>298</v>
@@ -6055,13 +6094,13 @@
         <v>0.2</v>
       </c>
       <c r="L69" s="135" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M69" s="72" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N69" s="52" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O69" s="68"/>
       <c r="P69" s="68"/>
@@ -6072,28 +6111,28 @@
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
       <c r="A70" s="52" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C70" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E70" s="53" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G70" s="54" t="s">
         <v>29</v>
       </c>
       <c r="H70" s="55" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I70" s="56">
         <v>298</v>
@@ -6105,13 +6144,13 @@
         <v>4</v>
       </c>
       <c r="L70" s="135" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M70" s="72" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N70" s="52" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O70" s="68"/>
       <c r="P70" s="68"/>
@@ -6122,21 +6161,40 @@
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
       <c r="A71" s="52"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
+      <c r="B71" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E71" s="53"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="54"/>
+      <c r="F71" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H71" s="55"/>
-      <c r="I71" s="73"/>
-      <c r="J71" s="68"/>
+      <c r="I71" s="73">
+        <v>298</v>
+      </c>
+      <c r="J71" s="68">
+        <v>5090</v>
+      </c>
       <c r="K71" s="69"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="52"/>
+      <c r="L71" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="M71" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="N71" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O71" s="68"/>
-      <c r="P71" s="68"/>
       <c r="Q71" s="68"/>
       <c r="R71" s="68"/>
       <c r="S71" s="59"/>
@@ -6144,21 +6202,44 @@
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
       <c r="A72" s="52"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
+      <c r="B72" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E72" s="53"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="54"/>
+      <c r="F72" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H72" s="55"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="68"/>
+      <c r="I72" s="73">
+        <v>300</v>
+      </c>
+      <c r="J72" s="68">
+        <f>P72*0.000001</f>
+        <v>3.6409861325115499E-6</v>
+      </c>
       <c r="K72" s="69"/>
-      <c r="L72" s="72"/>
-      <c r="M72" s="72"/>
-      <c r="N72" s="52"/>
+      <c r="L72" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="M72" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="N72" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O72" s="68"/>
-      <c r="P72" s="68"/>
+      <c r="P72" s="69">
+        <v>3.64098613251155</v>
+      </c>
       <c r="Q72" s="68"/>
       <c r="R72" s="68"/>
       <c r="S72" s="59"/>
@@ -6166,21 +6247,44 @@
     </row>
     <row r="73" spans="1:20" ht="18" customHeight="1">
       <c r="A73" s="52"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="52"/>
+      <c r="B73" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E73" s="53"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="54"/>
+      <c r="F73" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H73" s="55"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="68"/>
+      <c r="I73" s="73">
+        <v>343</v>
+      </c>
+      <c r="J73" s="68">
+        <f t="shared" ref="J73:J78" si="1">P73*0.000001</f>
+        <v>6.9568567026194099E-6</v>
+      </c>
       <c r="K73" s="69"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="52"/>
+      <c r="L73" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="M73" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="N73" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O73" s="68"/>
-      <c r="P73" s="68"/>
+      <c r="P73" s="71">
+        <v>6.9568567026194099</v>
+      </c>
       <c r="Q73" s="68"/>
       <c r="R73" s="68"/>
       <c r="S73" s="59"/>
@@ -6188,21 +6292,44 @@
     </row>
     <row r="74" spans="1:20" ht="18" customHeight="1">
       <c r="A74" s="52"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
+      <c r="B74" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E74" s="53"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="54"/>
+      <c r="F74" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H74" s="55"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="68"/>
+      <c r="I74" s="73">
+        <v>400</v>
+      </c>
+      <c r="J74" s="68">
+        <f t="shared" si="1"/>
+        <v>8.3620955315870497E-6</v>
+      </c>
       <c r="K74" s="69"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="72"/>
-      <c r="N74" s="52"/>
+      <c r="L74" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="M74" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="N74" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O74" s="68"/>
-      <c r="P74" s="68"/>
+      <c r="P74" s="71">
+        <v>8.36209553158705</v>
+      </c>
       <c r="Q74" s="68"/>
       <c r="R74" s="68"/>
       <c r="S74" s="59"/>
@@ -6210,21 +6337,44 @@
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
       <c r="A75" s="52"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="52"/>
+      <c r="B75" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E75" s="53"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="54"/>
+      <c r="F75" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H75" s="55"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="69"/>
+      <c r="I75" s="73">
+        <v>500</v>
+      </c>
+      <c r="J75" s="68">
+        <f t="shared" si="1"/>
+        <v>9.2865947611710288E-6</v>
+      </c>
       <c r="K75" s="69"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="72"/>
-      <c r="N75" s="52"/>
+      <c r="L75" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="M75" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="N75" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O75" s="68"/>
-      <c r="P75" s="68"/>
+      <c r="P75" s="71">
+        <v>9.2865947611710293</v>
+      </c>
       <c r="Q75" s="61"/>
       <c r="R75" s="68"/>
       <c r="S75" s="59"/>
@@ -6232,21 +6382,44 @@
     </row>
     <row r="76" spans="1:20" ht="18" customHeight="1">
       <c r="A76" s="52"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
+      <c r="B76" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E76" s="53"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="54"/>
+      <c r="F76" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H76" s="55"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="69"/>
+      <c r="I76" s="73">
+        <v>700</v>
+      </c>
+      <c r="J76" s="68">
+        <f t="shared" si="1"/>
+        <v>1.0124807395993799E-5</v>
+      </c>
       <c r="K76" s="52"/>
-      <c r="L76" s="72"/>
-      <c r="M76" s="72"/>
-      <c r="N76" s="52"/>
+      <c r="L76" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="M76" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="N76" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O76" s="68"/>
-      <c r="P76" s="68"/>
+      <c r="P76" s="71">
+        <v>10.1248073959938</v>
+      </c>
       <c r="Q76" s="61"/>
       <c r="R76" s="68"/>
       <c r="S76" s="59"/>
@@ -6254,21 +6427,44 @@
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
       <c r="A77" s="52"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
+      <c r="B77" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E77" s="53"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="54"/>
+      <c r="F77" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="G77" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H77" s="55"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="69"/>
+      <c r="I77" s="73">
+        <v>900</v>
+      </c>
+      <c r="J77" s="68">
+        <f t="shared" si="1"/>
+        <v>1.0679506933744199E-5</v>
+      </c>
       <c r="K77" s="69"/>
-      <c r="L77" s="72"/>
-      <c r="M77" s="72"/>
-      <c r="N77" s="52"/>
+      <c r="L77" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="M77" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="N77" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O77" s="68"/>
-      <c r="P77" s="68"/>
+      <c r="P77" s="71">
+        <v>10.6795069337442</v>
+      </c>
       <c r="Q77" s="61"/>
       <c r="R77" s="68"/>
       <c r="S77" s="59"/>
@@ -6276,21 +6472,44 @@
     </row>
     <row r="78" spans="1:20" ht="18" customHeight="1">
       <c r="A78" s="52"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
+      <c r="B78" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E78" s="53"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="54"/>
+      <c r="F78" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="G78" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H78" s="55"/>
-      <c r="I78" s="73"/>
-      <c r="J78" s="69"/>
+      <c r="I78" s="73">
+        <v>1100</v>
+      </c>
+      <c r="J78" s="68">
+        <f t="shared" si="1"/>
+        <v>1.1727272727272699E-5</v>
+      </c>
       <c r="K78" s="69"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="72"/>
-      <c r="N78" s="52"/>
+      <c r="L78" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="M78" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="N78" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O78" s="68"/>
-      <c r="P78" s="68"/>
+      <c r="P78" s="71">
+        <v>11.7272727272727</v>
+      </c>
       <c r="Q78" s="61"/>
       <c r="R78" s="68"/>
       <c r="S78" s="59"/>
@@ -6298,19 +6517,40 @@
     </row>
     <row r="79" spans="1:20" ht="18" customHeight="1">
       <c r="A79" s="52"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
+      <c r="B79" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E79" s="53"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="54"/>
+      <c r="F79" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="G79" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H79" s="55"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="69"/>
-      <c r="K79" s="52"/>
-      <c r="L79" s="72"/>
-      <c r="M79" s="72"/>
-      <c r="N79" s="52"/>
+      <c r="I79" s="56">
+        <f>550+273</f>
+        <v>823</v>
+      </c>
+      <c r="J79" s="71">
+        <v>30</v>
+      </c>
+      <c r="K79" s="71"/>
+      <c r="L79" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="M79" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="N79" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O79" s="68"/>
       <c r="P79" s="68"/>
       <c r="Q79" s="61"/>
@@ -6320,19 +6560,40 @@
     </row>
     <row r="80" spans="1:20" ht="18" customHeight="1">
       <c r="A80" s="52"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
+      <c r="B80" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E80" s="53"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="54"/>
+      <c r="F80" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="G80" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H80" s="55"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="69"/>
-      <c r="L80" s="72"/>
-      <c r="M80" s="72"/>
-      <c r="N80" s="52"/>
+      <c r="I80" s="56">
+        <f>600+273</f>
+        <v>873</v>
+      </c>
+      <c r="J80" s="57">
+        <v>30.6</v>
+      </c>
+      <c r="K80" s="57"/>
+      <c r="L80" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="M80" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="N80" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O80" s="68"/>
       <c r="P80" s="61"/>
       <c r="Q80" s="61"/>
@@ -6342,19 +6603,40 @@
     </row>
     <row r="81" spans="1:20" ht="18" customHeight="1">
       <c r="A81" s="52"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="52"/>
+      <c r="B81" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E81" s="53"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="54"/>
+      <c r="F81" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="H81" s="55"/>
-      <c r="I81" s="73"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="69"/>
-      <c r="L81" s="72"/>
-      <c r="M81" s="72"/>
-      <c r="N81" s="52"/>
+      <c r="I81" s="56">
+        <f>650+273</f>
+        <v>923</v>
+      </c>
+      <c r="J81" s="57">
+        <v>31.3</v>
+      </c>
+      <c r="K81" s="57"/>
+      <c r="L81" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="M81" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="N81" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O81" s="68"/>
       <c r="P81" s="61"/>
       <c r="Q81" s="61"/>
@@ -6364,19 +6646,41 @@
     </row>
     <row r="82" spans="1:20" ht="18" customHeight="1">
       <c r="A82" s="52"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
+      <c r="B82" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E82" s="53"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="73"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="69"/>
-      <c r="L82" s="72"/>
-      <c r="M82" s="72"/>
-      <c r="N82" s="52"/>
+      <c r="F82" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G82" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I82" s="56">
+        <v>298</v>
+      </c>
+      <c r="J82" s="57">
+        <v>796000000</v>
+      </c>
+      <c r="K82" s="57"/>
+      <c r="L82" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M82" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="N82" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O82" s="68"/>
       <c r="P82" s="61"/>
       <c r="Q82" s="61"/>
@@ -6386,19 +6690,41 @@
     </row>
     <row r="83" spans="1:20" ht="18" customHeight="1">
       <c r="A83" s="52"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
+      <c r="B83" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E83" s="53"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="69"/>
-      <c r="L83" s="72"/>
-      <c r="M83" s="72"/>
-      <c r="N83" s="52"/>
+      <c r="F83" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G83" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I83" s="56">
+        <v>673</v>
+      </c>
+      <c r="J83" s="57">
+        <v>598000000</v>
+      </c>
+      <c r="K83" s="57"/>
+      <c r="L83" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M83" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="N83" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O83" s="68"/>
       <c r="P83" s="61"/>
       <c r="Q83" s="61"/>
@@ -6408,19 +6734,41 @@
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1">
       <c r="A84" s="52"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="52"/>
+      <c r="B84" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E84" s="53"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="71"/>
-      <c r="L84" s="72"/>
-      <c r="M84" s="72"/>
-      <c r="N84" s="52"/>
+      <c r="F84" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G84" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I84" s="56">
+        <v>873</v>
+      </c>
+      <c r="J84" s="57">
+        <v>586000000</v>
+      </c>
+      <c r="K84" s="57"/>
+      <c r="L84" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M84" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="N84" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O84" s="68"/>
       <c r="P84" s="61"/>
       <c r="Q84" s="61"/>
@@ -6430,19 +6778,41 @@
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1">
       <c r="A85" s="52"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
+      <c r="B85" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E85" s="53"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="71"/>
-      <c r="L85" s="72"/>
-      <c r="M85" s="72"/>
-      <c r="N85" s="52"/>
+      <c r="F85" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G85" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I85" s="56">
+        <v>973</v>
+      </c>
+      <c r="J85" s="57">
+        <v>497000000</v>
+      </c>
+      <c r="K85" s="57"/>
+      <c r="L85" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M85" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="N85" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O85" s="68"/>
       <c r="P85" s="61"/>
       <c r="Q85" s="61"/>
@@ -6452,19 +6822,41 @@
     </row>
     <row r="86" spans="1:20" ht="18" customHeight="1">
       <c r="A86" s="52"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
+      <c r="B86" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E86" s="53"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="68"/>
+      <c r="F86" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G86" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I86" s="56">
+        <v>298</v>
+      </c>
+      <c r="J86" s="57">
+        <v>31</v>
+      </c>
       <c r="K86" s="71"/>
-      <c r="L86" s="72"/>
-      <c r="M86" s="72"/>
-      <c r="N86" s="52"/>
+      <c r="L86" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="M86" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="N86" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O86" s="68"/>
       <c r="P86" s="61"/>
       <c r="Q86" s="61"/>
@@ -6474,19 +6866,41 @@
     </row>
     <row r="87" spans="1:20" ht="18" customHeight="1">
       <c r="A87" s="52"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="52"/>
+      <c r="B87" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E87" s="53"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="71"/>
+      <c r="F87" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G87" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I87" s="56">
+        <v>673</v>
+      </c>
+      <c r="J87" s="57">
+        <v>42.2</v>
+      </c>
       <c r="K87" s="71"/>
-      <c r="L87" s="72"/>
-      <c r="M87" s="72"/>
-      <c r="N87" s="52"/>
+      <c r="L87" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="M87" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="N87" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O87" s="68"/>
       <c r="P87" s="61"/>
       <c r="Q87" s="61"/>
@@ -6496,19 +6910,41 @@
     </row>
     <row r="88" spans="1:20" ht="18" customHeight="1">
       <c r="A88" s="52"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
+      <c r="B88" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E88" s="53"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="71"/>
+      <c r="F88" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G88" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I88" s="56">
+        <v>873</v>
+      </c>
+      <c r="J88" s="68">
+        <v>51.8</v>
+      </c>
       <c r="K88" s="71"/>
-      <c r="L88" s="72"/>
-      <c r="M88" s="72"/>
-      <c r="N88" s="52"/>
+      <c r="L88" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="M88" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="N88" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O88" s="68"/>
       <c r="P88" s="61"/>
       <c r="Q88" s="61"/>
@@ -6518,19 +6954,41 @@
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1">
       <c r="A89" s="52"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
+      <c r="B89" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E89" s="53"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="71"/>
+      <c r="F89" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G89" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I89" s="56">
+        <v>973</v>
+      </c>
+      <c r="J89" s="68">
+        <v>67.8</v>
+      </c>
       <c r="K89" s="71"/>
-      <c r="L89" s="72"/>
-      <c r="M89" s="72"/>
-      <c r="N89" s="52"/>
+      <c r="L89" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="M89" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="N89" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O89" s="68"/>
       <c r="P89" s="61"/>
       <c r="Q89" s="61"/>
@@ -6540,19 +6998,41 @@
     </row>
     <row r="90" spans="1:20" ht="18" customHeight="1">
       <c r="A90" s="52"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
+      <c r="B90" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E90" s="53"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="71"/>
+      <c r="F90" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G90" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I90" s="56">
+        <v>298</v>
+      </c>
+      <c r="J90" s="134">
+        <v>800000000</v>
+      </c>
       <c r="K90" s="71"/>
-      <c r="L90" s="72"/>
-      <c r="M90" s="72"/>
-      <c r="N90" s="52"/>
+      <c r="L90" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M90" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="N90" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O90" s="68"/>
       <c r="P90" s="61"/>
       <c r="Q90" s="61"/>
@@ -6562,19 +7042,41 @@
     </row>
     <row r="91" spans="1:20" ht="18" customHeight="1">
       <c r="A91" s="52"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="52"/>
+      <c r="B91" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E91" s="53"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="57"/>
-      <c r="K91" s="57"/>
-      <c r="L91" s="72"/>
-      <c r="M91" s="54"/>
-      <c r="N91" s="52"/>
+      <c r="F91" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G91" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I91" s="56">
+        <v>673</v>
+      </c>
+      <c r="J91" s="134">
+        <v>603000000</v>
+      </c>
+      <c r="K91" s="71"/>
+      <c r="L91" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M91" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="N91" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O91" s="68"/>
       <c r="P91" s="69"/>
       <c r="Q91" s="61"/>
@@ -6584,19 +7086,41 @@
     </row>
     <row r="92" spans="1:20" ht="18" customHeight="1">
       <c r="A92" s="52"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
+      <c r="B92" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E92" s="53"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="54"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="57"/>
-      <c r="K92" s="57"/>
-      <c r="L92" s="72"/>
-      <c r="M92" s="54"/>
-      <c r="N92" s="52"/>
+      <c r="F92" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G92" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I92" s="56">
+        <v>873</v>
+      </c>
+      <c r="J92" s="61">
+        <v>592000000</v>
+      </c>
+      <c r="K92" s="71"/>
+      <c r="L92" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M92" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="N92" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O92" s="68"/>
       <c r="P92" s="69"/>
       <c r="Q92" s="61"/>
@@ -6606,19 +7130,41 @@
     </row>
     <row r="93" spans="1:20" ht="18" customHeight="1">
       <c r="A93" s="52"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
+      <c r="B93" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E93" s="53"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="57"/>
-      <c r="K93" s="57"/>
-      <c r="L93" s="72"/>
-      <c r="M93" s="54"/>
-      <c r="N93" s="52"/>
+      <c r="F93" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G93" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I93" s="56">
+        <v>973</v>
+      </c>
+      <c r="J93" s="61">
+        <v>502000000</v>
+      </c>
+      <c r="K93" s="71"/>
+      <c r="L93" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M93" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="N93" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O93" s="68"/>
       <c r="P93" s="69"/>
       <c r="Q93" s="61"/>
@@ -6628,19 +7174,41 @@
     </row>
     <row r="94" spans="1:20" ht="18" customHeight="1">
       <c r="A94" s="52"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
+      <c r="B94" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E94" s="53"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="54"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="57"/>
-      <c r="K94" s="57"/>
-      <c r="L94" s="72"/>
-      <c r="M94" s="54"/>
-      <c r="N94" s="52"/>
+      <c r="F94" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G94" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I94" s="56">
+        <v>298</v>
+      </c>
+      <c r="J94" s="61">
+        <v>1.75</v>
+      </c>
+      <c r="K94" s="71"/>
+      <c r="L94" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="M94" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="N94" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O94" s="68"/>
       <c r="P94" s="69"/>
       <c r="Q94" s="61"/>
@@ -6650,19 +7218,41 @@
     </row>
     <row r="95" spans="1:20" ht="18" customHeight="1">
       <c r="A95" s="52"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
+      <c r="B95" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E95" s="53"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="56"/>
-      <c r="J95" s="57"/>
-      <c r="K95" s="57"/>
-      <c r="L95" s="72"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="52"/>
+      <c r="F95" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G95" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I95" s="56">
+        <v>673</v>
+      </c>
+      <c r="J95" s="61">
+        <v>13.7</v>
+      </c>
+      <c r="K95" s="71"/>
+      <c r="L95" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="M95" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="N95" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O95" s="68"/>
       <c r="P95" s="69"/>
       <c r="Q95" s="61"/>
@@ -6672,19 +7262,41 @@
     </row>
     <row r="96" spans="1:20" ht="18" customHeight="1">
       <c r="A96" s="52"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="52"/>
+      <c r="B96" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E96" s="53"/>
-      <c r="F96" s="54"/>
-      <c r="G96" s="54"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="56"/>
-      <c r="J96" s="57"/>
-      <c r="K96" s="57"/>
-      <c r="L96" s="72"/>
-      <c r="M96" s="54"/>
-      <c r="N96" s="52"/>
+      <c r="F96" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G96" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I96" s="56">
+        <v>873</v>
+      </c>
+      <c r="J96" s="61">
+        <v>5.6</v>
+      </c>
+      <c r="K96" s="71"/>
+      <c r="L96" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="M96" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="N96" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O96" s="68"/>
       <c r="P96" s="69"/>
       <c r="Q96" s="61"/>
@@ -6694,19 +7306,41 @@
     </row>
     <row r="97" spans="1:20" ht="18" customHeight="1">
       <c r="A97" s="52"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="52"/>
+      <c r="B97" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="E97" s="53"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="57"/>
+      <c r="F97" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G97" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I97" s="56">
+        <v>973</v>
+      </c>
+      <c r="J97" s="61">
+        <v>3.1</v>
+      </c>
       <c r="K97" s="71"/>
-      <c r="L97" s="72"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="52"/>
+      <c r="L97" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="M97" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="N97" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="O97" s="68"/>
       <c r="P97" s="61"/>
       <c r="Q97" s="61"/>
@@ -6724,7 +7358,7 @@
       <c r="G98" s="54"/>
       <c r="H98" s="55"/>
       <c r="I98" s="56"/>
-      <c r="J98" s="57"/>
+      <c r="J98" s="61"/>
       <c r="K98" s="71"/>
       <c r="L98" s="72"/>
       <c r="M98" s="54"/>
@@ -6746,7 +7380,7 @@
       <c r="G99" s="54"/>
       <c r="H99" s="55"/>
       <c r="I99" s="56"/>
-      <c r="J99" s="68"/>
+      <c r="J99" s="71"/>
       <c r="K99" s="71"/>
       <c r="L99" s="54"/>
       <c r="M99" s="54"/>
@@ -6768,7 +7402,7 @@
       <c r="G100" s="54"/>
       <c r="H100" s="55"/>
       <c r="I100" s="56"/>
-      <c r="J100" s="68"/>
+      <c r="J100" s="71"/>
       <c r="K100" s="71"/>
       <c r="L100" s="54"/>
       <c r="M100" s="54"/>
@@ -6789,8 +7423,8 @@
       <c r="F101" s="54"/>
       <c r="G101" s="54"/>
       <c r="H101" s="55"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="68"/>
+      <c r="I101" s="60"/>
+      <c r="J101" s="71"/>
       <c r="K101" s="71"/>
       <c r="L101" s="54"/>
       <c r="M101" s="54"/>
@@ -6811,8 +7445,8 @@
       <c r="F102" s="54"/>
       <c r="G102" s="54"/>
       <c r="H102" s="55"/>
-      <c r="I102" s="56"/>
-      <c r="J102" s="68"/>
+      <c r="I102" s="60"/>
+      <c r="J102" s="71"/>
       <c r="K102" s="71"/>
       <c r="L102" s="54"/>
       <c r="M102" s="54"/>
@@ -6833,8 +7467,8 @@
       <c r="F103" s="54"/>
       <c r="G103" s="54"/>
       <c r="H103" s="55"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="61"/>
+      <c r="I103" s="73"/>
+      <c r="J103" s="71"/>
       <c r="K103" s="71"/>
       <c r="L103" s="72"/>
       <c r="M103" s="54"/>
@@ -6855,7 +7489,7 @@
       <c r="F104" s="54"/>
       <c r="G104" s="54"/>
       <c r="H104" s="55"/>
-      <c r="I104" s="56"/>
+      <c r="I104" s="73"/>
       <c r="J104" s="61"/>
       <c r="K104" s="71"/>
       <c r="L104" s="72"/>
@@ -6877,8 +7511,8 @@
       <c r="F105" s="54"/>
       <c r="G105" s="54"/>
       <c r="H105" s="55"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="61"/>
+      <c r="I105" s="73"/>
+      <c r="J105" s="76"/>
       <c r="K105" s="71"/>
       <c r="L105" s="72"/>
       <c r="M105" s="54"/>
@@ -6899,9 +7533,9 @@
       <c r="F106" s="54"/>
       <c r="G106" s="54"/>
       <c r="H106" s="55"/>
-      <c r="I106" s="56"/>
-      <c r="J106" s="61"/>
-      <c r="K106" s="71"/>
+      <c r="I106" s="73"/>
+      <c r="J106" s="76"/>
+      <c r="K106" s="77"/>
       <c r="L106" s="72"/>
       <c r="M106" s="54"/>
       <c r="N106" s="52"/>
@@ -6921,9 +7555,9 @@
       <c r="F107" s="54"/>
       <c r="G107" s="54"/>
       <c r="H107" s="55"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="61"/>
-      <c r="K107" s="71"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
       <c r="L107" s="72"/>
       <c r="M107" s="54"/>
       <c r="N107" s="52"/>
@@ -6943,8 +7577,8 @@
       <c r="F108" s="54"/>
       <c r="G108" s="54"/>
       <c r="H108" s="55"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="61"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="77"/>
       <c r="K108" s="71"/>
       <c r="L108" s="72"/>
       <c r="M108" s="54"/>
@@ -6965,8 +7599,8 @@
       <c r="F109" s="54"/>
       <c r="G109" s="54"/>
       <c r="H109" s="55"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="61"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="76"/>
       <c r="K109" s="71"/>
       <c r="L109" s="72"/>
       <c r="M109" s="54"/>
@@ -6987,8 +7621,8 @@
       <c r="F110" s="54"/>
       <c r="G110" s="54"/>
       <c r="H110" s="55"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="71"/>
+      <c r="I110" s="73"/>
+      <c r="J110" s="76"/>
       <c r="K110" s="71"/>
       <c r="L110" s="72"/>
       <c r="M110" s="54"/>
@@ -7009,8 +7643,8 @@
       <c r="F111" s="54"/>
       <c r="G111" s="54"/>
       <c r="H111" s="55"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="71"/>
+      <c r="I111" s="73"/>
+      <c r="J111" s="57"/>
       <c r="K111" s="71"/>
       <c r="L111" s="72"/>
       <c r="M111" s="54"/>
@@ -7031,8 +7665,8 @@
       <c r="F112" s="54"/>
       <c r="G112" s="54"/>
       <c r="H112" s="55"/>
-      <c r="I112" s="60"/>
-      <c r="J112" s="71"/>
+      <c r="I112" s="73"/>
+      <c r="J112" s="57"/>
       <c r="K112" s="71"/>
       <c r="L112" s="72"/>
       <c r="M112" s="54"/>
@@ -7053,8 +7687,8 @@
       <c r="F113" s="75"/>
       <c r="G113" s="54"/>
       <c r="H113" s="55"/>
-      <c r="I113" s="60"/>
-      <c r="J113" s="71"/>
+      <c r="I113" s="73"/>
+      <c r="J113" s="76"/>
       <c r="K113" s="71"/>
       <c r="L113" s="72"/>
       <c r="M113" s="54"/>
@@ -7076,7 +7710,7 @@
       <c r="G114" s="54"/>
       <c r="H114" s="55"/>
       <c r="I114" s="73"/>
-      <c r="J114" s="71"/>
+      <c r="J114" s="76"/>
       <c r="K114" s="71"/>
       <c r="L114" s="72"/>
       <c r="M114" s="54"/>
@@ -7098,7 +7732,7 @@
       <c r="G115" s="54"/>
       <c r="H115" s="55"/>
       <c r="I115" s="73"/>
-      <c r="J115" s="61"/>
+      <c r="J115" s="57"/>
       <c r="K115" s="71"/>
       <c r="L115" s="72"/>
       <c r="M115" s="72"/>
@@ -7119,8 +7753,8 @@
       <c r="F116" s="54"/>
       <c r="G116" s="54"/>
       <c r="H116" s="55"/>
-      <c r="I116" s="73"/>
-      <c r="J116" s="76"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="71"/>
       <c r="K116" s="71"/>
       <c r="L116" s="72"/>
       <c r="M116" s="72"/>
@@ -7141,9 +7775,9 @@
       <c r="F117" s="54"/>
       <c r="G117" s="54"/>
       <c r="H117" s="55"/>
-      <c r="I117" s="73"/>
-      <c r="J117" s="76"/>
-      <c r="K117" s="77"/>
+      <c r="I117" s="56"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
       <c r="L117" s="72"/>
       <c r="M117" s="72"/>
       <c r="N117" s="52"/>
@@ -7163,9 +7797,9 @@
       <c r="F118" s="54"/>
       <c r="G118" s="54"/>
       <c r="H118" s="55"/>
-      <c r="I118" s="73"/>
-      <c r="J118" s="77"/>
-      <c r="K118" s="77"/>
+      <c r="I118" s="56"/>
+      <c r="J118" s="71"/>
+      <c r="K118" s="71"/>
       <c r="L118" s="72"/>
       <c r="M118" s="72"/>
       <c r="N118" s="52"/>
@@ -7185,8 +7819,8 @@
       <c r="F119" s="54"/>
       <c r="G119" s="54"/>
       <c r="H119" s="55"/>
-      <c r="I119" s="73"/>
-      <c r="J119" s="77"/>
+      <c r="I119" s="56"/>
+      <c r="J119" s="71"/>
       <c r="K119" s="71"/>
       <c r="L119" s="72"/>
       <c r="M119" s="72"/>
@@ -7207,8 +7841,8 @@
       <c r="F120" s="54"/>
       <c r="G120" s="54"/>
       <c r="H120" s="55"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="76"/>
+      <c r="I120" s="56"/>
+      <c r="J120" s="71"/>
       <c r="K120" s="71"/>
       <c r="L120" s="72"/>
       <c r="M120" s="72"/>
@@ -7229,8 +7863,8 @@
       <c r="F121" s="54"/>
       <c r="G121" s="54"/>
       <c r="H121" s="55"/>
-      <c r="I121" s="73"/>
-      <c r="J121" s="76"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="71"/>
       <c r="K121" s="71"/>
       <c r="L121" s="72"/>
       <c r="M121" s="72"/>
@@ -7251,8 +7885,8 @@
       <c r="F122" s="54"/>
       <c r="G122" s="54"/>
       <c r="H122" s="55"/>
-      <c r="I122" s="73"/>
-      <c r="J122" s="57"/>
+      <c r="I122" s="60"/>
+      <c r="J122" s="71"/>
       <c r="K122" s="71"/>
       <c r="L122" s="72"/>
       <c r="M122" s="72"/>
@@ -7273,8 +7907,8 @@
       <c r="F123" s="78"/>
       <c r="G123" s="78"/>
       <c r="H123" s="55"/>
-      <c r="I123" s="73"/>
-      <c r="J123" s="57"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="71"/>
       <c r="K123" s="71"/>
       <c r="L123" s="72"/>
       <c r="M123" s="72"/>
@@ -7295,8 +7929,8 @@
       <c r="F124" s="78"/>
       <c r="G124" s="78"/>
       <c r="H124" s="55"/>
-      <c r="I124" s="73"/>
-      <c r="J124" s="76"/>
+      <c r="I124" s="60"/>
+      <c r="J124" s="71"/>
       <c r="K124" s="71"/>
       <c r="L124" s="72"/>
       <c r="M124" s="72"/>
@@ -7317,8 +7951,8 @@
       <c r="F125" s="78"/>
       <c r="G125" s="78"/>
       <c r="H125" s="55"/>
-      <c r="I125" s="73"/>
-      <c r="J125" s="76"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="71"/>
       <c r="K125" s="71"/>
       <c r="L125" s="72"/>
       <c r="M125" s="72"/>
@@ -7339,8 +7973,8 @@
       <c r="F126" s="78"/>
       <c r="G126" s="78"/>
       <c r="H126" s="55"/>
-      <c r="I126" s="73"/>
-      <c r="J126" s="57"/>
+      <c r="I126" s="60"/>
+      <c r="J126" s="71"/>
       <c r="K126" s="71"/>
       <c r="L126" s="72"/>
       <c r="M126" s="72"/>
@@ -7361,7 +7995,7 @@
       <c r="F127" s="54"/>
       <c r="G127" s="54"/>
       <c r="H127" s="55"/>
-      <c r="I127" s="56"/>
+      <c r="I127" s="60"/>
       <c r="J127" s="71"/>
       <c r="K127" s="71"/>
       <c r="L127" s="72"/>
@@ -7383,7 +8017,7 @@
       <c r="F128" s="54"/>
       <c r="G128" s="54"/>
       <c r="H128" s="55"/>
-      <c r="I128" s="56"/>
+      <c r="I128" s="60"/>
       <c r="J128" s="71"/>
       <c r="K128" s="71"/>
       <c r="L128" s="72"/>
@@ -7405,7 +8039,7 @@
       <c r="F129" s="54"/>
       <c r="G129" s="54"/>
       <c r="H129" s="55"/>
-      <c r="I129" s="56"/>
+      <c r="I129" s="60"/>
       <c r="J129" s="71"/>
       <c r="K129" s="71"/>
       <c r="L129" s="72"/>
@@ -7427,7 +8061,7 @@
       <c r="F130" s="54"/>
       <c r="G130" s="54"/>
       <c r="H130" s="55"/>
-      <c r="I130" s="56"/>
+      <c r="I130" s="60"/>
       <c r="J130" s="71"/>
       <c r="K130" s="71"/>
       <c r="L130" s="72"/>
@@ -7471,7 +8105,7 @@
       <c r="F132" s="54"/>
       <c r="G132" s="54"/>
       <c r="H132" s="55"/>
-      <c r="I132" s="60"/>
+      <c r="I132" s="56"/>
       <c r="J132" s="71"/>
       <c r="K132" s="71"/>
       <c r="L132" s="72"/>
@@ -7493,7 +8127,7 @@
       <c r="F133" s="54"/>
       <c r="G133" s="54"/>
       <c r="H133" s="55"/>
-      <c r="I133" s="60"/>
+      <c r="I133" s="56"/>
       <c r="J133" s="71"/>
       <c r="K133" s="71"/>
       <c r="L133" s="72"/>
@@ -7515,7 +8149,7 @@
       <c r="F134" s="54"/>
       <c r="G134" s="54"/>
       <c r="H134" s="55"/>
-      <c r="I134" s="60"/>
+      <c r="I134" s="56"/>
       <c r="J134" s="71"/>
       <c r="K134" s="71"/>
       <c r="L134" s="72"/>
@@ -7537,7 +8171,7 @@
       <c r="F135" s="54"/>
       <c r="G135" s="54"/>
       <c r="H135" s="55"/>
-      <c r="I135" s="60"/>
+      <c r="I135" s="56"/>
       <c r="J135" s="71"/>
       <c r="K135" s="71"/>
       <c r="L135" s="72"/>
@@ -7559,7 +8193,7 @@
       <c r="F136" s="54"/>
       <c r="G136" s="54"/>
       <c r="H136" s="55"/>
-      <c r="I136" s="60"/>
+      <c r="I136" s="56"/>
       <c r="J136" s="71"/>
       <c r="K136" s="71"/>
       <c r="L136" s="72"/>
@@ -7581,7 +8215,7 @@
       <c r="F137" s="78"/>
       <c r="G137" s="78"/>
       <c r="H137" s="55"/>
-      <c r="I137" s="60"/>
+      <c r="I137" s="56"/>
       <c r="J137" s="71"/>
       <c r="K137" s="71"/>
       <c r="L137" s="72"/>
@@ -7603,7 +8237,7 @@
       <c r="F138" s="78"/>
       <c r="G138" s="78"/>
       <c r="H138" s="55"/>
-      <c r="I138" s="60"/>
+      <c r="I138" s="56"/>
       <c r="J138" s="71"/>
       <c r="K138" s="71"/>
       <c r="L138" s="72"/>
@@ -7625,7 +8259,7 @@
       <c r="F139" s="78"/>
       <c r="G139" s="78"/>
       <c r="H139" s="55"/>
-      <c r="I139" s="60"/>
+      <c r="I139" s="56"/>
       <c r="J139" s="71"/>
       <c r="K139" s="71"/>
       <c r="L139" s="72"/>
@@ -7647,7 +8281,7 @@
       <c r="F140" s="78"/>
       <c r="G140" s="78"/>
       <c r="H140" s="55"/>
-      <c r="I140" s="60"/>
+      <c r="I140" s="56"/>
       <c r="J140" s="71"/>
       <c r="K140" s="71"/>
       <c r="L140" s="72"/>
@@ -7669,7 +8303,7 @@
       <c r="F141" s="78"/>
       <c r="G141" s="78"/>
       <c r="H141" s="55"/>
-      <c r="I141" s="60"/>
+      <c r="I141" s="56"/>
       <c r="J141" s="71"/>
       <c r="K141" s="71"/>
       <c r="L141" s="72"/>
@@ -7779,9 +8413,9 @@
       <c r="F146" s="78"/>
       <c r="G146" s="78"/>
       <c r="H146" s="55"/>
-      <c r="I146" s="56"/>
-      <c r="J146" s="71"/>
-      <c r="K146" s="71"/>
+      <c r="I146" s="60"/>
+      <c r="J146" s="77"/>
+      <c r="K146" s="77"/>
       <c r="L146" s="72"/>
       <c r="M146" s="72"/>
       <c r="N146" s="52"/>
@@ -7801,9 +8435,9 @@
       <c r="F147" s="78"/>
       <c r="G147" s="78"/>
       <c r="H147" s="55"/>
-      <c r="I147" s="56"/>
-      <c r="J147" s="71"/>
-      <c r="K147" s="71"/>
+      <c r="I147" s="60"/>
+      <c r="J147" s="77"/>
+      <c r="K147" s="77"/>
       <c r="L147" s="72"/>
       <c r="M147" s="72"/>
       <c r="N147" s="52"/>
@@ -7823,9 +8457,9 @@
       <c r="F148" s="78"/>
       <c r="G148" s="78"/>
       <c r="H148" s="55"/>
-      <c r="I148" s="56"/>
-      <c r="J148" s="71"/>
-      <c r="K148" s="71"/>
+      <c r="I148" s="60"/>
+      <c r="J148" s="77"/>
+      <c r="K148" s="77"/>
       <c r="L148" s="72"/>
       <c r="M148" s="72"/>
       <c r="N148" s="52"/>
@@ -7845,9 +8479,9 @@
       <c r="F149" s="78"/>
       <c r="G149" s="78"/>
       <c r="H149" s="55"/>
-      <c r="I149" s="56"/>
-      <c r="J149" s="71"/>
-      <c r="K149" s="71"/>
+      <c r="I149" s="60"/>
+      <c r="J149" s="77"/>
+      <c r="K149" s="77"/>
       <c r="L149" s="72"/>
       <c r="M149" s="72"/>
       <c r="N149" s="52"/>
@@ -7867,7 +8501,7 @@
       <c r="F150" s="78"/>
       <c r="G150" s="78"/>
       <c r="H150" s="55"/>
-      <c r="I150" s="56"/>
+      <c r="I150" s="60"/>
       <c r="J150" s="71"/>
       <c r="K150" s="71"/>
       <c r="L150" s="72"/>
@@ -7889,7 +8523,7 @@
       <c r="F151" s="78"/>
       <c r="G151" s="78"/>
       <c r="H151" s="55"/>
-      <c r="I151" s="56"/>
+      <c r="I151" s="60"/>
       <c r="J151" s="71"/>
       <c r="K151" s="71"/>
       <c r="L151" s="72"/>
@@ -7911,7 +8545,7 @@
       <c r="F152" s="78"/>
       <c r="G152" s="78"/>
       <c r="H152" s="55"/>
-      <c r="I152" s="56"/>
+      <c r="I152" s="60"/>
       <c r="J152" s="71"/>
       <c r="K152" s="71"/>
       <c r="L152" s="72"/>
@@ -7933,7 +8567,7 @@
       <c r="F153" s="78"/>
       <c r="G153" s="78"/>
       <c r="H153" s="55"/>
-      <c r="I153" s="56"/>
+      <c r="I153" s="60"/>
       <c r="J153" s="71"/>
       <c r="K153" s="71"/>
       <c r="L153" s="72"/>
@@ -7955,7 +8589,7 @@
       <c r="F154" s="78"/>
       <c r="G154" s="78"/>
       <c r="H154" s="70"/>
-      <c r="I154" s="56"/>
+      <c r="I154" s="60"/>
       <c r="J154" s="71"/>
       <c r="K154" s="71"/>
       <c r="L154" s="72"/>
@@ -7977,7 +8611,7 @@
       <c r="F155" s="78"/>
       <c r="G155" s="78"/>
       <c r="H155" s="70"/>
-      <c r="I155" s="56"/>
+      <c r="I155" s="60"/>
       <c r="J155" s="71"/>
       <c r="K155" s="71"/>
       <c r="L155" s="72"/>
@@ -7999,9 +8633,9 @@
       <c r="F156" s="78"/>
       <c r="G156" s="78"/>
       <c r="H156" s="70"/>
-      <c r="I156" s="56"/>
-      <c r="J156" s="71"/>
-      <c r="K156" s="71"/>
+      <c r="I156" s="60"/>
+      <c r="J156" s="60"/>
+      <c r="K156" s="60"/>
       <c r="L156" s="72"/>
       <c r="M156" s="72"/>
       <c r="N156" s="52"/>
@@ -8022,8 +8656,8 @@
       <c r="G157" s="54"/>
       <c r="H157" s="70"/>
       <c r="I157" s="60"/>
-      <c r="J157" s="77"/>
-      <c r="K157" s="77"/>
+      <c r="J157" s="60"/>
+      <c r="K157" s="60"/>
       <c r="L157" s="54"/>
       <c r="M157" s="62"/>
       <c r="N157" s="81"/>
@@ -8044,8 +8678,8 @@
       <c r="G158" s="54"/>
       <c r="H158" s="70"/>
       <c r="I158" s="60"/>
-      <c r="J158" s="77"/>
-      <c r="K158" s="77"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="60"/>
       <c r="L158" s="54"/>
       <c r="M158" s="62"/>
       <c r="N158" s="81"/>
@@ -8066,8 +8700,8 @@
       <c r="G159" s="54"/>
       <c r="H159" s="70"/>
       <c r="I159" s="60"/>
-      <c r="J159" s="77"/>
-      <c r="K159" s="77"/>
+      <c r="J159" s="60"/>
+      <c r="K159" s="60"/>
       <c r="L159" s="54"/>
       <c r="M159" s="62"/>
       <c r="N159" s="81"/>
@@ -8088,8 +8722,8 @@
       <c r="G160" s="54"/>
       <c r="H160" s="70"/>
       <c r="I160" s="60"/>
-      <c r="J160" s="77"/>
-      <c r="K160" s="77"/>
+      <c r="J160" s="60"/>
+      <c r="K160" s="60"/>
       <c r="L160" s="54"/>
       <c r="M160" s="62"/>
       <c r="N160" s="81"/>
@@ -8110,8 +8744,8 @@
       <c r="G161" s="54"/>
       <c r="H161" s="70"/>
       <c r="I161" s="60"/>
-      <c r="J161" s="71"/>
-      <c r="K161" s="71"/>
+      <c r="J161" s="60"/>
+      <c r="K161" s="60"/>
       <c r="L161" s="62"/>
       <c r="M161" s="62"/>
       <c r="N161" s="81"/>
@@ -8132,8 +8766,8 @@
       <c r="G162" s="54"/>
       <c r="H162" s="70"/>
       <c r="I162" s="60"/>
-      <c r="J162" s="71"/>
-      <c r="K162" s="71"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="60"/>
       <c r="L162" s="62"/>
       <c r="M162" s="62"/>
       <c r="N162" s="81"/>
@@ -8154,8 +8788,8 @@
       <c r="G163" s="54"/>
       <c r="H163" s="70"/>
       <c r="I163" s="60"/>
-      <c r="J163" s="71"/>
-      <c r="K163" s="71"/>
+      <c r="J163" s="60"/>
+      <c r="K163" s="60"/>
       <c r="L163" s="62"/>
       <c r="M163" s="60"/>
       <c r="N163" s="62"/>
@@ -8175,9 +8809,9 @@
       <c r="F164" s="80"/>
       <c r="G164" s="54"/>
       <c r="H164" s="70"/>
-      <c r="I164" s="60"/>
-      <c r="J164" s="71"/>
-      <c r="K164" s="71"/>
+      <c r="I164" s="82"/>
+      <c r="J164" s="60"/>
+      <c r="K164" s="60"/>
       <c r="L164" s="62"/>
       <c r="M164" s="60"/>
       <c r="N164" s="62"/>
@@ -8197,9 +8831,9 @@
       <c r="F165" s="80"/>
       <c r="G165" s="54"/>
       <c r="H165" s="70"/>
-      <c r="I165" s="60"/>
-      <c r="J165" s="71"/>
-      <c r="K165" s="71"/>
+      <c r="I165" s="82"/>
+      <c r="J165" s="60"/>
+      <c r="K165" s="60"/>
       <c r="L165" s="62"/>
       <c r="M165" s="60"/>
       <c r="N165" s="62"/>
@@ -8219,9 +8853,9 @@
       <c r="F166" s="80"/>
       <c r="G166" s="54"/>
       <c r="H166" s="70"/>
-      <c r="I166" s="60"/>
-      <c r="J166" s="71"/>
-      <c r="K166" s="71"/>
+      <c r="I166" s="82"/>
+      <c r="J166" s="60"/>
+      <c r="K166" s="60"/>
       <c r="L166" s="62"/>
       <c r="M166" s="60"/>
       <c r="N166" s="62"/>
@@ -8241,7 +8875,7 @@
       <c r="F167" s="80"/>
       <c r="G167" s="54"/>
       <c r="H167" s="70"/>
-      <c r="I167" s="60"/>
+      <c r="I167" s="82"/>
       <c r="J167" s="60"/>
       <c r="K167" s="60"/>
       <c r="L167" s="62"/>
@@ -8417,7 +9051,7 @@
       <c r="F175" s="80"/>
       <c r="G175" s="78"/>
       <c r="H175" s="84"/>
-      <c r="I175" s="82"/>
+      <c r="I175" s="60"/>
       <c r="J175" s="60"/>
       <c r="K175" s="60"/>
       <c r="L175" s="62"/>
@@ -8505,7 +9139,7 @@
       <c r="F179" s="80"/>
       <c r="G179" s="54"/>
       <c r="H179" s="70"/>
-      <c r="I179" s="60"/>
+      <c r="I179" s="82"/>
       <c r="J179" s="60"/>
       <c r="K179" s="60"/>
       <c r="L179" s="62"/>
@@ -8527,7 +9161,7 @@
       <c r="F180" s="80"/>
       <c r="G180" s="54"/>
       <c r="H180" s="70"/>
-      <c r="I180" s="60"/>
+      <c r="I180" s="82"/>
       <c r="J180" s="60"/>
       <c r="K180" s="60"/>
       <c r="L180" s="62"/>
@@ -8549,7 +9183,7 @@
       <c r="F181" s="80"/>
       <c r="G181" s="54"/>
       <c r="H181" s="70"/>
-      <c r="I181" s="60"/>
+      <c r="I181" s="82"/>
       <c r="J181" s="60"/>
       <c r="K181" s="60"/>
       <c r="L181" s="62"/>
@@ -8571,7 +9205,7 @@
       <c r="F182" s="80"/>
       <c r="G182" s="54"/>
       <c r="H182" s="70"/>
-      <c r="I182" s="60"/>
+      <c r="I182" s="82"/>
       <c r="J182" s="60"/>
       <c r="K182" s="60"/>
       <c r="L182" s="62"/>
@@ -8593,7 +9227,7 @@
       <c r="F183" s="80"/>
       <c r="G183" s="54"/>
       <c r="H183" s="70"/>
-      <c r="I183" s="60"/>
+      <c r="I183" s="82"/>
       <c r="J183" s="60"/>
       <c r="K183" s="60"/>
       <c r="L183" s="62"/>
@@ -8615,7 +9249,7 @@
       <c r="F184" s="80"/>
       <c r="G184" s="54"/>
       <c r="H184" s="70"/>
-      <c r="I184" s="60"/>
+      <c r="I184" s="82"/>
       <c r="J184" s="60"/>
       <c r="K184" s="60"/>
       <c r="L184" s="62"/>
@@ -8637,7 +9271,7 @@
       <c r="F185" s="80"/>
       <c r="G185" s="54"/>
       <c r="H185" s="70"/>
-      <c r="I185" s="60"/>
+      <c r="I185" s="82"/>
       <c r="J185" s="60"/>
       <c r="K185" s="60"/>
       <c r="L185" s="62"/>
@@ -8659,7 +9293,7 @@
       <c r="F186" s="80"/>
       <c r="G186" s="54"/>
       <c r="H186" s="70"/>
-      <c r="I186" s="60"/>
+      <c r="I186" s="82"/>
       <c r="J186" s="60"/>
       <c r="K186" s="60"/>
       <c r="L186" s="62"/>
@@ -8791,7 +9425,7 @@
       <c r="F192" s="85"/>
       <c r="G192" s="78"/>
       <c r="H192" s="84"/>
-      <c r="I192" s="82"/>
+      <c r="I192" s="60"/>
       <c r="J192" s="60"/>
       <c r="K192" s="60"/>
       <c r="L192" s="62"/>
@@ -8813,7 +9447,7 @@
       <c r="F193" s="85"/>
       <c r="G193" s="78"/>
       <c r="H193" s="84"/>
-      <c r="I193" s="82"/>
+      <c r="I193" s="60"/>
       <c r="J193" s="60"/>
       <c r="K193" s="60"/>
       <c r="L193" s="62"/>
@@ -8835,7 +9469,7 @@
       <c r="F194" s="85"/>
       <c r="G194" s="78"/>
       <c r="H194" s="84"/>
-      <c r="I194" s="82"/>
+      <c r="I194" s="60"/>
       <c r="J194" s="60"/>
       <c r="K194" s="60"/>
       <c r="L194" s="62"/>
@@ -8857,7 +9491,7 @@
       <c r="F195" s="85"/>
       <c r="G195" s="78"/>
       <c r="H195" s="84"/>
-      <c r="I195" s="82"/>
+      <c r="I195" s="60"/>
       <c r="J195" s="60"/>
       <c r="K195" s="60"/>
       <c r="L195" s="62"/>
@@ -8879,7 +9513,7 @@
       <c r="F196" s="85"/>
       <c r="G196" s="78"/>
       <c r="H196" s="84"/>
-      <c r="I196" s="82"/>
+      <c r="I196" s="60"/>
       <c r="J196" s="60"/>
       <c r="K196" s="60"/>
       <c r="L196" s="62"/>
@@ -8901,7 +9535,7 @@
       <c r="F197" s="85"/>
       <c r="G197" s="78"/>
       <c r="H197" s="84"/>
-      <c r="I197" s="82"/>
+      <c r="I197" s="60"/>
       <c r="J197" s="60"/>
       <c r="K197" s="60"/>
       <c r="L197" s="62"/>
@@ -8923,7 +9557,7 @@
       <c r="F198" s="85"/>
       <c r="G198" s="78"/>
       <c r="H198" s="84"/>
-      <c r="I198" s="82"/>
+      <c r="I198" s="60"/>
       <c r="J198" s="60"/>
       <c r="K198" s="60"/>
       <c r="L198" s="62"/>
@@ -8945,7 +9579,7 @@
       <c r="F199" s="85"/>
       <c r="G199" s="78"/>
       <c r="H199" s="84"/>
-      <c r="I199" s="82"/>
+      <c r="I199" s="60"/>
       <c r="J199" s="60"/>
       <c r="K199" s="60"/>
       <c r="L199" s="62"/>
@@ -9033,7 +9667,7 @@
       <c r="F203" s="80"/>
       <c r="G203" s="54"/>
       <c r="H203" s="70"/>
-      <c r="I203" s="60"/>
+      <c r="I203" s="82"/>
       <c r="J203" s="60"/>
       <c r="K203" s="60"/>
       <c r="L203" s="62"/>
@@ -9055,7 +9689,7 @@
       <c r="F204" s="80"/>
       <c r="G204" s="54"/>
       <c r="H204" s="70"/>
-      <c r="I204" s="60"/>
+      <c r="I204" s="82"/>
       <c r="J204" s="60"/>
       <c r="K204" s="60"/>
       <c r="L204" s="62"/>
@@ -9077,7 +9711,7 @@
       <c r="F205" s="80"/>
       <c r="G205" s="54"/>
       <c r="H205" s="70"/>
-      <c r="I205" s="60"/>
+      <c r="I205" s="82"/>
       <c r="J205" s="60"/>
       <c r="K205" s="60"/>
       <c r="L205" s="62"/>
@@ -9099,7 +9733,7 @@
       <c r="F206" s="80"/>
       <c r="G206" s="54"/>
       <c r="H206" s="70"/>
-      <c r="I206" s="60"/>
+      <c r="I206" s="82"/>
       <c r="J206" s="60"/>
       <c r="K206" s="60"/>
       <c r="L206" s="62"/>
@@ -9121,7 +9755,7 @@
       <c r="F207" s="80"/>
       <c r="G207" s="54"/>
       <c r="H207" s="70"/>
-      <c r="I207" s="60"/>
+      <c r="I207" s="82"/>
       <c r="J207" s="60"/>
       <c r="K207" s="60"/>
       <c r="L207" s="62"/>
@@ -9209,7 +9843,7 @@
       <c r="F211" s="80"/>
       <c r="G211" s="78"/>
       <c r="H211" s="84"/>
-      <c r="I211" s="82"/>
+      <c r="I211" s="60"/>
       <c r="J211" s="60"/>
       <c r="K211" s="60"/>
       <c r="L211" s="62"/>
@@ -9231,7 +9865,7 @@
       <c r="F212" s="80"/>
       <c r="G212" s="78"/>
       <c r="H212" s="84"/>
-      <c r="I212" s="82"/>
+      <c r="I212" s="60"/>
       <c r="J212" s="60"/>
       <c r="K212" s="60"/>
       <c r="L212" s="62"/>
@@ -9253,7 +9887,7 @@
       <c r="F213" s="80"/>
       <c r="G213" s="78"/>
       <c r="H213" s="84"/>
-      <c r="I213" s="82"/>
+      <c r="I213" s="60"/>
       <c r="J213" s="60"/>
       <c r="K213" s="60"/>
       <c r="L213" s="62"/>
@@ -9275,7 +9909,7 @@
       <c r="F214" s="80"/>
       <c r="G214" s="78"/>
       <c r="H214" s="84"/>
-      <c r="I214" s="82"/>
+      <c r="I214" s="60"/>
       <c r="J214" s="60"/>
       <c r="K214" s="60"/>
       <c r="L214" s="62"/>
@@ -9297,7 +9931,7 @@
       <c r="F215" s="80"/>
       <c r="G215" s="78"/>
       <c r="H215" s="84"/>
-      <c r="I215" s="82"/>
+      <c r="I215" s="60"/>
       <c r="J215" s="60"/>
       <c r="K215" s="60"/>
       <c r="L215" s="62"/>
@@ -9319,8 +9953,8 @@
       <c r="F216" s="80"/>
       <c r="G216" s="78"/>
       <c r="H216" s="84"/>
-      <c r="I216" s="82"/>
-      <c r="J216" s="60"/>
+      <c r="I216" s="60"/>
+      <c r="J216" s="77"/>
       <c r="K216" s="60"/>
       <c r="L216" s="62"/>
       <c r="M216" s="62"/>
@@ -9341,8 +9975,8 @@
       <c r="F217" s="80"/>
       <c r="G217" s="78"/>
       <c r="H217" s="84"/>
-      <c r="I217" s="82"/>
-      <c r="J217" s="60"/>
+      <c r="I217" s="60"/>
+      <c r="J217" s="77"/>
       <c r="K217" s="60"/>
       <c r="L217" s="62"/>
       <c r="M217" s="62"/>
@@ -9363,8 +9997,8 @@
       <c r="F218" s="80"/>
       <c r="G218" s="78"/>
       <c r="H218" s="84"/>
-      <c r="I218" s="82"/>
-      <c r="J218" s="60"/>
+      <c r="I218" s="60"/>
+      <c r="J218" s="77"/>
       <c r="K218" s="60"/>
       <c r="L218" s="62"/>
       <c r="M218" s="62"/>
@@ -9386,7 +10020,7 @@
       <c r="G219" s="54"/>
       <c r="H219" s="70"/>
       <c r="I219" s="60"/>
-      <c r="J219" s="60"/>
+      <c r="J219" s="77"/>
       <c r="K219" s="60"/>
       <c r="L219" s="62"/>
       <c r="M219" s="62"/>
@@ -9407,7 +10041,7 @@
       <c r="F220" s="80"/>
       <c r="G220" s="54"/>
       <c r="H220" s="70"/>
-      <c r="I220" s="60"/>
+      <c r="I220" s="67"/>
       <c r="J220" s="60"/>
       <c r="K220" s="60"/>
       <c r="L220" s="62"/>
@@ -9429,8 +10063,8 @@
       <c r="F221" s="80"/>
       <c r="G221" s="54"/>
       <c r="H221" s="70"/>
-      <c r="I221" s="60"/>
-      <c r="J221" s="60"/>
+      <c r="I221" s="67"/>
+      <c r="J221" s="77"/>
       <c r="K221" s="60"/>
       <c r="L221" s="62"/>
       <c r="M221" s="62"/>
@@ -9451,8 +10085,8 @@
       <c r="F222" s="80"/>
       <c r="G222" s="54"/>
       <c r="H222" s="70"/>
-      <c r="I222" s="60"/>
-      <c r="J222" s="60"/>
+      <c r="I222" s="67"/>
+      <c r="J222" s="77"/>
       <c r="K222" s="60"/>
       <c r="L222" s="62"/>
       <c r="M222" s="62"/>
@@ -9473,8 +10107,8 @@
       <c r="F223" s="80"/>
       <c r="G223" s="54"/>
       <c r="H223" s="70"/>
-      <c r="I223" s="60"/>
-      <c r="J223" s="60"/>
+      <c r="I223" s="67"/>
+      <c r="J223" s="77"/>
       <c r="K223" s="60"/>
       <c r="L223" s="62"/>
       <c r="M223" s="62"/>
@@ -9495,8 +10129,8 @@
       <c r="F224" s="80"/>
       <c r="G224" s="54"/>
       <c r="H224" s="70"/>
-      <c r="I224" s="60"/>
-      <c r="J224" s="60"/>
+      <c r="I224" s="67"/>
+      <c r="J224" s="77"/>
       <c r="K224" s="60"/>
       <c r="L224" s="62"/>
       <c r="M224" s="62"/>
@@ -9517,9 +10151,9 @@
       <c r="F225" s="80"/>
       <c r="G225" s="54"/>
       <c r="H225" s="70"/>
-      <c r="I225" s="60"/>
-      <c r="J225" s="60"/>
-      <c r="K225" s="60"/>
+      <c r="I225" s="67"/>
+      <c r="J225" s="77"/>
+      <c r="K225" s="67"/>
       <c r="L225" s="62"/>
       <c r="M225" s="62"/>
       <c r="N225" s="62"/>
@@ -9539,9 +10173,9 @@
       <c r="F226" s="80"/>
       <c r="G226" s="54"/>
       <c r="H226" s="70"/>
-      <c r="I226" s="60"/>
-      <c r="J226" s="60"/>
-      <c r="K226" s="60"/>
+      <c r="I226" s="67"/>
+      <c r="J226" s="87"/>
+      <c r="K226" s="67"/>
       <c r="L226" s="62"/>
       <c r="M226" s="62"/>
       <c r="N226" s="62"/>
@@ -9561,9 +10195,9 @@
       <c r="F227" s="80"/>
       <c r="G227" s="54"/>
       <c r="H227" s="60"/>
-      <c r="I227" s="60"/>
-      <c r="J227" s="77"/>
-      <c r="K227" s="60"/>
+      <c r="I227" s="67"/>
+      <c r="J227" s="67"/>
+      <c r="K227" s="67"/>
       <c r="L227" s="62"/>
       <c r="M227" s="62"/>
       <c r="N227" s="62"/>
@@ -9583,9 +10217,9 @@
       <c r="F228" s="80"/>
       <c r="G228" s="54"/>
       <c r="H228" s="60"/>
-      <c r="I228" s="60"/>
-      <c r="J228" s="77"/>
-      <c r="K228" s="60"/>
+      <c r="I228" s="67"/>
+      <c r="J228" s="67"/>
+      <c r="K228" s="67"/>
       <c r="L228" s="62"/>
       <c r="M228" s="62"/>
       <c r="N228" s="62"/>
@@ -9605,9 +10239,9 @@
       <c r="F229" s="80"/>
       <c r="G229" s="54"/>
       <c r="H229" s="60"/>
-      <c r="I229" s="60"/>
-      <c r="J229" s="77"/>
-      <c r="K229" s="60"/>
+      <c r="I229" s="67"/>
+      <c r="J229" s="67"/>
+      <c r="K229" s="67"/>
       <c r="L229" s="62"/>
       <c r="M229" s="62"/>
       <c r="N229" s="62"/>
@@ -9627,9 +10261,9 @@
       <c r="F230" s="80"/>
       <c r="G230" s="54"/>
       <c r="H230" s="60"/>
-      <c r="I230" s="60"/>
-      <c r="J230" s="77"/>
-      <c r="K230" s="60"/>
+      <c r="I230" s="67"/>
+      <c r="J230" s="67"/>
+      <c r="K230" s="67"/>
       <c r="L230" s="62"/>
       <c r="M230" s="62"/>
       <c r="N230" s="62"/>
@@ -9650,8 +10284,8 @@
       <c r="G231" s="86"/>
       <c r="H231" s="67"/>
       <c r="I231" s="67"/>
-      <c r="J231" s="60"/>
-      <c r="K231" s="60"/>
+      <c r="J231" s="67"/>
+      <c r="K231" s="67"/>
       <c r="L231" s="62"/>
       <c r="M231" s="60"/>
       <c r="N231" s="62"/>
@@ -9672,8 +10306,8 @@
       <c r="G232" s="86"/>
       <c r="H232" s="67"/>
       <c r="I232" s="67"/>
-      <c r="J232" s="77"/>
-      <c r="K232" s="60"/>
+      <c r="J232" s="67"/>
+      <c r="K232" s="67"/>
       <c r="L232" s="62"/>
       <c r="M232" s="62"/>
       <c r="N232" s="62"/>
@@ -9694,8 +10328,8 @@
       <c r="G233" s="86"/>
       <c r="H233" s="67"/>
       <c r="I233" s="67"/>
-      <c r="J233" s="77"/>
-      <c r="K233" s="60"/>
+      <c r="J233" s="87"/>
+      <c r="K233" s="67"/>
       <c r="L233" s="62"/>
       <c r="M233" s="62"/>
       <c r="N233" s="62"/>
@@ -9716,8 +10350,8 @@
       <c r="G234" s="86"/>
       <c r="H234" s="67"/>
       <c r="I234" s="67"/>
-      <c r="J234" s="77"/>
-      <c r="K234" s="60"/>
+      <c r="J234" s="87"/>
+      <c r="K234" s="67"/>
       <c r="L234" s="62"/>
       <c r="M234" s="62"/>
       <c r="N234" s="62"/>
@@ -9738,8 +10372,8 @@
       <c r="G235" s="86"/>
       <c r="H235" s="67"/>
       <c r="I235" s="67"/>
-      <c r="J235" s="77"/>
-      <c r="K235" s="60"/>
+      <c r="J235" s="87"/>
+      <c r="K235" s="67"/>
       <c r="L235" s="62"/>
       <c r="M235" s="62"/>
       <c r="N235" s="62"/>
@@ -9760,7 +10394,7 @@
       <c r="G236" s="86"/>
       <c r="H236" s="67"/>
       <c r="I236" s="67"/>
-      <c r="J236" s="77"/>
+      <c r="J236" s="87"/>
       <c r="K236" s="67"/>
       <c r="L236" s="62"/>
       <c r="M236" s="62"/>
@@ -9804,8 +10438,8 @@
       <c r="G238" s="86"/>
       <c r="H238" s="67"/>
       <c r="I238" s="67"/>
-      <c r="J238" s="67"/>
-      <c r="K238" s="67"/>
+      <c r="J238" s="87"/>
+      <c r="K238" s="87"/>
       <c r="L238" s="86"/>
       <c r="M238" s="86"/>
       <c r="N238" s="62"/>
@@ -9826,8 +10460,8 @@
       <c r="G239" s="86"/>
       <c r="H239" s="67"/>
       <c r="I239" s="67"/>
-      <c r="J239" s="67"/>
-      <c r="K239" s="67"/>
+      <c r="J239" s="87"/>
+      <c r="K239" s="87"/>
       <c r="L239" s="86"/>
       <c r="M239" s="86"/>
       <c r="N239" s="62"/>
@@ -9848,8 +10482,8 @@
       <c r="G240" s="86"/>
       <c r="H240" s="67"/>
       <c r="I240" s="67"/>
-      <c r="J240" s="67"/>
-      <c r="K240" s="67"/>
+      <c r="J240" s="71"/>
+      <c r="K240" s="71"/>
       <c r="L240" s="86"/>
       <c r="M240" s="86"/>
       <c r="N240" s="62"/>
@@ -9870,8 +10504,8 @@
       <c r="G241" s="86"/>
       <c r="H241" s="67"/>
       <c r="I241" s="67"/>
-      <c r="J241" s="67"/>
-      <c r="K241" s="67"/>
+      <c r="J241" s="71"/>
+      <c r="K241" s="71"/>
       <c r="L241" s="86"/>
       <c r="M241" s="86"/>
       <c r="N241" s="62"/>
@@ -9892,7 +10526,7 @@
       <c r="G242" s="86"/>
       <c r="H242" s="67"/>
       <c r="I242" s="67"/>
-      <c r="J242" s="67"/>
+      <c r="J242" s="87"/>
       <c r="K242" s="67"/>
       <c r="L242" s="86"/>
       <c r="M242" s="86"/>
@@ -9914,7 +10548,7 @@
       <c r="G243" s="86"/>
       <c r="H243" s="67"/>
       <c r="I243" s="67"/>
-      <c r="J243" s="67"/>
+      <c r="J243" s="87"/>
       <c r="K243" s="67"/>
       <c r="L243" s="86"/>
       <c r="M243" s="86"/>
@@ -9980,7 +10614,7 @@
       <c r="G246" s="86"/>
       <c r="H246" s="67"/>
       <c r="I246" s="67"/>
-      <c r="J246" s="87"/>
+      <c r="J246" s="67"/>
       <c r="K246" s="67"/>
       <c r="L246" s="86"/>
       <c r="M246" s="86"/>
@@ -10024,7 +10658,7 @@
       <c r="G248" s="86"/>
       <c r="H248" s="67"/>
       <c r="I248" s="67"/>
-      <c r="J248" s="87"/>
+      <c r="J248" s="67"/>
       <c r="K248" s="67"/>
       <c r="L248" s="86"/>
       <c r="M248" s="86"/>
@@ -10531,7 +11165,7 @@
       <c r="H271" s="67"/>
       <c r="I271" s="67"/>
       <c r="J271" s="87"/>
-      <c r="K271" s="87"/>
+      <c r="K271" s="67"/>
       <c r="L271" s="86"/>
       <c r="M271" s="86"/>
       <c r="N271" s="86"/>
@@ -10552,8 +11186,8 @@
       <c r="G272" s="86"/>
       <c r="H272" s="67"/>
       <c r="I272" s="67"/>
-      <c r="J272" s="87"/>
-      <c r="K272" s="87"/>
+      <c r="J272" s="67"/>
+      <c r="K272" s="67"/>
       <c r="L272" s="86"/>
       <c r="M272" s="86"/>
       <c r="N272" s="86"/>
@@ -10574,8 +11208,8 @@
       <c r="G273" s="86"/>
       <c r="H273" s="67"/>
       <c r="I273" s="67"/>
-      <c r="J273" s="71"/>
-      <c r="K273" s="71"/>
+      <c r="J273" s="87"/>
+      <c r="K273" s="67"/>
       <c r="L273" s="86"/>
       <c r="M273" s="86"/>
       <c r="N273" s="86"/>
@@ -10596,8 +11230,8 @@
       <c r="G274" s="86"/>
       <c r="H274" s="67"/>
       <c r="I274" s="67"/>
-      <c r="J274" s="71"/>
-      <c r="K274" s="71"/>
+      <c r="J274" s="87"/>
+      <c r="K274" s="67"/>
       <c r="L274" s="86"/>
       <c r="M274" s="86"/>
       <c r="N274" s="86"/>
@@ -10618,7 +11252,7 @@
       <c r="G275" s="86"/>
       <c r="H275" s="67"/>
       <c r="I275" s="67"/>
-      <c r="J275" s="87"/>
+      <c r="J275" s="67"/>
       <c r="K275" s="67"/>
       <c r="L275" s="86"/>
       <c r="M275" s="86"/>
@@ -10684,7 +11318,7 @@
       <c r="G278" s="86"/>
       <c r="H278" s="67"/>
       <c r="I278" s="67"/>
-      <c r="J278" s="87"/>
+      <c r="J278" s="67"/>
       <c r="K278" s="67"/>
       <c r="L278" s="86"/>
       <c r="M278" s="86"/>
@@ -10706,7 +11340,7 @@
       <c r="G279" s="86"/>
       <c r="H279" s="67"/>
       <c r="I279" s="67"/>
-      <c r="J279" s="67"/>
+      <c r="J279" s="87"/>
       <c r="K279" s="67"/>
       <c r="L279" s="86"/>
       <c r="M279" s="86"/>
@@ -10794,8 +11428,8 @@
       <c r="G283" s="86"/>
       <c r="H283" s="67"/>
       <c r="I283" s="67"/>
-      <c r="J283" s="67"/>
-      <c r="K283" s="67"/>
+      <c r="J283" s="71"/>
+      <c r="K283" s="71"/>
       <c r="L283" s="86"/>
       <c r="M283" s="67"/>
       <c r="N283" s="86"/>
@@ -10817,7 +11451,7 @@
       <c r="H284" s="67"/>
       <c r="I284" s="67"/>
       <c r="J284" s="87"/>
-      <c r="K284" s="67"/>
+      <c r="K284" s="87"/>
       <c r="L284" s="86"/>
       <c r="M284" s="67"/>
       <c r="N284" s="86"/>
@@ -10839,7 +11473,7 @@
       <c r="H285" s="86"/>
       <c r="I285" s="67"/>
       <c r="J285" s="87"/>
-      <c r="K285" s="67"/>
+      <c r="K285" s="87"/>
       <c r="L285" s="86"/>
       <c r="M285" s="67"/>
       <c r="N285" s="86"/>
@@ -10882,7 +11516,7 @@
       <c r="G287" s="86"/>
       <c r="H287" s="86"/>
       <c r="I287" s="67"/>
-      <c r="J287" s="87"/>
+      <c r="J287" s="67"/>
       <c r="K287" s="67"/>
       <c r="L287" s="86"/>
       <c r="M287" s="67"/>
@@ -10904,7 +11538,7 @@
       <c r="G288" s="86"/>
       <c r="H288" s="86"/>
       <c r="I288" s="67"/>
-      <c r="J288" s="87"/>
+      <c r="J288" s="67"/>
       <c r="K288" s="67"/>
       <c r="L288" s="86"/>
       <c r="M288" s="67"/>
@@ -10948,7 +11582,7 @@
       <c r="G290" s="86"/>
       <c r="H290" s="86"/>
       <c r="I290" s="67"/>
-      <c r="J290" s="87"/>
+      <c r="J290" s="67"/>
       <c r="K290" s="67"/>
       <c r="L290" s="86"/>
       <c r="M290" s="67"/>
@@ -10970,7 +11604,7 @@
       <c r="G291" s="86"/>
       <c r="H291" s="86"/>
       <c r="I291" s="67"/>
-      <c r="J291" s="87"/>
+      <c r="J291" s="67"/>
       <c r="K291" s="67"/>
       <c r="L291" s="86"/>
       <c r="M291" s="67"/>
@@ -11014,7 +11648,7 @@
       <c r="G293" s="86"/>
       <c r="H293" s="86"/>
       <c r="I293" s="67"/>
-      <c r="J293" s="87"/>
+      <c r="J293" s="67"/>
       <c r="K293" s="67"/>
       <c r="L293" s="86"/>
       <c r="M293" s="67"/>
@@ -11036,8 +11670,8 @@
       <c r="G294" s="86"/>
       <c r="H294" s="86"/>
       <c r="I294" s="67"/>
-      <c r="J294" s="71"/>
-      <c r="K294" s="71"/>
+      <c r="J294" s="67"/>
+      <c r="K294" s="67"/>
       <c r="L294" s="86"/>
       <c r="M294" s="67"/>
       <c r="N294" s="86"/>
@@ -11058,8 +11692,8 @@
       <c r="G295" s="86"/>
       <c r="H295" s="86"/>
       <c r="I295" s="67"/>
-      <c r="J295" s="87"/>
-      <c r="K295" s="87"/>
+      <c r="J295" s="67"/>
+      <c r="K295" s="67"/>
       <c r="L295" s="86"/>
       <c r="M295" s="67"/>
       <c r="N295" s="86"/>
@@ -11080,8 +11714,8 @@
       <c r="G296" s="86"/>
       <c r="H296" s="86"/>
       <c r="I296" s="67"/>
-      <c r="J296" s="87"/>
-      <c r="K296" s="87"/>
+      <c r="J296" s="67"/>
+      <c r="K296" s="67"/>
       <c r="L296" s="86"/>
       <c r="M296" s="67"/>
       <c r="N296" s="86"/>
@@ -11586,7 +12220,7 @@
       <c r="G319" s="86"/>
       <c r="H319" s="67"/>
       <c r="I319" s="67"/>
-      <c r="J319" s="67"/>
+      <c r="J319" s="71"/>
       <c r="K319" s="67"/>
       <c r="L319" s="86"/>
       <c r="M319" s="86"/>
@@ -11608,7 +12242,7 @@
       <c r="G320" s="86"/>
       <c r="H320" s="86"/>
       <c r="I320" s="67"/>
-      <c r="J320" s="67"/>
+      <c r="J320" s="71"/>
       <c r="K320" s="67"/>
       <c r="L320" s="86"/>
       <c r="M320" s="86"/>
@@ -11630,8 +12264,8 @@
       <c r="G321" s="86"/>
       <c r="H321" s="86"/>
       <c r="I321" s="67"/>
-      <c r="J321" s="67"/>
-      <c r="K321" s="67"/>
+      <c r="J321" s="87"/>
+      <c r="K321" s="71"/>
       <c r="L321" s="86"/>
       <c r="M321" s="86"/>
       <c r="N321" s="86"/>
@@ -11652,8 +12286,8 @@
       <c r="G322" s="86"/>
       <c r="H322" s="86"/>
       <c r="I322" s="67"/>
-      <c r="J322" s="67"/>
-      <c r="K322" s="67"/>
+      <c r="J322" s="87"/>
+      <c r="K322" s="71"/>
       <c r="L322" s="86"/>
       <c r="M322" s="86"/>
       <c r="N322" s="86"/>
@@ -11675,7 +12309,7 @@
       <c r="H323" s="67"/>
       <c r="I323" s="67"/>
       <c r="J323" s="67"/>
-      <c r="K323" s="67"/>
+      <c r="K323" s="71"/>
       <c r="L323" s="86"/>
       <c r="M323" s="86"/>
       <c r="N323" s="86"/>
@@ -11696,8 +12330,8 @@
       <c r="G324" s="86"/>
       <c r="H324" s="67"/>
       <c r="I324" s="67"/>
-      <c r="J324" s="67"/>
-      <c r="K324" s="67"/>
+      <c r="J324" s="71"/>
+      <c r="K324" s="71"/>
       <c r="L324" s="86"/>
       <c r="M324" s="86"/>
       <c r="N324" s="86"/>
@@ -11718,8 +12352,8 @@
       <c r="G325" s="86"/>
       <c r="H325" s="67"/>
       <c r="I325" s="67"/>
-      <c r="J325" s="67"/>
-      <c r="K325" s="67"/>
+      <c r="J325" s="71"/>
+      <c r="K325" s="71"/>
       <c r="L325" s="86"/>
       <c r="M325" s="86"/>
       <c r="N325" s="86"/>
@@ -11740,8 +12374,8 @@
       <c r="G326" s="86"/>
       <c r="H326" s="67"/>
       <c r="I326" s="67"/>
-      <c r="J326" s="67"/>
-      <c r="K326" s="67"/>
+      <c r="J326" s="71"/>
+      <c r="K326" s="71"/>
       <c r="L326" s="86"/>
       <c r="M326" s="86"/>
       <c r="N326" s="86"/>
@@ -11762,8 +12396,8 @@
       <c r="G327" s="86"/>
       <c r="H327" s="67"/>
       <c r="I327" s="67"/>
-      <c r="J327" s="67"/>
-      <c r="K327" s="67"/>
+      <c r="J327" s="71"/>
+      <c r="K327" s="71"/>
       <c r="L327" s="86"/>
       <c r="M327" s="86"/>
       <c r="N327" s="86"/>
@@ -11784,8 +12418,8 @@
       <c r="G328" s="86"/>
       <c r="H328" s="67"/>
       <c r="I328" s="67"/>
-      <c r="J328" s="67"/>
-      <c r="K328" s="67"/>
+      <c r="J328" s="71"/>
+      <c r="K328" s="71"/>
       <c r="L328" s="86"/>
       <c r="M328" s="86"/>
       <c r="N328" s="86"/>
@@ -11806,8 +12440,8 @@
       <c r="G329" s="86"/>
       <c r="H329" s="67"/>
       <c r="I329" s="67"/>
-      <c r="J329" s="67"/>
-      <c r="K329" s="67"/>
+      <c r="J329" s="71"/>
+      <c r="K329" s="71"/>
       <c r="L329" s="86"/>
       <c r="M329" s="86"/>
       <c r="N329" s="86"/>
@@ -11829,7 +12463,7 @@
       <c r="H330" s="67"/>
       <c r="I330" s="67"/>
       <c r="J330" s="71"/>
-      <c r="K330" s="67"/>
+      <c r="K330" s="71"/>
       <c r="L330" s="86"/>
       <c r="M330" s="86"/>
       <c r="N330" s="86"/>
@@ -11851,7 +12485,7 @@
       <c r="H331" s="67"/>
       <c r="I331" s="67"/>
       <c r="J331" s="71"/>
-      <c r="K331" s="67"/>
+      <c r="K331" s="71"/>
       <c r="L331" s="86"/>
       <c r="M331" s="86"/>
       <c r="N331" s="86"/>
@@ -11872,7 +12506,7 @@
       <c r="G332" s="86"/>
       <c r="H332" s="67"/>
       <c r="I332" s="67"/>
-      <c r="J332" s="87"/>
+      <c r="J332" s="71"/>
       <c r="K332" s="71"/>
       <c r="L332" s="86"/>
       <c r="M332" s="86"/>
@@ -11894,7 +12528,7 @@
       <c r="G333" s="86"/>
       <c r="H333" s="67"/>
       <c r="I333" s="67"/>
-      <c r="J333" s="87"/>
+      <c r="J333" s="71"/>
       <c r="K333" s="71"/>
       <c r="L333" s="86"/>
       <c r="M333" s="86"/>
@@ -11916,7 +12550,7 @@
       <c r="G334" s="86"/>
       <c r="H334" s="67"/>
       <c r="I334" s="67"/>
-      <c r="J334" s="67"/>
+      <c r="J334" s="71"/>
       <c r="K334" s="71"/>
       <c r="L334" s="86"/>
       <c r="M334" s="86"/>
@@ -12247,7 +12881,7 @@
       <c r="H349" s="67"/>
       <c r="I349" s="67"/>
       <c r="J349" s="71"/>
-      <c r="K349" s="71"/>
+      <c r="K349" s="67"/>
       <c r="L349" s="86"/>
       <c r="M349" s="86"/>
       <c r="N349" s="86"/>
@@ -12269,7 +12903,7 @@
       <c r="H350" s="67"/>
       <c r="I350" s="67"/>
       <c r="J350" s="71"/>
-      <c r="K350" s="71"/>
+      <c r="K350" s="67"/>
       <c r="L350" s="86"/>
       <c r="M350" s="86"/>
       <c r="N350" s="86"/>
@@ -12291,7 +12925,7 @@
       <c r="H351" s="67"/>
       <c r="I351" s="67"/>
       <c r="J351" s="71"/>
-      <c r="K351" s="71"/>
+      <c r="K351" s="67"/>
       <c r="L351" s="86"/>
       <c r="M351" s="86"/>
       <c r="N351" s="86"/>
@@ -12312,8 +12946,8 @@
       <c r="G352" s="86"/>
       <c r="H352" s="67"/>
       <c r="I352" s="67"/>
-      <c r="J352" s="71"/>
-      <c r="K352" s="71"/>
+      <c r="J352" s="67"/>
+      <c r="K352" s="86"/>
       <c r="L352" s="86"/>
       <c r="M352" s="86"/>
       <c r="N352" s="86"/>
@@ -12334,8 +12968,8 @@
       <c r="G353" s="86"/>
       <c r="H353" s="67"/>
       <c r="I353" s="67"/>
-      <c r="J353" s="71"/>
-      <c r="K353" s="71"/>
+      <c r="J353" s="67"/>
+      <c r="K353" s="67"/>
       <c r="L353" s="86"/>
       <c r="M353" s="86"/>
       <c r="N353" s="86"/>
@@ -12356,8 +12990,8 @@
       <c r="G354" s="86"/>
       <c r="H354" s="67"/>
       <c r="I354" s="67"/>
-      <c r="J354" s="71"/>
-      <c r="K354" s="71"/>
+      <c r="J354" s="67"/>
+      <c r="K354" s="67"/>
       <c r="L354" s="86"/>
       <c r="M354" s="86"/>
       <c r="N354" s="86"/>
@@ -12378,8 +13012,8 @@
       <c r="G355" s="86"/>
       <c r="H355" s="67"/>
       <c r="I355" s="67"/>
-      <c r="J355" s="71"/>
-      <c r="K355" s="71"/>
+      <c r="J355" s="67"/>
+      <c r="K355" s="67"/>
       <c r="L355" s="86"/>
       <c r="M355" s="86"/>
       <c r="N355" s="86"/>
@@ -12400,8 +13034,8 @@
       <c r="G356" s="86"/>
       <c r="H356" s="67"/>
       <c r="I356" s="67"/>
-      <c r="J356" s="71"/>
-      <c r="K356" s="71"/>
+      <c r="J356" s="67"/>
+      <c r="K356" s="67"/>
       <c r="L356" s="86"/>
       <c r="M356" s="86"/>
       <c r="N356" s="86"/>
@@ -12422,8 +13056,8 @@
       <c r="G357" s="86"/>
       <c r="H357" s="67"/>
       <c r="I357" s="67"/>
-      <c r="J357" s="71"/>
-      <c r="K357" s="71"/>
+      <c r="J357" s="67"/>
+      <c r="K357" s="67"/>
       <c r="L357" s="86"/>
       <c r="M357" s="86"/>
       <c r="N357" s="86"/>
@@ -12444,8 +13078,8 @@
       <c r="G358" s="86"/>
       <c r="H358" s="67"/>
       <c r="I358" s="67"/>
-      <c r="J358" s="71"/>
-      <c r="K358" s="71"/>
+      <c r="J358" s="67"/>
+      <c r="K358" s="67"/>
       <c r="L358" s="86"/>
       <c r="M358" s="86"/>
       <c r="N358" s="86"/>
@@ -12466,8 +13100,8 @@
       <c r="G359" s="86"/>
       <c r="H359" s="67"/>
       <c r="I359" s="67"/>
-      <c r="J359" s="71"/>
-      <c r="K359" s="71"/>
+      <c r="J359" s="67"/>
+      <c r="K359" s="67"/>
       <c r="L359" s="86"/>
       <c r="M359" s="86"/>
       <c r="N359" s="86"/>
@@ -12488,7 +13122,7 @@
       <c r="G360" s="86"/>
       <c r="H360" s="67"/>
       <c r="I360" s="67"/>
-      <c r="J360" s="71"/>
+      <c r="J360" s="67"/>
       <c r="K360" s="67"/>
       <c r="L360" s="86"/>
       <c r="M360" s="86"/>
@@ -12510,8 +13144,8 @@
       <c r="G361" s="86"/>
       <c r="H361" s="67"/>
       <c r="I361" s="67"/>
-      <c r="J361" s="71"/>
-      <c r="K361" s="67"/>
+      <c r="J361" s="67"/>
+      <c r="K361" s="71"/>
       <c r="L361" s="86"/>
       <c r="M361" s="86"/>
       <c r="N361" s="86"/>
@@ -12532,8 +13166,8 @@
       <c r="G362" s="86"/>
       <c r="H362" s="67"/>
       <c r="I362" s="67"/>
-      <c r="J362" s="71"/>
-      <c r="K362" s="67"/>
+      <c r="J362" s="67"/>
+      <c r="K362" s="71"/>
       <c r="L362" s="86"/>
       <c r="M362" s="86"/>
       <c r="N362" s="86"/>
@@ -12555,7 +13189,7 @@
       <c r="H363" s="67"/>
       <c r="I363" s="67"/>
       <c r="J363" s="67"/>
-      <c r="K363" s="86"/>
+      <c r="K363" s="71"/>
       <c r="L363" s="67"/>
       <c r="M363" s="67"/>
       <c r="N363" s="86"/>
@@ -12576,7 +13210,7 @@
       <c r="G364" s="67"/>
       <c r="H364" s="67"/>
       <c r="I364" s="67"/>
-      <c r="J364" s="67"/>
+      <c r="J364" s="71"/>
       <c r="K364" s="67"/>
       <c r="L364" s="67"/>
       <c r="M364" s="67"/>
@@ -12598,7 +13232,7 @@
       <c r="G365" s="67"/>
       <c r="H365" s="67"/>
       <c r="I365" s="67"/>
-      <c r="J365" s="67"/>
+      <c r="J365" s="71"/>
       <c r="K365" s="67"/>
       <c r="L365" s="67"/>
       <c r="M365" s="67"/>
@@ -12620,7 +13254,7 @@
       <c r="G366" s="67"/>
       <c r="H366" s="67"/>
       <c r="I366" s="67"/>
-      <c r="J366" s="67"/>
+      <c r="J366" s="71"/>
       <c r="K366" s="67"/>
       <c r="L366" s="67"/>
       <c r="M366" s="67"/>
@@ -12753,7 +13387,7 @@
       <c r="H372" s="67"/>
       <c r="I372" s="67"/>
       <c r="J372" s="67"/>
-      <c r="K372" s="71"/>
+      <c r="K372" s="67"/>
       <c r="L372" s="86"/>
       <c r="M372" s="86"/>
       <c r="N372" s="86"/>
@@ -12775,7 +13409,7 @@
       <c r="H373" s="67"/>
       <c r="I373" s="67"/>
       <c r="J373" s="67"/>
-      <c r="K373" s="71"/>
+      <c r="K373" s="67"/>
       <c r="L373" s="86"/>
       <c r="M373" s="86"/>
       <c r="N373" s="86"/>
@@ -12797,7 +13431,7 @@
       <c r="H374" s="67"/>
       <c r="I374" s="67"/>
       <c r="J374" s="67"/>
-      <c r="K374" s="71"/>
+      <c r="K374" s="67"/>
       <c r="L374" s="86"/>
       <c r="M374" s="86"/>
       <c r="N374" s="86"/>
@@ -12818,7 +13452,7 @@
       <c r="G375" s="86"/>
       <c r="H375" s="67"/>
       <c r="I375" s="67"/>
-      <c r="J375" s="71"/>
+      <c r="J375" s="67"/>
       <c r="K375" s="67"/>
       <c r="L375" s="86"/>
       <c r="M375" s="86"/>
@@ -12840,7 +13474,7 @@
       <c r="G376" s="86"/>
       <c r="H376" s="67"/>
       <c r="I376" s="67"/>
-      <c r="J376" s="71"/>
+      <c r="J376" s="67"/>
       <c r="K376" s="67"/>
       <c r="L376" s="86"/>
       <c r="M376" s="86"/>
@@ -12862,7 +13496,7 @@
       <c r="G377" s="86"/>
       <c r="H377" s="67"/>
       <c r="I377" s="67"/>
-      <c r="J377" s="71"/>
+      <c r="J377" s="67"/>
       <c r="K377" s="67"/>
       <c r="L377" s="86"/>
       <c r="M377" s="86"/>
@@ -12972,7 +13606,7 @@
       <c r="G382" s="86"/>
       <c r="H382" s="67"/>
       <c r="I382" s="67"/>
-      <c r="J382" s="67"/>
+      <c r="J382" s="71"/>
       <c r="K382" s="67"/>
       <c r="L382" s="86"/>
       <c r="M382" s="86"/>
@@ -12994,7 +13628,7 @@
       <c r="G383" s="86"/>
       <c r="H383" s="67"/>
       <c r="I383" s="67"/>
-      <c r="J383" s="67"/>
+      <c r="J383" s="71"/>
       <c r="K383" s="67"/>
       <c r="L383" s="86"/>
       <c r="M383" s="86"/>
@@ -13016,7 +13650,7 @@
       <c r="G384" s="86"/>
       <c r="H384" s="67"/>
       <c r="I384" s="67"/>
-      <c r="J384" s="67"/>
+      <c r="J384" s="71"/>
       <c r="K384" s="67"/>
       <c r="L384" s="86"/>
       <c r="M384" s="86"/>
@@ -13038,7 +13672,7 @@
       <c r="G385" s="86"/>
       <c r="H385" s="67"/>
       <c r="I385" s="67"/>
-      <c r="J385" s="67"/>
+      <c r="J385" s="71"/>
       <c r="K385" s="67"/>
       <c r="L385" s="86"/>
       <c r="M385" s="86"/>
@@ -13060,7 +13694,7 @@
       <c r="G386" s="86"/>
       <c r="H386" s="67"/>
       <c r="I386" s="67"/>
-      <c r="J386" s="67"/>
+      <c r="J386" s="71"/>
       <c r="K386" s="67"/>
       <c r="L386" s="86"/>
       <c r="M386" s="86"/>
@@ -13082,7 +13716,7 @@
       <c r="G387" s="86"/>
       <c r="H387" s="67"/>
       <c r="I387" s="67"/>
-      <c r="J387" s="67"/>
+      <c r="J387" s="71"/>
       <c r="K387" s="67"/>
       <c r="L387" s="86"/>
       <c r="M387" s="86"/>
@@ -13214,7 +13848,7 @@
       <c r="G393" s="86"/>
       <c r="H393" s="67"/>
       <c r="I393" s="67"/>
-      <c r="J393" s="71"/>
+      <c r="J393" s="67"/>
       <c r="K393" s="67"/>
       <c r="L393" s="86"/>
       <c r="M393" s="86"/>
@@ -13236,7 +13870,7 @@
       <c r="G394" s="86"/>
       <c r="H394" s="67"/>
       <c r="I394" s="67"/>
-      <c r="J394" s="71"/>
+      <c r="J394" s="67"/>
       <c r="K394" s="67"/>
       <c r="L394" s="86"/>
       <c r="M394" s="86"/>
@@ -13258,7 +13892,7 @@
       <c r="G395" s="86"/>
       <c r="H395" s="67"/>
       <c r="I395" s="67"/>
-      <c r="J395" s="71"/>
+      <c r="J395" s="67"/>
       <c r="K395" s="67"/>
       <c r="L395" s="86"/>
       <c r="M395" s="86"/>
@@ -13280,7 +13914,7 @@
       <c r="G396" s="86"/>
       <c r="H396" s="67"/>
       <c r="I396" s="67"/>
-      <c r="J396" s="71"/>
+      <c r="J396" s="67"/>
       <c r="K396" s="67"/>
       <c r="L396" s="86"/>
       <c r="M396" s="86"/>
@@ -13302,7 +13936,7 @@
       <c r="G397" s="86"/>
       <c r="H397" s="67"/>
       <c r="I397" s="67"/>
-      <c r="J397" s="71"/>
+      <c r="J397" s="67"/>
       <c r="K397" s="67"/>
       <c r="L397" s="86"/>
       <c r="M397" s="86"/>
@@ -13324,7 +13958,7 @@
       <c r="G398" s="86"/>
       <c r="H398" s="67"/>
       <c r="I398" s="67"/>
-      <c r="J398" s="71"/>
+      <c r="J398" s="67"/>
       <c r="K398" s="67"/>
       <c r="L398" s="86"/>
       <c r="M398" s="86"/>
@@ -13391,7 +14025,7 @@
       <c r="H401" s="67"/>
       <c r="I401" s="67"/>
       <c r="J401" s="67"/>
-      <c r="K401" s="67"/>
+      <c r="K401" s="87"/>
       <c r="L401" s="86"/>
       <c r="M401" s="86"/>
       <c r="N401" s="86"/>
@@ -13413,7 +14047,7 @@
       <c r="H402" s="67"/>
       <c r="I402" s="67"/>
       <c r="J402" s="67"/>
-      <c r="K402" s="67"/>
+      <c r="K402" s="87"/>
       <c r="L402" s="86"/>
       <c r="M402" s="86"/>
       <c r="N402" s="86"/>
@@ -13435,7 +14069,7 @@
       <c r="H403" s="67"/>
       <c r="I403" s="67"/>
       <c r="J403" s="67"/>
-      <c r="K403" s="67"/>
+      <c r="K403" s="87"/>
       <c r="L403" s="86"/>
       <c r="M403" s="86"/>
       <c r="N403" s="86"/>
@@ -13456,8 +14090,8 @@
       <c r="G404" s="86"/>
       <c r="H404" s="67"/>
       <c r="I404" s="67"/>
-      <c r="J404" s="67"/>
-      <c r="K404" s="67"/>
+      <c r="J404" s="87"/>
+      <c r="K404" s="87"/>
       <c r="L404" s="86"/>
       <c r="M404" s="86"/>
       <c r="N404" s="86"/>
@@ -13478,8 +14112,8 @@
       <c r="G405" s="86"/>
       <c r="H405" s="67"/>
       <c r="I405" s="67"/>
-      <c r="J405" s="67"/>
-      <c r="K405" s="67"/>
+      <c r="J405" s="87"/>
+      <c r="K405" s="87"/>
       <c r="L405" s="86"/>
       <c r="M405" s="86"/>
       <c r="N405" s="86"/>
@@ -13500,8 +14134,8 @@
       <c r="G406" s="86"/>
       <c r="H406" s="67"/>
       <c r="I406" s="67"/>
-      <c r="J406" s="67"/>
-      <c r="K406" s="67"/>
+      <c r="J406" s="87"/>
+      <c r="K406" s="87"/>
       <c r="L406" s="86"/>
       <c r="M406" s="86"/>
       <c r="N406" s="86"/>
@@ -13522,7 +14156,7 @@
       <c r="G407" s="86"/>
       <c r="H407" s="67"/>
       <c r="I407" s="67"/>
-      <c r="J407" s="67"/>
+      <c r="J407" s="87"/>
       <c r="K407" s="67"/>
       <c r="L407" s="86"/>
       <c r="M407" s="86"/>
@@ -13544,7 +14178,7 @@
       <c r="G408" s="86"/>
       <c r="H408" s="67"/>
       <c r="I408" s="67"/>
-      <c r="J408" s="67"/>
+      <c r="J408" s="87"/>
       <c r="K408" s="67"/>
       <c r="L408" s="86"/>
       <c r="M408" s="86"/>
@@ -13566,7 +14200,7 @@
       <c r="G409" s="86"/>
       <c r="H409" s="67"/>
       <c r="I409" s="67"/>
-      <c r="J409" s="67"/>
+      <c r="J409" s="87"/>
       <c r="K409" s="67"/>
       <c r="L409" s="86"/>
       <c r="M409" s="86"/>
@@ -13589,7 +14223,7 @@
       <c r="H410" s="67"/>
       <c r="I410" s="67"/>
       <c r="J410" s="67"/>
-      <c r="K410" s="67"/>
+      <c r="K410" s="71"/>
       <c r="L410" s="86"/>
       <c r="M410" s="86"/>
       <c r="N410" s="86"/>
@@ -13611,7 +14245,7 @@
       <c r="H411" s="67"/>
       <c r="I411" s="67"/>
       <c r="J411" s="67"/>
-      <c r="K411" s="67"/>
+      <c r="K411" s="71"/>
       <c r="L411" s="86"/>
       <c r="M411" s="86"/>
       <c r="N411" s="86"/>
@@ -13633,7 +14267,7 @@
       <c r="H412" s="67"/>
       <c r="I412" s="67"/>
       <c r="J412" s="67"/>
-      <c r="K412" s="87"/>
+      <c r="K412" s="71"/>
       <c r="L412" s="86"/>
       <c r="M412" s="86"/>
       <c r="N412" s="86"/>
@@ -13654,8 +14288,8 @@
       <c r="G413" s="86"/>
       <c r="H413" s="67"/>
       <c r="I413" s="67"/>
-      <c r="J413" s="67"/>
-      <c r="K413" s="87"/>
+      <c r="J413" s="71"/>
+      <c r="K413" s="71"/>
       <c r="L413" s="86"/>
       <c r="M413" s="86"/>
       <c r="N413" s="86"/>
@@ -13676,8 +14310,8 @@
       <c r="G414" s="86"/>
       <c r="H414" s="67"/>
       <c r="I414" s="67"/>
-      <c r="J414" s="67"/>
-      <c r="K414" s="87"/>
+      <c r="J414" s="71"/>
+      <c r="K414" s="71"/>
       <c r="L414" s="86"/>
       <c r="M414" s="86"/>
       <c r="N414" s="86"/>
@@ -13698,8 +14332,8 @@
       <c r="G415" s="86"/>
       <c r="H415" s="67"/>
       <c r="I415" s="67"/>
-      <c r="J415" s="87"/>
-      <c r="K415" s="87"/>
+      <c r="J415" s="71"/>
+      <c r="K415" s="67"/>
       <c r="L415" s="86"/>
       <c r="M415" s="86"/>
       <c r="N415" s="86"/>
@@ -13720,8 +14354,8 @@
       <c r="G416" s="86"/>
       <c r="H416" s="67"/>
       <c r="I416" s="67"/>
-      <c r="J416" s="87"/>
-      <c r="K416" s="87"/>
+      <c r="J416" s="71"/>
+      <c r="K416" s="67"/>
       <c r="L416" s="86"/>
       <c r="M416" s="86"/>
       <c r="N416" s="86"/>
@@ -13742,8 +14376,8 @@
       <c r="G417" s="86"/>
       <c r="H417" s="67"/>
       <c r="I417" s="67"/>
-      <c r="J417" s="87"/>
-      <c r="K417" s="87"/>
+      <c r="J417" s="71"/>
+      <c r="K417" s="67"/>
       <c r="L417" s="86"/>
       <c r="M417" s="86"/>
       <c r="N417" s="86"/>
@@ -13764,7 +14398,7 @@
       <c r="G418" s="86"/>
       <c r="H418" s="67"/>
       <c r="I418" s="67"/>
-      <c r="J418" s="87"/>
+      <c r="J418" s="67"/>
       <c r="K418" s="67"/>
       <c r="L418" s="86"/>
       <c r="M418" s="86"/>
@@ -13786,8 +14420,8 @@
       <c r="G419" s="86"/>
       <c r="H419" s="67"/>
       <c r="I419" s="67"/>
-      <c r="J419" s="87"/>
-      <c r="K419" s="67"/>
+      <c r="J419" s="67"/>
+      <c r="K419" s="87"/>
       <c r="L419" s="86"/>
       <c r="M419" s="86"/>
       <c r="N419" s="86"/>
@@ -13808,8 +14442,8 @@
       <c r="G420" s="86"/>
       <c r="H420" s="67"/>
       <c r="I420" s="67"/>
-      <c r="J420" s="87"/>
-      <c r="K420" s="67"/>
+      <c r="J420" s="67"/>
+      <c r="K420" s="87"/>
       <c r="L420" s="86"/>
       <c r="M420" s="86"/>
       <c r="N420" s="86"/>
@@ -13831,7 +14465,7 @@
       <c r="H421" s="67"/>
       <c r="I421" s="67"/>
       <c r="J421" s="67"/>
-      <c r="K421" s="71"/>
+      <c r="K421" s="87"/>
       <c r="L421" s="86"/>
       <c r="M421" s="86"/>
       <c r="N421" s="86"/>
@@ -13852,8 +14486,8 @@
       <c r="G422" s="86"/>
       <c r="H422" s="67"/>
       <c r="I422" s="67"/>
-      <c r="J422" s="67"/>
-      <c r="K422" s="71"/>
+      <c r="J422" s="87"/>
+      <c r="K422" s="87"/>
       <c r="L422" s="86"/>
       <c r="M422" s="86"/>
       <c r="N422" s="86"/>
@@ -13874,8 +14508,8 @@
       <c r="G423" s="86"/>
       <c r="H423" s="67"/>
       <c r="I423" s="67"/>
-      <c r="J423" s="67"/>
-      <c r="K423" s="71"/>
+      <c r="J423" s="87"/>
+      <c r="K423" s="87"/>
       <c r="L423" s="86"/>
       <c r="M423" s="86"/>
       <c r="N423" s="86"/>
@@ -13896,8 +14530,8 @@
       <c r="G424" s="86"/>
       <c r="H424" s="67"/>
       <c r="I424" s="67"/>
-      <c r="J424" s="71"/>
-      <c r="K424" s="71"/>
+      <c r="J424" s="87"/>
+      <c r="K424" s="87"/>
       <c r="L424" s="86"/>
       <c r="M424" s="86"/>
       <c r="N424" s="86"/>
@@ -13918,8 +14552,8 @@
       <c r="G425" s="86"/>
       <c r="H425" s="67"/>
       <c r="I425" s="67"/>
-      <c r="J425" s="71"/>
-      <c r="K425" s="71"/>
+      <c r="J425" s="87"/>
+      <c r="K425" s="87"/>
       <c r="L425" s="86"/>
       <c r="M425" s="86"/>
       <c r="N425" s="86"/>
@@ -13940,8 +14574,8 @@
       <c r="G426" s="86"/>
       <c r="H426" s="67"/>
       <c r="I426" s="67"/>
-      <c r="J426" s="71"/>
-      <c r="K426" s="67"/>
+      <c r="J426" s="87"/>
+      <c r="K426" s="87"/>
       <c r="L426" s="86"/>
       <c r="M426" s="86"/>
       <c r="N426" s="86"/>
@@ -13962,7 +14596,7 @@
       <c r="G427" s="86"/>
       <c r="H427" s="67"/>
       <c r="I427" s="67"/>
-      <c r="J427" s="71"/>
+      <c r="J427" s="87"/>
       <c r="K427" s="67"/>
       <c r="L427" s="86"/>
       <c r="M427" s="86"/>
@@ -13984,7 +14618,7 @@
       <c r="G428" s="86"/>
       <c r="H428" s="67"/>
       <c r="I428" s="67"/>
-      <c r="J428" s="71"/>
+      <c r="J428" s="87"/>
       <c r="K428" s="67"/>
       <c r="L428" s="86"/>
       <c r="M428" s="86"/>
@@ -14006,7 +14640,7 @@
       <c r="G429" s="86"/>
       <c r="H429" s="67"/>
       <c r="I429" s="67"/>
-      <c r="J429" s="67"/>
+      <c r="J429" s="87"/>
       <c r="K429" s="67"/>
       <c r="L429" s="86"/>
       <c r="M429" s="86"/>
@@ -14029,7 +14663,7 @@
       <c r="H430" s="67"/>
       <c r="I430" s="67"/>
       <c r="J430" s="67"/>
-      <c r="K430" s="87"/>
+      <c r="K430" s="67"/>
       <c r="L430" s="86"/>
       <c r="M430" s="86"/>
       <c r="N430" s="86"/>
@@ -14051,7 +14685,7 @@
       <c r="H431" s="67"/>
       <c r="I431" s="67"/>
       <c r="J431" s="67"/>
-      <c r="K431" s="87"/>
+      <c r="K431" s="67"/>
       <c r="L431" s="86"/>
       <c r="M431" s="86"/>
       <c r="N431" s="86"/>
@@ -14073,7 +14707,7 @@
       <c r="H432" s="67"/>
       <c r="I432" s="67"/>
       <c r="J432" s="67"/>
-      <c r="K432" s="87"/>
+      <c r="K432" s="67"/>
       <c r="L432" s="86"/>
       <c r="M432" s="86"/>
       <c r="N432" s="86"/>
@@ -14094,8 +14728,8 @@
       <c r="G433" s="86"/>
       <c r="H433" s="67"/>
       <c r="I433" s="67"/>
-      <c r="J433" s="87"/>
-      <c r="K433" s="87"/>
+      <c r="J433" s="67"/>
+      <c r="K433" s="67"/>
       <c r="L433" s="86"/>
       <c r="M433" s="86"/>
       <c r="N433" s="86"/>
@@ -14116,8 +14750,8 @@
       <c r="G434" s="86"/>
       <c r="H434" s="67"/>
       <c r="I434" s="67"/>
-      <c r="J434" s="87"/>
-      <c r="K434" s="87"/>
+      <c r="J434" s="67"/>
+      <c r="K434" s="67"/>
       <c r="L434" s="86"/>
       <c r="M434" s="86"/>
       <c r="N434" s="86"/>
@@ -14138,8 +14772,8 @@
       <c r="G435" s="86"/>
       <c r="H435" s="67"/>
       <c r="I435" s="67"/>
-      <c r="J435" s="87"/>
-      <c r="K435" s="87"/>
+      <c r="J435" s="67"/>
+      <c r="K435" s="67"/>
       <c r="L435" s="86"/>
       <c r="M435" s="86"/>
       <c r="N435" s="86"/>
@@ -14160,8 +14794,8 @@
       <c r="G436" s="86"/>
       <c r="H436" s="67"/>
       <c r="I436" s="67"/>
-      <c r="J436" s="87"/>
-      <c r="K436" s="87"/>
+      <c r="J436" s="67"/>
+      <c r="K436" s="67"/>
       <c r="L436" s="86"/>
       <c r="M436" s="86"/>
       <c r="N436" s="86"/>
@@ -14182,8 +14816,8 @@
       <c r="G437" s="86"/>
       <c r="H437" s="67"/>
       <c r="I437" s="67"/>
-      <c r="J437" s="87"/>
-      <c r="K437" s="87"/>
+      <c r="J437" s="67"/>
+      <c r="K437" s="67"/>
       <c r="L437" s="86"/>
       <c r="M437" s="86"/>
       <c r="N437" s="86"/>
@@ -14204,7 +14838,7 @@
       <c r="G438" s="86"/>
       <c r="H438" s="67"/>
       <c r="I438" s="67"/>
-      <c r="J438" s="87"/>
+      <c r="J438" s="67"/>
       <c r="K438" s="67"/>
       <c r="L438" s="86"/>
       <c r="M438" s="86"/>
@@ -14226,7 +14860,7 @@
       <c r="G439" s="86"/>
       <c r="H439" s="67"/>
       <c r="I439" s="67"/>
-      <c r="J439" s="87"/>
+      <c r="J439" s="67"/>
       <c r="K439" s="67"/>
       <c r="L439" s="86"/>
       <c r="M439" s="86"/>
@@ -14248,7 +14882,7 @@
       <c r="G440" s="86"/>
       <c r="H440" s="67"/>
       <c r="I440" s="67"/>
-      <c r="J440" s="87"/>
+      <c r="J440" s="67"/>
       <c r="K440" s="67"/>
       <c r="L440" s="86"/>
       <c r="M440" s="86"/>
@@ -25511,9 +26145,6 @@
       <c r="F952" s="67"/>
       <c r="G952" s="67"/>
       <c r="H952" s="67"/>
-      <c r="I952" s="67"/>
-      <c r="J952" s="67"/>
-      <c r="K952" s="67"/>
       <c r="L952" s="67"/>
       <c r="M952" s="67"/>
       <c r="N952" s="67"/>
@@ -25533,9 +26164,6 @@
       <c r="F953" s="67"/>
       <c r="G953" s="67"/>
       <c r="H953" s="67"/>
-      <c r="I953" s="67"/>
-      <c r="J953" s="67"/>
-      <c r="K953" s="67"/>
       <c r="L953" s="67"/>
       <c r="M953" s="67"/>
       <c r="N953" s="67"/>
@@ -25555,9 +26183,6 @@
       <c r="F954" s="67"/>
       <c r="G954" s="67"/>
       <c r="H954" s="67"/>
-      <c r="I954" s="67"/>
-      <c r="J954" s="67"/>
-      <c r="K954" s="67"/>
       <c r="L954" s="67"/>
       <c r="M954" s="67"/>
       <c r="N954" s="67"/>
@@ -25577,9 +26202,6 @@
       <c r="F955" s="67"/>
       <c r="G955" s="67"/>
       <c r="H955" s="67"/>
-      <c r="I955" s="67"/>
-      <c r="J955" s="67"/>
-      <c r="K955" s="67"/>
       <c r="L955" s="67"/>
       <c r="M955" s="67"/>
       <c r="N955" s="67"/>
@@ -25599,9 +26221,6 @@
       <c r="F956" s="67"/>
       <c r="G956" s="67"/>
       <c r="H956" s="67"/>
-      <c r="I956" s="67"/>
-      <c r="J956" s="67"/>
-      <c r="K956" s="67"/>
       <c r="L956" s="67"/>
       <c r="M956" s="67"/>
       <c r="N956" s="67"/>
@@ -25621,9 +26240,6 @@
       <c r="F957" s="67"/>
       <c r="G957" s="67"/>
       <c r="H957" s="67"/>
-      <c r="I957" s="67"/>
-      <c r="J957" s="67"/>
-      <c r="K957" s="67"/>
       <c r="L957" s="67"/>
       <c r="M957" s="67"/>
       <c r="N957" s="67"/>
@@ -25643,9 +26259,6 @@
       <c r="F958" s="67"/>
       <c r="G958" s="67"/>
       <c r="H958" s="67"/>
-      <c r="I958" s="67"/>
-      <c r="J958" s="67"/>
-      <c r="K958" s="67"/>
       <c r="L958" s="67"/>
       <c r="M958" s="67"/>
       <c r="N958" s="67"/>
@@ -25665,9 +26278,6 @@
       <c r="F959" s="67"/>
       <c r="G959" s="67"/>
       <c r="H959" s="67"/>
-      <c r="I959" s="67"/>
-      <c r="J959" s="67"/>
-      <c r="K959" s="67"/>
       <c r="L959" s="67"/>
       <c r="M959" s="67"/>
       <c r="N959" s="67"/>
@@ -25687,9 +26297,6 @@
       <c r="F960" s="67"/>
       <c r="G960" s="67"/>
       <c r="H960" s="67"/>
-      <c r="I960" s="67"/>
-      <c r="J960" s="67"/>
-      <c r="K960" s="67"/>
       <c r="L960" s="67"/>
       <c r="M960" s="67"/>
       <c r="N960" s="67"/>
@@ -25709,9 +26316,6 @@
       <c r="F961" s="67"/>
       <c r="G961" s="67"/>
       <c r="H961" s="67"/>
-      <c r="I961" s="67"/>
-      <c r="J961" s="67"/>
-      <c r="K961" s="67"/>
       <c r="L961" s="67"/>
       <c r="M961" s="67"/>
       <c r="N961" s="67"/>
@@ -25731,9 +26335,6 @@
       <c r="F962" s="67"/>
       <c r="G962" s="67"/>
       <c r="H962" s="67"/>
-      <c r="I962" s="67"/>
-      <c r="J962" s="67"/>
-      <c r="K962" s="67"/>
       <c r="L962" s="67"/>
       <c r="M962" s="67"/>
       <c r="N962" s="67"/>

--- a/MiscSmallUploads_Apr2025.xlsx
+++ b/MiscSmallUploads_Apr2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4AA935-5BAF-9241-8B1D-79E5BD21225D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B4AB41-2389-6244-AD46-C60FE15320D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="6820" windowWidth="27720" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="8800" windowWidth="27720" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="152">
   <si>
     <r>
       <rPr>
@@ -535,6 +535,57 @@
   </si>
   <si>
     <t>10.1016/j.vacuum.2025.114110</t>
+  </si>
+  <si>
+    <t>AAM+CR+RX+WQ</t>
+  </si>
+  <si>
+    <t>cold rolled with 80% reduction; recrystallized at 1123K for 30min in vacuum and quenched in water</t>
+  </si>
+  <si>
+    <t>HCP</t>
+  </si>
+  <si>
+    <t>TiZrHf</t>
+  </si>
+  <si>
+    <t>TiZrHfNb0.1</t>
+  </si>
+  <si>
+    <t>TiZrHfNb0.2</t>
+  </si>
+  <si>
+    <t>TiZrHfNb0.3</t>
+  </si>
+  <si>
+    <t>TiZrHfNb0.4</t>
+  </si>
+  <si>
+    <t>TiZrHfNb0.6</t>
+  </si>
+  <si>
+    <t>TiZrHfNb0.8</t>
+  </si>
+  <si>
+    <t>TiZrHfNb1.0</t>
+  </si>
+  <si>
+    <t>HCP+BCC</t>
+  </si>
+  <si>
+    <t>prepared only to evaluate minimum Nb content to get single BCC phase; cold rolled with 80% reduction; recrystallized at 1123K for 30min in vacuum and quenched in water</t>
+  </si>
+  <si>
+    <t>F2a</t>
+  </si>
+  <si>
+    <t>F2c</t>
+  </si>
+  <si>
+    <t>10.1016/j.actamat.2024.120614</t>
+  </si>
+  <si>
+    <t>P2</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,7 +1716,6 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="11" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2970,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98:H98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3182,228 +3232,228 @@
       <c r="A7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="93">
+      <c r="I7" s="92">
         <v>298</v>
       </c>
-      <c r="J7" s="92" t="s">
+      <c r="J7" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="92" t="s">
+      <c r="M7" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="94"/>
-      <c r="P7" s="95" t="s">
+      <c r="O7" s="93"/>
+      <c r="P7" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="96" t="s">
+      <c r="R7" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="97"/>
+      <c r="S7" s="96"/>
       <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="89"/>
-      <c r="B8" s="107" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110" t="s">
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="115" t="s">
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="116"/>
-      <c r="O8" s="117" t="s">
+      <c r="N8" s="115"/>
+      <c r="O8" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="118" t="s">
+      <c r="P8" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="121"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="120"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="124" t="s">
+      <c r="E9" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="125" t="s">
+      <c r="F9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="126" t="s">
+      <c r="G9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="126" t="s">
+      <c r="H9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="126" t="s">
+      <c r="I9" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="126" t="s">
+      <c r="J9" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="126" t="s">
+      <c r="K9" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="127" t="s">
+      <c r="L9" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="128" t="s">
+      <c r="M9" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="129" t="s">
+      <c r="N9" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="130"/>
-      <c r="P9" s="131" t="s">
+      <c r="O9" s="129"/>
+      <c r="P9" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" s="132" t="s">
+      <c r="Q9" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="132" t="s">
+      <c r="R9" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="S9" s="132" t="s">
+      <c r="S9" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="T9" s="133" t="s">
+      <c r="T9" s="132" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
       <c r="A10" s="52"/>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="100" t="s">
+      <c r="E10" s="97"/>
+      <c r="F10" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="102">
+      <c r="H10" s="100"/>
+      <c r="I10" s="101">
         <v>298</v>
       </c>
-      <c r="J10" s="103">
+      <c r="J10" s="102">
         <f>P10*9807000</f>
         <v>6590304000</v>
       </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="100" t="s">
+      <c r="K10" s="102"/>
+      <c r="L10" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="100" t="s">
+      <c r="M10" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="104" t="s">
+      <c r="N10" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="O10" s="105"/>
-      <c r="P10" s="106">
+      <c r="O10" s="104"/>
+      <c r="P10" s="105">
         <v>672</v>
       </c>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="98" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="100" t="s">
+      <c r="G11" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="55"/>
-      <c r="I11" s="102">
+      <c r="I11" s="101">
         <v>298</v>
       </c>
       <c r="J11" s="57">
         <v>953000000</v>
       </c>
       <c r="K11" s="57"/>
-      <c r="L11" s="100" t="s">
+      <c r="L11" s="99" t="s">
         <v>33</v>
       </c>
       <c r="M11" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="104" t="s">
+      <c r="N11" s="103" t="s">
         <v>89</v>
       </c>
       <c r="O11" s="59"/>
@@ -3415,37 +3465,37 @@
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="52"/>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="98" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="100" t="s">
+      <c r="G12" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="55"/>
-      <c r="I12" s="102">
+      <c r="I12" s="101">
         <v>298</v>
       </c>
       <c r="J12" s="57">
         <v>1159000000</v>
       </c>
       <c r="K12" s="57"/>
-      <c r="L12" s="100" t="s">
+      <c r="L12" s="99" t="s">
         <v>33</v>
       </c>
       <c r="M12" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="104" t="s">
+      <c r="N12" s="103" t="s">
         <v>89</v>
       </c>
       <c r="O12" s="59"/>
@@ -3457,37 +3507,37 @@
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="52"/>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="98" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="100" t="s">
+      <c r="G13" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="55"/>
-      <c r="I13" s="102">
+      <c r="I13" s="101">
         <v>298</v>
       </c>
       <c r="J13" s="57">
         <v>13.4</v>
       </c>
       <c r="K13" s="57"/>
-      <c r="L13" s="100" t="s">
+      <c r="L13" s="99" t="s">
         <v>67</v>
       </c>
       <c r="M13" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="104" t="s">
+      <c r="N13" s="103" t="s">
         <v>89</v>
       </c>
       <c r="O13" s="59"/>
@@ -3499,37 +3549,37 @@
     </row>
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="98" t="s">
         <v>86</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="100" t="s">
+      <c r="G14" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="55"/>
-      <c r="I14" s="102">
+      <c r="I14" s="101">
         <v>298</v>
       </c>
       <c r="J14" s="57">
         <v>984000000</v>
       </c>
       <c r="K14" s="57"/>
-      <c r="L14" s="100" t="s">
+      <c r="L14" s="99" t="s">
         <v>33</v>
       </c>
       <c r="M14" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="104" t="s">
+      <c r="N14" s="103" t="s">
         <v>89</v>
       </c>
       <c r="O14" s="59"/>
@@ -3541,37 +3591,37 @@
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="52"/>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="98" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="100" t="s">
+      <c r="G15" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="55"/>
-      <c r="I15" s="102">
+      <c r="I15" s="101">
         <v>298</v>
       </c>
-      <c r="J15" s="87">
+      <c r="J15" s="86">
         <v>1176000000</v>
       </c>
       <c r="K15" s="57"/>
-      <c r="L15" s="100" t="s">
+      <c r="L15" s="99" t="s">
         <v>33</v>
       </c>
       <c r="M15" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="104" t="s">
+      <c r="N15" s="103" t="s">
         <v>89</v>
       </c>
       <c r="O15" s="59"/>
@@ -3583,37 +3633,37 @@
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="52"/>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="98" t="s">
         <v>86</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="100" t="s">
+      <c r="G16" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="55"/>
-      <c r="I16" s="102">
+      <c r="I16" s="101">
         <v>298</v>
       </c>
       <c r="J16" s="59">
         <v>10.7</v>
       </c>
       <c r="K16" s="60"/>
-      <c r="L16" s="100" t="s">
+      <c r="L16" s="99" t="s">
         <v>67</v>
       </c>
       <c r="M16" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="104" t="s">
+      <c r="N16" s="103" t="s">
         <v>89</v>
       </c>
       <c r="O16" s="59"/>
@@ -3625,20 +3675,20 @@
     </row>
     <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="60"/>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="98" t="s">
         <v>85</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="100" t="s">
+      <c r="G17" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="55" t="s">
@@ -3647,17 +3697,17 @@
       <c r="I17" s="56">
         <v>1273</v>
       </c>
-      <c r="J17" s="87">
+      <c r="J17" s="86">
         <v>90000000</v>
       </c>
       <c r="K17" s="60"/>
-      <c r="L17" s="100" t="s">
+      <c r="L17" s="99" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="104" t="s">
+      <c r="N17" s="103" t="s">
         <v>89</v>
       </c>
       <c r="O17" s="59"/>
@@ -3669,20 +3719,20 @@
     </row>
     <row r="18" spans="1:20" ht="18.75" customHeight="1">
       <c r="A18" s="60"/>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="98" t="s">
         <v>85</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="100" t="s">
+      <c r="G18" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="55" t="s">
@@ -3691,17 +3741,17 @@
       <c r="I18" s="56">
         <v>1273</v>
       </c>
-      <c r="J18" s="87">
+      <c r="J18" s="86">
         <v>148000000</v>
       </c>
       <c r="K18" s="60"/>
-      <c r="L18" s="100" t="s">
+      <c r="L18" s="99" t="s">
         <v>33</v>
       </c>
       <c r="M18" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="N18" s="104" t="s">
+      <c r="N18" s="103" t="s">
         <v>89</v>
       </c>
       <c r="O18" s="59"/>
@@ -3713,20 +3763,20 @@
     </row>
     <row r="19" spans="1:20" ht="18.75" customHeight="1">
       <c r="A19" s="60"/>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="98" t="s">
         <v>85</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="100" t="s">
+      <c r="G19" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="55" t="s">
@@ -3739,13 +3789,13 @@
         <v>60</v>
       </c>
       <c r="K19" s="60"/>
-      <c r="L19" s="100" t="s">
+      <c r="L19" s="99" t="s">
         <v>67</v>
       </c>
       <c r="M19" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="N19" s="104" t="s">
+      <c r="N19" s="103" t="s">
         <v>89</v>
       </c>
       <c r="O19" s="59"/>
@@ -3757,20 +3807,20 @@
     </row>
     <row r="20" spans="1:20" ht="18.75" customHeight="1">
       <c r="A20" s="60"/>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="98" t="s">
         <v>85</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="100" t="s">
+      <c r="G20" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="55" t="s">
@@ -3779,17 +3829,17 @@
       <c r="I20" s="56">
         <v>1423</v>
       </c>
-      <c r="J20" s="87">
+      <c r="J20" s="86">
         <v>53000000</v>
       </c>
       <c r="K20" s="60"/>
-      <c r="L20" s="100" t="s">
+      <c r="L20" s="99" t="s">
         <v>33</v>
       </c>
       <c r="M20" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="104" t="s">
+      <c r="N20" s="103" t="s">
         <v>89</v>
       </c>
       <c r="O20" s="59"/>
@@ -3801,20 +3851,20 @@
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1">
       <c r="A21" s="60"/>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="98" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="100" t="s">
+      <c r="G21" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="55" t="s">
@@ -3823,17 +3873,17 @@
       <c r="I21" s="56">
         <v>1423</v>
       </c>
-      <c r="J21" s="87">
+      <c r="J21" s="86">
         <v>60000000</v>
       </c>
       <c r="K21" s="60"/>
-      <c r="L21" s="100" t="s">
+      <c r="L21" s="99" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="104" t="s">
+      <c r="N21" s="103" t="s">
         <v>89</v>
       </c>
       <c r="O21" s="59"/>
@@ -3845,20 +3895,20 @@
     </row>
     <row r="22" spans="1:20" ht="18.75" customHeight="1">
       <c r="A22" s="60"/>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="98" t="s">
         <v>85</v>
       </c>
       <c r="E22" s="53"/>
       <c r="F22" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="100" t="s">
+      <c r="G22" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="55" t="s">
@@ -3871,13 +3921,13 @@
         <v>60</v>
       </c>
       <c r="K22" s="57"/>
-      <c r="L22" s="100" t="s">
+      <c r="L22" s="99" t="s">
         <v>67</v>
       </c>
       <c r="M22" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="N22" s="104" t="s">
+      <c r="N22" s="103" t="s">
         <v>89</v>
       </c>
       <c r="O22" s="59"/>
@@ -3913,11 +3963,11 @@
       <c r="I23" s="56">
         <v>298</v>
       </c>
-      <c r="J23" s="87">
+      <c r="J23" s="86">
         <f>Q23*1000000</f>
         <v>605000000</v>
       </c>
-      <c r="K23" s="87">
+      <c r="K23" s="86">
         <f>R23*1000000</f>
         <v>20000000</v>
       </c>
@@ -3967,11 +4017,11 @@
       <c r="I24" s="56">
         <v>298</v>
       </c>
-      <c r="J24" s="87">
+      <c r="J24" s="86">
         <f t="shared" ref="J24:K34" si="0">Q24*1000000</f>
         <v>210000000</v>
       </c>
-      <c r="K24" s="87">
+      <c r="K24" s="86">
         <f t="shared" si="0"/>
         <v>15000000</v>
       </c>
@@ -4021,11 +4071,11 @@
       <c r="I25" s="56">
         <v>298</v>
       </c>
-      <c r="J25" s="87">
+      <c r="J25" s="86">
         <f t="shared" si="0"/>
         <v>600000000</v>
       </c>
-      <c r="K25" s="87">
+      <c r="K25" s="86">
         <f t="shared" si="0"/>
         <v>20000000</v>
       </c>
@@ -4075,11 +4125,11 @@
       <c r="I26" s="56">
         <v>298</v>
       </c>
-      <c r="J26" s="87">
+      <c r="J26" s="86">
         <f t="shared" si="0"/>
         <v>335000000</v>
       </c>
-      <c r="K26" s="87">
+      <c r="K26" s="86">
         <f t="shared" si="0"/>
         <v>15000000</v>
       </c>
@@ -4129,11 +4179,11 @@
       <c r="I27" s="56">
         <v>298</v>
       </c>
-      <c r="J27" s="87">
+      <c r="J27" s="86">
         <f t="shared" si="0"/>
         <v>805000000</v>
       </c>
-      <c r="K27" s="87">
+      <c r="K27" s="86">
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
@@ -4183,11 +4233,11 @@
       <c r="I28" s="56">
         <v>298</v>
       </c>
-      <c r="J28" s="87">
+      <c r="J28" s="86">
         <f t="shared" si="0"/>
         <v>210000000</v>
       </c>
-      <c r="K28" s="87">
+      <c r="K28" s="86">
         <f t="shared" si="0"/>
         <v>15000000</v>
       </c>
@@ -4237,11 +4287,11 @@
       <c r="I29" s="56">
         <v>298</v>
       </c>
-      <c r="J29" s="87">
+      <c r="J29" s="86">
         <f t="shared" si="0"/>
         <v>760000000</v>
       </c>
-      <c r="K29" s="87">
+      <c r="K29" s="86">
         <f t="shared" si="0"/>
         <v>20000000</v>
       </c>
@@ -4291,11 +4341,11 @@
       <c r="I30" s="56">
         <v>298</v>
       </c>
-      <c r="J30" s="87">
+      <c r="J30" s="86">
         <f t="shared" si="0"/>
         <v>460000000</v>
       </c>
-      <c r="K30" s="87">
+      <c r="K30" s="86">
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
@@ -4345,11 +4395,11 @@
       <c r="I31" s="56">
         <v>298</v>
       </c>
-      <c r="J31" s="87">
+      <c r="J31" s="86">
         <f t="shared" si="0"/>
         <v>845000000</v>
       </c>
-      <c r="K31" s="87">
+      <c r="K31" s="86">
         <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
@@ -4399,11 +4449,11 @@
       <c r="I32" s="56">
         <v>298</v>
       </c>
-      <c r="J32" s="87">
+      <c r="J32" s="86">
         <f t="shared" si="0"/>
         <v>670000000</v>
       </c>
-      <c r="K32" s="87">
+      <c r="K32" s="86">
         <f t="shared" si="0"/>
         <v>20000000</v>
       </c>
@@ -4453,11 +4503,11 @@
       <c r="I33" s="56">
         <v>298</v>
       </c>
-      <c r="J33" s="87">
+      <c r="J33" s="86">
         <f t="shared" si="0"/>
         <v>1060000000</v>
       </c>
-      <c r="K33" s="87">
+      <c r="K33" s="86">
         <f t="shared" si="0"/>
         <v>15000000</v>
       </c>
@@ -4507,11 +4557,11 @@
       <c r="I34" s="56">
         <v>298</v>
       </c>
-      <c r="J34" s="87">
+      <c r="J34" s="86">
         <f t="shared" si="0"/>
         <v>540000000</v>
       </c>
-      <c r="K34" s="87">
+      <c r="K34" s="86">
         <f t="shared" si="0"/>
         <v>20000000</v>
       </c>
@@ -4849,7 +4899,7 @@
       <c r="I41" s="56">
         <v>77</v>
       </c>
-      <c r="J41" s="134">
+      <c r="J41" s="133">
         <v>1796000000</v>
       </c>
       <c r="K41" s="69"/>
@@ -4895,7 +4945,7 @@
       <c r="I42" s="56">
         <v>77</v>
       </c>
-      <c r="J42" s="134">
+      <c r="J42" s="133">
         <v>821000000</v>
       </c>
       <c r="K42" s="69"/>
@@ -4941,7 +4991,7 @@
       <c r="I43" s="56">
         <v>77</v>
       </c>
-      <c r="J43" s="134">
+      <c r="J43" s="133">
         <v>2618000000</v>
       </c>
       <c r="K43" s="69"/>
@@ -4987,7 +5037,7 @@
       <c r="I44" s="56">
         <v>77</v>
       </c>
-      <c r="J44" s="134">
+      <c r="J44" s="133">
         <v>1524000000</v>
       </c>
       <c r="K44" s="71"/>
@@ -5259,7 +5309,7 @@
       <c r="I51" s="56">
         <v>303</v>
       </c>
-      <c r="J51" s="134">
+      <c r="J51" s="133">
         <v>1580000000</v>
       </c>
       <c r="K51" s="71"/>
@@ -5797,7 +5847,7 @@
       <c r="K63" s="71">
         <v>8500000</v>
       </c>
-      <c r="L63" s="135" t="s">
+      <c r="L63" s="134" t="s">
         <v>33</v>
       </c>
       <c r="M63" s="72" t="s">
@@ -5847,7 +5897,7 @@
       <c r="K64" s="71">
         <v>7000000</v>
       </c>
-      <c r="L64" s="135" t="s">
+      <c r="L64" s="134" t="s">
         <v>33</v>
       </c>
       <c r="M64" s="72" t="s">
@@ -5895,7 +5945,7 @@
         <v>791000000</v>
       </c>
       <c r="K65" s="71"/>
-      <c r="L65" s="135" t="s">
+      <c r="L65" s="134" t="s">
         <v>33</v>
       </c>
       <c r="M65" s="72" t="s">
@@ -5939,11 +5989,11 @@
       <c r="I66" s="56">
         <v>298</v>
       </c>
-      <c r="J66" s="134">
+      <c r="J66" s="133">
         <v>863000000</v>
       </c>
       <c r="K66" s="69"/>
-      <c r="L66" s="135" t="s">
+      <c r="L66" s="134" t="s">
         <v>33</v>
       </c>
       <c r="M66" s="72" t="s">
@@ -5993,7 +6043,7 @@
       <c r="K67" s="69">
         <v>1.2</v>
       </c>
-      <c r="L67" s="135" t="s">
+      <c r="L67" s="134" t="s">
         <v>67</v>
       </c>
       <c r="M67" s="72" t="s">
@@ -6043,7 +6093,7 @@
       <c r="K68" s="69">
         <v>1</v>
       </c>
-      <c r="L68" s="135" t="s">
+      <c r="L68" s="134" t="s">
         <v>67</v>
       </c>
       <c r="M68" s="72" t="s">
@@ -6093,7 +6143,7 @@
       <c r="K69" s="69">
         <v>0.2</v>
       </c>
-      <c r="L69" s="135" t="s">
+      <c r="L69" s="134" t="s">
         <v>67</v>
       </c>
       <c r="M69" s="72" t="s">
@@ -6143,7 +6193,7 @@
       <c r="K70" s="69">
         <v>4</v>
       </c>
-      <c r="L70" s="135" t="s">
+      <c r="L70" s="134" t="s">
         <v>67</v>
       </c>
       <c r="M70" s="72" t="s">
@@ -7020,7 +7070,7 @@
       <c r="I90" s="56">
         <v>298</v>
       </c>
-      <c r="J90" s="134">
+      <c r="J90" s="133">
         <v>800000000</v>
       </c>
       <c r="K90" s="71"/>
@@ -7064,7 +7114,7 @@
       <c r="I91" s="56">
         <v>673</v>
       </c>
-      <c r="J91" s="134">
+      <c r="J91" s="133">
         <v>603000000</v>
       </c>
       <c r="K91" s="71"/>
@@ -7350,10 +7400,18 @@
     </row>
     <row r="98" spans="1:20" ht="18" customHeight="1">
       <c r="A98" s="52"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="53"/>
+      <c r="B98" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="F98" s="54"/>
       <c r="G98" s="54"/>
       <c r="H98" s="55"/>
@@ -7361,8 +7419,12 @@
       <c r="J98" s="61"/>
       <c r="K98" s="71"/>
       <c r="L98" s="72"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="52"/>
+      <c r="M98" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="N98" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O98" s="68"/>
       <c r="P98" s="61"/>
       <c r="Q98" s="60"/>
@@ -7372,10 +7434,18 @@
     </row>
     <row r="99" spans="1:20" ht="18" customHeight="1">
       <c r="A99" s="52"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="53"/>
+      <c r="B99" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="F99" s="54"/>
       <c r="G99" s="54"/>
       <c r="H99" s="55"/>
@@ -7383,8 +7453,12 @@
       <c r="J99" s="71"/>
       <c r="K99" s="71"/>
       <c r="L99" s="54"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="52"/>
+      <c r="M99" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="N99" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O99" s="68"/>
       <c r="P99" s="69"/>
       <c r="Q99" s="60"/>
@@ -7394,10 +7468,18 @@
     </row>
     <row r="100" spans="1:20" ht="18" customHeight="1">
       <c r="A100" s="52"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="53"/>
+      <c r="B100" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="F100" s="54"/>
       <c r="G100" s="54"/>
       <c r="H100" s="55"/>
@@ -7405,8 +7487,12 @@
       <c r="J100" s="71"/>
       <c r="K100" s="71"/>
       <c r="L100" s="54"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="52"/>
+      <c r="M100" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="N100" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O100" s="68"/>
       <c r="P100" s="69"/>
       <c r="Q100" s="61"/>
@@ -7416,10 +7502,18 @@
     </row>
     <row r="101" spans="1:20" ht="18" customHeight="1">
       <c r="A101" s="52"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="53"/>
+      <c r="B101" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="F101" s="54"/>
       <c r="G101" s="54"/>
       <c r="H101" s="55"/>
@@ -7427,8 +7521,12 @@
       <c r="J101" s="71"/>
       <c r="K101" s="71"/>
       <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="52"/>
+      <c r="M101" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="N101" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O101" s="68"/>
       <c r="P101" s="61"/>
       <c r="Q101" s="61"/>
@@ -7438,19 +7536,43 @@
     </row>
     <row r="102" spans="1:20" ht="18" customHeight="1">
       <c r="A102" s="52"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="60"/>
-      <c r="J102" s="71"/>
+      <c r="B102" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D102" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G102" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H102" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I102" s="60">
+        <v>298</v>
+      </c>
+      <c r="J102" s="71">
+        <v>703000000</v>
+      </c>
       <c r="K102" s="71"/>
-      <c r="L102" s="54"/>
-      <c r="M102" s="54"/>
-      <c r="N102" s="52"/>
+      <c r="L102" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M102" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="N102" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O102" s="68"/>
       <c r="P102" s="61"/>
       <c r="Q102" s="61"/>
@@ -7460,19 +7582,43 @@
     </row>
     <row r="103" spans="1:20" ht="18" customHeight="1">
       <c r="A103" s="74"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="73"/>
-      <c r="J103" s="71"/>
+      <c r="B103" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G103" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I103" s="60">
+        <v>298</v>
+      </c>
+      <c r="J103" s="71">
+        <v>695000000</v>
+      </c>
       <c r="K103" s="71"/>
-      <c r="L103" s="72"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="52"/>
+      <c r="L103" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M103" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="N103" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O103" s="68"/>
       <c r="P103" s="61"/>
       <c r="Q103" s="61"/>
@@ -7482,19 +7628,43 @@
     </row>
     <row r="104" spans="1:20" ht="18" customHeight="1">
       <c r="A104" s="74"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="52"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="55"/>
-      <c r="I104" s="73"/>
-      <c r="J104" s="61"/>
+      <c r="B104" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G104" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I104" s="60">
+        <v>298</v>
+      </c>
+      <c r="J104" s="61">
+        <v>661000000</v>
+      </c>
       <c r="K104" s="71"/>
-      <c r="L104" s="72"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="52"/>
+      <c r="L104" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M104" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="N104" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O104" s="68"/>
       <c r="P104" s="61"/>
       <c r="Q104" s="61"/>
@@ -7504,19 +7674,43 @@
     </row>
     <row r="105" spans="1:20" ht="18" customHeight="1">
       <c r="A105" s="74"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="54"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="73"/>
-      <c r="J105" s="76"/>
+      <c r="B105" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G105" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I105" s="60">
+        <v>298</v>
+      </c>
+      <c r="J105" s="75">
+        <v>622000000</v>
+      </c>
       <c r="K105" s="71"/>
-      <c r="L105" s="72"/>
-      <c r="M105" s="54"/>
-      <c r="N105" s="52"/>
+      <c r="L105" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M105" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="N105" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O105" s="68"/>
       <c r="P105" s="61"/>
       <c r="Q105" s="61"/>
@@ -7526,19 +7720,43 @@
     </row>
     <row r="106" spans="1:20" ht="18" customHeight="1">
       <c r="A106" s="74"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="52"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="55"/>
-      <c r="I106" s="73"/>
-      <c r="J106" s="76"/>
-      <c r="K106" s="77"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="52"/>
+      <c r="B106" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F106" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G106" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I106" s="60">
+        <v>298</v>
+      </c>
+      <c r="J106" s="75">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K106" s="76"/>
+      <c r="L106" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="M106" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="N106" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O106" s="68"/>
       <c r="P106" s="61"/>
       <c r="Q106" s="61"/>
@@ -7548,19 +7766,43 @@
     </row>
     <row r="107" spans="1:20" ht="18" customHeight="1">
       <c r="A107" s="74"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="53"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="77"/>
-      <c r="K107" s="77"/>
-      <c r="L107" s="72"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="52"/>
+      <c r="B107" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F107" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G107" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I107" s="60">
+        <v>298</v>
+      </c>
+      <c r="J107" s="76">
+        <v>21.9</v>
+      </c>
+      <c r="K107" s="76"/>
+      <c r="L107" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="M107" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="N107" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O107" s="68"/>
       <c r="P107" s="61"/>
       <c r="Q107" s="61"/>
@@ -7570,19 +7812,43 @@
     </row>
     <row r="108" spans="1:20" ht="18" customHeight="1">
       <c r="A108" s="74"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="52"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="55"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="77"/>
+      <c r="B108" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F108" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G108" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I108" s="60">
+        <v>298</v>
+      </c>
+      <c r="J108" s="76">
+        <v>32.299999999999997</v>
+      </c>
       <c r="K108" s="71"/>
-      <c r="L108" s="72"/>
-      <c r="M108" s="54"/>
-      <c r="N108" s="52"/>
+      <c r="L108" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="M108" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="N108" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O108" s="68"/>
       <c r="P108" s="61"/>
       <c r="Q108" s="61"/>
@@ -7592,19 +7858,43 @@
     </row>
     <row r="109" spans="1:20" ht="18" customHeight="1">
       <c r="A109" s="74"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="52"/>
-      <c r="D109" s="52"/>
-      <c r="E109" s="53"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="73"/>
-      <c r="J109" s="76"/>
+      <c r="B109" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F109" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G109" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I109" s="60">
+        <v>298</v>
+      </c>
+      <c r="J109" s="75">
+        <v>33</v>
+      </c>
       <c r="K109" s="71"/>
-      <c r="L109" s="72"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="52"/>
+      <c r="L109" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="M109" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="N109" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O109" s="59"/>
       <c r="P109" s="61"/>
       <c r="Q109" s="61"/>
@@ -7614,19 +7904,43 @@
     </row>
     <row r="110" spans="1:20" ht="18" customHeight="1">
       <c r="A110" s="74"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="54"/>
-      <c r="G110" s="54"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="73"/>
-      <c r="J110" s="76"/>
+      <c r="B110" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F110" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G110" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I110" s="60">
+        <v>298</v>
+      </c>
+      <c r="J110" s="75">
+        <v>717000000</v>
+      </c>
       <c r="K110" s="71"/>
-      <c r="L110" s="72"/>
-      <c r="M110" s="54"/>
-      <c r="N110" s="52"/>
+      <c r="L110" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M110" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="N110" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O110" s="59"/>
       <c r="P110" s="61"/>
       <c r="Q110" s="61"/>
@@ -7636,19 +7950,43 @@
     </row>
     <row r="111" spans="1:20" ht="18" customHeight="1">
       <c r="A111" s="74"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="52"/>
-      <c r="E111" s="53"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="73"/>
-      <c r="J111" s="57"/>
+      <c r="B111" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G111" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I111" s="60">
+        <v>298</v>
+      </c>
+      <c r="J111" s="57">
+        <v>711000000</v>
+      </c>
       <c r="K111" s="71"/>
-      <c r="L111" s="72"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="52"/>
+      <c r="L111" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M111" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="N111" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O111" s="68"/>
       <c r="P111" s="69"/>
       <c r="Q111" s="61"/>
@@ -7658,19 +7996,43 @@
     </row>
     <row r="112" spans="1:20" ht="18" customHeight="1">
       <c r="A112" s="74"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="52"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="54"/>
-      <c r="G112" s="54"/>
-      <c r="H112" s="55"/>
-      <c r="I112" s="73"/>
-      <c r="J112" s="57"/>
+      <c r="B112" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F112" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G112" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I112" s="60">
+        <v>298</v>
+      </c>
+      <c r="J112" s="57">
+        <v>690000000</v>
+      </c>
       <c r="K112" s="71"/>
-      <c r="L112" s="72"/>
-      <c r="M112" s="54"/>
-      <c r="N112" s="52"/>
+      <c r="L112" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M112" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="N112" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O112" s="68"/>
       <c r="P112" s="69"/>
       <c r="Q112" s="61"/>
@@ -7680,19 +8042,43 @@
     </row>
     <row r="113" spans="1:20" ht="18" customHeight="1">
       <c r="A113" s="74"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="52"/>
-      <c r="E113" s="53"/>
-      <c r="F113" s="75"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="73"/>
-      <c r="J113" s="76"/>
+      <c r="B113" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D113" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G113" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I113" s="60">
+        <v>298</v>
+      </c>
+      <c r="J113" s="75">
+        <v>699000000</v>
+      </c>
       <c r="K113" s="71"/>
-      <c r="L113" s="72"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="52"/>
+      <c r="L113" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M113" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="N113" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O113" s="68"/>
       <c r="P113" s="69"/>
       <c r="Q113" s="60"/>
@@ -7702,19 +8088,43 @@
     </row>
     <row r="114" spans="1:20" ht="18" customHeight="1">
       <c r="A114" s="74"/>
-      <c r="B114" s="53"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="52"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="73"/>
-      <c r="J114" s="76"/>
+      <c r="B114" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E114" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F114" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G114" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I114" s="60">
+        <v>298</v>
+      </c>
+      <c r="J114" s="75">
+        <v>1.4</v>
+      </c>
       <c r="K114" s="71"/>
-      <c r="L114" s="72"/>
-      <c r="M114" s="54"/>
-      <c r="N114" s="52"/>
+      <c r="L114" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="M114" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="N114" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O114" s="68"/>
       <c r="P114" s="69"/>
       <c r="Q114" s="60"/>
@@ -7724,19 +8134,43 @@
     </row>
     <row r="115" spans="1:20" ht="18" customHeight="1">
       <c r="A115" s="74"/>
-      <c r="B115" s="53"/>
-      <c r="C115" s="52"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="53"/>
-      <c r="F115" s="54"/>
-      <c r="G115" s="54"/>
-      <c r="H115" s="55"/>
-      <c r="I115" s="73"/>
-      <c r="J115" s="57"/>
+      <c r="B115" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F115" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G115" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H115" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I115" s="60">
+        <v>298</v>
+      </c>
+      <c r="J115" s="57">
+        <v>1.9</v>
+      </c>
       <c r="K115" s="71"/>
-      <c r="L115" s="72"/>
-      <c r="M115" s="72"/>
-      <c r="N115" s="52"/>
+      <c r="L115" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="M115" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="N115" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O115" s="68"/>
       <c r="P115" s="69"/>
       <c r="Q115" s="60"/>
@@ -7746,19 +8180,43 @@
     </row>
     <row r="116" spans="1:20" ht="18" customHeight="1">
       <c r="A116" s="60"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="52"/>
-      <c r="E116" s="53"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="55"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="71"/>
+      <c r="B116" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C116" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F116" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G116" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I116" s="60">
+        <v>298</v>
+      </c>
+      <c r="J116" s="71">
+        <v>15.9</v>
+      </c>
       <c r="K116" s="71"/>
-      <c r="L116" s="72"/>
-      <c r="M116" s="72"/>
-      <c r="N116" s="52"/>
+      <c r="L116" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="M116" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="N116" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O116" s="68"/>
       <c r="P116" s="61"/>
       <c r="Q116" s="60"/>
@@ -7768,19 +8226,43 @@
     </row>
     <row r="117" spans="1:20" ht="18" customHeight="1">
       <c r="A117" s="60"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="52"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="54"/>
-      <c r="G117" s="54"/>
-      <c r="H117" s="55"/>
-      <c r="I117" s="56"/>
-      <c r="J117" s="71"/>
+      <c r="B117" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E117" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F117" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G117" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H117" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I117" s="60">
+        <v>298</v>
+      </c>
+      <c r="J117" s="71">
+        <v>16.3</v>
+      </c>
       <c r="K117" s="71"/>
-      <c r="L117" s="72"/>
-      <c r="M117" s="72"/>
-      <c r="N117" s="52"/>
+      <c r="L117" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="M117" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="N117" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="O117" s="68"/>
       <c r="P117" s="61"/>
       <c r="Q117" s="60"/>
@@ -7904,8 +8386,8 @@
       <c r="C123" s="64"/>
       <c r="D123" s="64"/>
       <c r="E123" s="63"/>
-      <c r="F123" s="78"/>
-      <c r="G123" s="78"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
       <c r="H123" s="55"/>
       <c r="I123" s="60"/>
       <c r="J123" s="71"/>
@@ -7926,8 +8408,8 @@
       <c r="C124" s="64"/>
       <c r="D124" s="64"/>
       <c r="E124" s="63"/>
-      <c r="F124" s="78"/>
-      <c r="G124" s="78"/>
+      <c r="F124" s="77"/>
+      <c r="G124" s="77"/>
       <c r="H124" s="55"/>
       <c r="I124" s="60"/>
       <c r="J124" s="71"/>
@@ -7948,8 +8430,8 @@
       <c r="C125" s="64"/>
       <c r="D125" s="64"/>
       <c r="E125" s="63"/>
-      <c r="F125" s="78"/>
-      <c r="G125" s="78"/>
+      <c r="F125" s="77"/>
+      <c r="G125" s="77"/>
       <c r="H125" s="55"/>
       <c r="I125" s="60"/>
       <c r="J125" s="71"/>
@@ -7970,8 +8452,8 @@
       <c r="C126" s="64"/>
       <c r="D126" s="64"/>
       <c r="E126" s="63"/>
-      <c r="F126" s="78"/>
-      <c r="G126" s="78"/>
+      <c r="F126" s="77"/>
+      <c r="G126" s="77"/>
       <c r="H126" s="55"/>
       <c r="I126" s="60"/>
       <c r="J126" s="71"/>
@@ -8207,13 +8689,13 @@
       <c r="T136" s="59"/>
     </row>
     <row r="137" spans="1:20" ht="18" customHeight="1">
-      <c r="A137" s="79"/>
+      <c r="A137" s="78"/>
       <c r="B137" s="63"/>
       <c r="C137" s="64"/>
       <c r="D137" s="64"/>
       <c r="E137" s="63"/>
-      <c r="F137" s="78"/>
-      <c r="G137" s="78"/>
+      <c r="F137" s="77"/>
+      <c r="G137" s="77"/>
       <c r="H137" s="55"/>
       <c r="I137" s="56"/>
       <c r="J137" s="71"/>
@@ -8234,8 +8716,8 @@
       <c r="C138" s="64"/>
       <c r="D138" s="64"/>
       <c r="E138" s="63"/>
-      <c r="F138" s="78"/>
-      <c r="G138" s="78"/>
+      <c r="F138" s="77"/>
+      <c r="G138" s="77"/>
       <c r="H138" s="55"/>
       <c r="I138" s="56"/>
       <c r="J138" s="71"/>
@@ -8256,8 +8738,8 @@
       <c r="C139" s="64"/>
       <c r="D139" s="64"/>
       <c r="E139" s="63"/>
-      <c r="F139" s="78"/>
-      <c r="G139" s="78"/>
+      <c r="F139" s="77"/>
+      <c r="G139" s="77"/>
       <c r="H139" s="55"/>
       <c r="I139" s="56"/>
       <c r="J139" s="71"/>
@@ -8278,8 +8760,8 @@
       <c r="C140" s="64"/>
       <c r="D140" s="64"/>
       <c r="E140" s="63"/>
-      <c r="F140" s="78"/>
-      <c r="G140" s="78"/>
+      <c r="F140" s="77"/>
+      <c r="G140" s="77"/>
       <c r="H140" s="55"/>
       <c r="I140" s="56"/>
       <c r="J140" s="71"/>
@@ -8300,8 +8782,8 @@
       <c r="C141" s="64"/>
       <c r="D141" s="64"/>
       <c r="E141" s="63"/>
-      <c r="F141" s="78"/>
-      <c r="G141" s="78"/>
+      <c r="F141" s="77"/>
+      <c r="G141" s="77"/>
       <c r="H141" s="55"/>
       <c r="I141" s="56"/>
       <c r="J141" s="71"/>
@@ -8317,13 +8799,13 @@
       <c r="T141" s="59"/>
     </row>
     <row r="142" spans="1:20" ht="18" customHeight="1">
-      <c r="A142" s="79"/>
+      <c r="A142" s="78"/>
       <c r="B142" s="63"/>
       <c r="C142" s="64"/>
       <c r="D142" s="64"/>
       <c r="E142" s="63"/>
-      <c r="F142" s="78"/>
-      <c r="G142" s="78"/>
+      <c r="F142" s="77"/>
+      <c r="G142" s="77"/>
       <c r="H142" s="55"/>
       <c r="I142" s="56"/>
       <c r="J142" s="71"/>
@@ -8344,8 +8826,8 @@
       <c r="C143" s="64"/>
       <c r="D143" s="64"/>
       <c r="E143" s="63"/>
-      <c r="F143" s="78"/>
-      <c r="G143" s="78"/>
+      <c r="F143" s="77"/>
+      <c r="G143" s="77"/>
       <c r="H143" s="55"/>
       <c r="I143" s="56"/>
       <c r="J143" s="71"/>
@@ -8366,8 +8848,8 @@
       <c r="C144" s="64"/>
       <c r="D144" s="64"/>
       <c r="E144" s="63"/>
-      <c r="F144" s="78"/>
-      <c r="G144" s="78"/>
+      <c r="F144" s="77"/>
+      <c r="G144" s="77"/>
       <c r="H144" s="55"/>
       <c r="I144" s="56"/>
       <c r="J144" s="71"/>
@@ -8388,8 +8870,8 @@
       <c r="C145" s="64"/>
       <c r="D145" s="64"/>
       <c r="E145" s="63"/>
-      <c r="F145" s="78"/>
-      <c r="G145" s="78"/>
+      <c r="F145" s="77"/>
+      <c r="G145" s="77"/>
       <c r="H145" s="55"/>
       <c r="I145" s="56"/>
       <c r="J145" s="71"/>
@@ -8410,12 +8892,12 @@
       <c r="C146" s="64"/>
       <c r="D146" s="64"/>
       <c r="E146" s="63"/>
-      <c r="F146" s="78"/>
-      <c r="G146" s="78"/>
+      <c r="F146" s="77"/>
+      <c r="G146" s="77"/>
       <c r="H146" s="55"/>
       <c r="I146" s="60"/>
-      <c r="J146" s="77"/>
-      <c r="K146" s="77"/>
+      <c r="J146" s="76"/>
+      <c r="K146" s="76"/>
       <c r="L146" s="72"/>
       <c r="M146" s="72"/>
       <c r="N146" s="52"/>
@@ -8427,17 +8909,17 @@
       <c r="T146" s="59"/>
     </row>
     <row r="147" spans="1:20" ht="18" customHeight="1">
-      <c r="A147" s="79"/>
+      <c r="A147" s="78"/>
       <c r="B147" s="63"/>
       <c r="C147" s="64"/>
       <c r="D147" s="64"/>
       <c r="E147" s="63"/>
-      <c r="F147" s="78"/>
-      <c r="G147" s="78"/>
+      <c r="F147" s="77"/>
+      <c r="G147" s="77"/>
       <c r="H147" s="55"/>
       <c r="I147" s="60"/>
-      <c r="J147" s="77"/>
-      <c r="K147" s="77"/>
+      <c r="J147" s="76"/>
+      <c r="K147" s="76"/>
       <c r="L147" s="72"/>
       <c r="M147" s="72"/>
       <c r="N147" s="52"/>
@@ -8454,12 +8936,12 @@
       <c r="C148" s="64"/>
       <c r="D148" s="64"/>
       <c r="E148" s="63"/>
-      <c r="F148" s="78"/>
-      <c r="G148" s="78"/>
+      <c r="F148" s="77"/>
+      <c r="G148" s="77"/>
       <c r="H148" s="55"/>
       <c r="I148" s="60"/>
-      <c r="J148" s="77"/>
-      <c r="K148" s="77"/>
+      <c r="J148" s="76"/>
+      <c r="K148" s="76"/>
       <c r="L148" s="72"/>
       <c r="M148" s="72"/>
       <c r="N148" s="52"/>
@@ -8476,12 +8958,12 @@
       <c r="C149" s="64"/>
       <c r="D149" s="64"/>
       <c r="E149" s="63"/>
-      <c r="F149" s="78"/>
-      <c r="G149" s="78"/>
+      <c r="F149" s="77"/>
+      <c r="G149" s="77"/>
       <c r="H149" s="55"/>
       <c r="I149" s="60"/>
-      <c r="J149" s="77"/>
-      <c r="K149" s="77"/>
+      <c r="J149" s="76"/>
+      <c r="K149" s="76"/>
       <c r="L149" s="72"/>
       <c r="M149" s="72"/>
       <c r="N149" s="52"/>
@@ -8498,8 +8980,8 @@
       <c r="C150" s="64"/>
       <c r="D150" s="64"/>
       <c r="E150" s="63"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="78"/>
+      <c r="F150" s="77"/>
+      <c r="G150" s="77"/>
       <c r="H150" s="55"/>
       <c r="I150" s="60"/>
       <c r="J150" s="71"/>
@@ -8520,8 +9002,8 @@
       <c r="C151" s="64"/>
       <c r="D151" s="64"/>
       <c r="E151" s="63"/>
-      <c r="F151" s="78"/>
-      <c r="G151" s="78"/>
+      <c r="F151" s="77"/>
+      <c r="G151" s="77"/>
       <c r="H151" s="55"/>
       <c r="I151" s="60"/>
       <c r="J151" s="71"/>
@@ -8537,13 +9019,13 @@
       <c r="T151" s="59"/>
     </row>
     <row r="152" spans="1:20" ht="18" customHeight="1">
-      <c r="A152" s="79"/>
+      <c r="A152" s="78"/>
       <c r="B152" s="63"/>
       <c r="C152" s="64"/>
       <c r="D152" s="64"/>
       <c r="E152" s="63"/>
-      <c r="F152" s="78"/>
-      <c r="G152" s="78"/>
+      <c r="F152" s="77"/>
+      <c r="G152" s="77"/>
       <c r="H152" s="55"/>
       <c r="I152" s="60"/>
       <c r="J152" s="71"/>
@@ -8564,8 +9046,8 @@
       <c r="C153" s="64"/>
       <c r="D153" s="64"/>
       <c r="E153" s="63"/>
-      <c r="F153" s="78"/>
-      <c r="G153" s="78"/>
+      <c r="F153" s="77"/>
+      <c r="G153" s="77"/>
       <c r="H153" s="55"/>
       <c r="I153" s="60"/>
       <c r="J153" s="71"/>
@@ -8586,8 +9068,8 @@
       <c r="C154" s="64"/>
       <c r="D154" s="64"/>
       <c r="E154" s="63"/>
-      <c r="F154" s="78"/>
-      <c r="G154" s="78"/>
+      <c r="F154" s="77"/>
+      <c r="G154" s="77"/>
       <c r="H154" s="70"/>
       <c r="I154" s="60"/>
       <c r="J154" s="71"/>
@@ -8608,8 +9090,8 @@
       <c r="C155" s="64"/>
       <c r="D155" s="64"/>
       <c r="E155" s="63"/>
-      <c r="F155" s="78"/>
-      <c r="G155" s="78"/>
+      <c r="F155" s="77"/>
+      <c r="G155" s="77"/>
       <c r="H155" s="70"/>
       <c r="I155" s="60"/>
       <c r="J155" s="71"/>
@@ -8630,8 +9112,8 @@
       <c r="C156" s="64"/>
       <c r="D156" s="64"/>
       <c r="E156" s="63"/>
-      <c r="F156" s="78"/>
-      <c r="G156" s="78"/>
+      <c r="F156" s="77"/>
+      <c r="G156" s="77"/>
       <c r="H156" s="70"/>
       <c r="I156" s="60"/>
       <c r="J156" s="60"/>
@@ -8652,7 +9134,7 @@
       <c r="C157" s="52"/>
       <c r="D157" s="52"/>
       <c r="E157" s="68"/>
-      <c r="F157" s="80"/>
+      <c r="F157" s="79"/>
       <c r="G157" s="54"/>
       <c r="H157" s="70"/>
       <c r="I157" s="60"/>
@@ -8660,7 +9142,7 @@
       <c r="K157" s="60"/>
       <c r="L157" s="54"/>
       <c r="M157" s="62"/>
-      <c r="N157" s="81"/>
+      <c r="N157" s="80"/>
       <c r="O157" s="59"/>
       <c r="P157" s="60"/>
       <c r="Q157" s="60"/>
@@ -8674,7 +9156,7 @@
       <c r="C158" s="52"/>
       <c r="D158" s="52"/>
       <c r="E158" s="68"/>
-      <c r="F158" s="80"/>
+      <c r="F158" s="79"/>
       <c r="G158" s="54"/>
       <c r="H158" s="70"/>
       <c r="I158" s="60"/>
@@ -8682,7 +9164,7 @@
       <c r="K158" s="60"/>
       <c r="L158" s="54"/>
       <c r="M158" s="62"/>
-      <c r="N158" s="81"/>
+      <c r="N158" s="80"/>
       <c r="O158" s="59"/>
       <c r="P158" s="60"/>
       <c r="Q158" s="60"/>
@@ -8696,7 +9178,7 @@
       <c r="C159" s="52"/>
       <c r="D159" s="52"/>
       <c r="E159" s="68"/>
-      <c r="F159" s="80"/>
+      <c r="F159" s="79"/>
       <c r="G159" s="54"/>
       <c r="H159" s="70"/>
       <c r="I159" s="60"/>
@@ -8704,7 +9186,7 @@
       <c r="K159" s="60"/>
       <c r="L159" s="54"/>
       <c r="M159" s="62"/>
-      <c r="N159" s="81"/>
+      <c r="N159" s="80"/>
       <c r="O159" s="59"/>
       <c r="P159" s="60"/>
       <c r="Q159" s="60"/>
@@ -8718,7 +9200,7 @@
       <c r="C160" s="52"/>
       <c r="D160" s="52"/>
       <c r="E160" s="68"/>
-      <c r="F160" s="80"/>
+      <c r="F160" s="79"/>
       <c r="G160" s="54"/>
       <c r="H160" s="70"/>
       <c r="I160" s="60"/>
@@ -8726,7 +9208,7 @@
       <c r="K160" s="60"/>
       <c r="L160" s="54"/>
       <c r="M160" s="62"/>
-      <c r="N160" s="81"/>
+      <c r="N160" s="80"/>
       <c r="O160" s="59"/>
       <c r="P160" s="61"/>
       <c r="Q160" s="60"/>
@@ -8740,7 +9222,7 @@
       <c r="C161" s="52"/>
       <c r="D161" s="52"/>
       <c r="E161" s="68"/>
-      <c r="F161" s="80"/>
+      <c r="F161" s="79"/>
       <c r="G161" s="54"/>
       <c r="H161" s="70"/>
       <c r="I161" s="60"/>
@@ -8748,7 +9230,7 @@
       <c r="K161" s="60"/>
       <c r="L161" s="62"/>
       <c r="M161" s="62"/>
-      <c r="N161" s="81"/>
+      <c r="N161" s="80"/>
       <c r="O161" s="59"/>
       <c r="P161" s="69"/>
       <c r="Q161" s="60"/>
@@ -8762,7 +9244,7 @@
       <c r="C162" s="52"/>
       <c r="D162" s="52"/>
       <c r="E162" s="68"/>
-      <c r="F162" s="80"/>
+      <c r="F162" s="79"/>
       <c r="G162" s="54"/>
       <c r="H162" s="70"/>
       <c r="I162" s="60"/>
@@ -8770,7 +9252,7 @@
       <c r="K162" s="60"/>
       <c r="L162" s="62"/>
       <c r="M162" s="62"/>
-      <c r="N162" s="81"/>
+      <c r="N162" s="80"/>
       <c r="O162" s="59"/>
       <c r="P162" s="69"/>
       <c r="Q162" s="60"/>
@@ -8784,7 +9266,7 @@
       <c r="C163" s="62"/>
       <c r="D163" s="62"/>
       <c r="E163" s="68"/>
-      <c r="F163" s="80"/>
+      <c r="F163" s="79"/>
       <c r="G163" s="54"/>
       <c r="H163" s="70"/>
       <c r="I163" s="60"/>
@@ -8806,10 +9288,10 @@
       <c r="C164" s="62"/>
       <c r="D164" s="62"/>
       <c r="E164" s="68"/>
-      <c r="F164" s="80"/>
+      <c r="F164" s="79"/>
       <c r="G164" s="54"/>
       <c r="H164" s="70"/>
-      <c r="I164" s="82"/>
+      <c r="I164" s="81"/>
       <c r="J164" s="60"/>
       <c r="K164" s="60"/>
       <c r="L164" s="62"/>
@@ -8828,10 +9310,10 @@
       <c r="C165" s="62"/>
       <c r="D165" s="62"/>
       <c r="E165" s="68"/>
-      <c r="F165" s="80"/>
+      <c r="F165" s="79"/>
       <c r="G165" s="54"/>
       <c r="H165" s="70"/>
-      <c r="I165" s="82"/>
+      <c r="I165" s="81"/>
       <c r="J165" s="60"/>
       <c r="K165" s="60"/>
       <c r="L165" s="62"/>
@@ -8850,10 +9332,10 @@
       <c r="C166" s="62"/>
       <c r="D166" s="62"/>
       <c r="E166" s="68"/>
-      <c r="F166" s="80"/>
+      <c r="F166" s="79"/>
       <c r="G166" s="54"/>
       <c r="H166" s="70"/>
-      <c r="I166" s="82"/>
+      <c r="I166" s="81"/>
       <c r="J166" s="60"/>
       <c r="K166" s="60"/>
       <c r="L166" s="62"/>
@@ -8872,10 +9354,10 @@
       <c r="C167" s="62"/>
       <c r="D167" s="62"/>
       <c r="E167" s="68"/>
-      <c r="F167" s="80"/>
+      <c r="F167" s="79"/>
       <c r="G167" s="54"/>
       <c r="H167" s="70"/>
-      <c r="I167" s="82"/>
+      <c r="I167" s="81"/>
       <c r="J167" s="60"/>
       <c r="K167" s="60"/>
       <c r="L167" s="62"/>
@@ -8894,7 +9376,7 @@
       <c r="C168" s="62"/>
       <c r="D168" s="62"/>
       <c r="E168" s="68"/>
-      <c r="F168" s="80"/>
+      <c r="F168" s="79"/>
       <c r="G168" s="54"/>
       <c r="H168" s="70"/>
       <c r="I168" s="60"/>
@@ -8916,7 +9398,7 @@
       <c r="C169" s="62"/>
       <c r="D169" s="62"/>
       <c r="E169" s="68"/>
-      <c r="F169" s="80"/>
+      <c r="F169" s="79"/>
       <c r="G169" s="54"/>
       <c r="H169" s="70"/>
       <c r="I169" s="60"/>
@@ -8938,7 +9420,7 @@
       <c r="C170" s="62"/>
       <c r="D170" s="62"/>
       <c r="E170" s="68"/>
-      <c r="F170" s="80"/>
+      <c r="F170" s="79"/>
       <c r="G170" s="54"/>
       <c r="H170" s="70"/>
       <c r="I170" s="60"/>
@@ -8960,7 +9442,7 @@
       <c r="C171" s="62"/>
       <c r="D171" s="62"/>
       <c r="E171" s="68"/>
-      <c r="F171" s="80"/>
+      <c r="F171" s="79"/>
       <c r="G171" s="54"/>
       <c r="H171" s="70"/>
       <c r="I171" s="60"/>
@@ -8982,7 +9464,7 @@
       <c r="C172" s="62"/>
       <c r="D172" s="62"/>
       <c r="E172" s="68"/>
-      <c r="F172" s="80"/>
+      <c r="F172" s="79"/>
       <c r="G172" s="54"/>
       <c r="H172" s="70"/>
       <c r="I172" s="60"/>
@@ -9004,7 +9486,7 @@
       <c r="C173" s="62"/>
       <c r="D173" s="62"/>
       <c r="E173" s="68"/>
-      <c r="F173" s="80"/>
+      <c r="F173" s="79"/>
       <c r="G173" s="54"/>
       <c r="H173" s="70"/>
       <c r="I173" s="60"/>
@@ -9026,7 +9508,7 @@
       <c r="C174" s="62"/>
       <c r="D174" s="62"/>
       <c r="E174" s="68"/>
-      <c r="F174" s="80"/>
+      <c r="F174" s="79"/>
       <c r="G174" s="54"/>
       <c r="H174" s="70"/>
       <c r="I174" s="60"/>
@@ -9045,12 +9527,12 @@
     <row r="175" spans="1:20" ht="18" customHeight="1">
       <c r="A175" s="60"/>
       <c r="B175" s="63"/>
-      <c r="C175" s="82"/>
-      <c r="D175" s="82"/>
-      <c r="E175" s="83"/>
-      <c r="F175" s="80"/>
-      <c r="G175" s="78"/>
-      <c r="H175" s="84"/>
+      <c r="C175" s="81"/>
+      <c r="D175" s="81"/>
+      <c r="E175" s="82"/>
+      <c r="F175" s="79"/>
+      <c r="G175" s="77"/>
+      <c r="H175" s="83"/>
       <c r="I175" s="60"/>
       <c r="J175" s="60"/>
       <c r="K175" s="60"/>
@@ -9067,13 +9549,13 @@
     <row r="176" spans="1:20" ht="18" customHeight="1">
       <c r="A176" s="60"/>
       <c r="B176" s="63"/>
-      <c r="C176" s="82"/>
-      <c r="D176" s="82"/>
-      <c r="E176" s="83"/>
-      <c r="F176" s="80"/>
-      <c r="G176" s="78"/>
-      <c r="H176" s="84"/>
-      <c r="I176" s="82"/>
+      <c r="C176" s="81"/>
+      <c r="D176" s="81"/>
+      <c r="E176" s="82"/>
+      <c r="F176" s="79"/>
+      <c r="G176" s="77"/>
+      <c r="H176" s="83"/>
+      <c r="I176" s="81"/>
       <c r="J176" s="60"/>
       <c r="K176" s="60"/>
       <c r="L176" s="62"/>
@@ -9089,13 +9571,13 @@
     <row r="177" spans="1:20" ht="18" customHeight="1">
       <c r="A177" s="60"/>
       <c r="B177" s="63"/>
-      <c r="C177" s="82"/>
-      <c r="D177" s="82"/>
-      <c r="E177" s="83"/>
-      <c r="F177" s="80"/>
-      <c r="G177" s="78"/>
-      <c r="H177" s="84"/>
-      <c r="I177" s="82"/>
+      <c r="C177" s="81"/>
+      <c r="D177" s="81"/>
+      <c r="E177" s="82"/>
+      <c r="F177" s="79"/>
+      <c r="G177" s="77"/>
+      <c r="H177" s="83"/>
+      <c r="I177" s="81"/>
       <c r="J177" s="60"/>
       <c r="K177" s="60"/>
       <c r="L177" s="62"/>
@@ -9111,13 +9593,13 @@
     <row r="178" spans="1:20" ht="18" customHeight="1">
       <c r="A178" s="60"/>
       <c r="B178" s="63"/>
-      <c r="C178" s="82"/>
-      <c r="D178" s="82"/>
-      <c r="E178" s="83"/>
-      <c r="F178" s="80"/>
-      <c r="G178" s="78"/>
-      <c r="H178" s="84"/>
-      <c r="I178" s="82"/>
+      <c r="C178" s="81"/>
+      <c r="D178" s="81"/>
+      <c r="E178" s="82"/>
+      <c r="F178" s="79"/>
+      <c r="G178" s="77"/>
+      <c r="H178" s="83"/>
+      <c r="I178" s="81"/>
       <c r="J178" s="60"/>
       <c r="K178" s="60"/>
       <c r="L178" s="62"/>
@@ -9136,10 +9618,10 @@
       <c r="C179" s="62"/>
       <c r="D179" s="62"/>
       <c r="E179" s="68"/>
-      <c r="F179" s="80"/>
+      <c r="F179" s="79"/>
       <c r="G179" s="54"/>
       <c r="H179" s="70"/>
-      <c r="I179" s="82"/>
+      <c r="I179" s="81"/>
       <c r="J179" s="60"/>
       <c r="K179" s="60"/>
       <c r="L179" s="62"/>
@@ -9158,10 +9640,10 @@
       <c r="C180" s="62"/>
       <c r="D180" s="62"/>
       <c r="E180" s="68"/>
-      <c r="F180" s="80"/>
+      <c r="F180" s="79"/>
       <c r="G180" s="54"/>
       <c r="H180" s="70"/>
-      <c r="I180" s="82"/>
+      <c r="I180" s="81"/>
       <c r="J180" s="60"/>
       <c r="K180" s="60"/>
       <c r="L180" s="62"/>
@@ -9180,10 +9662,10 @@
       <c r="C181" s="62"/>
       <c r="D181" s="62"/>
       <c r="E181" s="68"/>
-      <c r="F181" s="80"/>
+      <c r="F181" s="79"/>
       <c r="G181" s="54"/>
       <c r="H181" s="70"/>
-      <c r="I181" s="82"/>
+      <c r="I181" s="81"/>
       <c r="J181" s="60"/>
       <c r="K181" s="60"/>
       <c r="L181" s="62"/>
@@ -9202,10 +9684,10 @@
       <c r="C182" s="62"/>
       <c r="D182" s="62"/>
       <c r="E182" s="68"/>
-      <c r="F182" s="80"/>
+      <c r="F182" s="79"/>
       <c r="G182" s="54"/>
       <c r="H182" s="70"/>
-      <c r="I182" s="82"/>
+      <c r="I182" s="81"/>
       <c r="J182" s="60"/>
       <c r="K182" s="60"/>
       <c r="L182" s="62"/>
@@ -9224,10 +9706,10 @@
       <c r="C183" s="62"/>
       <c r="D183" s="62"/>
       <c r="E183" s="68"/>
-      <c r="F183" s="80"/>
+      <c r="F183" s="79"/>
       <c r="G183" s="54"/>
       <c r="H183" s="70"/>
-      <c r="I183" s="82"/>
+      <c r="I183" s="81"/>
       <c r="J183" s="60"/>
       <c r="K183" s="60"/>
       <c r="L183" s="62"/>
@@ -9246,10 +9728,10 @@
       <c r="C184" s="62"/>
       <c r="D184" s="62"/>
       <c r="E184" s="68"/>
-      <c r="F184" s="80"/>
+      <c r="F184" s="79"/>
       <c r="G184" s="54"/>
       <c r="H184" s="70"/>
-      <c r="I184" s="82"/>
+      <c r="I184" s="81"/>
       <c r="J184" s="60"/>
       <c r="K184" s="60"/>
       <c r="L184" s="62"/>
@@ -9268,10 +9750,10 @@
       <c r="C185" s="62"/>
       <c r="D185" s="62"/>
       <c r="E185" s="68"/>
-      <c r="F185" s="80"/>
+      <c r="F185" s="79"/>
       <c r="G185" s="54"/>
       <c r="H185" s="70"/>
-      <c r="I185" s="82"/>
+      <c r="I185" s="81"/>
       <c r="J185" s="60"/>
       <c r="K185" s="60"/>
       <c r="L185" s="62"/>
@@ -9290,10 +9772,10 @@
       <c r="C186" s="62"/>
       <c r="D186" s="62"/>
       <c r="E186" s="68"/>
-      <c r="F186" s="80"/>
+      <c r="F186" s="79"/>
       <c r="G186" s="54"/>
       <c r="H186" s="70"/>
-      <c r="I186" s="82"/>
+      <c r="I186" s="81"/>
       <c r="J186" s="60"/>
       <c r="K186" s="60"/>
       <c r="L186" s="62"/>
@@ -9309,13 +9791,13 @@
     <row r="187" spans="1:20" ht="18" customHeight="1">
       <c r="A187" s="60"/>
       <c r="B187" s="63"/>
-      <c r="C187" s="82"/>
-      <c r="D187" s="82"/>
-      <c r="E187" s="83"/>
-      <c r="F187" s="80"/>
-      <c r="G187" s="78"/>
-      <c r="H187" s="84"/>
-      <c r="I187" s="82"/>
+      <c r="C187" s="81"/>
+      <c r="D187" s="81"/>
+      <c r="E187" s="82"/>
+      <c r="F187" s="79"/>
+      <c r="G187" s="77"/>
+      <c r="H187" s="83"/>
+      <c r="I187" s="81"/>
       <c r="J187" s="60"/>
       <c r="K187" s="60"/>
       <c r="L187" s="62"/>
@@ -9331,13 +9813,13 @@
     <row r="188" spans="1:20" ht="18" customHeight="1">
       <c r="A188" s="60"/>
       <c r="B188" s="63"/>
-      <c r="C188" s="82"/>
-      <c r="D188" s="82"/>
-      <c r="E188" s="83"/>
-      <c r="F188" s="80"/>
-      <c r="G188" s="78"/>
-      <c r="H188" s="84"/>
-      <c r="I188" s="82"/>
+      <c r="C188" s="81"/>
+      <c r="D188" s="81"/>
+      <c r="E188" s="82"/>
+      <c r="F188" s="79"/>
+      <c r="G188" s="77"/>
+      <c r="H188" s="83"/>
+      <c r="I188" s="81"/>
       <c r="J188" s="60"/>
       <c r="K188" s="60"/>
       <c r="L188" s="62"/>
@@ -9353,13 +9835,13 @@
     <row r="189" spans="1:20" ht="18" customHeight="1">
       <c r="A189" s="60"/>
       <c r="B189" s="63"/>
-      <c r="C189" s="82"/>
-      <c r="D189" s="82"/>
-      <c r="E189" s="83"/>
-      <c r="F189" s="80"/>
-      <c r="G189" s="78"/>
-      <c r="H189" s="84"/>
-      <c r="I189" s="82"/>
+      <c r="C189" s="81"/>
+      <c r="D189" s="81"/>
+      <c r="E189" s="82"/>
+      <c r="F189" s="79"/>
+      <c r="G189" s="77"/>
+      <c r="H189" s="83"/>
+      <c r="I189" s="81"/>
       <c r="J189" s="60"/>
       <c r="K189" s="60"/>
       <c r="L189" s="62"/>
@@ -9375,13 +9857,13 @@
     <row r="190" spans="1:20" ht="18" customHeight="1">
       <c r="A190" s="60"/>
       <c r="B190" s="63"/>
-      <c r="C190" s="82"/>
-      <c r="D190" s="82"/>
-      <c r="E190" s="83"/>
-      <c r="F190" s="80"/>
-      <c r="G190" s="78"/>
-      <c r="H190" s="84"/>
-      <c r="I190" s="82"/>
+      <c r="C190" s="81"/>
+      <c r="D190" s="81"/>
+      <c r="E190" s="82"/>
+      <c r="F190" s="79"/>
+      <c r="G190" s="77"/>
+      <c r="H190" s="83"/>
+      <c r="I190" s="81"/>
       <c r="J190" s="60"/>
       <c r="K190" s="60"/>
       <c r="L190" s="62"/>
@@ -9397,13 +9879,13 @@
     <row r="191" spans="1:20" ht="18" customHeight="1">
       <c r="A191" s="60"/>
       <c r="B191" s="63"/>
-      <c r="C191" s="82"/>
-      <c r="D191" s="82"/>
-      <c r="E191" s="83"/>
-      <c r="F191" s="85"/>
-      <c r="G191" s="78"/>
-      <c r="H191" s="84"/>
-      <c r="I191" s="82"/>
+      <c r="C191" s="81"/>
+      <c r="D191" s="81"/>
+      <c r="E191" s="82"/>
+      <c r="F191" s="84"/>
+      <c r="G191" s="77"/>
+      <c r="H191" s="83"/>
+      <c r="I191" s="81"/>
       <c r="J191" s="60"/>
       <c r="K191" s="60"/>
       <c r="L191" s="62"/>
@@ -9419,12 +9901,12 @@
     <row r="192" spans="1:20" ht="18" customHeight="1">
       <c r="A192" s="60"/>
       <c r="B192" s="63"/>
-      <c r="C192" s="82"/>
-      <c r="D192" s="82"/>
-      <c r="E192" s="83"/>
-      <c r="F192" s="85"/>
-      <c r="G192" s="78"/>
-      <c r="H192" s="84"/>
+      <c r="C192" s="81"/>
+      <c r="D192" s="81"/>
+      <c r="E192" s="82"/>
+      <c r="F192" s="84"/>
+      <c r="G192" s="77"/>
+      <c r="H192" s="83"/>
       <c r="I192" s="60"/>
       <c r="J192" s="60"/>
       <c r="K192" s="60"/>
@@ -9441,12 +9923,12 @@
     <row r="193" spans="1:20" ht="18" customHeight="1">
       <c r="A193" s="60"/>
       <c r="B193" s="63"/>
-      <c r="C193" s="82"/>
-      <c r="D193" s="82"/>
-      <c r="E193" s="83"/>
-      <c r="F193" s="85"/>
-      <c r="G193" s="78"/>
-      <c r="H193" s="84"/>
+      <c r="C193" s="81"/>
+      <c r="D193" s="81"/>
+      <c r="E193" s="82"/>
+      <c r="F193" s="84"/>
+      <c r="G193" s="77"/>
+      <c r="H193" s="83"/>
       <c r="I193" s="60"/>
       <c r="J193" s="60"/>
       <c r="K193" s="60"/>
@@ -9463,12 +9945,12 @@
     <row r="194" spans="1:20" ht="18" customHeight="1">
       <c r="A194" s="60"/>
       <c r="B194" s="63"/>
-      <c r="C194" s="82"/>
-      <c r="D194" s="82"/>
-      <c r="E194" s="83"/>
-      <c r="F194" s="85"/>
-      <c r="G194" s="78"/>
-      <c r="H194" s="84"/>
+      <c r="C194" s="81"/>
+      <c r="D194" s="81"/>
+      <c r="E194" s="82"/>
+      <c r="F194" s="84"/>
+      <c r="G194" s="77"/>
+      <c r="H194" s="83"/>
       <c r="I194" s="60"/>
       <c r="J194" s="60"/>
       <c r="K194" s="60"/>
@@ -9485,12 +9967,12 @@
     <row r="195" spans="1:20" ht="18" customHeight="1">
       <c r="A195" s="60"/>
       <c r="B195" s="63"/>
-      <c r="C195" s="82"/>
-      <c r="D195" s="82"/>
-      <c r="E195" s="83"/>
-      <c r="F195" s="85"/>
-      <c r="G195" s="78"/>
-      <c r="H195" s="84"/>
+      <c r="C195" s="81"/>
+      <c r="D195" s="81"/>
+      <c r="E195" s="82"/>
+      <c r="F195" s="84"/>
+      <c r="G195" s="77"/>
+      <c r="H195" s="83"/>
       <c r="I195" s="60"/>
       <c r="J195" s="60"/>
       <c r="K195" s="60"/>
@@ -9507,12 +9989,12 @@
     <row r="196" spans="1:20" ht="18" customHeight="1">
       <c r="A196" s="60"/>
       <c r="B196" s="63"/>
-      <c r="C196" s="82"/>
-      <c r="D196" s="82"/>
-      <c r="E196" s="83"/>
-      <c r="F196" s="85"/>
-      <c r="G196" s="78"/>
-      <c r="H196" s="84"/>
+      <c r="C196" s="81"/>
+      <c r="D196" s="81"/>
+      <c r="E196" s="82"/>
+      <c r="F196" s="84"/>
+      <c r="G196" s="77"/>
+      <c r="H196" s="83"/>
       <c r="I196" s="60"/>
       <c r="J196" s="60"/>
       <c r="K196" s="60"/>
@@ -9529,12 +10011,12 @@
     <row r="197" spans="1:20" ht="18" customHeight="1">
       <c r="A197" s="60"/>
       <c r="B197" s="63"/>
-      <c r="C197" s="82"/>
-      <c r="D197" s="82"/>
-      <c r="E197" s="83"/>
-      <c r="F197" s="85"/>
-      <c r="G197" s="78"/>
-      <c r="H197" s="84"/>
+      <c r="C197" s="81"/>
+      <c r="D197" s="81"/>
+      <c r="E197" s="82"/>
+      <c r="F197" s="84"/>
+      <c r="G197" s="77"/>
+      <c r="H197" s="83"/>
       <c r="I197" s="60"/>
       <c r="J197" s="60"/>
       <c r="K197" s="60"/>
@@ -9551,12 +10033,12 @@
     <row r="198" spans="1:20" ht="18" customHeight="1">
       <c r="A198" s="60"/>
       <c r="B198" s="63"/>
-      <c r="C198" s="82"/>
-      <c r="D198" s="82"/>
-      <c r="E198" s="83"/>
-      <c r="F198" s="85"/>
-      <c r="G198" s="78"/>
-      <c r="H198" s="84"/>
+      <c r="C198" s="81"/>
+      <c r="D198" s="81"/>
+      <c r="E198" s="82"/>
+      <c r="F198" s="84"/>
+      <c r="G198" s="77"/>
+      <c r="H198" s="83"/>
       <c r="I198" s="60"/>
       <c r="J198" s="60"/>
       <c r="K198" s="60"/>
@@ -9573,12 +10055,12 @@
     <row r="199" spans="1:20" ht="18" customHeight="1">
       <c r="A199" s="60"/>
       <c r="B199" s="63"/>
-      <c r="C199" s="82"/>
-      <c r="D199" s="82"/>
-      <c r="E199" s="83"/>
-      <c r="F199" s="85"/>
-      <c r="G199" s="78"/>
-      <c r="H199" s="84"/>
+      <c r="C199" s="81"/>
+      <c r="D199" s="81"/>
+      <c r="E199" s="82"/>
+      <c r="F199" s="84"/>
+      <c r="G199" s="77"/>
+      <c r="H199" s="83"/>
       <c r="I199" s="60"/>
       <c r="J199" s="60"/>
       <c r="K199" s="60"/>
@@ -9595,13 +10077,13 @@
     <row r="200" spans="1:20" ht="18" customHeight="1">
       <c r="A200" s="60"/>
       <c r="B200" s="63"/>
-      <c r="C200" s="82"/>
-      <c r="D200" s="82"/>
-      <c r="E200" s="83"/>
-      <c r="F200" s="85"/>
-      <c r="G200" s="78"/>
-      <c r="H200" s="84"/>
-      <c r="I200" s="82"/>
+      <c r="C200" s="81"/>
+      <c r="D200" s="81"/>
+      <c r="E200" s="82"/>
+      <c r="F200" s="84"/>
+      <c r="G200" s="77"/>
+      <c r="H200" s="83"/>
+      <c r="I200" s="81"/>
       <c r="J200" s="60"/>
       <c r="K200" s="60"/>
       <c r="L200" s="62"/>
@@ -9617,13 +10099,13 @@
     <row r="201" spans="1:20" ht="18" customHeight="1">
       <c r="A201" s="60"/>
       <c r="B201" s="63"/>
-      <c r="C201" s="82"/>
-      <c r="D201" s="82"/>
-      <c r="E201" s="83"/>
-      <c r="F201" s="85"/>
-      <c r="G201" s="78"/>
-      <c r="H201" s="84"/>
-      <c r="I201" s="82"/>
+      <c r="C201" s="81"/>
+      <c r="D201" s="81"/>
+      <c r="E201" s="82"/>
+      <c r="F201" s="84"/>
+      <c r="G201" s="77"/>
+      <c r="H201" s="83"/>
+      <c r="I201" s="81"/>
       <c r="J201" s="60"/>
       <c r="K201" s="60"/>
       <c r="L201" s="62"/>
@@ -9639,13 +10121,13 @@
     <row r="202" spans="1:20" ht="18" customHeight="1">
       <c r="A202" s="60"/>
       <c r="B202" s="63"/>
-      <c r="C202" s="82"/>
-      <c r="D202" s="82"/>
-      <c r="E202" s="83"/>
-      <c r="F202" s="85"/>
-      <c r="G202" s="78"/>
-      <c r="H202" s="84"/>
-      <c r="I202" s="82"/>
+      <c r="C202" s="81"/>
+      <c r="D202" s="81"/>
+      <c r="E202" s="82"/>
+      <c r="F202" s="84"/>
+      <c r="G202" s="77"/>
+      <c r="H202" s="83"/>
+      <c r="I202" s="81"/>
       <c r="J202" s="60"/>
       <c r="K202" s="60"/>
       <c r="L202" s="62"/>
@@ -9664,10 +10146,10 @@
       <c r="C203" s="62"/>
       <c r="D203" s="62"/>
       <c r="E203" s="68"/>
-      <c r="F203" s="80"/>
+      <c r="F203" s="79"/>
       <c r="G203" s="54"/>
       <c r="H203" s="70"/>
-      <c r="I203" s="82"/>
+      <c r="I203" s="81"/>
       <c r="J203" s="60"/>
       <c r="K203" s="60"/>
       <c r="L203" s="62"/>
@@ -9686,10 +10168,10 @@
       <c r="C204" s="62"/>
       <c r="D204" s="62"/>
       <c r="E204" s="68"/>
-      <c r="F204" s="80"/>
+      <c r="F204" s="79"/>
       <c r="G204" s="54"/>
       <c r="H204" s="70"/>
-      <c r="I204" s="82"/>
+      <c r="I204" s="81"/>
       <c r="J204" s="60"/>
       <c r="K204" s="60"/>
       <c r="L204" s="62"/>
@@ -9708,10 +10190,10 @@
       <c r="C205" s="62"/>
       <c r="D205" s="62"/>
       <c r="E205" s="68"/>
-      <c r="F205" s="80"/>
+      <c r="F205" s="79"/>
       <c r="G205" s="54"/>
       <c r="H205" s="70"/>
-      <c r="I205" s="82"/>
+      <c r="I205" s="81"/>
       <c r="J205" s="60"/>
       <c r="K205" s="60"/>
       <c r="L205" s="62"/>
@@ -9730,10 +10212,10 @@
       <c r="C206" s="62"/>
       <c r="D206" s="62"/>
       <c r="E206" s="68"/>
-      <c r="F206" s="80"/>
+      <c r="F206" s="79"/>
       <c r="G206" s="54"/>
       <c r="H206" s="70"/>
-      <c r="I206" s="82"/>
+      <c r="I206" s="81"/>
       <c r="J206" s="60"/>
       <c r="K206" s="60"/>
       <c r="L206" s="62"/>
@@ -9752,10 +10234,10 @@
       <c r="C207" s="62"/>
       <c r="D207" s="62"/>
       <c r="E207" s="68"/>
-      <c r="F207" s="80"/>
+      <c r="F207" s="79"/>
       <c r="G207" s="54"/>
       <c r="H207" s="70"/>
-      <c r="I207" s="82"/>
+      <c r="I207" s="81"/>
       <c r="J207" s="60"/>
       <c r="K207" s="60"/>
       <c r="L207" s="62"/>
@@ -9774,7 +10256,7 @@
       <c r="C208" s="62"/>
       <c r="D208" s="62"/>
       <c r="E208" s="68"/>
-      <c r="F208" s="80"/>
+      <c r="F208" s="79"/>
       <c r="G208" s="54"/>
       <c r="H208" s="70"/>
       <c r="I208" s="60"/>
@@ -9796,7 +10278,7 @@
       <c r="C209" s="62"/>
       <c r="D209" s="62"/>
       <c r="E209" s="68"/>
-      <c r="F209" s="80"/>
+      <c r="F209" s="79"/>
       <c r="G209" s="54"/>
       <c r="H209" s="70"/>
       <c r="I209" s="60"/>
@@ -9818,7 +10300,7 @@
       <c r="C210" s="62"/>
       <c r="D210" s="62"/>
       <c r="E210" s="68"/>
-      <c r="F210" s="80"/>
+      <c r="F210" s="79"/>
       <c r="G210" s="54"/>
       <c r="H210" s="70"/>
       <c r="I210" s="60"/>
@@ -9837,12 +10319,12 @@
     <row r="211" spans="1:20" ht="18" customHeight="1">
       <c r="A211" s="60"/>
       <c r="B211" s="63"/>
-      <c r="C211" s="82"/>
-      <c r="D211" s="82"/>
-      <c r="E211" s="83"/>
-      <c r="F211" s="80"/>
-      <c r="G211" s="78"/>
-      <c r="H211" s="84"/>
+      <c r="C211" s="81"/>
+      <c r="D211" s="81"/>
+      <c r="E211" s="82"/>
+      <c r="F211" s="79"/>
+      <c r="G211" s="77"/>
+      <c r="H211" s="83"/>
       <c r="I211" s="60"/>
       <c r="J211" s="60"/>
       <c r="K211" s="60"/>
@@ -9859,12 +10341,12 @@
     <row r="212" spans="1:20" ht="18" customHeight="1">
       <c r="A212" s="60"/>
       <c r="B212" s="63"/>
-      <c r="C212" s="82"/>
-      <c r="D212" s="82"/>
-      <c r="E212" s="83"/>
-      <c r="F212" s="80"/>
-      <c r="G212" s="78"/>
-      <c r="H212" s="84"/>
+      <c r="C212" s="81"/>
+      <c r="D212" s="81"/>
+      <c r="E212" s="82"/>
+      <c r="F212" s="79"/>
+      <c r="G212" s="77"/>
+      <c r="H212" s="83"/>
       <c r="I212" s="60"/>
       <c r="J212" s="60"/>
       <c r="K212" s="60"/>
@@ -9881,12 +10363,12 @@
     <row r="213" spans="1:20" ht="18" customHeight="1">
       <c r="A213" s="60"/>
       <c r="B213" s="63"/>
-      <c r="C213" s="82"/>
-      <c r="D213" s="82"/>
-      <c r="E213" s="83"/>
-      <c r="F213" s="80"/>
-      <c r="G213" s="78"/>
-      <c r="H213" s="84"/>
+      <c r="C213" s="81"/>
+      <c r="D213" s="81"/>
+      <c r="E213" s="82"/>
+      <c r="F213" s="79"/>
+      <c r="G213" s="77"/>
+      <c r="H213" s="83"/>
       <c r="I213" s="60"/>
       <c r="J213" s="60"/>
       <c r="K213" s="60"/>
@@ -9903,12 +10385,12 @@
     <row r="214" spans="1:20" ht="18" customHeight="1">
       <c r="A214" s="60"/>
       <c r="B214" s="63"/>
-      <c r="C214" s="82"/>
-      <c r="D214" s="82"/>
-      <c r="E214" s="83"/>
-      <c r="F214" s="80"/>
-      <c r="G214" s="78"/>
-      <c r="H214" s="84"/>
+      <c r="C214" s="81"/>
+      <c r="D214" s="81"/>
+      <c r="E214" s="82"/>
+      <c r="F214" s="79"/>
+      <c r="G214" s="77"/>
+      <c r="H214" s="83"/>
       <c r="I214" s="60"/>
       <c r="J214" s="60"/>
       <c r="K214" s="60"/>
@@ -9925,12 +10407,12 @@
     <row r="215" spans="1:20" ht="18" customHeight="1">
       <c r="A215" s="60"/>
       <c r="B215" s="63"/>
-      <c r="C215" s="82"/>
-      <c r="D215" s="82"/>
-      <c r="E215" s="83"/>
-      <c r="F215" s="80"/>
-      <c r="G215" s="78"/>
-      <c r="H215" s="84"/>
+      <c r="C215" s="81"/>
+      <c r="D215" s="81"/>
+      <c r="E215" s="82"/>
+      <c r="F215" s="79"/>
+      <c r="G215" s="77"/>
+      <c r="H215" s="83"/>
       <c r="I215" s="60"/>
       <c r="J215" s="60"/>
       <c r="K215" s="60"/>
@@ -9947,14 +10429,14 @@
     <row r="216" spans="1:20" ht="18" customHeight="1">
       <c r="A216" s="60"/>
       <c r="B216" s="63"/>
-      <c r="C216" s="82"/>
-      <c r="D216" s="82"/>
-      <c r="E216" s="83"/>
-      <c r="F216" s="80"/>
-      <c r="G216" s="78"/>
-      <c r="H216" s="84"/>
+      <c r="C216" s="81"/>
+      <c r="D216" s="81"/>
+      <c r="E216" s="82"/>
+      <c r="F216" s="79"/>
+      <c r="G216" s="77"/>
+      <c r="H216" s="83"/>
       <c r="I216" s="60"/>
-      <c r="J216" s="77"/>
+      <c r="J216" s="76"/>
       <c r="K216" s="60"/>
       <c r="L216" s="62"/>
       <c r="M216" s="62"/>
@@ -9969,14 +10451,14 @@
     <row r="217" spans="1:20" ht="18" customHeight="1">
       <c r="A217" s="60"/>
       <c r="B217" s="63"/>
-      <c r="C217" s="82"/>
-      <c r="D217" s="82"/>
-      <c r="E217" s="83"/>
-      <c r="F217" s="80"/>
-      <c r="G217" s="78"/>
-      <c r="H217" s="84"/>
+      <c r="C217" s="81"/>
+      <c r="D217" s="81"/>
+      <c r="E217" s="82"/>
+      <c r="F217" s="79"/>
+      <c r="G217" s="77"/>
+      <c r="H217" s="83"/>
       <c r="I217" s="60"/>
-      <c r="J217" s="77"/>
+      <c r="J217" s="76"/>
       <c r="K217" s="60"/>
       <c r="L217" s="62"/>
       <c r="M217" s="62"/>
@@ -9991,14 +10473,14 @@
     <row r="218" spans="1:20" ht="18" customHeight="1">
       <c r="A218" s="60"/>
       <c r="B218" s="63"/>
-      <c r="C218" s="82"/>
-      <c r="D218" s="82"/>
-      <c r="E218" s="83"/>
-      <c r="F218" s="80"/>
-      <c r="G218" s="78"/>
-      <c r="H218" s="84"/>
+      <c r="C218" s="81"/>
+      <c r="D218" s="81"/>
+      <c r="E218" s="82"/>
+      <c r="F218" s="79"/>
+      <c r="G218" s="77"/>
+      <c r="H218" s="83"/>
       <c r="I218" s="60"/>
-      <c r="J218" s="77"/>
+      <c r="J218" s="76"/>
       <c r="K218" s="60"/>
       <c r="L218" s="62"/>
       <c r="M218" s="62"/>
@@ -10016,11 +10498,11 @@
       <c r="C219" s="62"/>
       <c r="D219" s="62"/>
       <c r="E219" s="68"/>
-      <c r="F219" s="80"/>
+      <c r="F219" s="79"/>
       <c r="G219" s="54"/>
       <c r="H219" s="70"/>
       <c r="I219" s="60"/>
-      <c r="J219" s="77"/>
+      <c r="J219" s="76"/>
       <c r="K219" s="60"/>
       <c r="L219" s="62"/>
       <c r="M219" s="62"/>
@@ -10038,7 +10520,7 @@
       <c r="C220" s="62"/>
       <c r="D220" s="62"/>
       <c r="E220" s="68"/>
-      <c r="F220" s="80"/>
+      <c r="F220" s="79"/>
       <c r="G220" s="54"/>
       <c r="H220" s="70"/>
       <c r="I220" s="67"/>
@@ -10060,11 +10542,11 @@
       <c r="C221" s="62"/>
       <c r="D221" s="62"/>
       <c r="E221" s="68"/>
-      <c r="F221" s="80"/>
+      <c r="F221" s="79"/>
       <c r="G221" s="54"/>
       <c r="H221" s="70"/>
       <c r="I221" s="67"/>
-      <c r="J221" s="77"/>
+      <c r="J221" s="76"/>
       <c r="K221" s="60"/>
       <c r="L221" s="62"/>
       <c r="M221" s="62"/>
@@ -10082,11 +10564,11 @@
       <c r="C222" s="62"/>
       <c r="D222" s="62"/>
       <c r="E222" s="68"/>
-      <c r="F222" s="80"/>
+      <c r="F222" s="79"/>
       <c r="G222" s="54"/>
       <c r="H222" s="70"/>
       <c r="I222" s="67"/>
-      <c r="J222" s="77"/>
+      <c r="J222" s="76"/>
       <c r="K222" s="60"/>
       <c r="L222" s="62"/>
       <c r="M222" s="62"/>
@@ -10104,11 +10586,11 @@
       <c r="C223" s="62"/>
       <c r="D223" s="62"/>
       <c r="E223" s="68"/>
-      <c r="F223" s="80"/>
+      <c r="F223" s="79"/>
       <c r="G223" s="54"/>
       <c r="H223" s="70"/>
       <c r="I223" s="67"/>
-      <c r="J223" s="77"/>
+      <c r="J223" s="76"/>
       <c r="K223" s="60"/>
       <c r="L223" s="62"/>
       <c r="M223" s="62"/>
@@ -10126,11 +10608,11 @@
       <c r="C224" s="62"/>
       <c r="D224" s="62"/>
       <c r="E224" s="68"/>
-      <c r="F224" s="80"/>
+      <c r="F224" s="79"/>
       <c r="G224" s="54"/>
       <c r="H224" s="70"/>
       <c r="I224" s="67"/>
-      <c r="J224" s="77"/>
+      <c r="J224" s="76"/>
       <c r="K224" s="60"/>
       <c r="L224" s="62"/>
       <c r="M224" s="62"/>
@@ -10148,11 +10630,11 @@
       <c r="C225" s="62"/>
       <c r="D225" s="62"/>
       <c r="E225" s="68"/>
-      <c r="F225" s="80"/>
+      <c r="F225" s="79"/>
       <c r="G225" s="54"/>
       <c r="H225" s="70"/>
       <c r="I225" s="67"/>
-      <c r="J225" s="77"/>
+      <c r="J225" s="76"/>
       <c r="K225" s="67"/>
       <c r="L225" s="62"/>
       <c r="M225" s="62"/>
@@ -10170,11 +10652,11 @@
       <c r="C226" s="62"/>
       <c r="D226" s="62"/>
       <c r="E226" s="68"/>
-      <c r="F226" s="80"/>
+      <c r="F226" s="79"/>
       <c r="G226" s="54"/>
       <c r="H226" s="70"/>
       <c r="I226" s="67"/>
-      <c r="J226" s="87"/>
+      <c r="J226" s="86"/>
       <c r="K226" s="67"/>
       <c r="L226" s="62"/>
       <c r="M226" s="62"/>
@@ -10192,7 +10674,7 @@
       <c r="C227" s="62"/>
       <c r="D227" s="62"/>
       <c r="E227" s="68"/>
-      <c r="F227" s="80"/>
+      <c r="F227" s="79"/>
       <c r="G227" s="54"/>
       <c r="H227" s="60"/>
       <c r="I227" s="67"/>
@@ -10214,7 +10696,7 @@
       <c r="C228" s="62"/>
       <c r="D228" s="62"/>
       <c r="E228" s="68"/>
-      <c r="F228" s="80"/>
+      <c r="F228" s="79"/>
       <c r="G228" s="54"/>
       <c r="H228" s="60"/>
       <c r="I228" s="67"/>
@@ -10236,7 +10718,7 @@
       <c r="C229" s="62"/>
       <c r="D229" s="62"/>
       <c r="E229" s="68"/>
-      <c r="F229" s="80"/>
+      <c r="F229" s="79"/>
       <c r="G229" s="54"/>
       <c r="H229" s="60"/>
       <c r="I229" s="67"/>
@@ -10258,7 +10740,7 @@
       <c r="C230" s="62"/>
       <c r="D230" s="62"/>
       <c r="E230" s="68"/>
-      <c r="F230" s="80"/>
+      <c r="F230" s="79"/>
       <c r="G230" s="54"/>
       <c r="H230" s="60"/>
       <c r="I230" s="67"/>
@@ -10276,12 +10758,12 @@
     </row>
     <row r="231" spans="1:20" ht="18" customHeight="1">
       <c r="A231" s="60"/>
-      <c r="B231" s="86"/>
-      <c r="C231" s="86"/>
-      <c r="D231" s="86"/>
+      <c r="B231" s="85"/>
+      <c r="C231" s="85"/>
+      <c r="D231" s="85"/>
       <c r="E231" s="67"/>
-      <c r="F231" s="86"/>
-      <c r="G231" s="86"/>
+      <c r="F231" s="85"/>
+      <c r="G231" s="85"/>
       <c r="H231" s="67"/>
       <c r="I231" s="67"/>
       <c r="J231" s="67"/>
@@ -10298,12 +10780,12 @@
     </row>
     <row r="232" spans="1:20" ht="18" customHeight="1">
       <c r="A232" s="60"/>
-      <c r="B232" s="86"/>
-      <c r="C232" s="86"/>
-      <c r="D232" s="86"/>
+      <c r="B232" s="85"/>
+      <c r="C232" s="85"/>
+      <c r="D232" s="85"/>
       <c r="E232" s="67"/>
-      <c r="F232" s="86"/>
-      <c r="G232" s="86"/>
+      <c r="F232" s="85"/>
+      <c r="G232" s="85"/>
       <c r="H232" s="67"/>
       <c r="I232" s="67"/>
       <c r="J232" s="67"/>
@@ -10320,15 +10802,15 @@
     </row>
     <row r="233" spans="1:20" ht="18" customHeight="1">
       <c r="A233" s="60"/>
-      <c r="B233" s="86"/>
-      <c r="C233" s="86"/>
-      <c r="D233" s="86"/>
+      <c r="B233" s="85"/>
+      <c r="C233" s="85"/>
+      <c r="D233" s="85"/>
       <c r="E233" s="67"/>
-      <c r="F233" s="86"/>
-      <c r="G233" s="86"/>
+      <c r="F233" s="85"/>
+      <c r="G233" s="85"/>
       <c r="H233" s="67"/>
       <c r="I233" s="67"/>
-      <c r="J233" s="87"/>
+      <c r="J233" s="86"/>
       <c r="K233" s="67"/>
       <c r="L233" s="62"/>
       <c r="M233" s="62"/>
@@ -10342,15 +10824,15 @@
     </row>
     <row r="234" spans="1:20" ht="18" customHeight="1">
       <c r="A234" s="60"/>
-      <c r="B234" s="86"/>
-      <c r="C234" s="86"/>
-      <c r="D234" s="86"/>
+      <c r="B234" s="85"/>
+      <c r="C234" s="85"/>
+      <c r="D234" s="85"/>
       <c r="E234" s="67"/>
-      <c r="F234" s="86"/>
-      <c r="G234" s="86"/>
+      <c r="F234" s="85"/>
+      <c r="G234" s="85"/>
       <c r="H234" s="67"/>
       <c r="I234" s="67"/>
-      <c r="J234" s="87"/>
+      <c r="J234" s="86"/>
       <c r="K234" s="67"/>
       <c r="L234" s="62"/>
       <c r="M234" s="62"/>
@@ -10364,15 +10846,15 @@
     </row>
     <row r="235" spans="1:20" ht="18" customHeight="1">
       <c r="A235" s="67"/>
-      <c r="B235" s="86"/>
-      <c r="C235" s="86"/>
-      <c r="D235" s="86"/>
+      <c r="B235" s="85"/>
+      <c r="C235" s="85"/>
+      <c r="D235" s="85"/>
       <c r="E235" s="67"/>
-      <c r="F235" s="86"/>
-      <c r="G235" s="86"/>
+      <c r="F235" s="85"/>
+      <c r="G235" s="85"/>
       <c r="H235" s="67"/>
       <c r="I235" s="67"/>
-      <c r="J235" s="87"/>
+      <c r="J235" s="86"/>
       <c r="K235" s="67"/>
       <c r="L235" s="62"/>
       <c r="M235" s="62"/>
@@ -10386,15 +10868,15 @@
     </row>
     <row r="236" spans="1:20" ht="18" customHeight="1">
       <c r="A236" s="67"/>
-      <c r="B236" s="86"/>
-      <c r="C236" s="86"/>
-      <c r="D236" s="86"/>
+      <c r="B236" s="85"/>
+      <c r="C236" s="85"/>
+      <c r="D236" s="85"/>
       <c r="E236" s="67"/>
-      <c r="F236" s="86"/>
-      <c r="G236" s="86"/>
+      <c r="F236" s="85"/>
+      <c r="G236" s="85"/>
       <c r="H236" s="67"/>
       <c r="I236" s="67"/>
-      <c r="J236" s="87"/>
+      <c r="J236" s="86"/>
       <c r="K236" s="67"/>
       <c r="L236" s="62"/>
       <c r="M236" s="62"/>
@@ -10408,15 +10890,15 @@
     </row>
     <row r="237" spans="1:20" ht="18" customHeight="1">
       <c r="A237" s="67"/>
-      <c r="B237" s="86"/>
-      <c r="C237" s="86"/>
-      <c r="D237" s="86"/>
+      <c r="B237" s="85"/>
+      <c r="C237" s="85"/>
+      <c r="D237" s="85"/>
       <c r="E237" s="67"/>
-      <c r="F237" s="86"/>
-      <c r="G237" s="86"/>
+      <c r="F237" s="85"/>
+      <c r="G237" s="85"/>
       <c r="H237" s="67"/>
       <c r="I237" s="67"/>
-      <c r="J237" s="87"/>
+      <c r="J237" s="86"/>
       <c r="K237" s="67"/>
       <c r="L237" s="62"/>
       <c r="M237" s="62"/>
@@ -10430,18 +10912,18 @@
     </row>
     <row r="238" spans="1:20" ht="18" customHeight="1">
       <c r="A238" s="67"/>
-      <c r="B238" s="86"/>
-      <c r="C238" s="86"/>
-      <c r="D238" s="86"/>
+      <c r="B238" s="85"/>
+      <c r="C238" s="85"/>
+      <c r="D238" s="85"/>
       <c r="E238" s="67"/>
-      <c r="F238" s="86"/>
-      <c r="G238" s="86"/>
+      <c r="F238" s="85"/>
+      <c r="G238" s="85"/>
       <c r="H238" s="67"/>
       <c r="I238" s="67"/>
-      <c r="J238" s="87"/>
-      <c r="K238" s="87"/>
-      <c r="L238" s="86"/>
-      <c r="M238" s="86"/>
+      <c r="J238" s="86"/>
+      <c r="K238" s="86"/>
+      <c r="L238" s="85"/>
+      <c r="M238" s="85"/>
       <c r="N238" s="62"/>
       <c r="O238" s="67"/>
       <c r="P238" s="67"/>
@@ -10452,18 +10934,18 @@
     </row>
     <row r="239" spans="1:20" ht="18" customHeight="1">
       <c r="A239" s="67"/>
-      <c r="B239" s="86"/>
-      <c r="C239" s="86"/>
-      <c r="D239" s="86"/>
+      <c r="B239" s="85"/>
+      <c r="C239" s="85"/>
+      <c r="D239" s="85"/>
       <c r="E239" s="67"/>
-      <c r="F239" s="86"/>
-      <c r="G239" s="86"/>
+      <c r="F239" s="85"/>
+      <c r="G239" s="85"/>
       <c r="H239" s="67"/>
       <c r="I239" s="67"/>
-      <c r="J239" s="87"/>
-      <c r="K239" s="87"/>
-      <c r="L239" s="86"/>
-      <c r="M239" s="86"/>
+      <c r="J239" s="86"/>
+      <c r="K239" s="86"/>
+      <c r="L239" s="85"/>
+      <c r="M239" s="85"/>
       <c r="N239" s="62"/>
       <c r="O239" s="67"/>
       <c r="P239" s="67"/>
@@ -10474,18 +10956,18 @@
     </row>
     <row r="240" spans="1:20" ht="18" customHeight="1">
       <c r="A240" s="67"/>
-      <c r="B240" s="86"/>
-      <c r="C240" s="86"/>
-      <c r="D240" s="86"/>
+      <c r="B240" s="85"/>
+      <c r="C240" s="85"/>
+      <c r="D240" s="85"/>
       <c r="E240" s="67"/>
-      <c r="F240" s="86"/>
-      <c r="G240" s="86"/>
+      <c r="F240" s="85"/>
+      <c r="G240" s="85"/>
       <c r="H240" s="67"/>
       <c r="I240" s="67"/>
       <c r="J240" s="71"/>
       <c r="K240" s="71"/>
-      <c r="L240" s="86"/>
-      <c r="M240" s="86"/>
+      <c r="L240" s="85"/>
+      <c r="M240" s="85"/>
       <c r="N240" s="62"/>
       <c r="O240" s="67"/>
       <c r="P240" s="67"/>
@@ -10496,18 +10978,18 @@
     </row>
     <row r="241" spans="1:20" ht="18" customHeight="1">
       <c r="A241" s="67"/>
-      <c r="B241" s="86"/>
-      <c r="C241" s="86"/>
-      <c r="D241" s="86"/>
+      <c r="B241" s="85"/>
+      <c r="C241" s="85"/>
+      <c r="D241" s="85"/>
       <c r="E241" s="67"/>
-      <c r="F241" s="86"/>
-      <c r="G241" s="86"/>
+      <c r="F241" s="85"/>
+      <c r="G241" s="85"/>
       <c r="H241" s="67"/>
       <c r="I241" s="67"/>
       <c r="J241" s="71"/>
       <c r="K241" s="71"/>
-      <c r="L241" s="86"/>
-      <c r="M241" s="86"/>
+      <c r="L241" s="85"/>
+      <c r="M241" s="85"/>
       <c r="N241" s="62"/>
       <c r="O241" s="67"/>
       <c r="P241" s="67"/>
@@ -10518,18 +11000,18 @@
     </row>
     <row r="242" spans="1:20" ht="18" customHeight="1">
       <c r="A242" s="67"/>
-      <c r="B242" s="86"/>
-      <c r="C242" s="86"/>
-      <c r="D242" s="86"/>
+      <c r="B242" s="85"/>
+      <c r="C242" s="85"/>
+      <c r="D242" s="85"/>
       <c r="E242" s="67"/>
-      <c r="F242" s="86"/>
-      <c r="G242" s="86"/>
+      <c r="F242" s="85"/>
+      <c r="G242" s="85"/>
       <c r="H242" s="67"/>
       <c r="I242" s="67"/>
-      <c r="J242" s="87"/>
+      <c r="J242" s="86"/>
       <c r="K242" s="67"/>
-      <c r="L242" s="86"/>
-      <c r="M242" s="86"/>
+      <c r="L242" s="85"/>
+      <c r="M242" s="85"/>
       <c r="N242" s="62"/>
       <c r="O242" s="67"/>
       <c r="P242" s="67"/>
@@ -10540,18 +11022,18 @@
     </row>
     <row r="243" spans="1:20" ht="18" customHeight="1">
       <c r="A243" s="67"/>
-      <c r="B243" s="86"/>
-      <c r="C243" s="86"/>
-      <c r="D243" s="86"/>
+      <c r="B243" s="85"/>
+      <c r="C243" s="85"/>
+      <c r="D243" s="85"/>
       <c r="E243" s="67"/>
-      <c r="F243" s="86"/>
-      <c r="G243" s="86"/>
+      <c r="F243" s="85"/>
+      <c r="G243" s="85"/>
       <c r="H243" s="67"/>
       <c r="I243" s="67"/>
-      <c r="J243" s="87"/>
+      <c r="J243" s="86"/>
       <c r="K243" s="67"/>
-      <c r="L243" s="86"/>
-      <c r="M243" s="86"/>
+      <c r="L243" s="85"/>
+      <c r="M243" s="85"/>
       <c r="N243" s="62"/>
       <c r="O243" s="67"/>
       <c r="P243" s="67"/>
@@ -10562,18 +11044,18 @@
     </row>
     <row r="244" spans="1:20" ht="18" customHeight="1">
       <c r="A244" s="67"/>
-      <c r="B244" s="86"/>
-      <c r="C244" s="86"/>
-      <c r="D244" s="86"/>
+      <c r="B244" s="85"/>
+      <c r="C244" s="85"/>
+      <c r="D244" s="85"/>
       <c r="E244" s="67"/>
-      <c r="F244" s="86"/>
-      <c r="G244" s="86"/>
+      <c r="F244" s="85"/>
+      <c r="G244" s="85"/>
       <c r="H244" s="67"/>
       <c r="I244" s="67"/>
-      <c r="J244" s="87"/>
+      <c r="J244" s="86"/>
       <c r="K244" s="67"/>
-      <c r="L244" s="86"/>
-      <c r="M244" s="86"/>
+      <c r="L244" s="85"/>
+      <c r="M244" s="85"/>
       <c r="N244" s="62"/>
       <c r="O244" s="67"/>
       <c r="P244" s="67"/>
@@ -10584,18 +11066,18 @@
     </row>
     <row r="245" spans="1:20" ht="18" customHeight="1">
       <c r="A245" s="67"/>
-      <c r="B245" s="86"/>
-      <c r="C245" s="86"/>
-      <c r="D245" s="86"/>
+      <c r="B245" s="85"/>
+      <c r="C245" s="85"/>
+      <c r="D245" s="85"/>
       <c r="E245" s="67"/>
-      <c r="F245" s="86"/>
-      <c r="G245" s="86"/>
+      <c r="F245" s="85"/>
+      <c r="G245" s="85"/>
       <c r="H245" s="67"/>
       <c r="I245" s="67"/>
-      <c r="J245" s="87"/>
+      <c r="J245" s="86"/>
       <c r="K245" s="67"/>
-      <c r="L245" s="86"/>
-      <c r="M245" s="86"/>
+      <c r="L245" s="85"/>
+      <c r="M245" s="85"/>
       <c r="N245" s="62"/>
       <c r="O245" s="67"/>
       <c r="P245" s="67"/>
@@ -10606,18 +11088,18 @@
     </row>
     <row r="246" spans="1:20" ht="18" customHeight="1">
       <c r="A246" s="67"/>
-      <c r="B246" s="86"/>
-      <c r="C246" s="86"/>
-      <c r="D246" s="86"/>
+      <c r="B246" s="85"/>
+      <c r="C246" s="85"/>
+      <c r="D246" s="85"/>
       <c r="E246" s="67"/>
-      <c r="F246" s="86"/>
-      <c r="G246" s="86"/>
+      <c r="F246" s="85"/>
+      <c r="G246" s="85"/>
       <c r="H246" s="67"/>
       <c r="I246" s="67"/>
       <c r="J246" s="67"/>
       <c r="K246" s="67"/>
-      <c r="L246" s="86"/>
-      <c r="M246" s="86"/>
+      <c r="L246" s="85"/>
+      <c r="M246" s="85"/>
       <c r="N246" s="62"/>
       <c r="O246" s="67"/>
       <c r="P246" s="67"/>
@@ -10628,18 +11110,18 @@
     </row>
     <row r="247" spans="1:20" ht="18" customHeight="1">
       <c r="A247" s="67"/>
-      <c r="B247" s="86"/>
-      <c r="C247" s="86"/>
-      <c r="D247" s="86"/>
+      <c r="B247" s="85"/>
+      <c r="C247" s="85"/>
+      <c r="D247" s="85"/>
       <c r="E247" s="67"/>
-      <c r="F247" s="86"/>
-      <c r="G247" s="86"/>
+      <c r="F247" s="85"/>
+      <c r="G247" s="85"/>
       <c r="H247" s="67"/>
       <c r="I247" s="67"/>
-      <c r="J247" s="87"/>
+      <c r="J247" s="86"/>
       <c r="K247" s="67"/>
-      <c r="L247" s="86"/>
-      <c r="M247" s="86"/>
+      <c r="L247" s="85"/>
+      <c r="M247" s="85"/>
       <c r="N247" s="62"/>
       <c r="O247" s="67"/>
       <c r="P247" s="67"/>
@@ -10650,18 +11132,18 @@
     </row>
     <row r="248" spans="1:20" ht="18" customHeight="1">
       <c r="A248" s="67"/>
-      <c r="B248" s="86"/>
-      <c r="C248" s="86"/>
-      <c r="D248" s="86"/>
+      <c r="B248" s="85"/>
+      <c r="C248" s="85"/>
+      <c r="D248" s="85"/>
       <c r="E248" s="67"/>
-      <c r="F248" s="86"/>
-      <c r="G248" s="86"/>
+      <c r="F248" s="85"/>
+      <c r="G248" s="85"/>
       <c r="H248" s="67"/>
       <c r="I248" s="67"/>
       <c r="J248" s="67"/>
       <c r="K248" s="67"/>
-      <c r="L248" s="86"/>
-      <c r="M248" s="86"/>
+      <c r="L248" s="85"/>
+      <c r="M248" s="85"/>
       <c r="N248" s="62"/>
       <c r="O248" s="67"/>
       <c r="P248" s="67"/>
@@ -10672,19 +11154,19 @@
     </row>
     <row r="249" spans="1:20" ht="18" customHeight="1">
       <c r="A249" s="67"/>
-      <c r="B249" s="86"/>
-      <c r="C249" s="86"/>
-      <c r="D249" s="86"/>
+      <c r="B249" s="85"/>
+      <c r="C249" s="85"/>
+      <c r="D249" s="85"/>
       <c r="E249" s="67"/>
-      <c r="F249" s="86"/>
-      <c r="G249" s="86"/>
+      <c r="F249" s="85"/>
+      <c r="G249" s="85"/>
       <c r="H249" s="67"/>
       <c r="I249" s="67"/>
-      <c r="J249" s="87"/>
-      <c r="K249" s="87"/>
-      <c r="L249" s="86"/>
-      <c r="M249" s="86"/>
-      <c r="N249" s="86"/>
+      <c r="J249" s="86"/>
+      <c r="K249" s="86"/>
+      <c r="L249" s="85"/>
+      <c r="M249" s="85"/>
+      <c r="N249" s="85"/>
       <c r="O249" s="67"/>
       <c r="P249" s="67"/>
       <c r="Q249" s="67"/>
@@ -10694,19 +11176,19 @@
     </row>
     <row r="250" spans="1:20" ht="18" customHeight="1">
       <c r="A250" s="67"/>
-      <c r="B250" s="86"/>
-      <c r="C250" s="86"/>
-      <c r="D250" s="86"/>
+      <c r="B250" s="85"/>
+      <c r="C250" s="85"/>
+      <c r="D250" s="85"/>
       <c r="E250" s="67"/>
-      <c r="F250" s="86"/>
-      <c r="G250" s="86"/>
+      <c r="F250" s="85"/>
+      <c r="G250" s="85"/>
       <c r="H250" s="67"/>
       <c r="I250" s="67"/>
-      <c r="J250" s="87"/>
-      <c r="K250" s="87"/>
-      <c r="L250" s="86"/>
-      <c r="M250" s="86"/>
-      <c r="N250" s="86"/>
+      <c r="J250" s="86"/>
+      <c r="K250" s="86"/>
+      <c r="L250" s="85"/>
+      <c r="M250" s="85"/>
+      <c r="N250" s="85"/>
       <c r="O250" s="67"/>
       <c r="P250" s="67"/>
       <c r="Q250" s="67"/>
@@ -10716,19 +11198,19 @@
     </row>
     <row r="251" spans="1:20" ht="18" customHeight="1">
       <c r="A251" s="67"/>
-      <c r="B251" s="86"/>
-      <c r="C251" s="86"/>
-      <c r="D251" s="86"/>
+      <c r="B251" s="85"/>
+      <c r="C251" s="85"/>
+      <c r="D251" s="85"/>
       <c r="E251" s="67"/>
-      <c r="F251" s="86"/>
-      <c r="G251" s="86"/>
+      <c r="F251" s="85"/>
+      <c r="G251" s="85"/>
       <c r="H251" s="67"/>
       <c r="I251" s="67"/>
       <c r="J251" s="71"/>
       <c r="K251" s="71"/>
-      <c r="L251" s="86"/>
-      <c r="M251" s="86"/>
-      <c r="N251" s="86"/>
+      <c r="L251" s="85"/>
+      <c r="M251" s="85"/>
+      <c r="N251" s="85"/>
       <c r="O251" s="67"/>
       <c r="P251" s="67"/>
       <c r="Q251" s="67"/>
@@ -10738,19 +11220,19 @@
     </row>
     <row r="252" spans="1:20" ht="18" customHeight="1">
       <c r="A252" s="67"/>
-      <c r="B252" s="86"/>
-      <c r="C252" s="86"/>
-      <c r="D252" s="86"/>
+      <c r="B252" s="85"/>
+      <c r="C252" s="85"/>
+      <c r="D252" s="85"/>
       <c r="E252" s="67"/>
-      <c r="F252" s="86"/>
-      <c r="G252" s="86"/>
+      <c r="F252" s="85"/>
+      <c r="G252" s="85"/>
       <c r="H252" s="67"/>
       <c r="I252" s="67"/>
       <c r="J252" s="71"/>
       <c r="K252" s="71"/>
-      <c r="L252" s="86"/>
-      <c r="M252" s="86"/>
-      <c r="N252" s="86"/>
+      <c r="L252" s="85"/>
+      <c r="M252" s="85"/>
+      <c r="N252" s="85"/>
       <c r="O252" s="67"/>
       <c r="P252" s="67"/>
       <c r="Q252" s="67"/>
@@ -10760,19 +11242,19 @@
     </row>
     <row r="253" spans="1:20" ht="18" customHeight="1">
       <c r="A253" s="67"/>
-      <c r="B253" s="86"/>
-      <c r="C253" s="86"/>
-      <c r="D253" s="86"/>
+      <c r="B253" s="85"/>
+      <c r="C253" s="85"/>
+      <c r="D253" s="85"/>
       <c r="E253" s="67"/>
-      <c r="F253" s="86"/>
-      <c r="G253" s="86"/>
+      <c r="F253" s="85"/>
+      <c r="G253" s="85"/>
       <c r="H253" s="67"/>
       <c r="I253" s="67"/>
-      <c r="J253" s="87"/>
+      <c r="J253" s="86"/>
       <c r="K253" s="67"/>
-      <c r="L253" s="86"/>
-      <c r="M253" s="86"/>
-      <c r="N253" s="86"/>
+      <c r="L253" s="85"/>
+      <c r="M253" s="85"/>
+      <c r="N253" s="85"/>
       <c r="O253" s="67"/>
       <c r="P253" s="67"/>
       <c r="Q253" s="67"/>
@@ -10782,19 +11264,19 @@
     </row>
     <row r="254" spans="1:20" ht="18" customHeight="1">
       <c r="A254" s="67"/>
-      <c r="B254" s="86"/>
-      <c r="C254" s="86"/>
-      <c r="D254" s="86"/>
+      <c r="B254" s="85"/>
+      <c r="C254" s="85"/>
+      <c r="D254" s="85"/>
       <c r="E254" s="67"/>
-      <c r="F254" s="86"/>
-      <c r="G254" s="86"/>
+      <c r="F254" s="85"/>
+      <c r="G254" s="85"/>
       <c r="H254" s="67"/>
       <c r="I254" s="67"/>
-      <c r="J254" s="87"/>
+      <c r="J254" s="86"/>
       <c r="K254" s="67"/>
-      <c r="L254" s="86"/>
-      <c r="M254" s="86"/>
-      <c r="N254" s="86"/>
+      <c r="L254" s="85"/>
+      <c r="M254" s="85"/>
+      <c r="N254" s="85"/>
       <c r="O254" s="67"/>
       <c r="P254" s="67"/>
       <c r="Q254" s="67"/>
@@ -10804,19 +11286,19 @@
     </row>
     <row r="255" spans="1:20" ht="18" customHeight="1">
       <c r="A255" s="67"/>
-      <c r="B255" s="86"/>
-      <c r="C255" s="86"/>
-      <c r="D255" s="86"/>
+      <c r="B255" s="85"/>
+      <c r="C255" s="85"/>
+      <c r="D255" s="85"/>
       <c r="E255" s="67"/>
-      <c r="F255" s="86"/>
-      <c r="G255" s="86"/>
+      <c r="F255" s="85"/>
+      <c r="G255" s="85"/>
       <c r="H255" s="67"/>
       <c r="I255" s="67"/>
-      <c r="J255" s="87"/>
+      <c r="J255" s="86"/>
       <c r="K255" s="67"/>
-      <c r="L255" s="86"/>
-      <c r="M255" s="86"/>
-      <c r="N255" s="86"/>
+      <c r="L255" s="85"/>
+      <c r="M255" s="85"/>
+      <c r="N255" s="85"/>
       <c r="O255" s="67"/>
       <c r="P255" s="67"/>
       <c r="Q255" s="67"/>
@@ -10826,19 +11308,19 @@
     </row>
     <row r="256" spans="1:20" ht="18" customHeight="1">
       <c r="A256" s="67"/>
-      <c r="B256" s="86"/>
-      <c r="C256" s="86"/>
-      <c r="D256" s="86"/>
+      <c r="B256" s="85"/>
+      <c r="C256" s="85"/>
+      <c r="D256" s="85"/>
       <c r="E256" s="67"/>
-      <c r="F256" s="86"/>
-      <c r="G256" s="86"/>
+      <c r="F256" s="85"/>
+      <c r="G256" s="85"/>
       <c r="H256" s="67"/>
       <c r="I256" s="67"/>
-      <c r="J256" s="87"/>
+      <c r="J256" s="86"/>
       <c r="K256" s="67"/>
-      <c r="L256" s="86"/>
-      <c r="M256" s="86"/>
-      <c r="N256" s="86"/>
+      <c r="L256" s="85"/>
+      <c r="M256" s="85"/>
+      <c r="N256" s="85"/>
       <c r="O256" s="67"/>
       <c r="P256" s="67"/>
       <c r="Q256" s="67"/>
@@ -10848,19 +11330,19 @@
     </row>
     <row r="257" spans="1:20" ht="18" customHeight="1">
       <c r="A257" s="67"/>
-      <c r="B257" s="86"/>
-      <c r="C257" s="86"/>
-      <c r="D257" s="86"/>
+      <c r="B257" s="85"/>
+      <c r="C257" s="85"/>
+      <c r="D257" s="85"/>
       <c r="E257" s="67"/>
-      <c r="F257" s="86"/>
-      <c r="G257" s="86"/>
+      <c r="F257" s="85"/>
+      <c r="G257" s="85"/>
       <c r="H257" s="67"/>
       <c r="I257" s="67"/>
       <c r="J257" s="67"/>
       <c r="K257" s="67"/>
-      <c r="L257" s="86"/>
-      <c r="M257" s="86"/>
-      <c r="N257" s="86"/>
+      <c r="L257" s="85"/>
+      <c r="M257" s="85"/>
+      <c r="N257" s="85"/>
       <c r="O257" s="67"/>
       <c r="P257" s="67"/>
       <c r="Q257" s="67"/>
@@ -10870,19 +11352,19 @@
     </row>
     <row r="258" spans="1:20" ht="18" customHeight="1">
       <c r="A258" s="67"/>
-      <c r="B258" s="86"/>
-      <c r="C258" s="86"/>
+      <c r="B258" s="85"/>
+      <c r="C258" s="85"/>
       <c r="D258" s="67"/>
       <c r="E258" s="67"/>
-      <c r="F258" s="86"/>
-      <c r="G258" s="86"/>
+      <c r="F258" s="85"/>
+      <c r="G258" s="85"/>
       <c r="H258" s="67"/>
       <c r="I258" s="67"/>
-      <c r="J258" s="87"/>
+      <c r="J258" s="86"/>
       <c r="K258" s="67"/>
-      <c r="L258" s="86"/>
-      <c r="M258" s="86"/>
-      <c r="N258" s="86"/>
+      <c r="L258" s="85"/>
+      <c r="M258" s="85"/>
+      <c r="N258" s="85"/>
       <c r="O258" s="67"/>
       <c r="P258" s="67"/>
       <c r="Q258" s="67"/>
@@ -10892,19 +11374,19 @@
     </row>
     <row r="259" spans="1:20" ht="18" customHeight="1">
       <c r="A259" s="67"/>
-      <c r="B259" s="86"/>
-      <c r="C259" s="86"/>
+      <c r="B259" s="85"/>
+      <c r="C259" s="85"/>
       <c r="D259" s="67"/>
       <c r="E259" s="67"/>
-      <c r="F259" s="86"/>
-      <c r="G259" s="86"/>
+      <c r="F259" s="85"/>
+      <c r="G259" s="85"/>
       <c r="H259" s="67"/>
       <c r="I259" s="67"/>
       <c r="J259" s="67"/>
       <c r="K259" s="67"/>
       <c r="L259" s="67"/>
-      <c r="M259" s="86"/>
-      <c r="N259" s="86"/>
+      <c r="M259" s="85"/>
+      <c r="N259" s="85"/>
       <c r="O259" s="67"/>
       <c r="P259" s="67"/>
       <c r="Q259" s="67"/>
@@ -10914,19 +11396,19 @@
     </row>
     <row r="260" spans="1:20" ht="18" customHeight="1">
       <c r="A260" s="67"/>
-      <c r="B260" s="86"/>
-      <c r="C260" s="86"/>
-      <c r="D260" s="86"/>
+      <c r="B260" s="85"/>
+      <c r="C260" s="85"/>
+      <c r="D260" s="85"/>
       <c r="E260" s="67"/>
-      <c r="F260" s="86"/>
-      <c r="G260" s="86"/>
+      <c r="F260" s="85"/>
+      <c r="G260" s="85"/>
       <c r="H260" s="67"/>
       <c r="I260" s="67"/>
-      <c r="J260" s="87"/>
-      <c r="K260" s="87"/>
-      <c r="L260" s="86"/>
-      <c r="M260" s="86"/>
-      <c r="N260" s="86"/>
+      <c r="J260" s="86"/>
+      <c r="K260" s="86"/>
+      <c r="L260" s="85"/>
+      <c r="M260" s="85"/>
+      <c r="N260" s="85"/>
       <c r="O260" s="67"/>
       <c r="P260" s="67"/>
       <c r="Q260" s="67"/>
@@ -10936,19 +11418,19 @@
     </row>
     <row r="261" spans="1:20" ht="18" customHeight="1">
       <c r="A261" s="67"/>
-      <c r="B261" s="86"/>
-      <c r="C261" s="86"/>
-      <c r="D261" s="86"/>
+      <c r="B261" s="85"/>
+      <c r="C261" s="85"/>
+      <c r="D261" s="85"/>
       <c r="E261" s="67"/>
-      <c r="F261" s="86"/>
-      <c r="G261" s="86"/>
+      <c r="F261" s="85"/>
+      <c r="G261" s="85"/>
       <c r="H261" s="67"/>
       <c r="I261" s="67"/>
-      <c r="J261" s="87"/>
-      <c r="K261" s="87"/>
-      <c r="L261" s="86"/>
-      <c r="M261" s="86"/>
-      <c r="N261" s="86"/>
+      <c r="J261" s="86"/>
+      <c r="K261" s="86"/>
+      <c r="L261" s="85"/>
+      <c r="M261" s="85"/>
+      <c r="N261" s="85"/>
       <c r="O261" s="67"/>
       <c r="P261" s="67"/>
       <c r="Q261" s="67"/>
@@ -10958,19 +11440,19 @@
     </row>
     <row r="262" spans="1:20" ht="18" customHeight="1">
       <c r="A262" s="67"/>
-      <c r="B262" s="86"/>
-      <c r="C262" s="86"/>
-      <c r="D262" s="86"/>
+      <c r="B262" s="85"/>
+      <c r="C262" s="85"/>
+      <c r="D262" s="85"/>
       <c r="E262" s="67"/>
-      <c r="F262" s="86"/>
-      <c r="G262" s="86"/>
+      <c r="F262" s="85"/>
+      <c r="G262" s="85"/>
       <c r="H262" s="67"/>
       <c r="I262" s="67"/>
       <c r="J262" s="71"/>
       <c r="K262" s="71"/>
-      <c r="L262" s="86"/>
-      <c r="M262" s="86"/>
-      <c r="N262" s="86"/>
+      <c r="L262" s="85"/>
+      <c r="M262" s="85"/>
+      <c r="N262" s="85"/>
       <c r="O262" s="67"/>
       <c r="P262" s="67"/>
       <c r="Q262" s="67"/>
@@ -10980,19 +11462,19 @@
     </row>
     <row r="263" spans="1:20" ht="18" customHeight="1">
       <c r="A263" s="67"/>
-      <c r="B263" s="86"/>
-      <c r="C263" s="86"/>
-      <c r="D263" s="86"/>
+      <c r="B263" s="85"/>
+      <c r="C263" s="85"/>
+      <c r="D263" s="85"/>
       <c r="E263" s="67"/>
-      <c r="F263" s="86"/>
-      <c r="G263" s="86"/>
+      <c r="F263" s="85"/>
+      <c r="G263" s="85"/>
       <c r="H263" s="67"/>
       <c r="I263" s="67"/>
       <c r="J263" s="71"/>
       <c r="K263" s="71"/>
-      <c r="L263" s="86"/>
-      <c r="M263" s="86"/>
-      <c r="N263" s="86"/>
+      <c r="L263" s="85"/>
+      <c r="M263" s="85"/>
+      <c r="N263" s="85"/>
       <c r="O263" s="67"/>
       <c r="P263" s="67"/>
       <c r="Q263" s="67"/>
@@ -11002,19 +11484,19 @@
     </row>
     <row r="264" spans="1:20" ht="18" customHeight="1">
       <c r="A264" s="67"/>
-      <c r="B264" s="86"/>
-      <c r="C264" s="86"/>
-      <c r="D264" s="86"/>
+      <c r="B264" s="85"/>
+      <c r="C264" s="85"/>
+      <c r="D264" s="85"/>
       <c r="E264" s="67"/>
-      <c r="F264" s="86"/>
-      <c r="G264" s="86"/>
+      <c r="F264" s="85"/>
+      <c r="G264" s="85"/>
       <c r="H264" s="67"/>
       <c r="I264" s="67"/>
-      <c r="J264" s="87"/>
+      <c r="J264" s="86"/>
       <c r="K264" s="67"/>
-      <c r="L264" s="86"/>
-      <c r="M264" s="86"/>
-      <c r="N264" s="86"/>
+      <c r="L264" s="85"/>
+      <c r="M264" s="85"/>
+      <c r="N264" s="85"/>
       <c r="O264" s="67"/>
       <c r="P264" s="67"/>
       <c r="Q264" s="67"/>
@@ -11024,19 +11506,19 @@
     </row>
     <row r="265" spans="1:20" ht="18" customHeight="1">
       <c r="A265" s="67"/>
-      <c r="B265" s="86"/>
-      <c r="C265" s="86"/>
-      <c r="D265" s="86"/>
+      <c r="B265" s="85"/>
+      <c r="C265" s="85"/>
+      <c r="D265" s="85"/>
       <c r="E265" s="67"/>
-      <c r="F265" s="86"/>
-      <c r="G265" s="86"/>
+      <c r="F265" s="85"/>
+      <c r="G265" s="85"/>
       <c r="H265" s="67"/>
       <c r="I265" s="67"/>
-      <c r="J265" s="87"/>
+      <c r="J265" s="86"/>
       <c r="K265" s="67"/>
-      <c r="L265" s="86"/>
-      <c r="M265" s="86"/>
-      <c r="N265" s="86"/>
+      <c r="L265" s="85"/>
+      <c r="M265" s="85"/>
+      <c r="N265" s="85"/>
       <c r="O265" s="67"/>
       <c r="P265" s="67"/>
       <c r="Q265" s="67"/>
@@ -11046,19 +11528,19 @@
     </row>
     <row r="266" spans="1:20" ht="18" customHeight="1">
       <c r="A266" s="67"/>
-      <c r="B266" s="86"/>
-      <c r="C266" s="86"/>
-      <c r="D266" s="86"/>
+      <c r="B266" s="85"/>
+      <c r="C266" s="85"/>
+      <c r="D266" s="85"/>
       <c r="E266" s="67"/>
-      <c r="F266" s="86"/>
-      <c r="G266" s="86"/>
+      <c r="F266" s="85"/>
+      <c r="G266" s="85"/>
       <c r="H266" s="67"/>
       <c r="I266" s="67"/>
-      <c r="J266" s="87"/>
+      <c r="J266" s="86"/>
       <c r="K266" s="67"/>
-      <c r="L266" s="86"/>
-      <c r="M266" s="86"/>
-      <c r="N266" s="86"/>
+      <c r="L266" s="85"/>
+      <c r="M266" s="85"/>
+      <c r="N266" s="85"/>
       <c r="O266" s="67"/>
       <c r="P266" s="67"/>
       <c r="Q266" s="67"/>
@@ -11068,19 +11550,19 @@
     </row>
     <row r="267" spans="1:20" ht="18" customHeight="1">
       <c r="A267" s="67"/>
-      <c r="B267" s="86"/>
-      <c r="C267" s="86"/>
-      <c r="D267" s="86"/>
+      <c r="B267" s="85"/>
+      <c r="C267" s="85"/>
+      <c r="D267" s="85"/>
       <c r="E267" s="67"/>
-      <c r="F267" s="86"/>
-      <c r="G267" s="86"/>
+      <c r="F267" s="85"/>
+      <c r="G267" s="85"/>
       <c r="H267" s="67"/>
       <c r="I267" s="67"/>
-      <c r="J267" s="87"/>
+      <c r="J267" s="86"/>
       <c r="K267" s="67"/>
-      <c r="L267" s="86"/>
-      <c r="M267" s="86"/>
-      <c r="N267" s="86"/>
+      <c r="L267" s="85"/>
+      <c r="M267" s="85"/>
+      <c r="N267" s="85"/>
       <c r="O267" s="67"/>
       <c r="P267" s="67"/>
       <c r="Q267" s="67"/>
@@ -11090,19 +11572,19 @@
     </row>
     <row r="268" spans="1:20" ht="18" customHeight="1">
       <c r="A268" s="67"/>
-      <c r="B268" s="86"/>
-      <c r="C268" s="86"/>
-      <c r="D268" s="86"/>
+      <c r="B268" s="85"/>
+      <c r="C268" s="85"/>
+      <c r="D268" s="85"/>
       <c r="E268" s="67"/>
-      <c r="F268" s="86"/>
-      <c r="G268" s="86"/>
+      <c r="F268" s="85"/>
+      <c r="G268" s="85"/>
       <c r="H268" s="67"/>
       <c r="I268" s="67"/>
       <c r="J268" s="67"/>
       <c r="K268" s="67"/>
-      <c r="L268" s="86"/>
-      <c r="M268" s="86"/>
-      <c r="N268" s="86"/>
+      <c r="L268" s="85"/>
+      <c r="M268" s="85"/>
+      <c r="N268" s="85"/>
       <c r="O268" s="67"/>
       <c r="P268" s="67"/>
       <c r="Q268" s="67"/>
@@ -11112,19 +11594,19 @@
     </row>
     <row r="269" spans="1:20" ht="18" customHeight="1">
       <c r="A269" s="67"/>
-      <c r="B269" s="86"/>
-      <c r="C269" s="86"/>
+      <c r="B269" s="85"/>
+      <c r="C269" s="85"/>
       <c r="D269" s="67"/>
       <c r="E269" s="67"/>
-      <c r="F269" s="86"/>
-      <c r="G269" s="86"/>
+      <c r="F269" s="85"/>
+      <c r="G269" s="85"/>
       <c r="H269" s="67"/>
       <c r="I269" s="67"/>
-      <c r="J269" s="87"/>
+      <c r="J269" s="86"/>
       <c r="K269" s="67"/>
-      <c r="L269" s="86"/>
-      <c r="M269" s="86"/>
-      <c r="N269" s="86"/>
+      <c r="L269" s="85"/>
+      <c r="M269" s="85"/>
+      <c r="N269" s="85"/>
       <c r="O269" s="67"/>
       <c r="P269" s="67"/>
       <c r="Q269" s="67"/>
@@ -11134,19 +11616,19 @@
     </row>
     <row r="270" spans="1:20" ht="18" customHeight="1">
       <c r="A270" s="67"/>
-      <c r="B270" s="86"/>
-      <c r="C270" s="86"/>
+      <c r="B270" s="85"/>
+      <c r="C270" s="85"/>
       <c r="D270" s="67"/>
       <c r="E270" s="67"/>
-      <c r="F270" s="86"/>
-      <c r="G270" s="86"/>
+      <c r="F270" s="85"/>
+      <c r="G270" s="85"/>
       <c r="H270" s="67"/>
       <c r="I270" s="67"/>
       <c r="J270" s="67"/>
       <c r="K270" s="67"/>
       <c r="L270" s="67"/>
-      <c r="M270" s="86"/>
-      <c r="N270" s="86"/>
+      <c r="M270" s="85"/>
+      <c r="N270" s="85"/>
       <c r="O270" s="67"/>
       <c r="P270" s="67"/>
       <c r="Q270" s="67"/>
@@ -11156,19 +11638,19 @@
     </row>
     <row r="271" spans="1:20" ht="18" customHeight="1">
       <c r="A271" s="67"/>
-      <c r="B271" s="86"/>
-      <c r="C271" s="86"/>
-      <c r="D271" s="86"/>
+      <c r="B271" s="85"/>
+      <c r="C271" s="85"/>
+      <c r="D271" s="85"/>
       <c r="E271" s="67"/>
-      <c r="F271" s="86"/>
-      <c r="G271" s="86"/>
+      <c r="F271" s="85"/>
+      <c r="G271" s="85"/>
       <c r="H271" s="67"/>
       <c r="I271" s="67"/>
-      <c r="J271" s="87"/>
+      <c r="J271" s="86"/>
       <c r="K271" s="67"/>
-      <c r="L271" s="86"/>
-      <c r="M271" s="86"/>
-      <c r="N271" s="86"/>
+      <c r="L271" s="85"/>
+      <c r="M271" s="85"/>
+      <c r="N271" s="85"/>
       <c r="O271" s="67"/>
       <c r="P271" s="67"/>
       <c r="Q271" s="67"/>
@@ -11178,19 +11660,19 @@
     </row>
     <row r="272" spans="1:20" ht="18" customHeight="1">
       <c r="A272" s="67"/>
-      <c r="B272" s="86"/>
-      <c r="C272" s="86"/>
-      <c r="D272" s="86"/>
+      <c r="B272" s="85"/>
+      <c r="C272" s="85"/>
+      <c r="D272" s="85"/>
       <c r="E272" s="67"/>
-      <c r="F272" s="86"/>
-      <c r="G272" s="86"/>
+      <c r="F272" s="85"/>
+      <c r="G272" s="85"/>
       <c r="H272" s="67"/>
       <c r="I272" s="67"/>
       <c r="J272" s="67"/>
       <c r="K272" s="67"/>
-      <c r="L272" s="86"/>
-      <c r="M272" s="86"/>
-      <c r="N272" s="86"/>
+      <c r="L272" s="85"/>
+      <c r="M272" s="85"/>
+      <c r="N272" s="85"/>
       <c r="O272" s="67"/>
       <c r="P272" s="67"/>
       <c r="Q272" s="67"/>
@@ -11200,19 +11682,19 @@
     </row>
     <row r="273" spans="1:20" ht="18" customHeight="1">
       <c r="A273" s="67"/>
-      <c r="B273" s="86"/>
-      <c r="C273" s="86"/>
-      <c r="D273" s="86"/>
+      <c r="B273" s="85"/>
+      <c r="C273" s="85"/>
+      <c r="D273" s="85"/>
       <c r="E273" s="67"/>
-      <c r="F273" s="86"/>
-      <c r="G273" s="86"/>
+      <c r="F273" s="85"/>
+      <c r="G273" s="85"/>
       <c r="H273" s="67"/>
       <c r="I273" s="67"/>
-      <c r="J273" s="87"/>
+      <c r="J273" s="86"/>
       <c r="K273" s="67"/>
-      <c r="L273" s="86"/>
-      <c r="M273" s="86"/>
-      <c r="N273" s="86"/>
+      <c r="L273" s="85"/>
+      <c r="M273" s="85"/>
+      <c r="N273" s="85"/>
       <c r="O273" s="67"/>
       <c r="P273" s="67"/>
       <c r="Q273" s="67"/>
@@ -11222,19 +11704,19 @@
     </row>
     <row r="274" spans="1:20" ht="18" customHeight="1">
       <c r="A274" s="67"/>
-      <c r="B274" s="86"/>
-      <c r="C274" s="86"/>
-      <c r="D274" s="86"/>
+      <c r="B274" s="85"/>
+      <c r="C274" s="85"/>
+      <c r="D274" s="85"/>
       <c r="E274" s="67"/>
-      <c r="F274" s="86"/>
-      <c r="G274" s="86"/>
+      <c r="F274" s="85"/>
+      <c r="G274" s="85"/>
       <c r="H274" s="67"/>
       <c r="I274" s="67"/>
-      <c r="J274" s="87"/>
+      <c r="J274" s="86"/>
       <c r="K274" s="67"/>
-      <c r="L274" s="86"/>
-      <c r="M274" s="86"/>
-      <c r="N274" s="86"/>
+      <c r="L274" s="85"/>
+      <c r="M274" s="85"/>
+      <c r="N274" s="85"/>
       <c r="O274" s="67"/>
       <c r="P274" s="67"/>
       <c r="Q274" s="67"/>
@@ -11244,19 +11726,19 @@
     </row>
     <row r="275" spans="1:20" ht="18" customHeight="1">
       <c r="A275" s="67"/>
-      <c r="B275" s="86"/>
-      <c r="C275" s="86"/>
-      <c r="D275" s="86"/>
+      <c r="B275" s="85"/>
+      <c r="C275" s="85"/>
+      <c r="D275" s="85"/>
       <c r="E275" s="67"/>
-      <c r="F275" s="86"/>
-      <c r="G275" s="86"/>
+      <c r="F275" s="85"/>
+      <c r="G275" s="85"/>
       <c r="H275" s="67"/>
       <c r="I275" s="67"/>
       <c r="J275" s="67"/>
       <c r="K275" s="67"/>
-      <c r="L275" s="86"/>
-      <c r="M275" s="86"/>
-      <c r="N275" s="86"/>
+      <c r="L275" s="85"/>
+      <c r="M275" s="85"/>
+      <c r="N275" s="85"/>
       <c r="O275" s="67"/>
       <c r="P275" s="67"/>
       <c r="Q275" s="67"/>
@@ -11266,19 +11748,19 @@
     </row>
     <row r="276" spans="1:20" ht="18" customHeight="1">
       <c r="A276" s="67"/>
-      <c r="B276" s="86"/>
-      <c r="C276" s="86"/>
-      <c r="D276" s="86"/>
+      <c r="B276" s="85"/>
+      <c r="C276" s="85"/>
+      <c r="D276" s="85"/>
       <c r="E276" s="67"/>
-      <c r="F276" s="86"/>
-      <c r="G276" s="86"/>
+      <c r="F276" s="85"/>
+      <c r="G276" s="85"/>
       <c r="H276" s="67"/>
       <c r="I276" s="67"/>
-      <c r="J276" s="87"/>
+      <c r="J276" s="86"/>
       <c r="K276" s="67"/>
-      <c r="L276" s="86"/>
-      <c r="M276" s="86"/>
-      <c r="N276" s="86"/>
+      <c r="L276" s="85"/>
+      <c r="M276" s="85"/>
+      <c r="N276" s="85"/>
       <c r="O276" s="67"/>
       <c r="P276" s="67"/>
       <c r="Q276" s="67"/>
@@ -11288,19 +11770,19 @@
     </row>
     <row r="277" spans="1:20" ht="18" customHeight="1">
       <c r="A277" s="67"/>
-      <c r="B277" s="86"/>
-      <c r="C277" s="86"/>
-      <c r="D277" s="86"/>
+      <c r="B277" s="85"/>
+      <c r="C277" s="85"/>
+      <c r="D277" s="85"/>
       <c r="E277" s="67"/>
-      <c r="F277" s="86"/>
-      <c r="G277" s="86"/>
+      <c r="F277" s="85"/>
+      <c r="G277" s="85"/>
       <c r="H277" s="67"/>
       <c r="I277" s="67"/>
-      <c r="J277" s="87"/>
+      <c r="J277" s="86"/>
       <c r="K277" s="67"/>
-      <c r="L277" s="86"/>
-      <c r="M277" s="86"/>
-      <c r="N277" s="86"/>
+      <c r="L277" s="85"/>
+      <c r="M277" s="85"/>
+      <c r="N277" s="85"/>
       <c r="O277" s="67"/>
       <c r="P277" s="67"/>
       <c r="Q277" s="67"/>
@@ -11310,19 +11792,19 @@
     </row>
     <row r="278" spans="1:20" ht="18" customHeight="1">
       <c r="A278" s="67"/>
-      <c r="B278" s="86"/>
-      <c r="C278" s="86"/>
-      <c r="D278" s="86"/>
+      <c r="B278" s="85"/>
+      <c r="C278" s="85"/>
+      <c r="D278" s="85"/>
       <c r="E278" s="67"/>
-      <c r="F278" s="86"/>
-      <c r="G278" s="86"/>
+      <c r="F278" s="85"/>
+      <c r="G278" s="85"/>
       <c r="H278" s="67"/>
       <c r="I278" s="67"/>
       <c r="J278" s="67"/>
       <c r="K278" s="67"/>
-      <c r="L278" s="86"/>
-      <c r="M278" s="86"/>
-      <c r="N278" s="86"/>
+      <c r="L278" s="85"/>
+      <c r="M278" s="85"/>
+      <c r="N278" s="85"/>
       <c r="O278" s="67"/>
       <c r="P278" s="67"/>
       <c r="Q278" s="67"/>
@@ -11332,19 +11814,19 @@
     </row>
     <row r="279" spans="1:20" ht="18" customHeight="1">
       <c r="A279" s="67"/>
-      <c r="B279" s="86"/>
-      <c r="C279" s="86"/>
-      <c r="D279" s="86"/>
+      <c r="B279" s="85"/>
+      <c r="C279" s="85"/>
+      <c r="D279" s="85"/>
       <c r="E279" s="67"/>
-      <c r="F279" s="86"/>
-      <c r="G279" s="86"/>
+      <c r="F279" s="85"/>
+      <c r="G279" s="85"/>
       <c r="H279" s="67"/>
       <c r="I279" s="67"/>
-      <c r="J279" s="87"/>
+      <c r="J279" s="86"/>
       <c r="K279" s="67"/>
-      <c r="L279" s="86"/>
-      <c r="M279" s="86"/>
-      <c r="N279" s="86"/>
+      <c r="L279" s="85"/>
+      <c r="M279" s="85"/>
+      <c r="N279" s="85"/>
       <c r="O279" s="67"/>
       <c r="P279" s="67"/>
       <c r="Q279" s="67"/>
@@ -11354,19 +11836,19 @@
     </row>
     <row r="280" spans="1:20" ht="18" customHeight="1">
       <c r="A280" s="67"/>
-      <c r="B280" s="86"/>
-      <c r="C280" s="86"/>
+      <c r="B280" s="85"/>
+      <c r="C280" s="85"/>
       <c r="D280" s="67"/>
       <c r="E280" s="67"/>
-      <c r="F280" s="86"/>
-      <c r="G280" s="86"/>
+      <c r="F280" s="85"/>
+      <c r="G280" s="85"/>
       <c r="H280" s="67"/>
       <c r="I280" s="67"/>
-      <c r="J280" s="87"/>
+      <c r="J280" s="86"/>
       <c r="K280" s="67"/>
-      <c r="L280" s="86"/>
-      <c r="M280" s="86"/>
-      <c r="N280" s="86"/>
+      <c r="L280" s="85"/>
+      <c r="M280" s="85"/>
+      <c r="N280" s="85"/>
       <c r="O280" s="67"/>
       <c r="P280" s="67"/>
       <c r="Q280" s="67"/>
@@ -11376,19 +11858,19 @@
     </row>
     <row r="281" spans="1:20" ht="18" customHeight="1">
       <c r="A281" s="67"/>
-      <c r="B281" s="86"/>
-      <c r="C281" s="86"/>
+      <c r="B281" s="85"/>
+      <c r="C281" s="85"/>
       <c r="D281" s="67"/>
       <c r="E281" s="67"/>
-      <c r="F281" s="86"/>
-      <c r="G281" s="86"/>
+      <c r="F281" s="85"/>
+      <c r="G281" s="85"/>
       <c r="H281" s="67"/>
       <c r="I281" s="67"/>
       <c r="J281" s="67"/>
       <c r="K281" s="67"/>
       <c r="L281" s="67"/>
-      <c r="M281" s="86"/>
-      <c r="N281" s="86"/>
+      <c r="M281" s="85"/>
+      <c r="N281" s="85"/>
       <c r="O281" s="67"/>
       <c r="P281" s="67"/>
       <c r="Q281" s="67"/>
@@ -11397,20 +11879,20 @@
       <c r="T281" s="59"/>
     </row>
     <row r="282" spans="1:20" ht="18" customHeight="1">
-      <c r="A282" s="86"/>
-      <c r="B282" s="86"/>
-      <c r="C282" s="86"/>
-      <c r="D282" s="86"/>
-      <c r="E282" s="86"/>
-      <c r="F282" s="86"/>
-      <c r="G282" s="86"/>
+      <c r="A282" s="85"/>
+      <c r="B282" s="85"/>
+      <c r="C282" s="85"/>
+      <c r="D282" s="85"/>
+      <c r="E282" s="85"/>
+      <c r="F282" s="85"/>
+      <c r="G282" s="85"/>
       <c r="H282" s="67"/>
       <c r="I282" s="67"/>
-      <c r="J282" s="87"/>
+      <c r="J282" s="86"/>
       <c r="K282" s="67"/>
-      <c r="L282" s="86"/>
+      <c r="L282" s="85"/>
       <c r="M282" s="67"/>
-      <c r="N282" s="86"/>
+      <c r="N282" s="85"/>
       <c r="O282" s="67"/>
       <c r="P282" s="67"/>
       <c r="Q282" s="67"/>
@@ -11420,19 +11902,19 @@
     </row>
     <row r="283" spans="1:20" ht="18" customHeight="1">
       <c r="A283" s="67"/>
-      <c r="B283" s="86"/>
-      <c r="C283" s="86"/>
-      <c r="D283" s="86"/>
-      <c r="E283" s="86"/>
-      <c r="F283" s="86"/>
-      <c r="G283" s="86"/>
+      <c r="B283" s="85"/>
+      <c r="C283" s="85"/>
+      <c r="D283" s="85"/>
+      <c r="E283" s="85"/>
+      <c r="F283" s="85"/>
+      <c r="G283" s="85"/>
       <c r="H283" s="67"/>
       <c r="I283" s="67"/>
       <c r="J283" s="71"/>
       <c r="K283" s="71"/>
-      <c r="L283" s="86"/>
+      <c r="L283" s="85"/>
       <c r="M283" s="67"/>
-      <c r="N283" s="86"/>
+      <c r="N283" s="85"/>
       <c r="O283" s="67"/>
       <c r="P283" s="67"/>
       <c r="Q283" s="67"/>
@@ -11442,19 +11924,19 @@
     </row>
     <row r="284" spans="1:20" ht="18" customHeight="1">
       <c r="A284" s="67"/>
-      <c r="B284" s="86"/>
-      <c r="C284" s="86"/>
-      <c r="D284" s="86"/>
-      <c r="E284" s="86"/>
-      <c r="F284" s="86"/>
-      <c r="G284" s="86"/>
+      <c r="B284" s="85"/>
+      <c r="C284" s="85"/>
+      <c r="D284" s="85"/>
+      <c r="E284" s="85"/>
+      <c r="F284" s="85"/>
+      <c r="G284" s="85"/>
       <c r="H284" s="67"/>
       <c r="I284" s="67"/>
-      <c r="J284" s="87"/>
-      <c r="K284" s="87"/>
-      <c r="L284" s="86"/>
+      <c r="J284" s="86"/>
+      <c r="K284" s="86"/>
+      <c r="L284" s="85"/>
       <c r="M284" s="67"/>
-      <c r="N284" s="86"/>
+      <c r="N284" s="85"/>
       <c r="O284" s="67"/>
       <c r="P284" s="67"/>
       <c r="Q284" s="67"/>
@@ -11464,19 +11946,19 @@
     </row>
     <row r="285" spans="1:20" ht="18" customHeight="1">
       <c r="A285" s="67"/>
-      <c r="B285" s="86"/>
-      <c r="C285" s="86"/>
-      <c r="D285" s="86"/>
-      <c r="E285" s="86"/>
-      <c r="F285" s="86"/>
-      <c r="G285" s="86"/>
-      <c r="H285" s="86"/>
+      <c r="B285" s="85"/>
+      <c r="C285" s="85"/>
+      <c r="D285" s="85"/>
+      <c r="E285" s="85"/>
+      <c r="F285" s="85"/>
+      <c r="G285" s="85"/>
+      <c r="H285" s="85"/>
       <c r="I285" s="67"/>
-      <c r="J285" s="87"/>
-      <c r="K285" s="87"/>
-      <c r="L285" s="86"/>
+      <c r="J285" s="86"/>
+      <c r="K285" s="86"/>
+      <c r="L285" s="85"/>
       <c r="M285" s="67"/>
-      <c r="N285" s="86"/>
+      <c r="N285" s="85"/>
       <c r="O285" s="67"/>
       <c r="P285" s="67"/>
       <c r="Q285" s="67"/>
@@ -11486,19 +11968,19 @@
     </row>
     <row r="286" spans="1:20" ht="18" customHeight="1">
       <c r="A286" s="67"/>
-      <c r="B286" s="86"/>
-      <c r="C286" s="86"/>
-      <c r="D286" s="86"/>
-      <c r="E286" s="86"/>
-      <c r="F286" s="86"/>
-      <c r="G286" s="86"/>
-      <c r="H286" s="86"/>
+      <c r="B286" s="85"/>
+      <c r="C286" s="85"/>
+      <c r="D286" s="85"/>
+      <c r="E286" s="85"/>
+      <c r="F286" s="85"/>
+      <c r="G286" s="85"/>
+      <c r="H286" s="85"/>
       <c r="I286" s="67"/>
       <c r="J286" s="67"/>
       <c r="K286" s="67"/>
-      <c r="L286" s="86"/>
+      <c r="L286" s="85"/>
       <c r="M286" s="67"/>
-      <c r="N286" s="86"/>
+      <c r="N286" s="85"/>
       <c r="O286" s="67"/>
       <c r="P286" s="67"/>
       <c r="Q286" s="67"/>
@@ -11508,19 +11990,19 @@
     </row>
     <row r="287" spans="1:20" ht="18" customHeight="1">
       <c r="A287" s="67"/>
-      <c r="B287" s="86"/>
-      <c r="C287" s="86"/>
-      <c r="D287" s="86"/>
-      <c r="E287" s="86"/>
-      <c r="F287" s="86"/>
-      <c r="G287" s="86"/>
-      <c r="H287" s="86"/>
+      <c r="B287" s="85"/>
+      <c r="C287" s="85"/>
+      <c r="D287" s="85"/>
+      <c r="E287" s="85"/>
+      <c r="F287" s="85"/>
+      <c r="G287" s="85"/>
+      <c r="H287" s="85"/>
       <c r="I287" s="67"/>
       <c r="J287" s="67"/>
       <c r="K287" s="67"/>
-      <c r="L287" s="86"/>
+      <c r="L287" s="85"/>
       <c r="M287" s="67"/>
-      <c r="N287" s="86"/>
+      <c r="N287" s="85"/>
       <c r="O287" s="67"/>
       <c r="P287" s="67"/>
       <c r="Q287" s="67"/>
@@ -11530,19 +12012,19 @@
     </row>
     <row r="288" spans="1:20" ht="18" customHeight="1">
       <c r="A288" s="67"/>
-      <c r="B288" s="86"/>
-      <c r="C288" s="86"/>
-      <c r="D288" s="86"/>
-      <c r="E288" s="86"/>
-      <c r="F288" s="86"/>
-      <c r="G288" s="86"/>
-      <c r="H288" s="86"/>
+      <c r="B288" s="85"/>
+      <c r="C288" s="85"/>
+      <c r="D288" s="85"/>
+      <c r="E288" s="85"/>
+      <c r="F288" s="85"/>
+      <c r="G288" s="85"/>
+      <c r="H288" s="85"/>
       <c r="I288" s="67"/>
       <c r="J288" s="67"/>
       <c r="K288" s="67"/>
-      <c r="L288" s="86"/>
+      <c r="L288" s="85"/>
       <c r="M288" s="67"/>
-      <c r="N288" s="86"/>
+      <c r="N288" s="85"/>
       <c r="O288" s="67"/>
       <c r="P288" s="67"/>
       <c r="Q288" s="67"/>
@@ -11552,19 +12034,19 @@
     </row>
     <row r="289" spans="1:20" ht="18" customHeight="1">
       <c r="A289" s="67"/>
-      <c r="B289" s="86"/>
-      <c r="C289" s="86"/>
-      <c r="D289" s="86"/>
-      <c r="E289" s="86"/>
-      <c r="F289" s="86"/>
-      <c r="G289" s="86"/>
-      <c r="H289" s="86"/>
+      <c r="B289" s="85"/>
+      <c r="C289" s="85"/>
+      <c r="D289" s="85"/>
+      <c r="E289" s="85"/>
+      <c r="F289" s="85"/>
+      <c r="G289" s="85"/>
+      <c r="H289" s="85"/>
       <c r="I289" s="67"/>
       <c r="J289" s="67"/>
       <c r="K289" s="67"/>
-      <c r="L289" s="86"/>
+      <c r="L289" s="85"/>
       <c r="M289" s="67"/>
-      <c r="N289" s="86"/>
+      <c r="N289" s="85"/>
       <c r="O289" s="67"/>
       <c r="P289" s="67"/>
       <c r="Q289" s="67"/>
@@ -11574,19 +12056,19 @@
     </row>
     <row r="290" spans="1:20" ht="18" customHeight="1">
       <c r="A290" s="67"/>
-      <c r="B290" s="86"/>
-      <c r="C290" s="86"/>
-      <c r="D290" s="86"/>
-      <c r="E290" s="86"/>
-      <c r="F290" s="86"/>
-      <c r="G290" s="86"/>
-      <c r="H290" s="86"/>
+      <c r="B290" s="85"/>
+      <c r="C290" s="85"/>
+      <c r="D290" s="85"/>
+      <c r="E290" s="85"/>
+      <c r="F290" s="85"/>
+      <c r="G290" s="85"/>
+      <c r="H290" s="85"/>
       <c r="I290" s="67"/>
       <c r="J290" s="67"/>
       <c r="K290" s="67"/>
-      <c r="L290" s="86"/>
+      <c r="L290" s="85"/>
       <c r="M290" s="67"/>
-      <c r="N290" s="86"/>
+      <c r="N290" s="85"/>
       <c r="O290" s="67"/>
       <c r="P290" s="67"/>
       <c r="Q290" s="67"/>
@@ -11596,19 +12078,19 @@
     </row>
     <row r="291" spans="1:20" ht="18" customHeight="1">
       <c r="A291" s="67"/>
-      <c r="B291" s="86"/>
-      <c r="C291" s="86"/>
-      <c r="D291" s="86"/>
-      <c r="E291" s="86"/>
-      <c r="F291" s="86"/>
-      <c r="G291" s="86"/>
-      <c r="H291" s="86"/>
+      <c r="B291" s="85"/>
+      <c r="C291" s="85"/>
+      <c r="D291" s="85"/>
+      <c r="E291" s="85"/>
+      <c r="F291" s="85"/>
+      <c r="G291" s="85"/>
+      <c r="H291" s="85"/>
       <c r="I291" s="67"/>
       <c r="J291" s="67"/>
       <c r="K291" s="67"/>
-      <c r="L291" s="86"/>
+      <c r="L291" s="85"/>
       <c r="M291" s="67"/>
-      <c r="N291" s="86"/>
+      <c r="N291" s="85"/>
       <c r="O291" s="67"/>
       <c r="P291" s="67"/>
       <c r="Q291" s="67"/>
@@ -11618,19 +12100,19 @@
     </row>
     <row r="292" spans="1:20" ht="18" customHeight="1">
       <c r="A292" s="67"/>
-      <c r="B292" s="86"/>
-      <c r="C292" s="86"/>
-      <c r="D292" s="86"/>
-      <c r="E292" s="86"/>
-      <c r="F292" s="86"/>
-      <c r="G292" s="86"/>
-      <c r="H292" s="86"/>
+      <c r="B292" s="85"/>
+      <c r="C292" s="85"/>
+      <c r="D292" s="85"/>
+      <c r="E292" s="85"/>
+      <c r="F292" s="85"/>
+      <c r="G292" s="85"/>
+      <c r="H292" s="85"/>
       <c r="I292" s="67"/>
       <c r="J292" s="67"/>
       <c r="K292" s="67"/>
-      <c r="L292" s="86"/>
+      <c r="L292" s="85"/>
       <c r="M292" s="67"/>
-      <c r="N292" s="86"/>
+      <c r="N292" s="85"/>
       <c r="O292" s="67"/>
       <c r="P292" s="67"/>
       <c r="Q292" s="67"/>
@@ -11640,19 +12122,19 @@
     </row>
     <row r="293" spans="1:20" ht="18" customHeight="1">
       <c r="A293" s="67"/>
-      <c r="B293" s="86"/>
-      <c r="C293" s="86"/>
-      <c r="D293" s="86"/>
-      <c r="E293" s="86"/>
-      <c r="F293" s="86"/>
-      <c r="G293" s="86"/>
-      <c r="H293" s="86"/>
+      <c r="B293" s="85"/>
+      <c r="C293" s="85"/>
+      <c r="D293" s="85"/>
+      <c r="E293" s="85"/>
+      <c r="F293" s="85"/>
+      <c r="G293" s="85"/>
+      <c r="H293" s="85"/>
       <c r="I293" s="67"/>
       <c r="J293" s="67"/>
       <c r="K293" s="67"/>
-      <c r="L293" s="86"/>
+      <c r="L293" s="85"/>
       <c r="M293" s="67"/>
-      <c r="N293" s="86"/>
+      <c r="N293" s="85"/>
       <c r="O293" s="67"/>
       <c r="P293" s="67"/>
       <c r="Q293" s="67"/>
@@ -11662,19 +12144,19 @@
     </row>
     <row r="294" spans="1:20" ht="18" customHeight="1">
       <c r="A294" s="67"/>
-      <c r="B294" s="86"/>
-      <c r="C294" s="86"/>
-      <c r="D294" s="86"/>
-      <c r="E294" s="86"/>
-      <c r="F294" s="86"/>
-      <c r="G294" s="86"/>
-      <c r="H294" s="86"/>
+      <c r="B294" s="85"/>
+      <c r="C294" s="85"/>
+      <c r="D294" s="85"/>
+      <c r="E294" s="85"/>
+      <c r="F294" s="85"/>
+      <c r="G294" s="85"/>
+      <c r="H294" s="85"/>
       <c r="I294" s="67"/>
       <c r="J294" s="67"/>
       <c r="K294" s="67"/>
-      <c r="L294" s="86"/>
+      <c r="L294" s="85"/>
       <c r="M294" s="67"/>
-      <c r="N294" s="86"/>
+      <c r="N294" s="85"/>
       <c r="O294" s="67"/>
       <c r="P294" s="67"/>
       <c r="Q294" s="67"/>
@@ -11684,19 +12166,19 @@
     </row>
     <row r="295" spans="1:20" ht="18" customHeight="1">
       <c r="A295" s="67"/>
-      <c r="B295" s="86"/>
-      <c r="C295" s="86"/>
-      <c r="D295" s="86"/>
-      <c r="E295" s="86"/>
-      <c r="F295" s="86"/>
-      <c r="G295" s="86"/>
-      <c r="H295" s="86"/>
+      <c r="B295" s="85"/>
+      <c r="C295" s="85"/>
+      <c r="D295" s="85"/>
+      <c r="E295" s="85"/>
+      <c r="F295" s="85"/>
+      <c r="G295" s="85"/>
+      <c r="H295" s="85"/>
       <c r="I295" s="67"/>
       <c r="J295" s="67"/>
       <c r="K295" s="67"/>
-      <c r="L295" s="86"/>
+      <c r="L295" s="85"/>
       <c r="M295" s="67"/>
-      <c r="N295" s="86"/>
+      <c r="N295" s="85"/>
       <c r="O295" s="67"/>
       <c r="P295" s="67"/>
       <c r="Q295" s="67"/>
@@ -11706,19 +12188,19 @@
     </row>
     <row r="296" spans="1:20" ht="18" customHeight="1">
       <c r="A296" s="67"/>
-      <c r="B296" s="86"/>
-      <c r="C296" s="86"/>
-      <c r="D296" s="86"/>
-      <c r="E296" s="86"/>
-      <c r="F296" s="86"/>
-      <c r="G296" s="86"/>
-      <c r="H296" s="86"/>
+      <c r="B296" s="85"/>
+      <c r="C296" s="85"/>
+      <c r="D296" s="85"/>
+      <c r="E296" s="85"/>
+      <c r="F296" s="85"/>
+      <c r="G296" s="85"/>
+      <c r="H296" s="85"/>
       <c r="I296" s="67"/>
       <c r="J296" s="67"/>
       <c r="K296" s="67"/>
-      <c r="L296" s="86"/>
+      <c r="L296" s="85"/>
       <c r="M296" s="67"/>
-      <c r="N296" s="86"/>
+      <c r="N296" s="85"/>
       <c r="O296" s="67"/>
       <c r="P296" s="67"/>
       <c r="Q296" s="67"/>
@@ -11728,19 +12210,19 @@
     </row>
     <row r="297" spans="1:20" ht="18" customHeight="1">
       <c r="A297" s="67"/>
-      <c r="B297" s="86"/>
-      <c r="C297" s="86"/>
-      <c r="D297" s="86"/>
-      <c r="E297" s="86"/>
-      <c r="F297" s="86"/>
-      <c r="G297" s="86"/>
-      <c r="H297" s="86"/>
+      <c r="B297" s="85"/>
+      <c r="C297" s="85"/>
+      <c r="D297" s="85"/>
+      <c r="E297" s="85"/>
+      <c r="F297" s="85"/>
+      <c r="G297" s="85"/>
+      <c r="H297" s="85"/>
       <c r="I297" s="67"/>
       <c r="J297" s="67"/>
       <c r="K297" s="67"/>
-      <c r="L297" s="86"/>
-      <c r="M297" s="86"/>
-      <c r="N297" s="86"/>
+      <c r="L297" s="85"/>
+      <c r="M297" s="85"/>
+      <c r="N297" s="85"/>
       <c r="O297" s="67"/>
       <c r="P297" s="67"/>
       <c r="Q297" s="67"/>
@@ -11750,19 +12232,19 @@
     </row>
     <row r="298" spans="1:20" ht="18" customHeight="1">
       <c r="A298" s="67"/>
-      <c r="B298" s="86"/>
-      <c r="C298" s="86"/>
-      <c r="D298" s="86"/>
-      <c r="E298" s="86"/>
-      <c r="F298" s="86"/>
-      <c r="G298" s="86"/>
-      <c r="H298" s="86"/>
+      <c r="B298" s="85"/>
+      <c r="C298" s="85"/>
+      <c r="D298" s="85"/>
+      <c r="E298" s="85"/>
+      <c r="F298" s="85"/>
+      <c r="G298" s="85"/>
+      <c r="H298" s="85"/>
       <c r="I298" s="67"/>
       <c r="J298" s="67"/>
       <c r="K298" s="67"/>
-      <c r="L298" s="86"/>
-      <c r="M298" s="86"/>
-      <c r="N298" s="86"/>
+      <c r="L298" s="85"/>
+      <c r="M298" s="85"/>
+      <c r="N298" s="85"/>
       <c r="O298" s="67"/>
       <c r="P298" s="67"/>
       <c r="Q298" s="67"/>
@@ -11772,19 +12254,19 @@
     </row>
     <row r="299" spans="1:20" ht="18" customHeight="1">
       <c r="A299" s="67"/>
-      <c r="B299" s="86"/>
-      <c r="C299" s="86"/>
-      <c r="D299" s="86"/>
-      <c r="E299" s="86"/>
-      <c r="F299" s="86"/>
-      <c r="G299" s="86"/>
-      <c r="H299" s="86"/>
+      <c r="B299" s="85"/>
+      <c r="C299" s="85"/>
+      <c r="D299" s="85"/>
+      <c r="E299" s="85"/>
+      <c r="F299" s="85"/>
+      <c r="G299" s="85"/>
+      <c r="H299" s="85"/>
       <c r="I299" s="67"/>
       <c r="J299" s="67"/>
       <c r="K299" s="67"/>
-      <c r="L299" s="86"/>
-      <c r="M299" s="86"/>
-      <c r="N299" s="86"/>
+      <c r="L299" s="85"/>
+      <c r="M299" s="85"/>
+      <c r="N299" s="85"/>
       <c r="O299" s="67"/>
       <c r="P299" s="67"/>
       <c r="Q299" s="67"/>
@@ -11794,19 +12276,19 @@
     </row>
     <row r="300" spans="1:20" ht="18" customHeight="1">
       <c r="A300" s="67"/>
-      <c r="B300" s="86"/>
-      <c r="C300" s="86"/>
-      <c r="D300" s="86"/>
-      <c r="E300" s="86"/>
-      <c r="F300" s="86"/>
-      <c r="G300" s="86"/>
-      <c r="H300" s="86"/>
+      <c r="B300" s="85"/>
+      <c r="C300" s="85"/>
+      <c r="D300" s="85"/>
+      <c r="E300" s="85"/>
+      <c r="F300" s="85"/>
+      <c r="G300" s="85"/>
+      <c r="H300" s="85"/>
       <c r="I300" s="67"/>
       <c r="J300" s="67"/>
       <c r="K300" s="67"/>
-      <c r="L300" s="86"/>
-      <c r="M300" s="86"/>
-      <c r="N300" s="86"/>
+      <c r="L300" s="85"/>
+      <c r="M300" s="85"/>
+      <c r="N300" s="85"/>
       <c r="O300" s="67"/>
       <c r="P300" s="67"/>
       <c r="Q300" s="67"/>
@@ -11816,19 +12298,19 @@
     </row>
     <row r="301" spans="1:20" ht="18" customHeight="1">
       <c r="A301" s="67"/>
-      <c r="B301" s="86"/>
-      <c r="C301" s="86"/>
-      <c r="D301" s="86"/>
-      <c r="E301" s="86"/>
-      <c r="F301" s="86"/>
-      <c r="G301" s="86"/>
-      <c r="H301" s="86"/>
+      <c r="B301" s="85"/>
+      <c r="C301" s="85"/>
+      <c r="D301" s="85"/>
+      <c r="E301" s="85"/>
+      <c r="F301" s="85"/>
+      <c r="G301" s="85"/>
+      <c r="H301" s="85"/>
       <c r="I301" s="67"/>
       <c r="J301" s="67"/>
       <c r="K301" s="67"/>
-      <c r="L301" s="86"/>
-      <c r="M301" s="86"/>
-      <c r="N301" s="86"/>
+      <c r="L301" s="85"/>
+      <c r="M301" s="85"/>
+      <c r="N301" s="85"/>
       <c r="O301" s="67"/>
       <c r="P301" s="67"/>
       <c r="Q301" s="67"/>
@@ -11838,19 +12320,19 @@
     </row>
     <row r="302" spans="1:20" ht="18" customHeight="1">
       <c r="A302" s="67"/>
-      <c r="B302" s="86"/>
-      <c r="C302" s="86"/>
-      <c r="D302" s="86"/>
-      <c r="E302" s="86"/>
-      <c r="F302" s="86"/>
-      <c r="G302" s="86"/>
-      <c r="H302" s="86"/>
+      <c r="B302" s="85"/>
+      <c r="C302" s="85"/>
+      <c r="D302" s="85"/>
+      <c r="E302" s="85"/>
+      <c r="F302" s="85"/>
+      <c r="G302" s="85"/>
+      <c r="H302" s="85"/>
       <c r="I302" s="67"/>
       <c r="J302" s="67"/>
       <c r="K302" s="67"/>
-      <c r="L302" s="86"/>
-      <c r="M302" s="86"/>
-      <c r="N302" s="86"/>
+      <c r="L302" s="85"/>
+      <c r="M302" s="85"/>
+      <c r="N302" s="85"/>
       <c r="O302" s="67"/>
       <c r="P302" s="67"/>
       <c r="Q302" s="67"/>
@@ -11860,19 +12342,19 @@
     </row>
     <row r="303" spans="1:20" ht="18" customHeight="1">
       <c r="A303" s="67"/>
-      <c r="B303" s="86"/>
-      <c r="C303" s="86"/>
-      <c r="D303" s="86"/>
-      <c r="E303" s="86"/>
-      <c r="F303" s="86"/>
-      <c r="G303" s="86"/>
-      <c r="H303" s="86"/>
+      <c r="B303" s="85"/>
+      <c r="C303" s="85"/>
+      <c r="D303" s="85"/>
+      <c r="E303" s="85"/>
+      <c r="F303" s="85"/>
+      <c r="G303" s="85"/>
+      <c r="H303" s="85"/>
       <c r="I303" s="67"/>
       <c r="J303" s="67"/>
       <c r="K303" s="67"/>
-      <c r="L303" s="86"/>
-      <c r="M303" s="86"/>
-      <c r="N303" s="86"/>
+      <c r="L303" s="85"/>
+      <c r="M303" s="85"/>
+      <c r="N303" s="85"/>
       <c r="O303" s="67"/>
       <c r="P303" s="67"/>
       <c r="Q303" s="67"/>
@@ -11882,19 +12364,19 @@
     </row>
     <row r="304" spans="1:20" ht="18" customHeight="1">
       <c r="A304" s="67"/>
-      <c r="B304" s="86"/>
-      <c r="C304" s="86"/>
-      <c r="D304" s="86"/>
-      <c r="E304" s="86"/>
-      <c r="F304" s="86"/>
-      <c r="G304" s="86"/>
-      <c r="H304" s="86"/>
+      <c r="B304" s="85"/>
+      <c r="C304" s="85"/>
+      <c r="D304" s="85"/>
+      <c r="E304" s="85"/>
+      <c r="F304" s="85"/>
+      <c r="G304" s="85"/>
+      <c r="H304" s="85"/>
       <c r="I304" s="67"/>
       <c r="J304" s="67"/>
       <c r="K304" s="67"/>
-      <c r="L304" s="86"/>
-      <c r="M304" s="86"/>
-      <c r="N304" s="86"/>
+      <c r="L304" s="85"/>
+      <c r="M304" s="85"/>
+      <c r="N304" s="85"/>
       <c r="O304" s="67"/>
       <c r="P304" s="67"/>
       <c r="Q304" s="67"/>
@@ -11904,19 +12386,19 @@
     </row>
     <row r="305" spans="1:20" ht="18" customHeight="1">
       <c r="A305" s="67"/>
-      <c r="B305" s="86"/>
-      <c r="C305" s="86"/>
-      <c r="D305" s="86"/>
-      <c r="E305" s="86"/>
-      <c r="F305" s="86"/>
-      <c r="G305" s="86"/>
-      <c r="H305" s="86"/>
+      <c r="B305" s="85"/>
+      <c r="C305" s="85"/>
+      <c r="D305" s="85"/>
+      <c r="E305" s="85"/>
+      <c r="F305" s="85"/>
+      <c r="G305" s="85"/>
+      <c r="H305" s="85"/>
       <c r="I305" s="67"/>
       <c r="J305" s="67"/>
       <c r="K305" s="67"/>
-      <c r="L305" s="86"/>
-      <c r="M305" s="86"/>
-      <c r="N305" s="86"/>
+      <c r="L305" s="85"/>
+      <c r="M305" s="85"/>
+      <c r="N305" s="85"/>
       <c r="O305" s="67"/>
       <c r="P305" s="67"/>
       <c r="Q305" s="67"/>
@@ -11926,19 +12408,19 @@
     </row>
     <row r="306" spans="1:20" ht="18" customHeight="1">
       <c r="A306" s="67"/>
-      <c r="B306" s="86"/>
-      <c r="C306" s="86"/>
-      <c r="D306" s="86"/>
-      <c r="E306" s="86"/>
-      <c r="F306" s="86"/>
-      <c r="G306" s="86"/>
-      <c r="H306" s="86"/>
+      <c r="B306" s="85"/>
+      <c r="C306" s="85"/>
+      <c r="D306" s="85"/>
+      <c r="E306" s="85"/>
+      <c r="F306" s="85"/>
+      <c r="G306" s="85"/>
+      <c r="H306" s="85"/>
       <c r="I306" s="67"/>
       <c r="J306" s="67"/>
       <c r="K306" s="67"/>
-      <c r="L306" s="86"/>
-      <c r="M306" s="86"/>
-      <c r="N306" s="86"/>
+      <c r="L306" s="85"/>
+      <c r="M306" s="85"/>
+      <c r="N306" s="85"/>
       <c r="O306" s="67"/>
       <c r="P306" s="67"/>
       <c r="Q306" s="67"/>
@@ -11948,19 +12430,19 @@
     </row>
     <row r="307" spans="1:20" ht="18" customHeight="1">
       <c r="A307" s="67"/>
-      <c r="B307" s="86"/>
-      <c r="C307" s="86"/>
-      <c r="D307" s="86"/>
-      <c r="E307" s="86"/>
-      <c r="F307" s="86"/>
-      <c r="G307" s="86"/>
-      <c r="H307" s="86"/>
+      <c r="B307" s="85"/>
+      <c r="C307" s="85"/>
+      <c r="D307" s="85"/>
+      <c r="E307" s="85"/>
+      <c r="F307" s="85"/>
+      <c r="G307" s="85"/>
+      <c r="H307" s="85"/>
       <c r="I307" s="67"/>
       <c r="J307" s="67"/>
       <c r="K307" s="67"/>
-      <c r="L307" s="86"/>
-      <c r="M307" s="86"/>
-      <c r="N307" s="86"/>
+      <c r="L307" s="85"/>
+      <c r="M307" s="85"/>
+      <c r="N307" s="85"/>
       <c r="O307" s="67"/>
       <c r="P307" s="67"/>
       <c r="Q307" s="67"/>
@@ -11970,19 +12452,19 @@
     </row>
     <row r="308" spans="1:20" ht="18" customHeight="1">
       <c r="A308" s="67"/>
-      <c r="B308" s="86"/>
-      <c r="C308" s="86"/>
-      <c r="D308" s="86"/>
-      <c r="E308" s="86"/>
-      <c r="F308" s="86"/>
-      <c r="G308" s="86"/>
-      <c r="H308" s="86"/>
+      <c r="B308" s="85"/>
+      <c r="C308" s="85"/>
+      <c r="D308" s="85"/>
+      <c r="E308" s="85"/>
+      <c r="F308" s="85"/>
+      <c r="G308" s="85"/>
+      <c r="H308" s="85"/>
       <c r="I308" s="67"/>
       <c r="J308" s="67"/>
       <c r="K308" s="67"/>
-      <c r="L308" s="86"/>
-      <c r="M308" s="86"/>
-      <c r="N308" s="86"/>
+      <c r="L308" s="85"/>
+      <c r="M308" s="85"/>
+      <c r="N308" s="85"/>
       <c r="O308" s="67"/>
       <c r="P308" s="67"/>
       <c r="Q308" s="67"/>
@@ -11991,20 +12473,20 @@
       <c r="T308" s="59"/>
     </row>
     <row r="309" spans="1:20" ht="18" customHeight="1">
-      <c r="A309" s="86"/>
-      <c r="B309" s="86"/>
-      <c r="C309" s="86"/>
-      <c r="D309" s="86"/>
-      <c r="E309" s="86"/>
-      <c r="F309" s="86"/>
-      <c r="G309" s="86"/>
-      <c r="H309" s="86"/>
+      <c r="A309" s="85"/>
+      <c r="B309" s="85"/>
+      <c r="C309" s="85"/>
+      <c r="D309" s="85"/>
+      <c r="E309" s="85"/>
+      <c r="F309" s="85"/>
+      <c r="G309" s="85"/>
+      <c r="H309" s="85"/>
       <c r="I309" s="67"/>
       <c r="J309" s="67"/>
       <c r="K309" s="67"/>
-      <c r="L309" s="86"/>
-      <c r="M309" s="86"/>
-      <c r="N309" s="86"/>
+      <c r="L309" s="85"/>
+      <c r="M309" s="85"/>
+      <c r="N309" s="85"/>
       <c r="O309" s="67"/>
       <c r="P309" s="67"/>
       <c r="Q309" s="67"/>
@@ -12013,20 +12495,20 @@
       <c r="T309" s="59"/>
     </row>
     <row r="310" spans="1:20" ht="18" customHeight="1">
-      <c r="A310" s="86"/>
-      <c r="B310" s="86"/>
-      <c r="C310" s="86"/>
-      <c r="D310" s="86"/>
-      <c r="E310" s="86"/>
-      <c r="F310" s="86"/>
-      <c r="G310" s="86"/>
-      <c r="H310" s="86"/>
+      <c r="A310" s="85"/>
+      <c r="B310" s="85"/>
+      <c r="C310" s="85"/>
+      <c r="D310" s="85"/>
+      <c r="E310" s="85"/>
+      <c r="F310" s="85"/>
+      <c r="G310" s="85"/>
+      <c r="H310" s="85"/>
       <c r="I310" s="67"/>
       <c r="J310" s="67"/>
       <c r="K310" s="67"/>
-      <c r="L310" s="86"/>
-      <c r="M310" s="86"/>
-      <c r="N310" s="86"/>
+      <c r="L310" s="85"/>
+      <c r="M310" s="85"/>
+      <c r="N310" s="85"/>
       <c r="O310" s="67"/>
       <c r="P310" s="67"/>
       <c r="Q310" s="67"/>
@@ -12035,20 +12517,20 @@
       <c r="T310" s="59"/>
     </row>
     <row r="311" spans="1:20" ht="18" customHeight="1">
-      <c r="A311" s="86"/>
-      <c r="B311" s="86"/>
-      <c r="C311" s="86"/>
-      <c r="D311" s="86"/>
-      <c r="E311" s="86"/>
-      <c r="F311" s="86"/>
-      <c r="G311" s="86"/>
-      <c r="H311" s="86"/>
+      <c r="A311" s="85"/>
+      <c r="B311" s="85"/>
+      <c r="C311" s="85"/>
+      <c r="D311" s="85"/>
+      <c r="E311" s="85"/>
+      <c r="F311" s="85"/>
+      <c r="G311" s="85"/>
+      <c r="H311" s="85"/>
       <c r="I311" s="67"/>
       <c r="J311" s="67"/>
       <c r="K311" s="67"/>
-      <c r="L311" s="86"/>
-      <c r="M311" s="86"/>
-      <c r="N311" s="86"/>
+      <c r="L311" s="85"/>
+      <c r="M311" s="85"/>
+      <c r="N311" s="85"/>
       <c r="O311" s="67"/>
       <c r="P311" s="67"/>
       <c r="Q311" s="67"/>
@@ -12057,20 +12539,20 @@
       <c r="T311" s="59"/>
     </row>
     <row r="312" spans="1:20" ht="18" customHeight="1">
-      <c r="A312" s="86"/>
-      <c r="B312" s="86"/>
-      <c r="C312" s="86"/>
-      <c r="D312" s="86"/>
-      <c r="E312" s="86"/>
-      <c r="F312" s="86"/>
-      <c r="G312" s="86"/>
-      <c r="H312" s="86"/>
+      <c r="A312" s="85"/>
+      <c r="B312" s="85"/>
+      <c r="C312" s="85"/>
+      <c r="D312" s="85"/>
+      <c r="E312" s="85"/>
+      <c r="F312" s="85"/>
+      <c r="G312" s="85"/>
+      <c r="H312" s="85"/>
       <c r="I312" s="67"/>
       <c r="J312" s="67"/>
       <c r="K312" s="67"/>
-      <c r="L312" s="86"/>
-      <c r="M312" s="86"/>
-      <c r="N312" s="86"/>
+      <c r="L312" s="85"/>
+      <c r="M312" s="85"/>
+      <c r="N312" s="85"/>
       <c r="O312" s="67"/>
       <c r="P312" s="67"/>
       <c r="Q312" s="67"/>
@@ -12079,20 +12561,20 @@
       <c r="T312" s="59"/>
     </row>
     <row r="313" spans="1:20" ht="18" customHeight="1">
-      <c r="A313" s="86"/>
-      <c r="B313" s="86"/>
-      <c r="C313" s="86"/>
-      <c r="D313" s="86"/>
-      <c r="E313" s="86"/>
-      <c r="F313" s="86"/>
-      <c r="G313" s="86"/>
-      <c r="H313" s="86"/>
+      <c r="A313" s="85"/>
+      <c r="B313" s="85"/>
+      <c r="C313" s="85"/>
+      <c r="D313" s="85"/>
+      <c r="E313" s="85"/>
+      <c r="F313" s="85"/>
+      <c r="G313" s="85"/>
+      <c r="H313" s="85"/>
       <c r="I313" s="67"/>
       <c r="J313" s="67"/>
       <c r="K313" s="67"/>
-      <c r="L313" s="86"/>
-      <c r="M313" s="86"/>
-      <c r="N313" s="86"/>
+      <c r="L313" s="85"/>
+      <c r="M313" s="85"/>
+      <c r="N313" s="85"/>
       <c r="O313" s="67"/>
       <c r="P313" s="67"/>
       <c r="Q313" s="67"/>
@@ -12101,20 +12583,20 @@
       <c r="T313" s="59"/>
     </row>
     <row r="314" spans="1:20" ht="18" customHeight="1">
-      <c r="A314" s="86"/>
-      <c r="B314" s="86"/>
-      <c r="C314" s="86"/>
-      <c r="D314" s="86"/>
-      <c r="E314" s="86"/>
-      <c r="F314" s="86"/>
-      <c r="G314" s="86"/>
-      <c r="H314" s="86"/>
+      <c r="A314" s="85"/>
+      <c r="B314" s="85"/>
+      <c r="C314" s="85"/>
+      <c r="D314" s="85"/>
+      <c r="E314" s="85"/>
+      <c r="F314" s="85"/>
+      <c r="G314" s="85"/>
+      <c r="H314" s="85"/>
       <c r="I314" s="67"/>
       <c r="J314" s="67"/>
       <c r="K314" s="67"/>
-      <c r="L314" s="86"/>
-      <c r="M314" s="86"/>
-      <c r="N314" s="86"/>
+      <c r="L314" s="85"/>
+      <c r="M314" s="85"/>
+      <c r="N314" s="85"/>
       <c r="O314" s="67"/>
       <c r="P314" s="67"/>
       <c r="Q314" s="67"/>
@@ -12123,20 +12605,20 @@
       <c r="T314" s="59"/>
     </row>
     <row r="315" spans="1:20" ht="18" customHeight="1">
-      <c r="A315" s="86"/>
-      <c r="B315" s="86"/>
-      <c r="C315" s="86"/>
-      <c r="D315" s="86"/>
-      <c r="E315" s="86"/>
-      <c r="F315" s="86"/>
-      <c r="G315" s="86"/>
-      <c r="H315" s="86"/>
+      <c r="A315" s="85"/>
+      <c r="B315" s="85"/>
+      <c r="C315" s="85"/>
+      <c r="D315" s="85"/>
+      <c r="E315" s="85"/>
+      <c r="F315" s="85"/>
+      <c r="G315" s="85"/>
+      <c r="H315" s="85"/>
       <c r="I315" s="67"/>
       <c r="J315" s="67"/>
       <c r="K315" s="67"/>
-      <c r="L315" s="86"/>
-      <c r="M315" s="86"/>
-      <c r="N315" s="86"/>
+      <c r="L315" s="85"/>
+      <c r="M315" s="85"/>
+      <c r="N315" s="85"/>
       <c r="O315" s="67"/>
       <c r="P315" s="67"/>
       <c r="Q315" s="67"/>
@@ -12145,20 +12627,20 @@
       <c r="T315" s="59"/>
     </row>
     <row r="316" spans="1:20" ht="18" customHeight="1">
-      <c r="A316" s="86"/>
-      <c r="B316" s="86"/>
-      <c r="C316" s="86"/>
-      <c r="D316" s="86"/>
-      <c r="E316" s="86"/>
-      <c r="F316" s="86"/>
-      <c r="G316" s="86"/>
-      <c r="H316" s="86"/>
+      <c r="A316" s="85"/>
+      <c r="B316" s="85"/>
+      <c r="C316" s="85"/>
+      <c r="D316" s="85"/>
+      <c r="E316" s="85"/>
+      <c r="F316" s="85"/>
+      <c r="G316" s="85"/>
+      <c r="H316" s="85"/>
       <c r="I316" s="67"/>
       <c r="J316" s="67"/>
       <c r="K316" s="67"/>
-      <c r="L316" s="86"/>
-      <c r="M316" s="86"/>
-      <c r="N316" s="86"/>
+      <c r="L316" s="85"/>
+      <c r="M316" s="85"/>
+      <c r="N316" s="85"/>
       <c r="O316" s="67"/>
       <c r="P316" s="67"/>
       <c r="Q316" s="67"/>
@@ -12167,20 +12649,20 @@
       <c r="T316" s="59"/>
     </row>
     <row r="317" spans="1:20" ht="18" customHeight="1">
-      <c r="A317" s="86"/>
-      <c r="B317" s="86"/>
-      <c r="C317" s="86"/>
-      <c r="D317" s="86"/>
-      <c r="E317" s="86"/>
-      <c r="F317" s="86"/>
-      <c r="G317" s="86"/>
-      <c r="H317" s="86"/>
+      <c r="A317" s="85"/>
+      <c r="B317" s="85"/>
+      <c r="C317" s="85"/>
+      <c r="D317" s="85"/>
+      <c r="E317" s="85"/>
+      <c r="F317" s="85"/>
+      <c r="G317" s="85"/>
+      <c r="H317" s="85"/>
       <c r="I317" s="67"/>
       <c r="J317" s="67"/>
       <c r="K317" s="67"/>
-      <c r="L317" s="86"/>
-      <c r="M317" s="86"/>
-      <c r="N317" s="86"/>
+      <c r="L317" s="85"/>
+      <c r="M317" s="85"/>
+      <c r="N317" s="85"/>
       <c r="O317" s="67"/>
       <c r="P317" s="67"/>
       <c r="Q317" s="67"/>
@@ -12189,20 +12671,20 @@
       <c r="T317" s="59"/>
     </row>
     <row r="318" spans="1:20" ht="18" customHeight="1">
-      <c r="A318" s="86"/>
-      <c r="B318" s="86"/>
-      <c r="C318" s="86"/>
-      <c r="D318" s="86"/>
-      <c r="E318" s="86"/>
-      <c r="F318" s="86"/>
-      <c r="G318" s="86"/>
+      <c r="A318" s="85"/>
+      <c r="B318" s="85"/>
+      <c r="C318" s="85"/>
+      <c r="D318" s="85"/>
+      <c r="E318" s="85"/>
+      <c r="F318" s="85"/>
+      <c r="G318" s="85"/>
       <c r="H318" s="67"/>
       <c r="I318" s="67"/>
       <c r="J318" s="67"/>
       <c r="K318" s="67"/>
-      <c r="L318" s="86"/>
-      <c r="M318" s="86"/>
-      <c r="N318" s="86"/>
+      <c r="L318" s="85"/>
+      <c r="M318" s="85"/>
+      <c r="N318" s="85"/>
       <c r="O318" s="67"/>
       <c r="P318" s="67"/>
       <c r="Q318" s="67"/>
@@ -12211,20 +12693,20 @@
       <c r="T318" s="59"/>
     </row>
     <row r="319" spans="1:20" ht="18" customHeight="1">
-      <c r="A319" s="86"/>
-      <c r="B319" s="86"/>
-      <c r="C319" s="86"/>
-      <c r="D319" s="86"/>
-      <c r="E319" s="86"/>
-      <c r="F319" s="86"/>
-      <c r="G319" s="86"/>
+      <c r="A319" s="85"/>
+      <c r="B319" s="85"/>
+      <c r="C319" s="85"/>
+      <c r="D319" s="85"/>
+      <c r="E319" s="85"/>
+      <c r="F319" s="85"/>
+      <c r="G319" s="85"/>
       <c r="H319" s="67"/>
       <c r="I319" s="67"/>
       <c r="J319" s="71"/>
       <c r="K319" s="67"/>
-      <c r="L319" s="86"/>
-      <c r="M319" s="86"/>
-      <c r="N319" s="86"/>
+      <c r="L319" s="85"/>
+      <c r="M319" s="85"/>
+      <c r="N319" s="85"/>
       <c r="O319" s="67"/>
       <c r="P319" s="67"/>
       <c r="Q319" s="67"/>
@@ -12233,20 +12715,20 @@
       <c r="T319" s="59"/>
     </row>
     <row r="320" spans="1:20" ht="18" customHeight="1">
-      <c r="A320" s="86"/>
-      <c r="B320" s="86"/>
-      <c r="C320" s="86"/>
-      <c r="D320" s="86"/>
-      <c r="E320" s="86"/>
-      <c r="F320" s="86"/>
-      <c r="G320" s="86"/>
-      <c r="H320" s="86"/>
+      <c r="A320" s="85"/>
+      <c r="B320" s="85"/>
+      <c r="C320" s="85"/>
+      <c r="D320" s="85"/>
+      <c r="E320" s="85"/>
+      <c r="F320" s="85"/>
+      <c r="G320" s="85"/>
+      <c r="H320" s="85"/>
       <c r="I320" s="67"/>
       <c r="J320" s="71"/>
       <c r="K320" s="67"/>
-      <c r="L320" s="86"/>
-      <c r="M320" s="86"/>
-      <c r="N320" s="86"/>
+      <c r="L320" s="85"/>
+      <c r="M320" s="85"/>
+      <c r="N320" s="85"/>
       <c r="O320" s="67"/>
       <c r="P320" s="67"/>
       <c r="Q320" s="67"/>
@@ -12255,20 +12737,20 @@
       <c r="T320" s="59"/>
     </row>
     <row r="321" spans="1:20" ht="18" customHeight="1">
-      <c r="A321" s="86"/>
-      <c r="B321" s="86"/>
-      <c r="C321" s="86"/>
-      <c r="D321" s="86"/>
-      <c r="E321" s="86"/>
-      <c r="F321" s="86"/>
-      <c r="G321" s="86"/>
-      <c r="H321" s="86"/>
+      <c r="A321" s="85"/>
+      <c r="B321" s="85"/>
+      <c r="C321" s="85"/>
+      <c r="D321" s="85"/>
+      <c r="E321" s="85"/>
+      <c r="F321" s="85"/>
+      <c r="G321" s="85"/>
+      <c r="H321" s="85"/>
       <c r="I321" s="67"/>
-      <c r="J321" s="87"/>
+      <c r="J321" s="86"/>
       <c r="K321" s="71"/>
-      <c r="L321" s="86"/>
-      <c r="M321" s="86"/>
-      <c r="N321" s="86"/>
+      <c r="L321" s="85"/>
+      <c r="M321" s="85"/>
+      <c r="N321" s="85"/>
       <c r="O321" s="67"/>
       <c r="P321" s="67"/>
       <c r="Q321" s="67"/>
@@ -12277,20 +12759,20 @@
       <c r="T321" s="59"/>
     </row>
     <row r="322" spans="1:20" ht="18" customHeight="1">
-      <c r="A322" s="86"/>
-      <c r="B322" s="86"/>
-      <c r="C322" s="86"/>
-      <c r="D322" s="86"/>
-      <c r="E322" s="86"/>
-      <c r="F322" s="86"/>
-      <c r="G322" s="86"/>
-      <c r="H322" s="86"/>
+      <c r="A322" s="85"/>
+      <c r="B322" s="85"/>
+      <c r="C322" s="85"/>
+      <c r="D322" s="85"/>
+      <c r="E322" s="85"/>
+      <c r="F322" s="85"/>
+      <c r="G322" s="85"/>
+      <c r="H322" s="85"/>
       <c r="I322" s="67"/>
-      <c r="J322" s="87"/>
+      <c r="J322" s="86"/>
       <c r="K322" s="71"/>
-      <c r="L322" s="86"/>
-      <c r="M322" s="86"/>
-      <c r="N322" s="86"/>
+      <c r="L322" s="85"/>
+      <c r="M322" s="85"/>
+      <c r="N322" s="85"/>
       <c r="O322" s="67"/>
       <c r="P322" s="67"/>
       <c r="Q322" s="67"/>
@@ -12299,20 +12781,20 @@
       <c r="T322" s="59"/>
     </row>
     <row r="323" spans="1:20" ht="18" customHeight="1">
-      <c r="A323" s="86"/>
-      <c r="B323" s="86"/>
-      <c r="C323" s="86"/>
-      <c r="D323" s="86"/>
-      <c r="E323" s="86"/>
-      <c r="F323" s="86"/>
-      <c r="G323" s="86"/>
+      <c r="A323" s="85"/>
+      <c r="B323" s="85"/>
+      <c r="C323" s="85"/>
+      <c r="D323" s="85"/>
+      <c r="E323" s="85"/>
+      <c r="F323" s="85"/>
+      <c r="G323" s="85"/>
       <c r="H323" s="67"/>
       <c r="I323" s="67"/>
       <c r="J323" s="67"/>
       <c r="K323" s="71"/>
-      <c r="L323" s="86"/>
-      <c r="M323" s="86"/>
-      <c r="N323" s="86"/>
+      <c r="L323" s="85"/>
+      <c r="M323" s="85"/>
+      <c r="N323" s="85"/>
       <c r="O323" s="67"/>
       <c r="P323" s="67"/>
       <c r="Q323" s="67"/>
@@ -12321,20 +12803,20 @@
       <c r="T323" s="59"/>
     </row>
     <row r="324" spans="1:20" ht="18" customHeight="1">
-      <c r="A324" s="86"/>
-      <c r="B324" s="86"/>
-      <c r="C324" s="86"/>
-      <c r="D324" s="86"/>
-      <c r="E324" s="86"/>
-      <c r="F324" s="86"/>
-      <c r="G324" s="86"/>
+      <c r="A324" s="85"/>
+      <c r="B324" s="85"/>
+      <c r="C324" s="85"/>
+      <c r="D324" s="85"/>
+      <c r="E324" s="85"/>
+      <c r="F324" s="85"/>
+      <c r="G324" s="85"/>
       <c r="H324" s="67"/>
       <c r="I324" s="67"/>
       <c r="J324" s="71"/>
       <c r="K324" s="71"/>
-      <c r="L324" s="86"/>
-      <c r="M324" s="86"/>
-      <c r="N324" s="86"/>
+      <c r="L324" s="85"/>
+      <c r="M324" s="85"/>
+      <c r="N324" s="85"/>
       <c r="O324" s="67"/>
       <c r="P324" s="67"/>
       <c r="Q324" s="67"/>
@@ -12343,20 +12825,20 @@
       <c r="T324" s="59"/>
     </row>
     <row r="325" spans="1:20" ht="18" customHeight="1">
-      <c r="A325" s="86"/>
-      <c r="B325" s="86"/>
-      <c r="C325" s="86"/>
-      <c r="D325" s="86"/>
-      <c r="E325" s="86"/>
-      <c r="F325" s="86"/>
-      <c r="G325" s="86"/>
+      <c r="A325" s="85"/>
+      <c r="B325" s="85"/>
+      <c r="C325" s="85"/>
+      <c r="D325" s="85"/>
+      <c r="E325" s="85"/>
+      <c r="F325" s="85"/>
+      <c r="G325" s="85"/>
       <c r="H325" s="67"/>
       <c r="I325" s="67"/>
       <c r="J325" s="71"/>
       <c r="K325" s="71"/>
-      <c r="L325" s="86"/>
-      <c r="M325" s="86"/>
-      <c r="N325" s="86"/>
+      <c r="L325" s="85"/>
+      <c r="M325" s="85"/>
+      <c r="N325" s="85"/>
       <c r="O325" s="67"/>
       <c r="P325" s="67"/>
       <c r="Q325" s="67"/>
@@ -12365,20 +12847,20 @@
       <c r="T325" s="59"/>
     </row>
     <row r="326" spans="1:20" ht="18" customHeight="1">
-      <c r="A326" s="86"/>
-      <c r="B326" s="86"/>
-      <c r="C326" s="86"/>
-      <c r="D326" s="86"/>
-      <c r="E326" s="86"/>
-      <c r="F326" s="86"/>
-      <c r="G326" s="86"/>
+      <c r="A326" s="85"/>
+      <c r="B326" s="85"/>
+      <c r="C326" s="85"/>
+      <c r="D326" s="85"/>
+      <c r="E326" s="85"/>
+      <c r="F326" s="85"/>
+      <c r="G326" s="85"/>
       <c r="H326" s="67"/>
       <c r="I326" s="67"/>
       <c r="J326" s="71"/>
       <c r="K326" s="71"/>
-      <c r="L326" s="86"/>
-      <c r="M326" s="86"/>
-      <c r="N326" s="86"/>
+      <c r="L326" s="85"/>
+      <c r="M326" s="85"/>
+      <c r="N326" s="85"/>
       <c r="O326" s="67"/>
       <c r="P326" s="67"/>
       <c r="Q326" s="67"/>
@@ -12387,20 +12869,20 @@
       <c r="T326" s="59"/>
     </row>
     <row r="327" spans="1:20" ht="18" customHeight="1">
-      <c r="A327" s="86"/>
-      <c r="B327" s="86"/>
-      <c r="C327" s="86"/>
-      <c r="D327" s="86"/>
-      <c r="E327" s="86"/>
-      <c r="F327" s="86"/>
-      <c r="G327" s="86"/>
+      <c r="A327" s="85"/>
+      <c r="B327" s="85"/>
+      <c r="C327" s="85"/>
+      <c r="D327" s="85"/>
+      <c r="E327" s="85"/>
+      <c r="F327" s="85"/>
+      <c r="G327" s="85"/>
       <c r="H327" s="67"/>
       <c r="I327" s="67"/>
       <c r="J327" s="71"/>
       <c r="K327" s="71"/>
-      <c r="L327" s="86"/>
-      <c r="M327" s="86"/>
-      <c r="N327" s="86"/>
+      <c r="L327" s="85"/>
+      <c r="M327" s="85"/>
+      <c r="N327" s="85"/>
       <c r="O327" s="67"/>
       <c r="P327" s="67"/>
       <c r="Q327" s="67"/>
@@ -12409,20 +12891,20 @@
       <c r="T327" s="59"/>
     </row>
     <row r="328" spans="1:20" ht="18" customHeight="1">
-      <c r="A328" s="86"/>
-      <c r="B328" s="86"/>
-      <c r="C328" s="86"/>
-      <c r="D328" s="86"/>
-      <c r="E328" s="86"/>
-      <c r="F328" s="86"/>
-      <c r="G328" s="86"/>
+      <c r="A328" s="85"/>
+      <c r="B328" s="85"/>
+      <c r="C328" s="85"/>
+      <c r="D328" s="85"/>
+      <c r="E328" s="85"/>
+      <c r="F328" s="85"/>
+      <c r="G328" s="85"/>
       <c r="H328" s="67"/>
       <c r="I328" s="67"/>
       <c r="J328" s="71"/>
       <c r="K328" s="71"/>
-      <c r="L328" s="86"/>
-      <c r="M328" s="86"/>
-      <c r="N328" s="86"/>
+      <c r="L328" s="85"/>
+      <c r="M328" s="85"/>
+      <c r="N328" s="85"/>
       <c r="O328" s="67"/>
       <c r="P328" s="67"/>
       <c r="Q328" s="67"/>
@@ -12431,20 +12913,20 @@
       <c r="T328" s="59"/>
     </row>
     <row r="329" spans="1:20" ht="18" customHeight="1">
-      <c r="A329" s="86"/>
-      <c r="B329" s="86"/>
-      <c r="C329" s="86"/>
-      <c r="D329" s="86"/>
-      <c r="E329" s="86"/>
-      <c r="F329" s="86"/>
-      <c r="G329" s="86"/>
+      <c r="A329" s="85"/>
+      <c r="B329" s="85"/>
+      <c r="C329" s="85"/>
+      <c r="D329" s="85"/>
+      <c r="E329" s="85"/>
+      <c r="F329" s="85"/>
+      <c r="G329" s="85"/>
       <c r="H329" s="67"/>
       <c r="I329" s="67"/>
       <c r="J329" s="71"/>
       <c r="K329" s="71"/>
-      <c r="L329" s="86"/>
-      <c r="M329" s="86"/>
-      <c r="N329" s="86"/>
+      <c r="L329" s="85"/>
+      <c r="M329" s="85"/>
+      <c r="N329" s="85"/>
       <c r="O329" s="67"/>
       <c r="P329" s="67"/>
       <c r="Q329" s="67"/>
@@ -12453,20 +12935,20 @@
       <c r="T329" s="59"/>
     </row>
     <row r="330" spans="1:20" ht="18" customHeight="1">
-      <c r="A330" s="86"/>
-      <c r="B330" s="86"/>
-      <c r="C330" s="86"/>
-      <c r="D330" s="86"/>
+      <c r="A330" s="85"/>
+      <c r="B330" s="85"/>
+      <c r="C330" s="85"/>
+      <c r="D330" s="85"/>
       <c r="E330" s="67"/>
-      <c r="F330" s="86"/>
-      <c r="G330" s="86"/>
+      <c r="F330" s="85"/>
+      <c r="G330" s="85"/>
       <c r="H330" s="67"/>
       <c r="I330" s="67"/>
       <c r="J330" s="71"/>
       <c r="K330" s="71"/>
-      <c r="L330" s="86"/>
-      <c r="M330" s="86"/>
-      <c r="N330" s="86"/>
+      <c r="L330" s="85"/>
+      <c r="M330" s="85"/>
+      <c r="N330" s="85"/>
       <c r="O330" s="67"/>
       <c r="P330" s="67"/>
       <c r="Q330" s="67"/>
@@ -12475,20 +12957,20 @@
       <c r="T330" s="59"/>
     </row>
     <row r="331" spans="1:20" ht="18" customHeight="1">
-      <c r="A331" s="86"/>
-      <c r="B331" s="86"/>
-      <c r="C331" s="86"/>
-      <c r="D331" s="86"/>
-      <c r="E331" s="86"/>
-      <c r="F331" s="86"/>
-      <c r="G331" s="86"/>
+      <c r="A331" s="85"/>
+      <c r="B331" s="85"/>
+      <c r="C331" s="85"/>
+      <c r="D331" s="85"/>
+      <c r="E331" s="85"/>
+      <c r="F331" s="85"/>
+      <c r="G331" s="85"/>
       <c r="H331" s="67"/>
       <c r="I331" s="67"/>
       <c r="J331" s="71"/>
       <c r="K331" s="71"/>
-      <c r="L331" s="86"/>
-      <c r="M331" s="86"/>
-      <c r="N331" s="86"/>
+      <c r="L331" s="85"/>
+      <c r="M331" s="85"/>
+      <c r="N331" s="85"/>
       <c r="O331" s="67"/>
       <c r="P331" s="67"/>
       <c r="Q331" s="67"/>
@@ -12497,20 +12979,20 @@
       <c r="T331" s="59"/>
     </row>
     <row r="332" spans="1:20" ht="18" customHeight="1">
-      <c r="A332" s="86"/>
-      <c r="B332" s="86"/>
-      <c r="C332" s="86"/>
-      <c r="D332" s="86"/>
-      <c r="E332" s="86"/>
-      <c r="F332" s="86"/>
-      <c r="G332" s="86"/>
+      <c r="A332" s="85"/>
+      <c r="B332" s="85"/>
+      <c r="C332" s="85"/>
+      <c r="D332" s="85"/>
+      <c r="E332" s="85"/>
+      <c r="F332" s="85"/>
+      <c r="G332" s="85"/>
       <c r="H332" s="67"/>
       <c r="I332" s="67"/>
       <c r="J332" s="71"/>
       <c r="K332" s="71"/>
-      <c r="L332" s="86"/>
-      <c r="M332" s="86"/>
-      <c r="N332" s="86"/>
+      <c r="L332" s="85"/>
+      <c r="M332" s="85"/>
+      <c r="N332" s="85"/>
       <c r="O332" s="67"/>
       <c r="P332" s="67"/>
       <c r="Q332" s="67"/>
@@ -12519,20 +13001,20 @@
       <c r="T332" s="59"/>
     </row>
     <row r="333" spans="1:20" ht="18" customHeight="1">
-      <c r="A333" s="86"/>
-      <c r="B333" s="86"/>
-      <c r="C333" s="86"/>
-      <c r="D333" s="86"/>
-      <c r="E333" s="86"/>
-      <c r="F333" s="86"/>
-      <c r="G333" s="86"/>
+      <c r="A333" s="85"/>
+      <c r="B333" s="85"/>
+      <c r="C333" s="85"/>
+      <c r="D333" s="85"/>
+      <c r="E333" s="85"/>
+      <c r="F333" s="85"/>
+      <c r="G333" s="85"/>
       <c r="H333" s="67"/>
       <c r="I333" s="67"/>
       <c r="J333" s="71"/>
       <c r="K333" s="71"/>
-      <c r="L333" s="86"/>
-      <c r="M333" s="86"/>
-      <c r="N333" s="86"/>
+      <c r="L333" s="85"/>
+      <c r="M333" s="85"/>
+      <c r="N333" s="85"/>
       <c r="O333" s="67"/>
       <c r="P333" s="67"/>
       <c r="Q333" s="67"/>
@@ -12541,20 +13023,20 @@
       <c r="T333" s="59"/>
     </row>
     <row r="334" spans="1:20" ht="18" customHeight="1">
-      <c r="A334" s="86"/>
-      <c r="B334" s="86"/>
-      <c r="C334" s="86"/>
-      <c r="D334" s="86"/>
-      <c r="E334" s="86"/>
-      <c r="F334" s="86"/>
-      <c r="G334" s="86"/>
+      <c r="A334" s="85"/>
+      <c r="B334" s="85"/>
+      <c r="C334" s="85"/>
+      <c r="D334" s="85"/>
+      <c r="E334" s="85"/>
+      <c r="F334" s="85"/>
+      <c r="G334" s="85"/>
       <c r="H334" s="67"/>
       <c r="I334" s="67"/>
       <c r="J334" s="71"/>
       <c r="K334" s="71"/>
-      <c r="L334" s="86"/>
-      <c r="M334" s="86"/>
-      <c r="N334" s="86"/>
+      <c r="L334" s="85"/>
+      <c r="M334" s="85"/>
+      <c r="N334" s="85"/>
       <c r="O334" s="67"/>
       <c r="P334" s="67"/>
       <c r="Q334" s="67"/>
@@ -12564,19 +13046,19 @@
     </row>
     <row r="335" spans="1:20" ht="18" customHeight="1">
       <c r="A335" s="67"/>
-      <c r="B335" s="86"/>
-      <c r="C335" s="86"/>
-      <c r="D335" s="86"/>
+      <c r="B335" s="85"/>
+      <c r="C335" s="85"/>
+      <c r="D335" s="85"/>
       <c r="E335" s="67"/>
-      <c r="F335" s="86"/>
-      <c r="G335" s="86"/>
+      <c r="F335" s="85"/>
+      <c r="G335" s="85"/>
       <c r="H335" s="67"/>
       <c r="I335" s="67"/>
       <c r="J335" s="71"/>
       <c r="K335" s="71"/>
-      <c r="L335" s="86"/>
-      <c r="M335" s="86"/>
-      <c r="N335" s="86"/>
+      <c r="L335" s="85"/>
+      <c r="M335" s="85"/>
+      <c r="N335" s="85"/>
       <c r="O335" s="67"/>
       <c r="P335" s="67"/>
       <c r="Q335" s="67"/>
@@ -12586,19 +13068,19 @@
     </row>
     <row r="336" spans="1:20" ht="18" customHeight="1">
       <c r="A336" s="67"/>
-      <c r="B336" s="86"/>
-      <c r="C336" s="86"/>
-      <c r="D336" s="86"/>
+      <c r="B336" s="85"/>
+      <c r="C336" s="85"/>
+      <c r="D336" s="85"/>
       <c r="E336" s="67"/>
-      <c r="F336" s="86"/>
-      <c r="G336" s="86"/>
+      <c r="F336" s="85"/>
+      <c r="G336" s="85"/>
       <c r="H336" s="67"/>
       <c r="I336" s="67"/>
       <c r="J336" s="71"/>
       <c r="K336" s="71"/>
-      <c r="L336" s="86"/>
-      <c r="M336" s="86"/>
-      <c r="N336" s="86"/>
+      <c r="L336" s="85"/>
+      <c r="M336" s="85"/>
+      <c r="N336" s="85"/>
       <c r="O336" s="67"/>
       <c r="P336" s="67"/>
       <c r="Q336" s="67"/>
@@ -12608,19 +13090,19 @@
     </row>
     <row r="337" spans="1:20" ht="18" customHeight="1">
       <c r="A337" s="67"/>
-      <c r="B337" s="86"/>
-      <c r="C337" s="86"/>
-      <c r="D337" s="86"/>
+      <c r="B337" s="85"/>
+      <c r="C337" s="85"/>
+      <c r="D337" s="85"/>
       <c r="E337" s="67"/>
-      <c r="F337" s="86"/>
-      <c r="G337" s="86"/>
+      <c r="F337" s="85"/>
+      <c r="G337" s="85"/>
       <c r="H337" s="67"/>
       <c r="I337" s="67"/>
       <c r="J337" s="71"/>
       <c r="K337" s="71"/>
-      <c r="L337" s="86"/>
-      <c r="M337" s="86"/>
-      <c r="N337" s="86"/>
+      <c r="L337" s="85"/>
+      <c r="M337" s="85"/>
+      <c r="N337" s="85"/>
       <c r="O337" s="67"/>
       <c r="P337" s="67"/>
       <c r="Q337" s="67"/>
@@ -12630,19 +13112,19 @@
     </row>
     <row r="338" spans="1:20" ht="18" customHeight="1">
       <c r="A338" s="67"/>
-      <c r="B338" s="86"/>
-      <c r="C338" s="86"/>
-      <c r="D338" s="86"/>
+      <c r="B338" s="85"/>
+      <c r="C338" s="85"/>
+      <c r="D338" s="85"/>
       <c r="E338" s="67"/>
-      <c r="F338" s="86"/>
-      <c r="G338" s="86"/>
+      <c r="F338" s="85"/>
+      <c r="G338" s="85"/>
       <c r="H338" s="67"/>
       <c r="I338" s="67"/>
       <c r="J338" s="71"/>
       <c r="K338" s="71"/>
-      <c r="L338" s="86"/>
-      <c r="M338" s="86"/>
-      <c r="N338" s="86"/>
+      <c r="L338" s="85"/>
+      <c r="M338" s="85"/>
+      <c r="N338" s="85"/>
       <c r="O338" s="67"/>
       <c r="P338" s="67"/>
       <c r="Q338" s="67"/>
@@ -12652,19 +13134,19 @@
     </row>
     <row r="339" spans="1:20" ht="18" customHeight="1">
       <c r="A339" s="67"/>
-      <c r="B339" s="86"/>
-      <c r="C339" s="86"/>
-      <c r="D339" s="86"/>
+      <c r="B339" s="85"/>
+      <c r="C339" s="85"/>
+      <c r="D339" s="85"/>
       <c r="E339" s="67"/>
-      <c r="F339" s="86"/>
-      <c r="G339" s="86"/>
+      <c r="F339" s="85"/>
+      <c r="G339" s="85"/>
       <c r="H339" s="67"/>
       <c r="I339" s="67"/>
       <c r="J339" s="71"/>
       <c r="K339" s="71"/>
-      <c r="L339" s="86"/>
-      <c r="M339" s="86"/>
-      <c r="N339" s="86"/>
+      <c r="L339" s="85"/>
+      <c r="M339" s="85"/>
+      <c r="N339" s="85"/>
       <c r="O339" s="67"/>
       <c r="P339" s="67"/>
       <c r="Q339" s="67"/>
@@ -12674,19 +13156,19 @@
     </row>
     <row r="340" spans="1:20" ht="18" customHeight="1">
       <c r="A340" s="67"/>
-      <c r="B340" s="86"/>
-      <c r="C340" s="86"/>
-      <c r="D340" s="86"/>
+      <c r="B340" s="85"/>
+      <c r="C340" s="85"/>
+      <c r="D340" s="85"/>
       <c r="E340" s="67"/>
-      <c r="F340" s="86"/>
-      <c r="G340" s="86"/>
+      <c r="F340" s="85"/>
+      <c r="G340" s="85"/>
       <c r="H340" s="67"/>
       <c r="I340" s="67"/>
       <c r="J340" s="71"/>
       <c r="K340" s="71"/>
-      <c r="L340" s="86"/>
-      <c r="M340" s="86"/>
-      <c r="N340" s="86"/>
+      <c r="L340" s="85"/>
+      <c r="M340" s="85"/>
+      <c r="N340" s="85"/>
       <c r="O340" s="67"/>
       <c r="P340" s="67"/>
       <c r="Q340" s="67"/>
@@ -12696,19 +13178,19 @@
     </row>
     <row r="341" spans="1:20" ht="18" customHeight="1">
       <c r="A341" s="67"/>
-      <c r="B341" s="86"/>
-      <c r="C341" s="86"/>
-      <c r="D341" s="86"/>
+      <c r="B341" s="85"/>
+      <c r="C341" s="85"/>
+      <c r="D341" s="85"/>
       <c r="E341" s="67"/>
-      <c r="F341" s="86"/>
-      <c r="G341" s="86"/>
+      <c r="F341" s="85"/>
+      <c r="G341" s="85"/>
       <c r="H341" s="67"/>
       <c r="I341" s="67"/>
       <c r="J341" s="71"/>
       <c r="K341" s="71"/>
-      <c r="L341" s="86"/>
-      <c r="M341" s="86"/>
-      <c r="N341" s="86"/>
+      <c r="L341" s="85"/>
+      <c r="M341" s="85"/>
+      <c r="N341" s="85"/>
       <c r="O341" s="67"/>
       <c r="P341" s="67"/>
       <c r="Q341" s="67"/>
@@ -12718,19 +13200,19 @@
     </row>
     <row r="342" spans="1:20" ht="18" customHeight="1">
       <c r="A342" s="67"/>
-      <c r="B342" s="86"/>
-      <c r="C342" s="86"/>
-      <c r="D342" s="86"/>
+      <c r="B342" s="85"/>
+      <c r="C342" s="85"/>
+      <c r="D342" s="85"/>
       <c r="E342" s="67"/>
-      <c r="F342" s="86"/>
-      <c r="G342" s="86"/>
+      <c r="F342" s="85"/>
+      <c r="G342" s="85"/>
       <c r="H342" s="67"/>
       <c r="I342" s="67"/>
       <c r="J342" s="71"/>
       <c r="K342" s="71"/>
-      <c r="L342" s="86"/>
-      <c r="M342" s="86"/>
-      <c r="N342" s="86"/>
+      <c r="L342" s="85"/>
+      <c r="M342" s="85"/>
+      <c r="N342" s="85"/>
       <c r="O342" s="67"/>
       <c r="P342" s="67"/>
       <c r="Q342" s="67"/>
@@ -12740,19 +13222,19 @@
     </row>
     <row r="343" spans="1:20" ht="18" customHeight="1">
       <c r="A343" s="67"/>
-      <c r="B343" s="86"/>
-      <c r="C343" s="86"/>
-      <c r="D343" s="86"/>
+      <c r="B343" s="85"/>
+      <c r="C343" s="85"/>
+      <c r="D343" s="85"/>
       <c r="E343" s="67"/>
-      <c r="F343" s="86"/>
-      <c r="G343" s="86"/>
+      <c r="F343" s="85"/>
+      <c r="G343" s="85"/>
       <c r="H343" s="67"/>
       <c r="I343" s="67"/>
       <c r="J343" s="71"/>
       <c r="K343" s="71"/>
-      <c r="L343" s="86"/>
-      <c r="M343" s="86"/>
-      <c r="N343" s="86"/>
+      <c r="L343" s="85"/>
+      <c r="M343" s="85"/>
+      <c r="N343" s="85"/>
       <c r="O343" s="67"/>
       <c r="P343" s="67"/>
       <c r="Q343" s="67"/>
@@ -12762,19 +13244,19 @@
     </row>
     <row r="344" spans="1:20" ht="18" customHeight="1">
       <c r="A344" s="67"/>
-      <c r="B344" s="86"/>
-      <c r="C344" s="86"/>
-      <c r="D344" s="86"/>
+      <c r="B344" s="85"/>
+      <c r="C344" s="85"/>
+      <c r="D344" s="85"/>
       <c r="E344" s="67"/>
-      <c r="F344" s="86"/>
-      <c r="G344" s="86"/>
+      <c r="F344" s="85"/>
+      <c r="G344" s="85"/>
       <c r="H344" s="67"/>
       <c r="I344" s="67"/>
       <c r="J344" s="71"/>
       <c r="K344" s="71"/>
-      <c r="L344" s="86"/>
-      <c r="M344" s="86"/>
-      <c r="N344" s="86"/>
+      <c r="L344" s="85"/>
+      <c r="M344" s="85"/>
+      <c r="N344" s="85"/>
       <c r="O344" s="67"/>
       <c r="P344" s="67"/>
       <c r="Q344" s="67"/>
@@ -12784,19 +13266,19 @@
     </row>
     <row r="345" spans="1:20" ht="18" customHeight="1">
       <c r="A345" s="67"/>
-      <c r="B345" s="86"/>
-      <c r="C345" s="86"/>
-      <c r="D345" s="86"/>
-      <c r="E345" s="86"/>
-      <c r="F345" s="86"/>
-      <c r="G345" s="86"/>
+      <c r="B345" s="85"/>
+      <c r="C345" s="85"/>
+      <c r="D345" s="85"/>
+      <c r="E345" s="85"/>
+      <c r="F345" s="85"/>
+      <c r="G345" s="85"/>
       <c r="H345" s="67"/>
       <c r="I345" s="67"/>
       <c r="J345" s="71"/>
       <c r="K345" s="71"/>
-      <c r="L345" s="86"/>
-      <c r="M345" s="86"/>
-      <c r="N345" s="86"/>
+      <c r="L345" s="85"/>
+      <c r="M345" s="85"/>
+      <c r="N345" s="85"/>
       <c r="O345" s="67"/>
       <c r="P345" s="67"/>
       <c r="Q345" s="67"/>
@@ -12806,19 +13288,19 @@
     </row>
     <row r="346" spans="1:20" ht="18" customHeight="1">
       <c r="A346" s="67"/>
-      <c r="B346" s="86"/>
-      <c r="C346" s="86"/>
-      <c r="D346" s="86"/>
-      <c r="E346" s="86"/>
-      <c r="F346" s="86"/>
-      <c r="G346" s="86"/>
+      <c r="B346" s="85"/>
+      <c r="C346" s="85"/>
+      <c r="D346" s="85"/>
+      <c r="E346" s="85"/>
+      <c r="F346" s="85"/>
+      <c r="G346" s="85"/>
       <c r="H346" s="67"/>
       <c r="I346" s="67"/>
       <c r="J346" s="71"/>
       <c r="K346" s="71"/>
-      <c r="L346" s="86"/>
-      <c r="M346" s="86"/>
-      <c r="N346" s="86"/>
+      <c r="L346" s="85"/>
+      <c r="M346" s="85"/>
+      <c r="N346" s="85"/>
       <c r="O346" s="67"/>
       <c r="P346" s="67"/>
       <c r="Q346" s="67"/>
@@ -12828,19 +13310,19 @@
     </row>
     <row r="347" spans="1:20" ht="18" customHeight="1">
       <c r="A347" s="67"/>
-      <c r="B347" s="86"/>
-      <c r="C347" s="86"/>
-      <c r="D347" s="86"/>
-      <c r="E347" s="86"/>
-      <c r="F347" s="86"/>
-      <c r="G347" s="86"/>
+      <c r="B347" s="85"/>
+      <c r="C347" s="85"/>
+      <c r="D347" s="85"/>
+      <c r="E347" s="85"/>
+      <c r="F347" s="85"/>
+      <c r="G347" s="85"/>
       <c r="H347" s="67"/>
       <c r="I347" s="67"/>
       <c r="J347" s="71"/>
       <c r="K347" s="71"/>
-      <c r="L347" s="86"/>
-      <c r="M347" s="86"/>
-      <c r="N347" s="86"/>
+      <c r="L347" s="85"/>
+      <c r="M347" s="85"/>
+      <c r="N347" s="85"/>
       <c r="O347" s="67"/>
       <c r="P347" s="67"/>
       <c r="Q347" s="67"/>
@@ -12850,19 +13332,19 @@
     </row>
     <row r="348" spans="1:20" ht="18" customHeight="1">
       <c r="A348" s="67"/>
-      <c r="B348" s="86"/>
-      <c r="C348" s="86"/>
-      <c r="D348" s="86"/>
-      <c r="E348" s="86"/>
-      <c r="F348" s="86"/>
-      <c r="G348" s="86"/>
+      <c r="B348" s="85"/>
+      <c r="C348" s="85"/>
+      <c r="D348" s="85"/>
+      <c r="E348" s="85"/>
+      <c r="F348" s="85"/>
+      <c r="G348" s="85"/>
       <c r="H348" s="67"/>
       <c r="I348" s="67"/>
       <c r="J348" s="71"/>
       <c r="K348" s="71"/>
-      <c r="L348" s="86"/>
-      <c r="M348" s="86"/>
-      <c r="N348" s="86"/>
+      <c r="L348" s="85"/>
+      <c r="M348" s="85"/>
+      <c r="N348" s="85"/>
       <c r="O348" s="67"/>
       <c r="P348" s="67"/>
       <c r="Q348" s="67"/>
@@ -12872,19 +13354,19 @@
     </row>
     <row r="349" spans="1:20" ht="18" customHeight="1">
       <c r="A349" s="67"/>
-      <c r="B349" s="86"/>
-      <c r="C349" s="86"/>
-      <c r="D349" s="86"/>
-      <c r="E349" s="86"/>
-      <c r="F349" s="86"/>
-      <c r="G349" s="86"/>
+      <c r="B349" s="85"/>
+      <c r="C349" s="85"/>
+      <c r="D349" s="85"/>
+      <c r="E349" s="85"/>
+      <c r="F349" s="85"/>
+      <c r="G349" s="85"/>
       <c r="H349" s="67"/>
       <c r="I349" s="67"/>
       <c r="J349" s="71"/>
       <c r="K349" s="67"/>
-      <c r="L349" s="86"/>
-      <c r="M349" s="86"/>
-      <c r="N349" s="86"/>
+      <c r="L349" s="85"/>
+      <c r="M349" s="85"/>
+      <c r="N349" s="85"/>
       <c r="O349" s="67"/>
       <c r="P349" s="67"/>
       <c r="Q349" s="67"/>
@@ -12894,19 +13376,19 @@
     </row>
     <row r="350" spans="1:20" ht="18" customHeight="1">
       <c r="A350" s="67"/>
-      <c r="B350" s="86"/>
-      <c r="C350" s="86"/>
-      <c r="D350" s="86"/>
-      <c r="E350" s="86"/>
-      <c r="F350" s="86"/>
-      <c r="G350" s="86"/>
+      <c r="B350" s="85"/>
+      <c r="C350" s="85"/>
+      <c r="D350" s="85"/>
+      <c r="E350" s="85"/>
+      <c r="F350" s="85"/>
+      <c r="G350" s="85"/>
       <c r="H350" s="67"/>
       <c r="I350" s="67"/>
       <c r="J350" s="71"/>
       <c r="K350" s="67"/>
-      <c r="L350" s="86"/>
-      <c r="M350" s="86"/>
-      <c r="N350" s="86"/>
+      <c r="L350" s="85"/>
+      <c r="M350" s="85"/>
+      <c r="N350" s="85"/>
       <c r="O350" s="67"/>
       <c r="P350" s="67"/>
       <c r="Q350" s="67"/>
@@ -12916,19 +13398,19 @@
     </row>
     <row r="351" spans="1:20" ht="18" customHeight="1">
       <c r="A351" s="67"/>
-      <c r="B351" s="86"/>
-      <c r="C351" s="86"/>
-      <c r="D351" s="86"/>
-      <c r="E351" s="86"/>
-      <c r="F351" s="86"/>
-      <c r="G351" s="86"/>
+      <c r="B351" s="85"/>
+      <c r="C351" s="85"/>
+      <c r="D351" s="85"/>
+      <c r="E351" s="85"/>
+      <c r="F351" s="85"/>
+      <c r="G351" s="85"/>
       <c r="H351" s="67"/>
       <c r="I351" s="67"/>
       <c r="J351" s="71"/>
       <c r="K351" s="67"/>
-      <c r="L351" s="86"/>
-      <c r="M351" s="86"/>
-      <c r="N351" s="86"/>
+      <c r="L351" s="85"/>
+      <c r="M351" s="85"/>
+      <c r="N351" s="85"/>
       <c r="O351" s="67"/>
       <c r="P351" s="67"/>
       <c r="Q351" s="67"/>
@@ -12938,19 +13420,19 @@
     </row>
     <row r="352" spans="1:20" ht="18" customHeight="1">
       <c r="A352" s="67"/>
-      <c r="B352" s="86"/>
-      <c r="C352" s="86"/>
-      <c r="D352" s="86"/>
+      <c r="B352" s="85"/>
+      <c r="C352" s="85"/>
+      <c r="D352" s="85"/>
       <c r="E352" s="67"/>
-      <c r="F352" s="86"/>
-      <c r="G352" s="86"/>
+      <c r="F352" s="85"/>
+      <c r="G352" s="85"/>
       <c r="H352" s="67"/>
       <c r="I352" s="67"/>
       <c r="J352" s="67"/>
-      <c r="K352" s="86"/>
-      <c r="L352" s="86"/>
-      <c r="M352" s="86"/>
-      <c r="N352" s="86"/>
+      <c r="K352" s="85"/>
+      <c r="L352" s="85"/>
+      <c r="M352" s="85"/>
+      <c r="N352" s="85"/>
       <c r="O352" s="67"/>
       <c r="P352" s="67"/>
       <c r="Q352" s="67"/>
@@ -12960,19 +13442,19 @@
     </row>
     <row r="353" spans="1:20" ht="18" customHeight="1">
       <c r="A353" s="67"/>
-      <c r="B353" s="86"/>
-      <c r="C353" s="86"/>
-      <c r="D353" s="86"/>
+      <c r="B353" s="85"/>
+      <c r="C353" s="85"/>
+      <c r="D353" s="85"/>
       <c r="E353" s="67"/>
-      <c r="F353" s="86"/>
-      <c r="G353" s="86"/>
+      <c r="F353" s="85"/>
+      <c r="G353" s="85"/>
       <c r="H353" s="67"/>
       <c r="I353" s="67"/>
       <c r="J353" s="67"/>
       <c r="K353" s="67"/>
-      <c r="L353" s="86"/>
-      <c r="M353" s="86"/>
-      <c r="N353" s="86"/>
+      <c r="L353" s="85"/>
+      <c r="M353" s="85"/>
+      <c r="N353" s="85"/>
       <c r="O353" s="67"/>
       <c r="P353" s="67"/>
       <c r="Q353" s="67"/>
@@ -12982,19 +13464,19 @@
     </row>
     <row r="354" spans="1:20" ht="18" customHeight="1">
       <c r="A354" s="67"/>
-      <c r="B354" s="86"/>
-      <c r="C354" s="86"/>
-      <c r="D354" s="86"/>
+      <c r="B354" s="85"/>
+      <c r="C354" s="85"/>
+      <c r="D354" s="85"/>
       <c r="E354" s="67"/>
-      <c r="F354" s="86"/>
-      <c r="G354" s="86"/>
+      <c r="F354" s="85"/>
+      <c r="G354" s="85"/>
       <c r="H354" s="67"/>
       <c r="I354" s="67"/>
       <c r="J354" s="67"/>
       <c r="K354" s="67"/>
-      <c r="L354" s="86"/>
-      <c r="M354" s="86"/>
-      <c r="N354" s="86"/>
+      <c r="L354" s="85"/>
+      <c r="M354" s="85"/>
+      <c r="N354" s="85"/>
       <c r="O354" s="67"/>
       <c r="P354" s="67"/>
       <c r="Q354" s="67"/>
@@ -13004,19 +13486,19 @@
     </row>
     <row r="355" spans="1:20" ht="18" customHeight="1">
       <c r="A355" s="67"/>
-      <c r="B355" s="86"/>
-      <c r="C355" s="86"/>
-      <c r="D355" s="86"/>
-      <c r="E355" s="86"/>
-      <c r="F355" s="86"/>
-      <c r="G355" s="86"/>
+      <c r="B355" s="85"/>
+      <c r="C355" s="85"/>
+      <c r="D355" s="85"/>
+      <c r="E355" s="85"/>
+      <c r="F355" s="85"/>
+      <c r="G355" s="85"/>
       <c r="H355" s="67"/>
       <c r="I355" s="67"/>
       <c r="J355" s="67"/>
       <c r="K355" s="67"/>
-      <c r="L355" s="86"/>
-      <c r="M355" s="86"/>
-      <c r="N355" s="86"/>
+      <c r="L355" s="85"/>
+      <c r="M355" s="85"/>
+      <c r="N355" s="85"/>
       <c r="O355" s="67"/>
       <c r="P355" s="67"/>
       <c r="Q355" s="67"/>
@@ -13026,19 +13508,19 @@
     </row>
     <row r="356" spans="1:20" ht="18" customHeight="1">
       <c r="A356" s="67"/>
-      <c r="B356" s="86"/>
-      <c r="C356" s="86"/>
-      <c r="D356" s="86"/>
-      <c r="E356" s="86"/>
-      <c r="F356" s="86"/>
-      <c r="G356" s="86"/>
+      <c r="B356" s="85"/>
+      <c r="C356" s="85"/>
+      <c r="D356" s="85"/>
+      <c r="E356" s="85"/>
+      <c r="F356" s="85"/>
+      <c r="G356" s="85"/>
       <c r="H356" s="67"/>
       <c r="I356" s="67"/>
       <c r="J356" s="67"/>
       <c r="K356" s="67"/>
-      <c r="L356" s="86"/>
-      <c r="M356" s="86"/>
-      <c r="N356" s="86"/>
+      <c r="L356" s="85"/>
+      <c r="M356" s="85"/>
+      <c r="N356" s="85"/>
       <c r="O356" s="67"/>
       <c r="P356" s="67"/>
       <c r="Q356" s="67"/>
@@ -13048,19 +13530,19 @@
     </row>
     <row r="357" spans="1:20" ht="18" customHeight="1">
       <c r="A357" s="67"/>
-      <c r="B357" s="86"/>
-      <c r="C357" s="86"/>
-      <c r="D357" s="86"/>
-      <c r="E357" s="86"/>
-      <c r="F357" s="86"/>
-      <c r="G357" s="86"/>
+      <c r="B357" s="85"/>
+      <c r="C357" s="85"/>
+      <c r="D357" s="85"/>
+      <c r="E357" s="85"/>
+      <c r="F357" s="85"/>
+      <c r="G357" s="85"/>
       <c r="H357" s="67"/>
       <c r="I357" s="67"/>
       <c r="J357" s="67"/>
       <c r="K357" s="67"/>
-      <c r="L357" s="86"/>
-      <c r="M357" s="86"/>
-      <c r="N357" s="86"/>
+      <c r="L357" s="85"/>
+      <c r="M357" s="85"/>
+      <c r="N357" s="85"/>
       <c r="O357" s="67"/>
       <c r="P357" s="67"/>
       <c r="Q357" s="67"/>
@@ -13070,19 +13552,19 @@
     </row>
     <row r="358" spans="1:20" ht="18" customHeight="1">
       <c r="A358" s="67"/>
-      <c r="B358" s="86"/>
-      <c r="C358" s="86"/>
-      <c r="D358" s="86"/>
+      <c r="B358" s="85"/>
+      <c r="C358" s="85"/>
+      <c r="D358" s="85"/>
       <c r="E358" s="67"/>
-      <c r="F358" s="86"/>
-      <c r="G358" s="86"/>
+      <c r="F358" s="85"/>
+      <c r="G358" s="85"/>
       <c r="H358" s="67"/>
       <c r="I358" s="67"/>
       <c r="J358" s="67"/>
       <c r="K358" s="67"/>
-      <c r="L358" s="86"/>
-      <c r="M358" s="86"/>
-      <c r="N358" s="86"/>
+      <c r="L358" s="85"/>
+      <c r="M358" s="85"/>
+      <c r="N358" s="85"/>
       <c r="O358" s="67"/>
       <c r="P358" s="67"/>
       <c r="Q358" s="67"/>
@@ -13092,19 +13574,19 @@
     </row>
     <row r="359" spans="1:20" ht="18" customHeight="1">
       <c r="A359" s="67"/>
-      <c r="B359" s="86"/>
-      <c r="C359" s="86"/>
-      <c r="D359" s="86"/>
+      <c r="B359" s="85"/>
+      <c r="C359" s="85"/>
+      <c r="D359" s="85"/>
       <c r="E359" s="67"/>
-      <c r="F359" s="86"/>
-      <c r="G359" s="86"/>
+      <c r="F359" s="85"/>
+      <c r="G359" s="85"/>
       <c r="H359" s="67"/>
       <c r="I359" s="67"/>
       <c r="J359" s="67"/>
       <c r="K359" s="67"/>
-      <c r="L359" s="86"/>
-      <c r="M359" s="86"/>
-      <c r="N359" s="86"/>
+      <c r="L359" s="85"/>
+      <c r="M359" s="85"/>
+      <c r="N359" s="85"/>
       <c r="O359" s="67"/>
       <c r="P359" s="67"/>
       <c r="Q359" s="67"/>
@@ -13114,19 +13596,19 @@
     </row>
     <row r="360" spans="1:20" ht="18" customHeight="1">
       <c r="A360" s="67"/>
-      <c r="B360" s="86"/>
-      <c r="C360" s="86"/>
-      <c r="D360" s="86"/>
+      <c r="B360" s="85"/>
+      <c r="C360" s="85"/>
+      <c r="D360" s="85"/>
       <c r="E360" s="67"/>
-      <c r="F360" s="86"/>
-      <c r="G360" s="86"/>
+      <c r="F360" s="85"/>
+      <c r="G360" s="85"/>
       <c r="H360" s="67"/>
       <c r="I360" s="67"/>
       <c r="J360" s="67"/>
       <c r="K360" s="67"/>
-      <c r="L360" s="86"/>
-      <c r="M360" s="86"/>
-      <c r="N360" s="86"/>
+      <c r="L360" s="85"/>
+      <c r="M360" s="85"/>
+      <c r="N360" s="85"/>
       <c r="O360" s="67"/>
       <c r="P360" s="67"/>
       <c r="Q360" s="67"/>
@@ -13136,19 +13618,19 @@
     </row>
     <row r="361" spans="1:20" ht="18" customHeight="1">
       <c r="A361" s="67"/>
-      <c r="B361" s="86"/>
-      <c r="C361" s="86"/>
-      <c r="D361" s="86"/>
+      <c r="B361" s="85"/>
+      <c r="C361" s="85"/>
+      <c r="D361" s="85"/>
       <c r="E361" s="67"/>
-      <c r="F361" s="86"/>
-      <c r="G361" s="86"/>
+      <c r="F361" s="85"/>
+      <c r="G361" s="85"/>
       <c r="H361" s="67"/>
       <c r="I361" s="67"/>
       <c r="J361" s="67"/>
       <c r="K361" s="71"/>
-      <c r="L361" s="86"/>
-      <c r="M361" s="86"/>
-      <c r="N361" s="86"/>
+      <c r="L361" s="85"/>
+      <c r="M361" s="85"/>
+      <c r="N361" s="85"/>
       <c r="O361" s="67"/>
       <c r="P361" s="67"/>
       <c r="Q361" s="67"/>
@@ -13158,19 +13640,19 @@
     </row>
     <row r="362" spans="1:20" ht="18" customHeight="1">
       <c r="A362" s="67"/>
-      <c r="B362" s="86"/>
-      <c r="C362" s="86"/>
-      <c r="D362" s="86"/>
+      <c r="B362" s="85"/>
+      <c r="C362" s="85"/>
+      <c r="D362" s="85"/>
       <c r="E362" s="67"/>
-      <c r="F362" s="86"/>
-      <c r="G362" s="86"/>
+      <c r="F362" s="85"/>
+      <c r="G362" s="85"/>
       <c r="H362" s="67"/>
       <c r="I362" s="67"/>
       <c r="J362" s="67"/>
       <c r="K362" s="71"/>
-      <c r="L362" s="86"/>
-      <c r="M362" s="86"/>
-      <c r="N362" s="86"/>
+      <c r="L362" s="85"/>
+      <c r="M362" s="85"/>
+      <c r="N362" s="85"/>
       <c r="O362" s="67"/>
       <c r="P362" s="67"/>
       <c r="Q362" s="67"/>
@@ -13180,9 +13662,9 @@
     </row>
     <row r="363" spans="1:20" ht="18" customHeight="1">
       <c r="A363" s="67"/>
-      <c r="B363" s="86"/>
-      <c r="C363" s="86"/>
-      <c r="D363" s="86"/>
+      <c r="B363" s="85"/>
+      <c r="C363" s="85"/>
+      <c r="D363" s="85"/>
       <c r="E363" s="67"/>
       <c r="F363" s="67"/>
       <c r="G363" s="67"/>
@@ -13192,7 +13674,7 @@
       <c r="K363" s="71"/>
       <c r="L363" s="67"/>
       <c r="M363" s="67"/>
-      <c r="N363" s="86"/>
+      <c r="N363" s="85"/>
       <c r="O363" s="67"/>
       <c r="P363" s="67"/>
       <c r="Q363" s="67"/>
@@ -13202,9 +13684,9 @@
     </row>
     <row r="364" spans="1:20" ht="18" customHeight="1">
       <c r="A364" s="67"/>
-      <c r="B364" s="86"/>
-      <c r="C364" s="86"/>
-      <c r="D364" s="86"/>
+      <c r="B364" s="85"/>
+      <c r="C364" s="85"/>
+      <c r="D364" s="85"/>
       <c r="E364" s="67"/>
       <c r="F364" s="67"/>
       <c r="G364" s="67"/>
@@ -13214,7 +13696,7 @@
       <c r="K364" s="67"/>
       <c r="L364" s="67"/>
       <c r="M364" s="67"/>
-      <c r="N364" s="86"/>
+      <c r="N364" s="85"/>
       <c r="O364" s="67"/>
       <c r="P364" s="67"/>
       <c r="Q364" s="67"/>
@@ -13224,9 +13706,9 @@
     </row>
     <row r="365" spans="1:20" ht="18" customHeight="1">
       <c r="A365" s="67"/>
-      <c r="B365" s="86"/>
-      <c r="C365" s="86"/>
-      <c r="D365" s="86"/>
+      <c r="B365" s="85"/>
+      <c r="C365" s="85"/>
+      <c r="D365" s="85"/>
       <c r="E365" s="67"/>
       <c r="F365" s="67"/>
       <c r="G365" s="67"/>
@@ -13236,7 +13718,7 @@
       <c r="K365" s="67"/>
       <c r="L365" s="67"/>
       <c r="M365" s="67"/>
-      <c r="N365" s="86"/>
+      <c r="N365" s="85"/>
       <c r="O365" s="67"/>
       <c r="P365" s="67"/>
       <c r="Q365" s="67"/>
@@ -13246,10 +13728,10 @@
     </row>
     <row r="366" spans="1:20" ht="18" customHeight="1">
       <c r="A366" s="67"/>
-      <c r="B366" s="86"/>
-      <c r="C366" s="86"/>
-      <c r="D366" s="86"/>
-      <c r="E366" s="86"/>
+      <c r="B366" s="85"/>
+      <c r="C366" s="85"/>
+      <c r="D366" s="85"/>
+      <c r="E366" s="85"/>
       <c r="F366" s="67"/>
       <c r="G366" s="67"/>
       <c r="H366" s="67"/>
@@ -13258,7 +13740,7 @@
       <c r="K366" s="67"/>
       <c r="L366" s="67"/>
       <c r="M366" s="67"/>
-      <c r="N366" s="86"/>
+      <c r="N366" s="85"/>
       <c r="O366" s="67"/>
       <c r="P366" s="67"/>
       <c r="Q366" s="67"/>
@@ -13268,10 +13750,10 @@
     </row>
     <row r="367" spans="1:20" ht="18" customHeight="1">
       <c r="A367" s="67"/>
-      <c r="B367" s="86"/>
-      <c r="C367" s="86"/>
-      <c r="D367" s="86"/>
-      <c r="E367" s="86"/>
+      <c r="B367" s="85"/>
+      <c r="C367" s="85"/>
+      <c r="D367" s="85"/>
+      <c r="E367" s="85"/>
       <c r="F367" s="67"/>
       <c r="G367" s="67"/>
       <c r="H367" s="67"/>
@@ -13280,7 +13762,7 @@
       <c r="K367" s="67"/>
       <c r="L367" s="67"/>
       <c r="M367" s="67"/>
-      <c r="N367" s="86"/>
+      <c r="N367" s="85"/>
       <c r="O367" s="67"/>
       <c r="P367" s="67"/>
       <c r="Q367" s="67"/>
@@ -13290,10 +13772,10 @@
     </row>
     <row r="368" spans="1:20" ht="18" customHeight="1">
       <c r="A368" s="67"/>
-      <c r="B368" s="86"/>
-      <c r="C368" s="86"/>
-      <c r="D368" s="86"/>
-      <c r="E368" s="86"/>
+      <c r="B368" s="85"/>
+      <c r="C368" s="85"/>
+      <c r="D368" s="85"/>
+      <c r="E368" s="85"/>
       <c r="F368" s="67"/>
       <c r="G368" s="67"/>
       <c r="H368" s="67"/>
@@ -13302,7 +13784,7 @@
       <c r="K368" s="67"/>
       <c r="L368" s="67"/>
       <c r="M368" s="67"/>
-      <c r="N368" s="86"/>
+      <c r="N368" s="85"/>
       <c r="O368" s="67"/>
       <c r="P368" s="67"/>
       <c r="Q368" s="67"/>
@@ -13312,19 +13794,19 @@
     </row>
     <row r="369" spans="1:20" ht="18" customHeight="1">
       <c r="A369" s="67"/>
-      <c r="B369" s="86"/>
-      <c r="C369" s="86"/>
-      <c r="D369" s="86"/>
-      <c r="E369" s="86"/>
-      <c r="F369" s="86"/>
-      <c r="G369" s="86"/>
+      <c r="B369" s="85"/>
+      <c r="C369" s="85"/>
+      <c r="D369" s="85"/>
+      <c r="E369" s="85"/>
+      <c r="F369" s="85"/>
+      <c r="G369" s="85"/>
       <c r="H369" s="67"/>
       <c r="I369" s="67"/>
       <c r="J369" s="67"/>
       <c r="K369" s="67"/>
-      <c r="L369" s="86"/>
-      <c r="M369" s="86"/>
-      <c r="N369" s="86"/>
+      <c r="L369" s="85"/>
+      <c r="M369" s="85"/>
+      <c r="N369" s="85"/>
       <c r="O369" s="67"/>
       <c r="P369" s="67"/>
       <c r="Q369" s="67"/>
@@ -13334,19 +13816,19 @@
     </row>
     <row r="370" spans="1:20" ht="18" customHeight="1">
       <c r="A370" s="67"/>
-      <c r="B370" s="86"/>
-      <c r="C370" s="86"/>
-      <c r="D370" s="86"/>
-      <c r="E370" s="86"/>
-      <c r="F370" s="86"/>
-      <c r="G370" s="86"/>
+      <c r="B370" s="85"/>
+      <c r="C370" s="85"/>
+      <c r="D370" s="85"/>
+      <c r="E370" s="85"/>
+      <c r="F370" s="85"/>
+      <c r="G370" s="85"/>
       <c r="H370" s="67"/>
       <c r="I370" s="67"/>
       <c r="J370" s="67"/>
       <c r="K370" s="67"/>
-      <c r="L370" s="86"/>
-      <c r="M370" s="86"/>
-      <c r="N370" s="86"/>
+      <c r="L370" s="85"/>
+      <c r="M370" s="85"/>
+      <c r="N370" s="85"/>
       <c r="O370" s="67"/>
       <c r="P370" s="67"/>
       <c r="Q370" s="67"/>
@@ -13356,19 +13838,19 @@
     </row>
     <row r="371" spans="1:20" ht="18" customHeight="1">
       <c r="A371" s="67"/>
-      <c r="B371" s="86"/>
-      <c r="C371" s="86"/>
-      <c r="D371" s="86"/>
-      <c r="E371" s="86"/>
-      <c r="F371" s="86"/>
-      <c r="G371" s="86"/>
+      <c r="B371" s="85"/>
+      <c r="C371" s="85"/>
+      <c r="D371" s="85"/>
+      <c r="E371" s="85"/>
+      <c r="F371" s="85"/>
+      <c r="G371" s="85"/>
       <c r="H371" s="67"/>
       <c r="I371" s="67"/>
       <c r="J371" s="67"/>
       <c r="K371" s="67"/>
-      <c r="L371" s="86"/>
-      <c r="M371" s="86"/>
-      <c r="N371" s="86"/>
+      <c r="L371" s="85"/>
+      <c r="M371" s="85"/>
+      <c r="N371" s="85"/>
       <c r="O371" s="67"/>
       <c r="P371" s="67"/>
       <c r="Q371" s="67"/>
@@ -13378,19 +13860,19 @@
     </row>
     <row r="372" spans="1:20" ht="18" customHeight="1">
       <c r="A372" s="67"/>
-      <c r="B372" s="86"/>
-      <c r="C372" s="86"/>
-      <c r="D372" s="86"/>
-      <c r="E372" s="86"/>
-      <c r="F372" s="86"/>
-      <c r="G372" s="86"/>
+      <c r="B372" s="85"/>
+      <c r="C372" s="85"/>
+      <c r="D372" s="85"/>
+      <c r="E372" s="85"/>
+      <c r="F372" s="85"/>
+      <c r="G372" s="85"/>
       <c r="H372" s="67"/>
       <c r="I372" s="67"/>
       <c r="J372" s="67"/>
       <c r="K372" s="67"/>
-      <c r="L372" s="86"/>
-      <c r="M372" s="86"/>
-      <c r="N372" s="86"/>
+      <c r="L372" s="85"/>
+      <c r="M372" s="85"/>
+      <c r="N372" s="85"/>
       <c r="O372" s="67"/>
       <c r="P372" s="67"/>
       <c r="Q372" s="67"/>
@@ -13400,19 +13882,19 @@
     </row>
     <row r="373" spans="1:20" ht="18" customHeight="1">
       <c r="A373" s="67"/>
-      <c r="B373" s="86"/>
-      <c r="C373" s="86"/>
-      <c r="D373" s="86"/>
-      <c r="E373" s="86"/>
-      <c r="F373" s="86"/>
-      <c r="G373" s="86"/>
+      <c r="B373" s="85"/>
+      <c r="C373" s="85"/>
+      <c r="D373" s="85"/>
+      <c r="E373" s="85"/>
+      <c r="F373" s="85"/>
+      <c r="G373" s="85"/>
       <c r="H373" s="67"/>
       <c r="I373" s="67"/>
       <c r="J373" s="67"/>
       <c r="K373" s="67"/>
-      <c r="L373" s="86"/>
-      <c r="M373" s="86"/>
-      <c r="N373" s="86"/>
+      <c r="L373" s="85"/>
+      <c r="M373" s="85"/>
+      <c r="N373" s="85"/>
       <c r="O373" s="67"/>
       <c r="P373" s="67"/>
       <c r="Q373" s="67"/>
@@ -13422,19 +13904,19 @@
     </row>
     <row r="374" spans="1:20" ht="18" customHeight="1">
       <c r="A374" s="67"/>
-      <c r="B374" s="86"/>
-      <c r="C374" s="86"/>
-      <c r="D374" s="86"/>
-      <c r="E374" s="86"/>
-      <c r="F374" s="86"/>
-      <c r="G374" s="86"/>
+      <c r="B374" s="85"/>
+      <c r="C374" s="85"/>
+      <c r="D374" s="85"/>
+      <c r="E374" s="85"/>
+      <c r="F374" s="85"/>
+      <c r="G374" s="85"/>
       <c r="H374" s="67"/>
       <c r="I374" s="67"/>
       <c r="J374" s="67"/>
       <c r="K374" s="67"/>
-      <c r="L374" s="86"/>
-      <c r="M374" s="86"/>
-      <c r="N374" s="86"/>
+      <c r="L374" s="85"/>
+      <c r="M374" s="85"/>
+      <c r="N374" s="85"/>
       <c r="O374" s="67"/>
       <c r="P374" s="67"/>
       <c r="Q374" s="67"/>
@@ -13444,19 +13926,19 @@
     </row>
     <row r="375" spans="1:20" ht="18" customHeight="1">
       <c r="A375" s="67"/>
-      <c r="B375" s="86"/>
-      <c r="C375" s="86"/>
-      <c r="D375" s="86"/>
-      <c r="E375" s="86"/>
-      <c r="F375" s="86"/>
-      <c r="G375" s="86"/>
+      <c r="B375" s="85"/>
+      <c r="C375" s="85"/>
+      <c r="D375" s="85"/>
+      <c r="E375" s="85"/>
+      <c r="F375" s="85"/>
+      <c r="G375" s="85"/>
       <c r="H375" s="67"/>
       <c r="I375" s="67"/>
       <c r="J375" s="67"/>
       <c r="K375" s="67"/>
-      <c r="L375" s="86"/>
-      <c r="M375" s="86"/>
-      <c r="N375" s="86"/>
+      <c r="L375" s="85"/>
+      <c r="M375" s="85"/>
+      <c r="N375" s="85"/>
       <c r="O375" s="67"/>
       <c r="P375" s="67"/>
       <c r="Q375" s="67"/>
@@ -13466,19 +13948,19 @@
     </row>
     <row r="376" spans="1:20" ht="18" customHeight="1">
       <c r="A376" s="67"/>
-      <c r="B376" s="86"/>
-      <c r="C376" s="86"/>
-      <c r="D376" s="86"/>
-      <c r="E376" s="86"/>
-      <c r="F376" s="86"/>
-      <c r="G376" s="86"/>
+      <c r="B376" s="85"/>
+      <c r="C376" s="85"/>
+      <c r="D376" s="85"/>
+      <c r="E376" s="85"/>
+      <c r="F376" s="85"/>
+      <c r="G376" s="85"/>
       <c r="H376" s="67"/>
       <c r="I376" s="67"/>
       <c r="J376" s="67"/>
       <c r="K376" s="67"/>
-      <c r="L376" s="86"/>
-      <c r="M376" s="86"/>
-      <c r="N376" s="86"/>
+      <c r="L376" s="85"/>
+      <c r="M376" s="85"/>
+      <c r="N376" s="85"/>
       <c r="O376" s="67"/>
       <c r="P376" s="67"/>
       <c r="Q376" s="67"/>
@@ -13488,19 +13970,19 @@
     </row>
     <row r="377" spans="1:20" ht="18" customHeight="1">
       <c r="A377" s="67"/>
-      <c r="B377" s="86"/>
-      <c r="C377" s="86"/>
-      <c r="D377" s="86"/>
-      <c r="E377" s="86"/>
-      <c r="F377" s="86"/>
-      <c r="G377" s="86"/>
+      <c r="B377" s="85"/>
+      <c r="C377" s="85"/>
+      <c r="D377" s="85"/>
+      <c r="E377" s="85"/>
+      <c r="F377" s="85"/>
+      <c r="G377" s="85"/>
       <c r="H377" s="67"/>
       <c r="I377" s="67"/>
       <c r="J377" s="67"/>
       <c r="K377" s="67"/>
-      <c r="L377" s="86"/>
-      <c r="M377" s="86"/>
-      <c r="N377" s="86"/>
+      <c r="L377" s="85"/>
+      <c r="M377" s="85"/>
+      <c r="N377" s="85"/>
       <c r="O377" s="67"/>
       <c r="P377" s="67"/>
       <c r="Q377" s="67"/>
@@ -13510,19 +13992,19 @@
     </row>
     <row r="378" spans="1:20" ht="18" customHeight="1">
       <c r="A378" s="67"/>
-      <c r="B378" s="86"/>
-      <c r="C378" s="86"/>
-      <c r="D378" s="86"/>
+      <c r="B378" s="85"/>
+      <c r="C378" s="85"/>
+      <c r="D378" s="85"/>
       <c r="E378" s="67"/>
-      <c r="F378" s="86"/>
-      <c r="G378" s="86"/>
+      <c r="F378" s="85"/>
+      <c r="G378" s="85"/>
       <c r="H378" s="67"/>
       <c r="I378" s="67"/>
       <c r="J378" s="67"/>
       <c r="K378" s="67"/>
-      <c r="L378" s="86"/>
-      <c r="M378" s="86"/>
-      <c r="N378" s="86"/>
+      <c r="L378" s="85"/>
+      <c r="M378" s="85"/>
+      <c r="N378" s="85"/>
       <c r="O378" s="67"/>
       <c r="P378" s="67"/>
       <c r="Q378" s="67"/>
@@ -13532,19 +14014,19 @@
     </row>
     <row r="379" spans="1:20" ht="18" customHeight="1">
       <c r="A379" s="67"/>
-      <c r="B379" s="86"/>
-      <c r="C379" s="86"/>
-      <c r="D379" s="86"/>
+      <c r="B379" s="85"/>
+      <c r="C379" s="85"/>
+      <c r="D379" s="85"/>
       <c r="E379" s="67"/>
-      <c r="F379" s="86"/>
-      <c r="G379" s="86"/>
+      <c r="F379" s="85"/>
+      <c r="G379" s="85"/>
       <c r="H379" s="67"/>
       <c r="I379" s="67"/>
       <c r="J379" s="67"/>
       <c r="K379" s="67"/>
-      <c r="L379" s="86"/>
-      <c r="M379" s="86"/>
-      <c r="N379" s="86"/>
+      <c r="L379" s="85"/>
+      <c r="M379" s="85"/>
+      <c r="N379" s="85"/>
       <c r="O379" s="67"/>
       <c r="P379" s="67"/>
       <c r="Q379" s="67"/>
@@ -13554,19 +14036,19 @@
     </row>
     <row r="380" spans="1:20" ht="18" customHeight="1">
       <c r="A380" s="67"/>
-      <c r="B380" s="86"/>
-      <c r="C380" s="86"/>
-      <c r="D380" s="86"/>
+      <c r="B380" s="85"/>
+      <c r="C380" s="85"/>
+      <c r="D380" s="85"/>
       <c r="E380" s="67"/>
-      <c r="F380" s="86"/>
-      <c r="G380" s="86"/>
+      <c r="F380" s="85"/>
+      <c r="G380" s="85"/>
       <c r="H380" s="67"/>
       <c r="I380" s="67"/>
       <c r="J380" s="67"/>
       <c r="K380" s="67"/>
-      <c r="L380" s="86"/>
-      <c r="M380" s="86"/>
-      <c r="N380" s="86"/>
+      <c r="L380" s="85"/>
+      <c r="M380" s="85"/>
+      <c r="N380" s="85"/>
       <c r="O380" s="67"/>
       <c r="P380" s="67"/>
       <c r="Q380" s="67"/>
@@ -13576,19 +14058,19 @@
     </row>
     <row r="381" spans="1:20" ht="18" customHeight="1">
       <c r="A381" s="67"/>
-      <c r="B381" s="86"/>
-      <c r="C381" s="86"/>
-      <c r="D381" s="86"/>
+      <c r="B381" s="85"/>
+      <c r="C381" s="85"/>
+      <c r="D381" s="85"/>
       <c r="E381" s="67"/>
-      <c r="F381" s="86"/>
-      <c r="G381" s="86"/>
+      <c r="F381" s="85"/>
+      <c r="G381" s="85"/>
       <c r="H381" s="67"/>
       <c r="I381" s="67"/>
       <c r="J381" s="67"/>
       <c r="K381" s="67"/>
-      <c r="L381" s="86"/>
-      <c r="M381" s="86"/>
-      <c r="N381" s="86"/>
+      <c r="L381" s="85"/>
+      <c r="M381" s="85"/>
+      <c r="N381" s="85"/>
       <c r="O381" s="67"/>
       <c r="P381" s="67"/>
       <c r="Q381" s="67"/>
@@ -13598,19 +14080,19 @@
     </row>
     <row r="382" spans="1:20" ht="18" customHeight="1">
       <c r="A382" s="67"/>
-      <c r="B382" s="86"/>
-      <c r="C382" s="86"/>
-      <c r="D382" s="86"/>
+      <c r="B382" s="85"/>
+      <c r="C382" s="85"/>
+      <c r="D382" s="85"/>
       <c r="E382" s="67"/>
-      <c r="F382" s="86"/>
-      <c r="G382" s="86"/>
+      <c r="F382" s="85"/>
+      <c r="G382" s="85"/>
       <c r="H382" s="67"/>
       <c r="I382" s="67"/>
       <c r="J382" s="71"/>
       <c r="K382" s="67"/>
-      <c r="L382" s="86"/>
-      <c r="M382" s="86"/>
-      <c r="N382" s="86"/>
+      <c r="L382" s="85"/>
+      <c r="M382" s="85"/>
+      <c r="N382" s="85"/>
       <c r="O382" s="67"/>
       <c r="P382" s="67"/>
       <c r="Q382" s="67"/>
@@ -13620,19 +14102,19 @@
     </row>
     <row r="383" spans="1:20" ht="18" customHeight="1">
       <c r="A383" s="67"/>
-      <c r="B383" s="86"/>
-      <c r="C383" s="86"/>
-      <c r="D383" s="86"/>
+      <c r="B383" s="85"/>
+      <c r="C383" s="85"/>
+      <c r="D383" s="85"/>
       <c r="E383" s="67"/>
-      <c r="F383" s="86"/>
-      <c r="G383" s="86"/>
+      <c r="F383" s="85"/>
+      <c r="G383" s="85"/>
       <c r="H383" s="67"/>
       <c r="I383" s="67"/>
       <c r="J383" s="71"/>
       <c r="K383" s="67"/>
-      <c r="L383" s="86"/>
-      <c r="M383" s="86"/>
-      <c r="N383" s="86"/>
+      <c r="L383" s="85"/>
+      <c r="M383" s="85"/>
+      <c r="N383" s="85"/>
       <c r="O383" s="67"/>
       <c r="P383" s="67"/>
       <c r="Q383" s="67"/>
@@ -13642,19 +14124,19 @@
     </row>
     <row r="384" spans="1:20" ht="18" customHeight="1">
       <c r="A384" s="67"/>
-      <c r="B384" s="86"/>
-      <c r="C384" s="86"/>
-      <c r="D384" s="86"/>
+      <c r="B384" s="85"/>
+      <c r="C384" s="85"/>
+      <c r="D384" s="85"/>
       <c r="E384" s="67"/>
-      <c r="F384" s="86"/>
-      <c r="G384" s="86"/>
+      <c r="F384" s="85"/>
+      <c r="G384" s="85"/>
       <c r="H384" s="67"/>
       <c r="I384" s="67"/>
       <c r="J384" s="71"/>
       <c r="K384" s="67"/>
-      <c r="L384" s="86"/>
-      <c r="M384" s="86"/>
-      <c r="N384" s="86"/>
+      <c r="L384" s="85"/>
+      <c r="M384" s="85"/>
+      <c r="N384" s="85"/>
       <c r="O384" s="67"/>
       <c r="P384" s="67"/>
       <c r="Q384" s="67"/>
@@ -13664,19 +14146,19 @@
     </row>
     <row r="385" spans="1:20" ht="18" customHeight="1">
       <c r="A385" s="67"/>
-      <c r="B385" s="86"/>
-      <c r="C385" s="86"/>
-      <c r="D385" s="86"/>
+      <c r="B385" s="85"/>
+      <c r="C385" s="85"/>
+      <c r="D385" s="85"/>
       <c r="E385" s="67"/>
-      <c r="F385" s="86"/>
-      <c r="G385" s="86"/>
+      <c r="F385" s="85"/>
+      <c r="G385" s="85"/>
       <c r="H385" s="67"/>
       <c r="I385" s="67"/>
       <c r="J385" s="71"/>
       <c r="K385" s="67"/>
-      <c r="L385" s="86"/>
-      <c r="M385" s="86"/>
-      <c r="N385" s="86"/>
+      <c r="L385" s="85"/>
+      <c r="M385" s="85"/>
+      <c r="N385" s="85"/>
       <c r="O385" s="67"/>
       <c r="P385" s="67"/>
       <c r="Q385" s="67"/>
@@ -13686,19 +14168,19 @@
     </row>
     <row r="386" spans="1:20" ht="18" customHeight="1">
       <c r="A386" s="67"/>
-      <c r="B386" s="86"/>
-      <c r="C386" s="86"/>
-      <c r="D386" s="86"/>
+      <c r="B386" s="85"/>
+      <c r="C386" s="85"/>
+      <c r="D386" s="85"/>
       <c r="E386" s="67"/>
-      <c r="F386" s="86"/>
-      <c r="G386" s="86"/>
+      <c r="F386" s="85"/>
+      <c r="G386" s="85"/>
       <c r="H386" s="67"/>
       <c r="I386" s="67"/>
       <c r="J386" s="71"/>
       <c r="K386" s="67"/>
-      <c r="L386" s="86"/>
-      <c r="M386" s="86"/>
-      <c r="N386" s="86"/>
+      <c r="L386" s="85"/>
+      <c r="M386" s="85"/>
+      <c r="N386" s="85"/>
       <c r="O386" s="67"/>
       <c r="P386" s="67"/>
       <c r="Q386" s="67"/>
@@ -13708,19 +14190,19 @@
     </row>
     <row r="387" spans="1:20" ht="18" customHeight="1">
       <c r="A387" s="67"/>
-      <c r="B387" s="86"/>
-      <c r="C387" s="86"/>
-      <c r="D387" s="86"/>
+      <c r="B387" s="85"/>
+      <c r="C387" s="85"/>
+      <c r="D387" s="85"/>
       <c r="E387" s="67"/>
-      <c r="F387" s="86"/>
-      <c r="G387" s="86"/>
+      <c r="F387" s="85"/>
+      <c r="G387" s="85"/>
       <c r="H387" s="67"/>
       <c r="I387" s="67"/>
       <c r="J387" s="71"/>
       <c r="K387" s="67"/>
-      <c r="L387" s="86"/>
-      <c r="M387" s="86"/>
-      <c r="N387" s="86"/>
+      <c r="L387" s="85"/>
+      <c r="M387" s="85"/>
+      <c r="N387" s="85"/>
       <c r="O387" s="67"/>
       <c r="P387" s="67"/>
       <c r="Q387" s="67"/>
@@ -13730,19 +14212,19 @@
     </row>
     <row r="388" spans="1:20" ht="18" customHeight="1">
       <c r="A388" s="67"/>
-      <c r="B388" s="86"/>
-      <c r="C388" s="86"/>
-      <c r="D388" s="86"/>
+      <c r="B388" s="85"/>
+      <c r="C388" s="85"/>
+      <c r="D388" s="85"/>
       <c r="E388" s="67"/>
-      <c r="F388" s="86"/>
-      <c r="G388" s="86"/>
+      <c r="F388" s="85"/>
+      <c r="G388" s="85"/>
       <c r="H388" s="67"/>
       <c r="I388" s="67"/>
       <c r="J388" s="67"/>
       <c r="K388" s="67"/>
-      <c r="L388" s="86"/>
-      <c r="M388" s="86"/>
-      <c r="N388" s="86"/>
+      <c r="L388" s="85"/>
+      <c r="M388" s="85"/>
+      <c r="N388" s="85"/>
       <c r="O388" s="67"/>
       <c r="P388" s="67"/>
       <c r="Q388" s="67"/>
@@ -13752,19 +14234,19 @@
     </row>
     <row r="389" spans="1:20" ht="18" customHeight="1">
       <c r="A389" s="67"/>
-      <c r="B389" s="86"/>
-      <c r="C389" s="86"/>
-      <c r="D389" s="86"/>
+      <c r="B389" s="85"/>
+      <c r="C389" s="85"/>
+      <c r="D389" s="85"/>
       <c r="E389" s="67"/>
-      <c r="F389" s="86"/>
-      <c r="G389" s="86"/>
+      <c r="F389" s="85"/>
+      <c r="G389" s="85"/>
       <c r="H389" s="67"/>
       <c r="I389" s="67"/>
       <c r="J389" s="67"/>
       <c r="K389" s="67"/>
-      <c r="L389" s="86"/>
-      <c r="M389" s="86"/>
-      <c r="N389" s="86"/>
+      <c r="L389" s="85"/>
+      <c r="M389" s="85"/>
+      <c r="N389" s="85"/>
       <c r="O389" s="67"/>
       <c r="P389" s="67"/>
       <c r="Q389" s="67"/>
@@ -13774,19 +14256,19 @@
     </row>
     <row r="390" spans="1:20" ht="18" customHeight="1">
       <c r="A390" s="67"/>
-      <c r="B390" s="86"/>
-      <c r="C390" s="86"/>
-      <c r="D390" s="86"/>
+      <c r="B390" s="85"/>
+      <c r="C390" s="85"/>
+      <c r="D390" s="85"/>
       <c r="E390" s="67"/>
-      <c r="F390" s="86"/>
-      <c r="G390" s="86"/>
+      <c r="F390" s="85"/>
+      <c r="G390" s="85"/>
       <c r="H390" s="67"/>
       <c r="I390" s="67"/>
       <c r="J390" s="67"/>
       <c r="K390" s="67"/>
-      <c r="L390" s="86"/>
-      <c r="M390" s="86"/>
-      <c r="N390" s="86"/>
+      <c r="L390" s="85"/>
+      <c r="M390" s="85"/>
+      <c r="N390" s="85"/>
       <c r="O390" s="67"/>
       <c r="P390" s="67"/>
       <c r="Q390" s="67"/>
@@ -13796,19 +14278,19 @@
     </row>
     <row r="391" spans="1:20" ht="18" customHeight="1">
       <c r="A391" s="67"/>
-      <c r="B391" s="86"/>
-      <c r="C391" s="86"/>
-      <c r="D391" s="86"/>
+      <c r="B391" s="85"/>
+      <c r="C391" s="85"/>
+      <c r="D391" s="85"/>
       <c r="E391" s="67"/>
-      <c r="F391" s="86"/>
-      <c r="G391" s="86"/>
+      <c r="F391" s="85"/>
+      <c r="G391" s="85"/>
       <c r="H391" s="67"/>
       <c r="I391" s="67"/>
       <c r="J391" s="67"/>
       <c r="K391" s="67"/>
-      <c r="L391" s="86"/>
-      <c r="M391" s="86"/>
-      <c r="N391" s="86"/>
+      <c r="L391" s="85"/>
+      <c r="M391" s="85"/>
+      <c r="N391" s="85"/>
       <c r="O391" s="67"/>
       <c r="P391" s="67"/>
       <c r="Q391" s="67"/>
@@ -13818,19 +14300,19 @@
     </row>
     <row r="392" spans="1:20" ht="18" customHeight="1">
       <c r="A392" s="67"/>
-      <c r="B392" s="86"/>
-      <c r="C392" s="86"/>
-      <c r="D392" s="86"/>
+      <c r="B392" s="85"/>
+      <c r="C392" s="85"/>
+      <c r="D392" s="85"/>
       <c r="E392" s="67"/>
-      <c r="F392" s="86"/>
-      <c r="G392" s="86"/>
+      <c r="F392" s="85"/>
+      <c r="G392" s="85"/>
       <c r="H392" s="67"/>
       <c r="I392" s="67"/>
       <c r="J392" s="67"/>
       <c r="K392" s="67"/>
-      <c r="L392" s="86"/>
-      <c r="M392" s="86"/>
-      <c r="N392" s="86"/>
+      <c r="L392" s="85"/>
+      <c r="M392" s="85"/>
+      <c r="N392" s="85"/>
       <c r="O392" s="67"/>
       <c r="P392" s="67"/>
       <c r="Q392" s="67"/>
@@ -13840,19 +14322,19 @@
     </row>
     <row r="393" spans="1:20" ht="18" customHeight="1">
       <c r="A393" s="67"/>
-      <c r="B393" s="86"/>
-      <c r="C393" s="86"/>
-      <c r="D393" s="86"/>
+      <c r="B393" s="85"/>
+      <c r="C393" s="85"/>
+      <c r="D393" s="85"/>
       <c r="E393" s="67"/>
-      <c r="F393" s="86"/>
-      <c r="G393" s="86"/>
+      <c r="F393" s="85"/>
+      <c r="G393" s="85"/>
       <c r="H393" s="67"/>
       <c r="I393" s="67"/>
       <c r="J393" s="67"/>
       <c r="K393" s="67"/>
-      <c r="L393" s="86"/>
-      <c r="M393" s="86"/>
-      <c r="N393" s="86"/>
+      <c r="L393" s="85"/>
+      <c r="M393" s="85"/>
+      <c r="N393" s="85"/>
       <c r="O393" s="67"/>
       <c r="P393" s="67"/>
       <c r="Q393" s="67"/>
@@ -13862,19 +14344,19 @@
     </row>
     <row r="394" spans="1:20" ht="18" customHeight="1">
       <c r="A394" s="67"/>
-      <c r="B394" s="86"/>
-      <c r="C394" s="86"/>
-      <c r="D394" s="86"/>
+      <c r="B394" s="85"/>
+      <c r="C394" s="85"/>
+      <c r="D394" s="85"/>
       <c r="E394" s="67"/>
-      <c r="F394" s="86"/>
-      <c r="G394" s="86"/>
+      <c r="F394" s="85"/>
+      <c r="G394" s="85"/>
       <c r="H394" s="67"/>
       <c r="I394" s="67"/>
       <c r="J394" s="67"/>
       <c r="K394" s="67"/>
-      <c r="L394" s="86"/>
-      <c r="M394" s="86"/>
-      <c r="N394" s="86"/>
+      <c r="L394" s="85"/>
+      <c r="M394" s="85"/>
+      <c r="N394" s="85"/>
       <c r="O394" s="67"/>
       <c r="P394" s="67"/>
       <c r="Q394" s="67"/>
@@ -13884,19 +14366,19 @@
     </row>
     <row r="395" spans="1:20" ht="18" customHeight="1">
       <c r="A395" s="67"/>
-      <c r="B395" s="86"/>
-      <c r="C395" s="86"/>
-      <c r="D395" s="86"/>
+      <c r="B395" s="85"/>
+      <c r="C395" s="85"/>
+      <c r="D395" s="85"/>
       <c r="E395" s="67"/>
-      <c r="F395" s="86"/>
-      <c r="G395" s="86"/>
+      <c r="F395" s="85"/>
+      <c r="G395" s="85"/>
       <c r="H395" s="67"/>
       <c r="I395" s="67"/>
       <c r="J395" s="67"/>
       <c r="K395" s="67"/>
-      <c r="L395" s="86"/>
-      <c r="M395" s="86"/>
-      <c r="N395" s="86"/>
+      <c r="L395" s="85"/>
+      <c r="M395" s="85"/>
+      <c r="N395" s="85"/>
       <c r="O395" s="67"/>
       <c r="P395" s="67"/>
       <c r="Q395" s="67"/>
@@ -13906,19 +14388,19 @@
     </row>
     <row r="396" spans="1:20" ht="18" customHeight="1">
       <c r="A396" s="67"/>
-      <c r="B396" s="86"/>
-      <c r="C396" s="86"/>
-      <c r="D396" s="86"/>
+      <c r="B396" s="85"/>
+      <c r="C396" s="85"/>
+      <c r="D396" s="85"/>
       <c r="E396" s="67"/>
-      <c r="F396" s="86"/>
-      <c r="G396" s="86"/>
+      <c r="F396" s="85"/>
+      <c r="G396" s="85"/>
       <c r="H396" s="67"/>
       <c r="I396" s="67"/>
       <c r="J396" s="67"/>
       <c r="K396" s="67"/>
-      <c r="L396" s="86"/>
-      <c r="M396" s="86"/>
-      <c r="N396" s="86"/>
+      <c r="L396" s="85"/>
+      <c r="M396" s="85"/>
+      <c r="N396" s="85"/>
       <c r="O396" s="67"/>
       <c r="P396" s="67"/>
       <c r="Q396" s="67"/>
@@ -13928,19 +14410,19 @@
     </row>
     <row r="397" spans="1:20" ht="18" customHeight="1">
       <c r="A397" s="67"/>
-      <c r="B397" s="86"/>
-      <c r="C397" s="86"/>
-      <c r="D397" s="86"/>
+      <c r="B397" s="85"/>
+      <c r="C397" s="85"/>
+      <c r="D397" s="85"/>
       <c r="E397" s="67"/>
-      <c r="F397" s="86"/>
-      <c r="G397" s="86"/>
+      <c r="F397" s="85"/>
+      <c r="G397" s="85"/>
       <c r="H397" s="67"/>
       <c r="I397" s="67"/>
       <c r="J397" s="67"/>
       <c r="K397" s="67"/>
-      <c r="L397" s="86"/>
-      <c r="M397" s="86"/>
-      <c r="N397" s="86"/>
+      <c r="L397" s="85"/>
+      <c r="M397" s="85"/>
+      <c r="N397" s="85"/>
       <c r="O397" s="67"/>
       <c r="P397" s="67"/>
       <c r="Q397" s="67"/>
@@ -13950,19 +14432,19 @@
     </row>
     <row r="398" spans="1:20" ht="18" customHeight="1">
       <c r="A398" s="67"/>
-      <c r="B398" s="86"/>
-      <c r="C398" s="86"/>
-      <c r="D398" s="86"/>
+      <c r="B398" s="85"/>
+      <c r="C398" s="85"/>
+      <c r="D398" s="85"/>
       <c r="E398" s="67"/>
-      <c r="F398" s="86"/>
-      <c r="G398" s="86"/>
+      <c r="F398" s="85"/>
+      <c r="G398" s="85"/>
       <c r="H398" s="67"/>
       <c r="I398" s="67"/>
       <c r="J398" s="67"/>
       <c r="K398" s="67"/>
-      <c r="L398" s="86"/>
-      <c r="M398" s="86"/>
-      <c r="N398" s="86"/>
+      <c r="L398" s="85"/>
+      <c r="M398" s="85"/>
+      <c r="N398" s="85"/>
       <c r="O398" s="67"/>
       <c r="P398" s="67"/>
       <c r="Q398" s="67"/>
@@ -13972,19 +14454,19 @@
     </row>
     <row r="399" spans="1:20" ht="18" customHeight="1">
       <c r="A399" s="67"/>
-      <c r="B399" s="86"/>
-      <c r="C399" s="86"/>
-      <c r="D399" s="86"/>
+      <c r="B399" s="85"/>
+      <c r="C399" s="85"/>
+      <c r="D399" s="85"/>
       <c r="E399" s="67"/>
-      <c r="F399" s="86"/>
-      <c r="G399" s="86"/>
+      <c r="F399" s="85"/>
+      <c r="G399" s="85"/>
       <c r="H399" s="67"/>
       <c r="I399" s="67"/>
       <c r="J399" s="67"/>
       <c r="K399" s="67"/>
-      <c r="L399" s="86"/>
-      <c r="M399" s="86"/>
-      <c r="N399" s="86"/>
+      <c r="L399" s="85"/>
+      <c r="M399" s="85"/>
+      <c r="N399" s="85"/>
       <c r="O399" s="67"/>
       <c r="P399" s="67"/>
       <c r="Q399" s="67"/>
@@ -13994,19 +14476,19 @@
     </row>
     <row r="400" spans="1:20" ht="18" customHeight="1">
       <c r="A400" s="67"/>
-      <c r="B400" s="86"/>
-      <c r="C400" s="86"/>
-      <c r="D400" s="86"/>
+      <c r="B400" s="85"/>
+      <c r="C400" s="85"/>
+      <c r="D400" s="85"/>
       <c r="E400" s="67"/>
-      <c r="F400" s="86"/>
-      <c r="G400" s="86"/>
+      <c r="F400" s="85"/>
+      <c r="G400" s="85"/>
       <c r="H400" s="67"/>
       <c r="I400" s="67"/>
       <c r="J400" s="67"/>
       <c r="K400" s="67"/>
-      <c r="L400" s="86"/>
-      <c r="M400" s="86"/>
-      <c r="N400" s="86"/>
+      <c r="L400" s="85"/>
+      <c r="M400" s="85"/>
+      <c r="N400" s="85"/>
       <c r="O400" s="67"/>
       <c r="P400" s="67"/>
       <c r="Q400" s="67"/>
@@ -14016,19 +14498,19 @@
     </row>
     <row r="401" spans="1:20" ht="18" customHeight="1">
       <c r="A401" s="67"/>
-      <c r="B401" s="86"/>
-      <c r="C401" s="86"/>
-      <c r="D401" s="86"/>
+      <c r="B401" s="85"/>
+      <c r="C401" s="85"/>
+      <c r="D401" s="85"/>
       <c r="E401" s="67"/>
-      <c r="F401" s="86"/>
-      <c r="G401" s="86"/>
+      <c r="F401" s="85"/>
+      <c r="G401" s="85"/>
       <c r="H401" s="67"/>
       <c r="I401" s="67"/>
       <c r="J401" s="67"/>
-      <c r="K401" s="87"/>
-      <c r="L401" s="86"/>
-      <c r="M401" s="86"/>
-      <c r="N401" s="86"/>
+      <c r="K401" s="86"/>
+      <c r="L401" s="85"/>
+      <c r="M401" s="85"/>
+      <c r="N401" s="85"/>
       <c r="O401" s="67"/>
       <c r="P401" s="67"/>
       <c r="Q401" s="67"/>
@@ -14038,19 +14520,19 @@
     </row>
     <row r="402" spans="1:20" ht="18" customHeight="1">
       <c r="A402" s="67"/>
-      <c r="B402" s="86"/>
-      <c r="C402" s="86"/>
-      <c r="D402" s="86"/>
+      <c r="B402" s="85"/>
+      <c r="C402" s="85"/>
+      <c r="D402" s="85"/>
       <c r="E402" s="67"/>
-      <c r="F402" s="86"/>
-      <c r="G402" s="86"/>
+      <c r="F402" s="85"/>
+      <c r="G402" s="85"/>
       <c r="H402" s="67"/>
       <c r="I402" s="67"/>
       <c r="J402" s="67"/>
-      <c r="K402" s="87"/>
-      <c r="L402" s="86"/>
-      <c r="M402" s="86"/>
-      <c r="N402" s="86"/>
+      <c r="K402" s="86"/>
+      <c r="L402" s="85"/>
+      <c r="M402" s="85"/>
+      <c r="N402" s="85"/>
       <c r="O402" s="67"/>
       <c r="P402" s="67"/>
       <c r="Q402" s="67"/>
@@ -14060,19 +14542,19 @@
     </row>
     <row r="403" spans="1:20" ht="18" customHeight="1">
       <c r="A403" s="67"/>
-      <c r="B403" s="86"/>
-      <c r="C403" s="86"/>
-      <c r="D403" s="86"/>
+      <c r="B403" s="85"/>
+      <c r="C403" s="85"/>
+      <c r="D403" s="85"/>
       <c r="E403" s="67"/>
-      <c r="F403" s="86"/>
-      <c r="G403" s="86"/>
+      <c r="F403" s="85"/>
+      <c r="G403" s="85"/>
       <c r="H403" s="67"/>
       <c r="I403" s="67"/>
       <c r="J403" s="67"/>
-      <c r="K403" s="87"/>
-      <c r="L403" s="86"/>
-      <c r="M403" s="86"/>
-      <c r="N403" s="86"/>
+      <c r="K403" s="86"/>
+      <c r="L403" s="85"/>
+      <c r="M403" s="85"/>
+      <c r="N403" s="85"/>
       <c r="O403" s="67"/>
       <c r="P403" s="67"/>
       <c r="Q403" s="67"/>
@@ -14082,19 +14564,19 @@
     </row>
     <row r="404" spans="1:20" ht="18" customHeight="1">
       <c r="A404" s="67"/>
-      <c r="B404" s="86"/>
-      <c r="C404" s="86"/>
-      <c r="D404" s="86"/>
+      <c r="B404" s="85"/>
+      <c r="C404" s="85"/>
+      <c r="D404" s="85"/>
       <c r="E404" s="67"/>
-      <c r="F404" s="86"/>
-      <c r="G404" s="86"/>
+      <c r="F404" s="85"/>
+      <c r="G404" s="85"/>
       <c r="H404" s="67"/>
       <c r="I404" s="67"/>
-      <c r="J404" s="87"/>
-      <c r="K404" s="87"/>
-      <c r="L404" s="86"/>
-      <c r="M404" s="86"/>
-      <c r="N404" s="86"/>
+      <c r="J404" s="86"/>
+      <c r="K404" s="86"/>
+      <c r="L404" s="85"/>
+      <c r="M404" s="85"/>
+      <c r="N404" s="85"/>
       <c r="O404" s="67"/>
       <c r="P404" s="67"/>
       <c r="Q404" s="67"/>
@@ -14104,19 +14586,19 @@
     </row>
     <row r="405" spans="1:20" ht="18" customHeight="1">
       <c r="A405" s="67"/>
-      <c r="B405" s="86"/>
-      <c r="C405" s="86"/>
-      <c r="D405" s="86"/>
+      <c r="B405" s="85"/>
+      <c r="C405" s="85"/>
+      <c r="D405" s="85"/>
       <c r="E405" s="67"/>
-      <c r="F405" s="86"/>
-      <c r="G405" s="86"/>
+      <c r="F405" s="85"/>
+      <c r="G405" s="85"/>
       <c r="H405" s="67"/>
       <c r="I405" s="67"/>
-      <c r="J405" s="87"/>
-      <c r="K405" s="87"/>
-      <c r="L405" s="86"/>
-      <c r="M405" s="86"/>
-      <c r="N405" s="86"/>
+      <c r="J405" s="86"/>
+      <c r="K405" s="86"/>
+      <c r="L405" s="85"/>
+      <c r="M405" s="85"/>
+      <c r="N405" s="85"/>
       <c r="O405" s="67"/>
       <c r="P405" s="67"/>
       <c r="Q405" s="67"/>
@@ -14126,19 +14608,19 @@
     </row>
     <row r="406" spans="1:20" ht="18" customHeight="1">
       <c r="A406" s="67"/>
-      <c r="B406" s="86"/>
-      <c r="C406" s="86"/>
-      <c r="D406" s="86"/>
+      <c r="B406" s="85"/>
+      <c r="C406" s="85"/>
+      <c r="D406" s="85"/>
       <c r="E406" s="67"/>
-      <c r="F406" s="86"/>
-      <c r="G406" s="86"/>
+      <c r="F406" s="85"/>
+      <c r="G406" s="85"/>
       <c r="H406" s="67"/>
       <c r="I406" s="67"/>
-      <c r="J406" s="87"/>
-      <c r="K406" s="87"/>
-      <c r="L406" s="86"/>
-      <c r="M406" s="86"/>
-      <c r="N406" s="86"/>
+      <c r="J406" s="86"/>
+      <c r="K406" s="86"/>
+      <c r="L406" s="85"/>
+      <c r="M406" s="85"/>
+      <c r="N406" s="85"/>
       <c r="O406" s="67"/>
       <c r="P406" s="67"/>
       <c r="Q406" s="67"/>
@@ -14148,19 +14630,19 @@
     </row>
     <row r="407" spans="1:20" ht="18" customHeight="1">
       <c r="A407" s="67"/>
-      <c r="B407" s="86"/>
-      <c r="C407" s="86"/>
-      <c r="D407" s="86"/>
+      <c r="B407" s="85"/>
+      <c r="C407" s="85"/>
+      <c r="D407" s="85"/>
       <c r="E407" s="67"/>
-      <c r="F407" s="86"/>
-      <c r="G407" s="86"/>
+      <c r="F407" s="85"/>
+      <c r="G407" s="85"/>
       <c r="H407" s="67"/>
       <c r="I407" s="67"/>
-      <c r="J407" s="87"/>
+      <c r="J407" s="86"/>
       <c r="K407" s="67"/>
-      <c r="L407" s="86"/>
-      <c r="M407" s="86"/>
-      <c r="N407" s="86"/>
+      <c r="L407" s="85"/>
+      <c r="M407" s="85"/>
+      <c r="N407" s="85"/>
       <c r="O407" s="67"/>
       <c r="P407" s="67"/>
       <c r="Q407" s="67"/>
@@ -14170,19 +14652,19 @@
     </row>
     <row r="408" spans="1:20" ht="18" customHeight="1">
       <c r="A408" s="67"/>
-      <c r="B408" s="86"/>
-      <c r="C408" s="86"/>
-      <c r="D408" s="86"/>
+      <c r="B408" s="85"/>
+      <c r="C408" s="85"/>
+      <c r="D408" s="85"/>
       <c r="E408" s="67"/>
-      <c r="F408" s="86"/>
-      <c r="G408" s="86"/>
+      <c r="F408" s="85"/>
+      <c r="G408" s="85"/>
       <c r="H408" s="67"/>
       <c r="I408" s="67"/>
-      <c r="J408" s="87"/>
+      <c r="J408" s="86"/>
       <c r="K408" s="67"/>
-      <c r="L408" s="86"/>
-      <c r="M408" s="86"/>
-      <c r="N408" s="86"/>
+      <c r="L408" s="85"/>
+      <c r="M408" s="85"/>
+      <c r="N408" s="85"/>
       <c r="O408" s="67"/>
       <c r="P408" s="67"/>
       <c r="Q408" s="67"/>
@@ -14192,19 +14674,19 @@
     </row>
     <row r="409" spans="1:20" ht="18" customHeight="1">
       <c r="A409" s="67"/>
-      <c r="B409" s="86"/>
-      <c r="C409" s="86"/>
-      <c r="D409" s="86"/>
+      <c r="B409" s="85"/>
+      <c r="C409" s="85"/>
+      <c r="D409" s="85"/>
       <c r="E409" s="67"/>
-      <c r="F409" s="86"/>
-      <c r="G409" s="86"/>
+      <c r="F409" s="85"/>
+      <c r="G409" s="85"/>
       <c r="H409" s="67"/>
       <c r="I409" s="67"/>
-      <c r="J409" s="87"/>
+      <c r="J409" s="86"/>
       <c r="K409" s="67"/>
-      <c r="L409" s="86"/>
-      <c r="M409" s="86"/>
-      <c r="N409" s="86"/>
+      <c r="L409" s="85"/>
+      <c r="M409" s="85"/>
+      <c r="N409" s="85"/>
       <c r="O409" s="67"/>
       <c r="P409" s="67"/>
       <c r="Q409" s="67"/>
@@ -14214,19 +14696,19 @@
     </row>
     <row r="410" spans="1:20" ht="18" customHeight="1">
       <c r="A410" s="67"/>
-      <c r="B410" s="86"/>
-      <c r="C410" s="86"/>
-      <c r="D410" s="86"/>
+      <c r="B410" s="85"/>
+      <c r="C410" s="85"/>
+      <c r="D410" s="85"/>
       <c r="E410" s="67"/>
-      <c r="F410" s="86"/>
-      <c r="G410" s="86"/>
+      <c r="F410" s="85"/>
+      <c r="G410" s="85"/>
       <c r="H410" s="67"/>
       <c r="I410" s="67"/>
       <c r="J410" s="67"/>
       <c r="K410" s="71"/>
-      <c r="L410" s="86"/>
-      <c r="M410" s="86"/>
-      <c r="N410" s="86"/>
+      <c r="L410" s="85"/>
+      <c r="M410" s="85"/>
+      <c r="N410" s="85"/>
       <c r="O410" s="67"/>
       <c r="P410" s="67"/>
       <c r="Q410" s="67"/>
@@ -14236,19 +14718,19 @@
     </row>
     <row r="411" spans="1:20" ht="18" customHeight="1">
       <c r="A411" s="67"/>
-      <c r="B411" s="86"/>
-      <c r="C411" s="86"/>
-      <c r="D411" s="86"/>
+      <c r="B411" s="85"/>
+      <c r="C411" s="85"/>
+      <c r="D411" s="85"/>
       <c r="E411" s="67"/>
-      <c r="F411" s="86"/>
-      <c r="G411" s="86"/>
+      <c r="F411" s="85"/>
+      <c r="G411" s="85"/>
       <c r="H411" s="67"/>
       <c r="I411" s="67"/>
       <c r="J411" s="67"/>
       <c r="K411" s="71"/>
-      <c r="L411" s="86"/>
-      <c r="M411" s="86"/>
-      <c r="N411" s="86"/>
+      <c r="L411" s="85"/>
+      <c r="M411" s="85"/>
+      <c r="N411" s="85"/>
       <c r="O411" s="67"/>
       <c r="P411" s="67"/>
       <c r="Q411" s="67"/>
@@ -14258,19 +14740,19 @@
     </row>
     <row r="412" spans="1:20" ht="18" customHeight="1">
       <c r="A412" s="67"/>
-      <c r="B412" s="86"/>
-      <c r="C412" s="86"/>
-      <c r="D412" s="86"/>
+      <c r="B412" s="85"/>
+      <c r="C412" s="85"/>
+      <c r="D412" s="85"/>
       <c r="E412" s="67"/>
-      <c r="F412" s="86"/>
-      <c r="G412" s="86"/>
+      <c r="F412" s="85"/>
+      <c r="G412" s="85"/>
       <c r="H412" s="67"/>
       <c r="I412" s="67"/>
       <c r="J412" s="67"/>
       <c r="K412" s="71"/>
-      <c r="L412" s="86"/>
-      <c r="M412" s="86"/>
-      <c r="N412" s="86"/>
+      <c r="L412" s="85"/>
+      <c r="M412" s="85"/>
+      <c r="N412" s="85"/>
       <c r="O412" s="67"/>
       <c r="P412" s="67"/>
       <c r="Q412" s="67"/>
@@ -14280,19 +14762,19 @@
     </row>
     <row r="413" spans="1:20" ht="18" customHeight="1">
       <c r="A413" s="67"/>
-      <c r="B413" s="86"/>
-      <c r="C413" s="86"/>
-      <c r="D413" s="86"/>
+      <c r="B413" s="85"/>
+      <c r="C413" s="85"/>
+      <c r="D413" s="85"/>
       <c r="E413" s="67"/>
-      <c r="F413" s="86"/>
-      <c r="G413" s="86"/>
+      <c r="F413" s="85"/>
+      <c r="G413" s="85"/>
       <c r="H413" s="67"/>
       <c r="I413" s="67"/>
       <c r="J413" s="71"/>
       <c r="K413" s="71"/>
-      <c r="L413" s="86"/>
-      <c r="M413" s="86"/>
-      <c r="N413" s="86"/>
+      <c r="L413" s="85"/>
+      <c r="M413" s="85"/>
+      <c r="N413" s="85"/>
       <c r="O413" s="67"/>
       <c r="P413" s="67"/>
       <c r="Q413" s="67"/>
@@ -14302,19 +14784,19 @@
     </row>
     <row r="414" spans="1:20" ht="18" customHeight="1">
       <c r="A414" s="67"/>
-      <c r="B414" s="86"/>
-      <c r="C414" s="86"/>
-      <c r="D414" s="86"/>
+      <c r="B414" s="85"/>
+      <c r="C414" s="85"/>
+      <c r="D414" s="85"/>
       <c r="E414" s="67"/>
-      <c r="F414" s="86"/>
-      <c r="G414" s="86"/>
+      <c r="F414" s="85"/>
+      <c r="G414" s="85"/>
       <c r="H414" s="67"/>
       <c r="I414" s="67"/>
       <c r="J414" s="71"/>
       <c r="K414" s="71"/>
-      <c r="L414" s="86"/>
-      <c r="M414" s="86"/>
-      <c r="N414" s="86"/>
+      <c r="L414" s="85"/>
+      <c r="M414" s="85"/>
+      <c r="N414" s="85"/>
       <c r="O414" s="67"/>
       <c r="P414" s="67"/>
       <c r="Q414" s="67"/>
@@ -14324,19 +14806,19 @@
     </row>
     <row r="415" spans="1:20" ht="18" customHeight="1">
       <c r="A415" s="67"/>
-      <c r="B415" s="86"/>
-      <c r="C415" s="86"/>
-      <c r="D415" s="86"/>
-      <c r="E415" s="86"/>
-      <c r="F415" s="86"/>
-      <c r="G415" s="86"/>
+      <c r="B415" s="85"/>
+      <c r="C415" s="85"/>
+      <c r="D415" s="85"/>
+      <c r="E415" s="85"/>
+      <c r="F415" s="85"/>
+      <c r="G415" s="85"/>
       <c r="H415" s="67"/>
       <c r="I415" s="67"/>
       <c r="J415" s="71"/>
       <c r="K415" s="67"/>
-      <c r="L415" s="86"/>
-      <c r="M415" s="86"/>
-      <c r="N415" s="86"/>
+      <c r="L415" s="85"/>
+      <c r="M415" s="85"/>
+      <c r="N415" s="85"/>
       <c r="O415" s="67"/>
       <c r="P415" s="67"/>
       <c r="Q415" s="67"/>
@@ -14346,19 +14828,19 @@
     </row>
     <row r="416" spans="1:20" ht="18" customHeight="1">
       <c r="A416" s="67"/>
-      <c r="B416" s="86"/>
-      <c r="C416" s="86"/>
-      <c r="D416" s="86"/>
-      <c r="E416" s="86"/>
-      <c r="F416" s="86"/>
-      <c r="G416" s="86"/>
+      <c r="B416" s="85"/>
+      <c r="C416" s="85"/>
+      <c r="D416" s="85"/>
+      <c r="E416" s="85"/>
+      <c r="F416" s="85"/>
+      <c r="G416" s="85"/>
       <c r="H416" s="67"/>
       <c r="I416" s="67"/>
       <c r="J416" s="71"/>
       <c r="K416" s="67"/>
-      <c r="L416" s="86"/>
-      <c r="M416" s="86"/>
-      <c r="N416" s="86"/>
+      <c r="L416" s="85"/>
+      <c r="M416" s="85"/>
+      <c r="N416" s="85"/>
       <c r="O416" s="67"/>
       <c r="P416" s="67"/>
       <c r="Q416" s="67"/>
@@ -14368,19 +14850,19 @@
     </row>
     <row r="417" spans="1:20" ht="18" customHeight="1">
       <c r="A417" s="67"/>
-      <c r="B417" s="86"/>
-      <c r="C417" s="86"/>
-      <c r="D417" s="86"/>
-      <c r="E417" s="86"/>
-      <c r="F417" s="86"/>
-      <c r="G417" s="86"/>
+      <c r="B417" s="85"/>
+      <c r="C417" s="85"/>
+      <c r="D417" s="85"/>
+      <c r="E417" s="85"/>
+      <c r="F417" s="85"/>
+      <c r="G417" s="85"/>
       <c r="H417" s="67"/>
       <c r="I417" s="67"/>
       <c r="J417" s="71"/>
       <c r="K417" s="67"/>
-      <c r="L417" s="86"/>
-      <c r="M417" s="86"/>
-      <c r="N417" s="86"/>
+      <c r="L417" s="85"/>
+      <c r="M417" s="85"/>
+      <c r="N417" s="85"/>
       <c r="O417" s="67"/>
       <c r="P417" s="67"/>
       <c r="Q417" s="67"/>
@@ -14390,19 +14872,19 @@
     </row>
     <row r="418" spans="1:20" ht="18" customHeight="1">
       <c r="A418" s="67"/>
-      <c r="B418" s="86"/>
-      <c r="C418" s="86"/>
-      <c r="D418" s="86"/>
-      <c r="E418" s="86"/>
-      <c r="F418" s="86"/>
-      <c r="G418" s="86"/>
+      <c r="B418" s="85"/>
+      <c r="C418" s="85"/>
+      <c r="D418" s="85"/>
+      <c r="E418" s="85"/>
+      <c r="F418" s="85"/>
+      <c r="G418" s="85"/>
       <c r="H418" s="67"/>
       <c r="I418" s="67"/>
       <c r="J418" s="67"/>
       <c r="K418" s="67"/>
-      <c r="L418" s="86"/>
-      <c r="M418" s="86"/>
-      <c r="N418" s="86"/>
+      <c r="L418" s="85"/>
+      <c r="M418" s="85"/>
+      <c r="N418" s="85"/>
       <c r="O418" s="67"/>
       <c r="P418" s="67"/>
       <c r="Q418" s="67"/>
@@ -14412,19 +14894,19 @@
     </row>
     <row r="419" spans="1:20" ht="18" customHeight="1">
       <c r="A419" s="67"/>
-      <c r="B419" s="86"/>
-      <c r="C419" s="86"/>
-      <c r="D419" s="86"/>
-      <c r="E419" s="86"/>
-      <c r="F419" s="86"/>
-      <c r="G419" s="86"/>
+      <c r="B419" s="85"/>
+      <c r="C419" s="85"/>
+      <c r="D419" s="85"/>
+      <c r="E419" s="85"/>
+      <c r="F419" s="85"/>
+      <c r="G419" s="85"/>
       <c r="H419" s="67"/>
       <c r="I419" s="67"/>
       <c r="J419" s="67"/>
-      <c r="K419" s="87"/>
-      <c r="L419" s="86"/>
-      <c r="M419" s="86"/>
-      <c r="N419" s="86"/>
+      <c r="K419" s="86"/>
+      <c r="L419" s="85"/>
+      <c r="M419" s="85"/>
+      <c r="N419" s="85"/>
       <c r="O419" s="67"/>
       <c r="P419" s="67"/>
       <c r="Q419" s="67"/>
@@ -14434,19 +14916,19 @@
     </row>
     <row r="420" spans="1:20" ht="18" customHeight="1">
       <c r="A420" s="67"/>
-      <c r="B420" s="86"/>
-      <c r="C420" s="86"/>
-      <c r="D420" s="86"/>
-      <c r="E420" s="86"/>
-      <c r="F420" s="86"/>
-      <c r="G420" s="86"/>
+      <c r="B420" s="85"/>
+      <c r="C420" s="85"/>
+      <c r="D420" s="85"/>
+      <c r="E420" s="85"/>
+      <c r="F420" s="85"/>
+      <c r="G420" s="85"/>
       <c r="H420" s="67"/>
       <c r="I420" s="67"/>
       <c r="J420" s="67"/>
-      <c r="K420" s="87"/>
-      <c r="L420" s="86"/>
-      <c r="M420" s="86"/>
-      <c r="N420" s="86"/>
+      <c r="K420" s="86"/>
+      <c r="L420" s="85"/>
+      <c r="M420" s="85"/>
+      <c r="N420" s="85"/>
       <c r="O420" s="67"/>
       <c r="P420" s="67"/>
       <c r="Q420" s="67"/>
@@ -14456,19 +14938,19 @@
     </row>
     <row r="421" spans="1:20" ht="18" customHeight="1">
       <c r="A421" s="67"/>
-      <c r="B421" s="86"/>
-      <c r="C421" s="86"/>
-      <c r="D421" s="86"/>
-      <c r="E421" s="86"/>
-      <c r="F421" s="86"/>
-      <c r="G421" s="86"/>
+      <c r="B421" s="85"/>
+      <c r="C421" s="85"/>
+      <c r="D421" s="85"/>
+      <c r="E421" s="85"/>
+      <c r="F421" s="85"/>
+      <c r="G421" s="85"/>
       <c r="H421" s="67"/>
       <c r="I421" s="67"/>
       <c r="J421" s="67"/>
-      <c r="K421" s="87"/>
-      <c r="L421" s="86"/>
-      <c r="M421" s="86"/>
-      <c r="N421" s="86"/>
+      <c r="K421" s="86"/>
+      <c r="L421" s="85"/>
+      <c r="M421" s="85"/>
+      <c r="N421" s="85"/>
       <c r="O421" s="67"/>
       <c r="P421" s="67"/>
       <c r="Q421" s="67"/>
@@ -14478,19 +14960,19 @@
     </row>
     <row r="422" spans="1:20" ht="18" customHeight="1">
       <c r="A422" s="67"/>
-      <c r="B422" s="86"/>
-      <c r="C422" s="86"/>
-      <c r="D422" s="86"/>
-      <c r="E422" s="86"/>
-      <c r="F422" s="86"/>
-      <c r="G422" s="86"/>
+      <c r="B422" s="85"/>
+      <c r="C422" s="85"/>
+      <c r="D422" s="85"/>
+      <c r="E422" s="85"/>
+      <c r="F422" s="85"/>
+      <c r="G422" s="85"/>
       <c r="H422" s="67"/>
       <c r="I422" s="67"/>
-      <c r="J422" s="87"/>
-      <c r="K422" s="87"/>
-      <c r="L422" s="86"/>
-      <c r="M422" s="86"/>
-      <c r="N422" s="86"/>
+      <c r="J422" s="86"/>
+      <c r="K422" s="86"/>
+      <c r="L422" s="85"/>
+      <c r="M422" s="85"/>
+      <c r="N422" s="85"/>
       <c r="O422" s="67"/>
       <c r="P422" s="67"/>
       <c r="Q422" s="67"/>
@@ -14500,19 +14982,19 @@
     </row>
     <row r="423" spans="1:20" ht="15" customHeight="1">
       <c r="A423" s="67"/>
-      <c r="B423" s="86"/>
-      <c r="C423" s="86"/>
-      <c r="D423" s="86"/>
-      <c r="E423" s="86"/>
-      <c r="F423" s="86"/>
-      <c r="G423" s="86"/>
+      <c r="B423" s="85"/>
+      <c r="C423" s="85"/>
+      <c r="D423" s="85"/>
+      <c r="E423" s="85"/>
+      <c r="F423" s="85"/>
+      <c r="G423" s="85"/>
       <c r="H423" s="67"/>
       <c r="I423" s="67"/>
-      <c r="J423" s="87"/>
-      <c r="K423" s="87"/>
-      <c r="L423" s="86"/>
-      <c r="M423" s="86"/>
-      <c r="N423" s="86"/>
+      <c r="J423" s="86"/>
+      <c r="K423" s="86"/>
+      <c r="L423" s="85"/>
+      <c r="M423" s="85"/>
+      <c r="N423" s="85"/>
       <c r="O423" s="67"/>
       <c r="P423" s="67"/>
       <c r="Q423" s="67"/>
@@ -14521,20 +15003,20 @@
       <c r="T423" s="59"/>
     </row>
     <row r="424" spans="1:20" ht="15" customHeight="1">
-      <c r="A424" s="86"/>
-      <c r="B424" s="86"/>
-      <c r="C424" s="88"/>
-      <c r="D424" s="86"/>
-      <c r="E424" s="86"/>
-      <c r="F424" s="86"/>
-      <c r="G424" s="86"/>
+      <c r="A424" s="85"/>
+      <c r="B424" s="85"/>
+      <c r="C424" s="87"/>
+      <c r="D424" s="85"/>
+      <c r="E424" s="85"/>
+      <c r="F424" s="85"/>
+      <c r="G424" s="85"/>
       <c r="H424" s="67"/>
       <c r="I424" s="67"/>
-      <c r="J424" s="87"/>
-      <c r="K424" s="87"/>
-      <c r="L424" s="86"/>
-      <c r="M424" s="86"/>
-      <c r="N424" s="86"/>
+      <c r="J424" s="86"/>
+      <c r="K424" s="86"/>
+      <c r="L424" s="85"/>
+      <c r="M424" s="85"/>
+      <c r="N424" s="85"/>
       <c r="O424" s="67"/>
       <c r="P424" s="67"/>
       <c r="Q424" s="67"/>
@@ -14543,20 +15025,20 @@
       <c r="T424" s="59"/>
     </row>
     <row r="425" spans="1:20" ht="15" customHeight="1">
-      <c r="A425" s="86"/>
-      <c r="B425" s="86"/>
-      <c r="C425" s="86"/>
-      <c r="D425" s="86"/>
-      <c r="E425" s="86"/>
-      <c r="F425" s="86"/>
-      <c r="G425" s="86"/>
+      <c r="A425" s="85"/>
+      <c r="B425" s="85"/>
+      <c r="C425" s="85"/>
+      <c r="D425" s="85"/>
+      <c r="E425" s="85"/>
+      <c r="F425" s="85"/>
+      <c r="G425" s="85"/>
       <c r="H425" s="67"/>
       <c r="I425" s="67"/>
-      <c r="J425" s="87"/>
-      <c r="K425" s="87"/>
-      <c r="L425" s="86"/>
-      <c r="M425" s="86"/>
-      <c r="N425" s="86"/>
+      <c r="J425" s="86"/>
+      <c r="K425" s="86"/>
+      <c r="L425" s="85"/>
+      <c r="M425" s="85"/>
+      <c r="N425" s="85"/>
       <c r="O425" s="67"/>
       <c r="P425" s="67"/>
       <c r="Q425" s="67"/>
@@ -14565,20 +15047,20 @@
       <c r="T425" s="59"/>
     </row>
     <row r="426" spans="1:20" ht="15" customHeight="1">
-      <c r="A426" s="86"/>
-      <c r="B426" s="86"/>
-      <c r="C426" s="86"/>
-      <c r="D426" s="86"/>
-      <c r="E426" s="86"/>
-      <c r="F426" s="86"/>
-      <c r="G426" s="86"/>
+      <c r="A426" s="85"/>
+      <c r="B426" s="85"/>
+      <c r="C426" s="85"/>
+      <c r="D426" s="85"/>
+      <c r="E426" s="85"/>
+      <c r="F426" s="85"/>
+      <c r="G426" s="85"/>
       <c r="H426" s="67"/>
       <c r="I426" s="67"/>
-      <c r="J426" s="87"/>
-      <c r="K426" s="87"/>
-      <c r="L426" s="86"/>
-      <c r="M426" s="86"/>
-      <c r="N426" s="86"/>
+      <c r="J426" s="86"/>
+      <c r="K426" s="86"/>
+      <c r="L426" s="85"/>
+      <c r="M426" s="85"/>
+      <c r="N426" s="85"/>
       <c r="O426" s="67"/>
       <c r="P426" s="67"/>
       <c r="Q426" s="67"/>
@@ -14587,20 +15069,20 @@
       <c r="T426" s="59"/>
     </row>
     <row r="427" spans="1:20" ht="15" customHeight="1">
-      <c r="A427" s="86"/>
-      <c r="B427" s="86"/>
-      <c r="C427" s="86"/>
-      <c r="D427" s="86"/>
-      <c r="E427" s="86"/>
-      <c r="F427" s="86"/>
-      <c r="G427" s="86"/>
+      <c r="A427" s="85"/>
+      <c r="B427" s="85"/>
+      <c r="C427" s="85"/>
+      <c r="D427" s="85"/>
+      <c r="E427" s="85"/>
+      <c r="F427" s="85"/>
+      <c r="G427" s="85"/>
       <c r="H427" s="67"/>
       <c r="I427" s="67"/>
-      <c r="J427" s="87"/>
+      <c r="J427" s="86"/>
       <c r="K427" s="67"/>
-      <c r="L427" s="86"/>
-      <c r="M427" s="86"/>
-      <c r="N427" s="86"/>
+      <c r="L427" s="85"/>
+      <c r="M427" s="85"/>
+      <c r="N427" s="85"/>
       <c r="O427" s="67"/>
       <c r="P427" s="67"/>
       <c r="Q427" s="67"/>
@@ -14609,20 +15091,20 @@
       <c r="T427" s="59"/>
     </row>
     <row r="428" spans="1:20" ht="15" customHeight="1">
-      <c r="A428" s="86"/>
-      <c r="B428" s="86"/>
-      <c r="C428" s="86"/>
-      <c r="D428" s="86"/>
-      <c r="E428" s="86"/>
-      <c r="F428" s="86"/>
-      <c r="G428" s="86"/>
+      <c r="A428" s="85"/>
+      <c r="B428" s="85"/>
+      <c r="C428" s="85"/>
+      <c r="D428" s="85"/>
+      <c r="E428" s="85"/>
+      <c r="F428" s="85"/>
+      <c r="G428" s="85"/>
       <c r="H428" s="67"/>
       <c r="I428" s="67"/>
-      <c r="J428" s="87"/>
+      <c r="J428" s="86"/>
       <c r="K428" s="67"/>
-      <c r="L428" s="86"/>
-      <c r="M428" s="86"/>
-      <c r="N428" s="86"/>
+      <c r="L428" s="85"/>
+      <c r="M428" s="85"/>
+      <c r="N428" s="85"/>
       <c r="O428" s="67"/>
       <c r="P428" s="67"/>
       <c r="Q428" s="67"/>
@@ -14631,20 +15113,20 @@
       <c r="T428" s="59"/>
     </row>
     <row r="429" spans="1:20" ht="15" customHeight="1">
-      <c r="A429" s="86"/>
-      <c r="B429" s="86"/>
-      <c r="C429" s="88"/>
-      <c r="D429" s="86"/>
-      <c r="E429" s="86"/>
-      <c r="F429" s="86"/>
-      <c r="G429" s="86"/>
+      <c r="A429" s="85"/>
+      <c r="B429" s="85"/>
+      <c r="C429" s="87"/>
+      <c r="D429" s="85"/>
+      <c r="E429" s="85"/>
+      <c r="F429" s="85"/>
+      <c r="G429" s="85"/>
       <c r="H429" s="67"/>
       <c r="I429" s="67"/>
-      <c r="J429" s="87"/>
+      <c r="J429" s="86"/>
       <c r="K429" s="67"/>
-      <c r="L429" s="86"/>
-      <c r="M429" s="86"/>
-      <c r="N429" s="86"/>
+      <c r="L429" s="85"/>
+      <c r="M429" s="85"/>
+      <c r="N429" s="85"/>
       <c r="O429" s="67"/>
       <c r="P429" s="67"/>
       <c r="Q429" s="67"/>
@@ -14653,20 +15135,20 @@
       <c r="T429" s="59"/>
     </row>
     <row r="430" spans="1:20" ht="15" customHeight="1">
-      <c r="A430" s="86"/>
-      <c r="B430" s="86"/>
-      <c r="C430" s="86"/>
-      <c r="D430" s="86"/>
-      <c r="E430" s="86"/>
-      <c r="F430" s="86"/>
-      <c r="G430" s="86"/>
+      <c r="A430" s="85"/>
+      <c r="B430" s="85"/>
+      <c r="C430" s="85"/>
+      <c r="D430" s="85"/>
+      <c r="E430" s="85"/>
+      <c r="F430" s="85"/>
+      <c r="G430" s="85"/>
       <c r="H430" s="67"/>
       <c r="I430" s="67"/>
       <c r="J430" s="67"/>
       <c r="K430" s="67"/>
-      <c r="L430" s="86"/>
-      <c r="M430" s="86"/>
-      <c r="N430" s="86"/>
+      <c r="L430" s="85"/>
+      <c r="M430" s="85"/>
+      <c r="N430" s="85"/>
       <c r="O430" s="67"/>
       <c r="P430" s="67"/>
       <c r="Q430" s="67"/>
@@ -14675,20 +15157,20 @@
       <c r="T430" s="59"/>
     </row>
     <row r="431" spans="1:20" ht="15" customHeight="1">
-      <c r="A431" s="86"/>
-      <c r="B431" s="86"/>
-      <c r="C431" s="88"/>
-      <c r="D431" s="86"/>
-      <c r="E431" s="86"/>
-      <c r="F431" s="86"/>
-      <c r="G431" s="86"/>
+      <c r="A431" s="85"/>
+      <c r="B431" s="85"/>
+      <c r="C431" s="87"/>
+      <c r="D431" s="85"/>
+      <c r="E431" s="85"/>
+      <c r="F431" s="85"/>
+      <c r="G431" s="85"/>
       <c r="H431" s="67"/>
       <c r="I431" s="67"/>
       <c r="J431" s="67"/>
       <c r="K431" s="67"/>
-      <c r="L431" s="86"/>
-      <c r="M431" s="86"/>
-      <c r="N431" s="86"/>
+      <c r="L431" s="85"/>
+      <c r="M431" s="85"/>
+      <c r="N431" s="85"/>
       <c r="O431" s="67"/>
       <c r="P431" s="67"/>
       <c r="Q431" s="67"/>
@@ -14697,20 +15179,20 @@
       <c r="T431" s="59"/>
     </row>
     <row r="432" spans="1:20" ht="15" customHeight="1">
-      <c r="A432" s="86"/>
-      <c r="B432" s="86"/>
-      <c r="C432" s="86"/>
-      <c r="D432" s="86"/>
-      <c r="E432" s="86"/>
-      <c r="F432" s="86"/>
-      <c r="G432" s="86"/>
+      <c r="A432" s="85"/>
+      <c r="B432" s="85"/>
+      <c r="C432" s="85"/>
+      <c r="D432" s="85"/>
+      <c r="E432" s="85"/>
+      <c r="F432" s="85"/>
+      <c r="G432" s="85"/>
       <c r="H432" s="67"/>
       <c r="I432" s="67"/>
       <c r="J432" s="67"/>
       <c r="K432" s="67"/>
-      <c r="L432" s="86"/>
-      <c r="M432" s="86"/>
-      <c r="N432" s="86"/>
+      <c r="L432" s="85"/>
+      <c r="M432" s="85"/>
+      <c r="N432" s="85"/>
       <c r="O432" s="67"/>
       <c r="P432" s="67"/>
       <c r="Q432" s="67"/>
@@ -14719,20 +15201,20 @@
       <c r="T432" s="59"/>
     </row>
     <row r="433" spans="1:20" ht="15" customHeight="1">
-      <c r="A433" s="86"/>
-      <c r="B433" s="86"/>
-      <c r="C433" s="88"/>
-      <c r="D433" s="86"/>
-      <c r="E433" s="86"/>
-      <c r="F433" s="86"/>
-      <c r="G433" s="86"/>
+      <c r="A433" s="85"/>
+      <c r="B433" s="85"/>
+      <c r="C433" s="87"/>
+      <c r="D433" s="85"/>
+      <c r="E433" s="85"/>
+      <c r="F433" s="85"/>
+      <c r="G433" s="85"/>
       <c r="H433" s="67"/>
       <c r="I433" s="67"/>
       <c r="J433" s="67"/>
       <c r="K433" s="67"/>
-      <c r="L433" s="86"/>
-      <c r="M433" s="86"/>
-      <c r="N433" s="86"/>
+      <c r="L433" s="85"/>
+      <c r="M433" s="85"/>
+      <c r="N433" s="85"/>
       <c r="O433" s="67"/>
       <c r="P433" s="67"/>
       <c r="Q433" s="67"/>
@@ -14741,20 +15223,20 @@
       <c r="T433" s="59"/>
     </row>
     <row r="434" spans="1:20" ht="15" customHeight="1">
-      <c r="A434" s="86"/>
-      <c r="B434" s="86"/>
-      <c r="C434" s="86"/>
-      <c r="D434" s="86"/>
-      <c r="E434" s="86"/>
-      <c r="F434" s="86"/>
-      <c r="G434" s="86"/>
+      <c r="A434" s="85"/>
+      <c r="B434" s="85"/>
+      <c r="C434" s="85"/>
+      <c r="D434" s="85"/>
+      <c r="E434" s="85"/>
+      <c r="F434" s="85"/>
+      <c r="G434" s="85"/>
       <c r="H434" s="67"/>
       <c r="I434" s="67"/>
       <c r="J434" s="67"/>
       <c r="K434" s="67"/>
-      <c r="L434" s="86"/>
-      <c r="M434" s="86"/>
-      <c r="N434" s="86"/>
+      <c r="L434" s="85"/>
+      <c r="M434" s="85"/>
+      <c r="N434" s="85"/>
       <c r="O434" s="67"/>
       <c r="P434" s="67"/>
       <c r="Q434" s="67"/>
@@ -14763,20 +15245,20 @@
       <c r="T434" s="59"/>
     </row>
     <row r="435" spans="1:20" ht="15" customHeight="1">
-      <c r="A435" s="86"/>
-      <c r="B435" s="86"/>
-      <c r="C435" s="86"/>
-      <c r="D435" s="86"/>
-      <c r="E435" s="86"/>
-      <c r="F435" s="86"/>
-      <c r="G435" s="86"/>
+      <c r="A435" s="85"/>
+      <c r="B435" s="85"/>
+      <c r="C435" s="85"/>
+      <c r="D435" s="85"/>
+      <c r="E435" s="85"/>
+      <c r="F435" s="85"/>
+      <c r="G435" s="85"/>
       <c r="H435" s="67"/>
       <c r="I435" s="67"/>
       <c r="J435" s="67"/>
       <c r="K435" s="67"/>
-      <c r="L435" s="86"/>
-      <c r="M435" s="86"/>
-      <c r="N435" s="86"/>
+      <c r="L435" s="85"/>
+      <c r="M435" s="85"/>
+      <c r="N435" s="85"/>
       <c r="O435" s="67"/>
       <c r="P435" s="67"/>
       <c r="Q435" s="67"/>
@@ -14785,20 +15267,20 @@
       <c r="T435" s="59"/>
     </row>
     <row r="436" spans="1:20" ht="15" customHeight="1">
-      <c r="A436" s="86"/>
-      <c r="B436" s="86"/>
-      <c r="C436" s="86"/>
-      <c r="D436" s="86"/>
-      <c r="E436" s="86"/>
-      <c r="F436" s="86"/>
-      <c r="G436" s="86"/>
+      <c r="A436" s="85"/>
+      <c r="B436" s="85"/>
+      <c r="C436" s="85"/>
+      <c r="D436" s="85"/>
+      <c r="E436" s="85"/>
+      <c r="F436" s="85"/>
+      <c r="G436" s="85"/>
       <c r="H436" s="67"/>
       <c r="I436" s="67"/>
       <c r="J436" s="67"/>
       <c r="K436" s="67"/>
-      <c r="L436" s="86"/>
-      <c r="M436" s="86"/>
-      <c r="N436" s="86"/>
+      <c r="L436" s="85"/>
+      <c r="M436" s="85"/>
+      <c r="N436" s="85"/>
       <c r="O436" s="67"/>
       <c r="P436" s="67"/>
       <c r="Q436" s="67"/>
@@ -14807,20 +15289,20 @@
       <c r="T436" s="59"/>
     </row>
     <row r="437" spans="1:20" ht="15" customHeight="1">
-      <c r="A437" s="86"/>
-      <c r="B437" s="86"/>
-      <c r="C437" s="86"/>
-      <c r="D437" s="86"/>
-      <c r="E437" s="86"/>
-      <c r="F437" s="86"/>
-      <c r="G437" s="86"/>
+      <c r="A437" s="85"/>
+      <c r="B437" s="85"/>
+      <c r="C437" s="85"/>
+      <c r="D437" s="85"/>
+      <c r="E437" s="85"/>
+      <c r="F437" s="85"/>
+      <c r="G437" s="85"/>
       <c r="H437" s="67"/>
       <c r="I437" s="67"/>
       <c r="J437" s="67"/>
       <c r="K437" s="67"/>
-      <c r="L437" s="86"/>
-      <c r="M437" s="86"/>
-      <c r="N437" s="86"/>
+      <c r="L437" s="85"/>
+      <c r="M437" s="85"/>
+      <c r="N437" s="85"/>
       <c r="O437" s="67"/>
       <c r="P437" s="67"/>
       <c r="Q437" s="67"/>
@@ -14829,20 +15311,20 @@
       <c r="T437" s="59"/>
     </row>
     <row r="438" spans="1:20" ht="15" customHeight="1">
-      <c r="A438" s="86"/>
-      <c r="B438" s="86"/>
-      <c r="C438" s="86"/>
-      <c r="D438" s="86"/>
-      <c r="E438" s="86"/>
-      <c r="F438" s="86"/>
-      <c r="G438" s="86"/>
+      <c r="A438" s="85"/>
+      <c r="B438" s="85"/>
+      <c r="C438" s="85"/>
+      <c r="D438" s="85"/>
+      <c r="E438" s="85"/>
+      <c r="F438" s="85"/>
+      <c r="G438" s="85"/>
       <c r="H438" s="67"/>
       <c r="I438" s="67"/>
       <c r="J438" s="67"/>
       <c r="K438" s="67"/>
-      <c r="L438" s="86"/>
-      <c r="M438" s="86"/>
-      <c r="N438" s="86"/>
+      <c r="L438" s="85"/>
+      <c r="M438" s="85"/>
+      <c r="N438" s="85"/>
       <c r="O438" s="67"/>
       <c r="P438" s="67"/>
       <c r="Q438" s="67"/>
@@ -14851,20 +15333,20 @@
       <c r="T438" s="59"/>
     </row>
     <row r="439" spans="1:20" ht="15" customHeight="1">
-      <c r="A439" s="86"/>
-      <c r="B439" s="86"/>
-      <c r="C439" s="86"/>
-      <c r="D439" s="86"/>
-      <c r="E439" s="86"/>
-      <c r="F439" s="86"/>
-      <c r="G439" s="86"/>
+      <c r="A439" s="85"/>
+      <c r="B439" s="85"/>
+      <c r="C439" s="85"/>
+      <c r="D439" s="85"/>
+      <c r="E439" s="85"/>
+      <c r="F439" s="85"/>
+      <c r="G439" s="85"/>
       <c r="H439" s="67"/>
       <c r="I439" s="67"/>
       <c r="J439" s="67"/>
       <c r="K439" s="67"/>
-      <c r="L439" s="86"/>
-      <c r="M439" s="86"/>
-      <c r="N439" s="86"/>
+      <c r="L439" s="85"/>
+      <c r="M439" s="85"/>
+      <c r="N439" s="85"/>
       <c r="O439" s="67"/>
       <c r="P439" s="67"/>
       <c r="Q439" s="67"/>
@@ -14873,20 +15355,20 @@
       <c r="T439" s="59"/>
     </row>
     <row r="440" spans="1:20" ht="15" customHeight="1">
-      <c r="A440" s="86"/>
-      <c r="B440" s="86"/>
-      <c r="C440" s="86"/>
-      <c r="D440" s="86"/>
-      <c r="E440" s="86"/>
-      <c r="F440" s="86"/>
-      <c r="G440" s="86"/>
+      <c r="A440" s="85"/>
+      <c r="B440" s="85"/>
+      <c r="C440" s="85"/>
+      <c r="D440" s="85"/>
+      <c r="E440" s="85"/>
+      <c r="F440" s="85"/>
+      <c r="G440" s="85"/>
       <c r="H440" s="67"/>
       <c r="I440" s="67"/>
       <c r="J440" s="67"/>
       <c r="K440" s="67"/>
-      <c r="L440" s="86"/>
-      <c r="M440" s="86"/>
-      <c r="N440" s="86"/>
+      <c r="L440" s="85"/>
+      <c r="M440" s="85"/>
+      <c r="N440" s="85"/>
       <c r="O440" s="67"/>
       <c r="P440" s="67"/>
       <c r="Q440" s="67"/>
@@ -14895,20 +15377,20 @@
       <c r="T440" s="59"/>
     </row>
     <row r="441" spans="1:20" ht="15" customHeight="1">
-      <c r="A441" s="86"/>
-      <c r="B441" s="86"/>
-      <c r="C441" s="88"/>
-      <c r="D441" s="86"/>
-      <c r="E441" s="86"/>
-      <c r="F441" s="86"/>
-      <c r="G441" s="86"/>
+      <c r="A441" s="85"/>
+      <c r="B441" s="85"/>
+      <c r="C441" s="87"/>
+      <c r="D441" s="85"/>
+      <c r="E441" s="85"/>
+      <c r="F441" s="85"/>
+      <c r="G441" s="85"/>
       <c r="H441" s="67"/>
       <c r="I441" s="67"/>
       <c r="J441" s="67"/>
       <c r="K441" s="67"/>
-      <c r="L441" s="86"/>
-      <c r="M441" s="86"/>
-      <c r="N441" s="86"/>
+      <c r="L441" s="85"/>
+      <c r="M441" s="85"/>
+      <c r="N441" s="85"/>
       <c r="O441" s="67"/>
       <c r="P441" s="67"/>
       <c r="Q441" s="67"/>
@@ -14917,20 +15399,20 @@
       <c r="T441" s="59"/>
     </row>
     <row r="442" spans="1:20" ht="15" customHeight="1">
-      <c r="A442" s="86"/>
-      <c r="B442" s="86"/>
-      <c r="C442" s="86"/>
-      <c r="D442" s="86"/>
-      <c r="E442" s="86"/>
-      <c r="F442" s="86"/>
-      <c r="G442" s="86"/>
+      <c r="A442" s="85"/>
+      <c r="B442" s="85"/>
+      <c r="C442" s="85"/>
+      <c r="D442" s="85"/>
+      <c r="E442" s="85"/>
+      <c r="F442" s="85"/>
+      <c r="G442" s="85"/>
       <c r="H442" s="67"/>
       <c r="I442" s="67"/>
       <c r="J442" s="67"/>
       <c r="K442" s="67"/>
-      <c r="L442" s="86"/>
-      <c r="M442" s="86"/>
-      <c r="N442" s="86"/>
+      <c r="L442" s="85"/>
+      <c r="M442" s="85"/>
+      <c r="N442" s="85"/>
       <c r="O442" s="67"/>
       <c r="P442" s="67"/>
       <c r="Q442" s="67"/>
@@ -14939,20 +15421,20 @@
       <c r="T442" s="59"/>
     </row>
     <row r="443" spans="1:20" ht="15" customHeight="1">
-      <c r="A443" s="86"/>
-      <c r="B443" s="86"/>
-      <c r="C443" s="86"/>
-      <c r="D443" s="86"/>
-      <c r="E443" s="86"/>
-      <c r="F443" s="86"/>
-      <c r="G443" s="86"/>
+      <c r="A443" s="85"/>
+      <c r="B443" s="85"/>
+      <c r="C443" s="85"/>
+      <c r="D443" s="85"/>
+      <c r="E443" s="85"/>
+      <c r="F443" s="85"/>
+      <c r="G443" s="85"/>
       <c r="H443" s="67"/>
       <c r="I443" s="67"/>
       <c r="J443" s="67"/>
       <c r="K443" s="67"/>
-      <c r="L443" s="86"/>
-      <c r="M443" s="86"/>
-      <c r="N443" s="86"/>
+      <c r="L443" s="85"/>
+      <c r="M443" s="85"/>
+      <c r="N443" s="85"/>
       <c r="O443" s="67"/>
       <c r="P443" s="67"/>
       <c r="Q443" s="67"/>
@@ -14961,20 +15443,20 @@
       <c r="T443" s="59"/>
     </row>
     <row r="444" spans="1:20" ht="15" customHeight="1">
-      <c r="A444" s="86"/>
-      <c r="B444" s="86"/>
-      <c r="C444" s="86"/>
-      <c r="D444" s="86"/>
-      <c r="E444" s="86"/>
-      <c r="F444" s="86"/>
-      <c r="G444" s="86"/>
+      <c r="A444" s="85"/>
+      <c r="B444" s="85"/>
+      <c r="C444" s="85"/>
+      <c r="D444" s="85"/>
+      <c r="E444" s="85"/>
+      <c r="F444" s="85"/>
+      <c r="G444" s="85"/>
       <c r="H444" s="67"/>
       <c r="I444" s="67"/>
       <c r="J444" s="67"/>
       <c r="K444" s="67"/>
-      <c r="L444" s="86"/>
-      <c r="M444" s="86"/>
-      <c r="N444" s="86"/>
+      <c r="L444" s="85"/>
+      <c r="M444" s="85"/>
+      <c r="N444" s="85"/>
       <c r="O444" s="67"/>
       <c r="P444" s="67"/>
       <c r="Q444" s="67"/>
@@ -14983,20 +15465,20 @@
       <c r="T444" s="59"/>
     </row>
     <row r="445" spans="1:20" ht="15" customHeight="1">
-      <c r="A445" s="86"/>
-      <c r="B445" s="86"/>
-      <c r="C445" s="86"/>
-      <c r="D445" s="86"/>
-      <c r="E445" s="86"/>
-      <c r="F445" s="86"/>
-      <c r="G445" s="86"/>
+      <c r="A445" s="85"/>
+      <c r="B445" s="85"/>
+      <c r="C445" s="85"/>
+      <c r="D445" s="85"/>
+      <c r="E445" s="85"/>
+      <c r="F445" s="85"/>
+      <c r="G445" s="85"/>
       <c r="H445" s="67"/>
       <c r="I445" s="67"/>
       <c r="J445" s="67"/>
       <c r="K445" s="67"/>
-      <c r="L445" s="86"/>
-      <c r="M445" s="86"/>
-      <c r="N445" s="86"/>
+      <c r="L445" s="85"/>
+      <c r="M445" s="85"/>
+      <c r="N445" s="85"/>
       <c r="O445" s="67"/>
       <c r="P445" s="67"/>
       <c r="Q445" s="67"/>

--- a/MiscSmallUploads_Apr2025.xlsx
+++ b/MiscSmallUploads_Apr2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44E2409-FFBA-0A44-88BA-9E917C88300C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B89A21-F8C4-4F46-AAAF-B910E7553D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="3700" windowWidth="27720" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="213">
   <si>
     <r>
       <rPr>
@@ -745,6 +745,30 @@
   </si>
   <si>
     <t>10.1016/j.jnoncrysol.2020.120063</t>
+  </si>
+  <si>
+    <t>FeCo Ni Al0.2 Si0.2</t>
+  </si>
+  <si>
+    <t>AAM+MS</t>
+  </si>
+  <si>
+    <t>A/m</t>
+  </si>
+  <si>
+    <t>electrical resistivity</t>
+  </si>
+  <si>
+    <t>coercivity</t>
+  </si>
+  <si>
+    <t>10.1016/j.intermet.2020.106778</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>minor BCC phase</t>
   </si>
 </sst>
 </file>
@@ -3175,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A164" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N194" sqref="N194"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A169" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -11405,7 +11429,9 @@
         <v>196</v>
       </c>
       <c r="E183" s="46"/>
-      <c r="F183" s="57"/>
+      <c r="F183" s="57" t="s">
+        <v>208</v>
+      </c>
       <c r="G183" s="32"/>
       <c r="H183" s="48"/>
       <c r="I183" s="58">
@@ -11445,7 +11471,9 @@
       <c r="E184" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="F184" s="57"/>
+      <c r="F184" s="57" t="s">
+        <v>208</v>
+      </c>
       <c r="G184" s="32"/>
       <c r="H184" s="48"/>
       <c r="I184" s="58">
@@ -11483,7 +11511,9 @@
         <v>196</v>
       </c>
       <c r="E185" s="46"/>
-      <c r="F185" s="57"/>
+      <c r="F185" s="57" t="s">
+        <v>208</v>
+      </c>
       <c r="G185" s="32"/>
       <c r="H185" s="48"/>
       <c r="I185" s="58">
@@ -11524,7 +11554,9 @@
       <c r="E186" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="F186" s="57"/>
+      <c r="F186" s="57" t="s">
+        <v>208</v>
+      </c>
       <c r="G186" s="32"/>
       <c r="H186" s="48"/>
       <c r="I186" s="58">
@@ -11563,7 +11595,9 @@
         <v>196</v>
       </c>
       <c r="E187" s="59"/>
-      <c r="F187" s="57"/>
+      <c r="F187" s="57" t="s">
+        <v>208</v>
+      </c>
       <c r="G187" s="55"/>
       <c r="H187" s="60"/>
       <c r="I187" s="58">
@@ -11603,7 +11637,9 @@
       <c r="E188" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="F188" s="57"/>
+      <c r="F188" s="57" t="s">
+        <v>208</v>
+      </c>
       <c r="G188" s="55"/>
       <c r="H188" s="60"/>
       <c r="I188" s="58">
@@ -11641,7 +11677,9 @@
         <v>196</v>
       </c>
       <c r="E189" s="59"/>
-      <c r="F189" s="57"/>
+      <c r="F189" s="57" t="s">
+        <v>208</v>
+      </c>
       <c r="G189" s="55"/>
       <c r="H189" s="60"/>
       <c r="I189" s="58">
@@ -11682,7 +11720,9 @@
       <c r="E190" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="F190" s="57"/>
+      <c r="F190" s="57" t="s">
+        <v>208</v>
+      </c>
       <c r="G190" s="55"/>
       <c r="H190" s="60"/>
       <c r="I190" s="58">
@@ -11711,19 +11751,37 @@
     </row>
     <row r="191" spans="1:20" ht="18" customHeight="1">
       <c r="A191" s="38"/>
-      <c r="B191" s="41"/>
-      <c r="C191" s="58"/>
-      <c r="D191" s="58"/>
+      <c r="B191" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C191" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D191" s="58" t="s">
+        <v>206</v>
+      </c>
       <c r="E191" s="59"/>
-      <c r="F191" s="61"/>
+      <c r="F191" s="61" t="s">
+        <v>197</v>
+      </c>
       <c r="G191" s="55"/>
       <c r="H191" s="60"/>
-      <c r="I191" s="58"/>
-      <c r="J191" s="38"/>
+      <c r="I191" s="58">
+        <v>298</v>
+      </c>
+      <c r="J191" s="38">
+        <v>123.4</v>
+      </c>
       <c r="K191" s="38"/>
-      <c r="L191" s="40"/>
-      <c r="M191" s="40"/>
-      <c r="N191" s="40"/>
+      <c r="L191" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="M191" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="N191" s="40" t="s">
+        <v>210</v>
+      </c>
       <c r="O191" s="37"/>
       <c r="P191" s="38"/>
       <c r="Q191" s="38"/>
@@ -11733,19 +11791,39 @@
     </row>
     <row r="192" spans="1:20" ht="18" customHeight="1">
       <c r="A192" s="38"/>
-      <c r="B192" s="41"/>
-      <c r="C192" s="58"/>
-      <c r="D192" s="58"/>
-      <c r="E192" s="59"/>
-      <c r="F192" s="61"/>
+      <c r="B192" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C192" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D192" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F192" s="61" t="s">
+        <v>197</v>
+      </c>
       <c r="G192" s="55"/>
       <c r="H192" s="60"/>
-      <c r="I192" s="38"/>
-      <c r="J192" s="38"/>
+      <c r="I192" s="58">
+        <v>298</v>
+      </c>
+      <c r="J192" s="38">
+        <v>118.9</v>
+      </c>
       <c r="K192" s="38"/>
-      <c r="L192" s="40"/>
-      <c r="M192" s="40"/>
-      <c r="N192" s="40"/>
+      <c r="L192" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="M192" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="N192" s="40" t="s">
+        <v>210</v>
+      </c>
       <c r="O192" s="37"/>
       <c r="P192" s="38"/>
       <c r="Q192" s="38"/>
@@ -11755,19 +11833,37 @@
     </row>
     <row r="193" spans="1:20" ht="18" customHeight="1">
       <c r="A193" s="38"/>
-      <c r="B193" s="41"/>
-      <c r="C193" s="58"/>
-      <c r="D193" s="58"/>
+      <c r="B193" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C193" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D193" s="58" t="s">
+        <v>206</v>
+      </c>
       <c r="E193" s="59"/>
-      <c r="F193" s="61"/>
+      <c r="F193" s="61" t="s">
+        <v>209</v>
+      </c>
       <c r="G193" s="55"/>
       <c r="H193" s="60"/>
-      <c r="I193" s="38"/>
-      <c r="J193" s="38"/>
+      <c r="I193" s="58">
+        <v>298</v>
+      </c>
+      <c r="J193" s="38">
+        <v>85.8</v>
+      </c>
       <c r="K193" s="38"/>
-      <c r="L193" s="40"/>
-      <c r="M193" s="40"/>
-      <c r="N193" s="40"/>
+      <c r="L193" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="M193" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="N193" s="40" t="s">
+        <v>210</v>
+      </c>
       <c r="O193" s="37"/>
       <c r="P193" s="38"/>
       <c r="Q193" s="38"/>
@@ -11777,19 +11873,39 @@
     </row>
     <row r="194" spans="1:20" ht="18" customHeight="1">
       <c r="A194" s="38"/>
-      <c r="B194" s="41"/>
-      <c r="C194" s="58"/>
-      <c r="D194" s="58"/>
-      <c r="E194" s="59"/>
-      <c r="F194" s="61"/>
+      <c r="B194" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C194" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D194" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F194" s="61" t="s">
+        <v>209</v>
+      </c>
       <c r="G194" s="55"/>
       <c r="H194" s="60"/>
-      <c r="I194" s="38"/>
-      <c r="J194" s="38"/>
+      <c r="I194" s="58">
+        <v>298</v>
+      </c>
+      <c r="J194" s="38">
+        <v>405.6</v>
+      </c>
       <c r="K194" s="38"/>
-      <c r="L194" s="40"/>
-      <c r="M194" s="40"/>
-      <c r="N194" s="40"/>
+      <c r="L194" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="M194" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="N194" s="40" t="s">
+        <v>210</v>
+      </c>
       <c r="O194" s="37"/>
       <c r="P194" s="38"/>
       <c r="Q194" s="38"/>

--- a/MiscSmallUploads_Apr2025.xlsx
+++ b/MiscSmallUploads_Apr2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B89A21-F8C4-4F46-AAAF-B910E7553D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8C9CD-A751-D04E-9041-853AF93328A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="3700" windowWidth="27720" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="217">
   <si>
     <r>
       <rPr>
@@ -769,6 +769,18 @@
   </si>
   <si>
     <t>minor BCC phase</t>
+  </si>
+  <si>
+    <t>peak magnetic entropy change</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>J / (kg K)</t>
+  </si>
+  <si>
+    <t>10.1016/j.cap.2019.09.019</t>
   </si>
 </sst>
 </file>
@@ -3200,7 +3212,7 @@
   <dimension ref="A1:T962"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A169" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G200" sqref="G200"/>
+      <selection activeCell="J201" sqref="J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -11432,7 +11444,9 @@
       <c r="F183" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="G183" s="32"/>
+      <c r="G183" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H183" s="48"/>
       <c r="I183" s="58">
         <v>298</v>
@@ -11474,7 +11488,9 @@
       <c r="F184" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="G184" s="32"/>
+      <c r="G184" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H184" s="48"/>
       <c r="I184" s="58">
         <v>298</v>
@@ -11514,7 +11530,9 @@
       <c r="F185" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="G185" s="32"/>
+      <c r="G185" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H185" s="48"/>
       <c r="I185" s="58">
         <f>550+273</f>
@@ -11557,7 +11575,9 @@
       <c r="F186" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="G186" s="32"/>
+      <c r="G186" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H186" s="48"/>
       <c r="I186" s="58">
         <f>550+273</f>
@@ -11598,7 +11618,9 @@
       <c r="F187" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="G187" s="55"/>
+      <c r="G187" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H187" s="60"/>
       <c r="I187" s="58">
         <v>298</v>
@@ -11640,7 +11662,9 @@
       <c r="F188" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="G188" s="55"/>
+      <c r="G188" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H188" s="60"/>
       <c r="I188" s="58">
         <v>298</v>
@@ -11680,7 +11704,9 @@
       <c r="F189" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="G189" s="55"/>
+      <c r="G189" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H189" s="60"/>
       <c r="I189" s="58">
         <f>550+273</f>
@@ -11723,7 +11749,9 @@
       <c r="F190" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="G190" s="55"/>
+      <c r="G190" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H190" s="60"/>
       <c r="I190" s="58">
         <f>550+273</f>
@@ -11764,7 +11792,9 @@
       <c r="F191" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="G191" s="55"/>
+      <c r="G191" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H191" s="60"/>
       <c r="I191" s="58">
         <v>298</v>
@@ -11806,7 +11836,9 @@
       <c r="F192" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="G192" s="55"/>
+      <c r="G192" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H192" s="60"/>
       <c r="I192" s="58">
         <v>298</v>
@@ -11846,7 +11878,9 @@
       <c r="F193" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="G193" s="55"/>
+      <c r="G193" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H193" s="60"/>
       <c r="I193" s="58">
         <v>298</v>
@@ -11888,7 +11922,9 @@
       <c r="F194" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="G194" s="55"/>
+      <c r="G194" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H194" s="60"/>
       <c r="I194" s="58">
         <v>298</v>
@@ -11915,19 +11951,39 @@
     </row>
     <row r="195" spans="1:20" ht="18" customHeight="1">
       <c r="A195" s="38"/>
-      <c r="B195" s="41"/>
-      <c r="C195" s="58"/>
-      <c r="D195" s="58"/>
+      <c r="B195" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C195" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D195" s="58" t="s">
+        <v>64</v>
+      </c>
       <c r="E195" s="59"/>
-      <c r="F195" s="61"/>
-      <c r="G195" s="55"/>
-      <c r="H195" s="60"/>
-      <c r="I195" s="38"/>
-      <c r="J195" s="38"/>
+      <c r="F195" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="G195" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H195" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="I195" s="38">
+        <v>330</v>
+      </c>
+      <c r="J195" s="38">
+        <v>1.59</v>
+      </c>
       <c r="K195" s="38"/>
-      <c r="L195" s="40"/>
+      <c r="L195" s="40" t="s">
+        <v>215</v>
+      </c>
       <c r="M195" s="40"/>
-      <c r="N195" s="40"/>
+      <c r="N195" s="40" t="s">
+        <v>216</v>
+      </c>
       <c r="O195" s="37"/>
       <c r="P195" s="38"/>
       <c r="Q195" s="38"/>

--- a/MiscSmallUploads_Apr2025.xlsx
+++ b/MiscSmallUploads_Apr2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8C9CD-A751-D04E-9041-853AF93328A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933D2038-6B52-EB4B-9CEE-B8E28D7139DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="3700" windowWidth="27720" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17540" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="230">
   <si>
     <r>
       <rPr>
@@ -782,6 +782,45 @@
   <si>
     <t>10.1016/j.cap.2019.09.019</t>
   </si>
+  <si>
+    <t>CoCrCuFeNi</t>
+  </si>
+  <si>
+    <t>CoCrCuFeNiGd0.05</t>
+  </si>
+  <si>
+    <t>CoCrCuFeNiGd0.1</t>
+  </si>
+  <si>
+    <t>CoCrCuFeNiGd0.2</t>
+  </si>
+  <si>
+    <t>CoCrCuFeNiGd0.3</t>
+  </si>
+  <si>
+    <t>FCC+D2d</t>
+  </si>
+  <si>
+    <t>hexagonal D2d (CaCu5 prototype) phase</t>
+  </si>
+  <si>
+    <t>FCC+FCC</t>
+  </si>
+  <si>
+    <t>very minor secondary FCC phase</t>
+  </si>
+  <si>
+    <t>minimum UCS</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>10.1016/j.msea.2017.09.102</t>
+  </si>
 </sst>
 </file>
 
@@ -948,7 +987,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1746,11 +1785,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA7A7A7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA7A7A7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA7A7A7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA7A7A7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA7A7A7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA7A7A7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA7A7A7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA7A7A7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA7A7A7"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA7A7A7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA7A7A7"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA7A7A7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,57 +2027,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2047,8 +2089,63 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3211,8 +3308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A169" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J201" sqref="J201"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A186" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N223" sqref="N223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -3269,19 +3366,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="122"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="107"/>
       <c r="O2" s="13"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3297,17 +3394,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="126"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="111"/>
       <c r="O3" s="13"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3348,43 +3445,43 @@
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="129" t="s">
+      <c r="I5" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="129" t="s">
+      <c r="J5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="129" t="s">
+      <c r="K5" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="129" t="s">
+      <c r="L5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="129" t="s">
+      <c r="M5" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="129" t="s">
+      <c r="N5" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="97" t="s">
+      <c r="O5" s="119" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="25"/>
@@ -3400,19 +3497,19 @@
       <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="98"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="120"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
@@ -3462,7 +3559,7 @@
       <c r="N7" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="99"/>
+      <c r="O7" s="121"/>
       <c r="P7" s="70" t="s">
         <v>85</v>
       </c>
@@ -3477,35 +3574,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="65"/>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="103" t="s">
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="108" t="s">
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="109"/>
+      <c r="N8" s="131"/>
       <c r="O8" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="110" t="s">
+      <c r="P8" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="113"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="135"/>
     </row>
     <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="66" t="s">
@@ -11258,7 +11355,7 @@
       <c r="B179" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C179" s="134" t="s">
+      <c r="C179" s="97" t="s">
         <v>193</v>
       </c>
       <c r="D179" s="40" t="s">
@@ -11302,7 +11399,7 @@
       <c r="B180" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C180" s="134" t="s">
+      <c r="C180" s="97" t="s">
         <v>193</v>
       </c>
       <c r="D180" s="40" t="s">
@@ -11346,7 +11443,7 @@
       <c r="B181" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C181" s="134" t="s">
+      <c r="C181" s="97" t="s">
         <v>193</v>
       </c>
       <c r="D181" s="40" t="s">
@@ -11390,7 +11487,7 @@
       <c r="B182" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C182" s="134" t="s">
+      <c r="C182" s="97" t="s">
         <v>193</v>
       </c>
       <c r="D182" s="40" t="s">
@@ -11434,7 +11531,7 @@
       <c r="B183" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C183" s="134" t="s">
+      <c r="C183" s="97" t="s">
         <v>193</v>
       </c>
       <c r="D183" s="40" t="s">
@@ -11476,7 +11573,7 @@
       <c r="B184" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C184" s="134" t="s">
+      <c r="C184" s="97" t="s">
         <v>193</v>
       </c>
       <c r="D184" s="40" t="s">
@@ -11520,7 +11617,7 @@
       <c r="B185" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C185" s="134" t="s">
+      <c r="C185" s="97" t="s">
         <v>193</v>
       </c>
       <c r="D185" s="40" t="s">
@@ -11563,7 +11660,7 @@
       <c r="B186" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C186" s="134" t="s">
+      <c r="C186" s="97" t="s">
         <v>193</v>
       </c>
       <c r="D186" s="40" t="s">
@@ -11608,7 +11705,7 @@
       <c r="B187" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C187" s="134" t="s">
+      <c r="C187" s="97" t="s">
         <v>193</v>
       </c>
       <c r="D187" s="40" t="s">
@@ -11650,7 +11747,7 @@
       <c r="B188" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C188" s="134" t="s">
+      <c r="C188" s="97" t="s">
         <v>193</v>
       </c>
       <c r="D188" s="40" t="s">
@@ -11669,7 +11766,7 @@
       <c r="I188" s="58">
         <v>298</v>
       </c>
-      <c r="J188" s="135">
+      <c r="J188" s="98">
         <v>4.2599999999999999E-6</v>
       </c>
       <c r="K188" s="38"/>
@@ -11694,7 +11791,7 @@
       <c r="B189" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C189" s="134" t="s">
+      <c r="C189" s="97" t="s">
         <v>193</v>
       </c>
       <c r="D189" s="40" t="s">
@@ -11737,7 +11834,7 @@
       <c r="B190" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C190" s="134" t="s">
+      <c r="C190" s="97" t="s">
         <v>193</v>
       </c>
       <c r="D190" s="40" t="s">
@@ -11993,129 +12090,304 @@
     </row>
     <row r="196" spans="1:20" ht="18" customHeight="1">
       <c r="A196" s="38"/>
-      <c r="B196" s="41"/>
-      <c r="C196" s="58"/>
-      <c r="D196" s="58"/>
-      <c r="E196" s="59"/>
-      <c r="F196" s="61"/>
-      <c r="G196" s="55"/>
+      <c r="B196" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C196" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D196" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F196" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G196" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H196" s="60"/>
-      <c r="I196" s="38"/>
-      <c r="J196" s="38"/>
-      <c r="K196" s="38"/>
-      <c r="L196" s="40"/>
-      <c r="M196" s="40"/>
-      <c r="N196" s="40"/>
+      <c r="I196" s="38">
+        <v>298</v>
+      </c>
+      <c r="J196" s="38">
+        <f>P196*9807000</f>
+        <v>1729598181.8181782</v>
+      </c>
+      <c r="K196" s="38">
+        <f>(Q196-P196)*9807000</f>
+        <v>71323636.363633648</v>
+      </c>
+      <c r="L196" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M196" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="N196" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O196" s="37"/>
-      <c r="P196" s="38"/>
-      <c r="Q196" s="38"/>
+      <c r="P196" s="38">
+        <v>176.363636363636</v>
+      </c>
+      <c r="Q196" s="38">
+        <v>183.636363636363</v>
+      </c>
       <c r="R196" s="37"/>
       <c r="S196" s="37"/>
       <c r="T196" s="37"/>
     </row>
     <row r="197" spans="1:20" ht="18" customHeight="1">
       <c r="A197" s="38"/>
-      <c r="B197" s="41"/>
-      <c r="C197" s="58"/>
-      <c r="D197" s="58"/>
-      <c r="E197" s="59"/>
-      <c r="F197" s="61"/>
-      <c r="G197" s="55"/>
+      <c r="B197" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C197" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D197" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F197" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G197" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H197" s="60"/>
-      <c r="I197" s="38"/>
-      <c r="J197" s="38"/>
-      <c r="K197" s="38"/>
-      <c r="L197" s="40"/>
-      <c r="M197" s="40"/>
-      <c r="N197" s="40"/>
+      <c r="I197" s="38">
+        <v>298</v>
+      </c>
+      <c r="J197" s="38">
+        <f t="shared" ref="J197:J200" si="5">P197*9807000</f>
+        <v>1734055909.0909009</v>
+      </c>
+      <c r="K197" s="38">
+        <f t="shared" ref="K197:K200" si="6">(Q197-P197)*9807000</f>
+        <v>66865909.090910994</v>
+      </c>
+      <c r="L197" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M197" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="N197" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O197" s="37"/>
-      <c r="P197" s="38"/>
-      <c r="Q197" s="38"/>
+      <c r="P197" s="38">
+        <v>176.81818181818099</v>
+      </c>
+      <c r="Q197" s="38">
+        <v>183.636363636363</v>
+      </c>
       <c r="R197" s="37"/>
       <c r="S197" s="37"/>
       <c r="T197" s="37"/>
     </row>
     <row r="198" spans="1:20" ht="18" customHeight="1">
       <c r="A198" s="38"/>
-      <c r="B198" s="41"/>
-      <c r="C198" s="58"/>
-      <c r="D198" s="58"/>
-      <c r="E198" s="59"/>
-      <c r="F198" s="61"/>
-      <c r="G198" s="55"/>
+      <c r="B198" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="C198" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D198" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F198" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G198" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H198" s="60"/>
-      <c r="I198" s="38"/>
-      <c r="J198" s="38"/>
-      <c r="K198" s="38"/>
-      <c r="L198" s="40"/>
-      <c r="M198" s="40"/>
-      <c r="N198" s="40"/>
+      <c r="I198" s="38">
+        <v>298</v>
+      </c>
+      <c r="J198" s="38">
+        <f t="shared" si="5"/>
+        <v>2193201818.1818118</v>
+      </c>
+      <c r="K198" s="38">
+        <f t="shared" si="6"/>
+        <v>89154545.454544649</v>
+      </c>
+      <c r="L198" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M198" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="N198" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O198" s="37"/>
-      <c r="P198" s="38"/>
-      <c r="Q198" s="38"/>
+      <c r="P198" s="38">
+        <v>223.636363636363</v>
+      </c>
+      <c r="Q198" s="38">
+        <v>232.72727272727201</v>
+      </c>
       <c r="R198" s="37"/>
       <c r="S198" s="37"/>
       <c r="T198" s="37"/>
     </row>
     <row r="199" spans="1:20" ht="18" customHeight="1">
       <c r="A199" s="38"/>
-      <c r="B199" s="41"/>
-      <c r="C199" s="58"/>
-      <c r="D199" s="58"/>
-      <c r="E199" s="59"/>
-      <c r="F199" s="61"/>
-      <c r="G199" s="55"/>
+      <c r="B199" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C199" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D199" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F199" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G199" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H199" s="60"/>
-      <c r="I199" s="38"/>
-      <c r="J199" s="38"/>
-      <c r="K199" s="38"/>
-      <c r="L199" s="40"/>
-      <c r="M199" s="40"/>
-      <c r="N199" s="40"/>
+      <c r="I199" s="38">
+        <v>298</v>
+      </c>
+      <c r="J199" s="38">
+        <f t="shared" si="5"/>
+        <v>2799452727.2727227</v>
+      </c>
+      <c r="K199" s="38">
+        <f t="shared" si="6"/>
+        <v>115900909.09091127</v>
+      </c>
+      <c r="L199" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M199" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="N199" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O199" s="37"/>
-      <c r="P199" s="38"/>
-      <c r="Q199" s="38"/>
+      <c r="P199" s="38">
+        <v>285.45454545454498</v>
+      </c>
+      <c r="Q199" s="38">
+        <v>297.27272727272702</v>
+      </c>
       <c r="R199" s="37"/>
       <c r="S199" s="37"/>
       <c r="T199" s="37"/>
     </row>
     <row r="200" spans="1:20" ht="18" customHeight="1">
       <c r="A200" s="38"/>
-      <c r="B200" s="41"/>
-      <c r="C200" s="58"/>
-      <c r="D200" s="58"/>
-      <c r="E200" s="59"/>
-      <c r="F200" s="61"/>
-      <c r="G200" s="55"/>
+      <c r="B200" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C200" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D200" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F200" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G200" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H200" s="60"/>
-      <c r="I200" s="58"/>
-      <c r="J200" s="38"/>
-      <c r="K200" s="38"/>
-      <c r="L200" s="40"/>
-      <c r="M200" s="40"/>
-      <c r="N200" s="40"/>
+      <c r="I200" s="38">
+        <v>298</v>
+      </c>
+      <c r="J200" s="38">
+        <f t="shared" si="5"/>
+        <v>2870776363.6363564</v>
+      </c>
+      <c r="K200" s="38">
+        <f t="shared" si="6"/>
+        <v>115900909.09091072</v>
+      </c>
+      <c r="L200" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M200" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="N200" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O200" s="37"/>
-      <c r="P200" s="38"/>
-      <c r="Q200" s="38"/>
+      <c r="P200" s="38">
+        <v>292.72727272727201</v>
+      </c>
+      <c r="Q200" s="38">
+        <v>304.54545454545399</v>
+      </c>
       <c r="R200" s="37"/>
       <c r="S200" s="37"/>
       <c r="T200" s="37"/>
     </row>
     <row r="201" spans="1:20" ht="18" customHeight="1">
       <c r="A201" s="38"/>
-      <c r="B201" s="41"/>
-      <c r="C201" s="58"/>
-      <c r="D201" s="58"/>
-      <c r="E201" s="59"/>
-      <c r="F201" s="61"/>
-      <c r="G201" s="55"/>
+      <c r="B201" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C201" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D201" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F201" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G201" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H201" s="60"/>
-      <c r="I201" s="58"/>
-      <c r="J201" s="38"/>
-      <c r="K201" s="38"/>
-      <c r="L201" s="40"/>
-      <c r="M201" s="40"/>
-      <c r="N201" s="40"/>
+      <c r="I201" s="38">
+        <v>298</v>
+      </c>
+      <c r="J201" s="54">
+        <v>2696498054.4747</v>
+      </c>
+      <c r="K201" s="54">
+        <f>2981841763.94293-J201</f>
+        <v>285343709.46823025</v>
+      </c>
+      <c r="L201" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M201" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="N201" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O201" s="37"/>
       <c r="P201" s="38"/>
       <c r="Q201" s="38"/>
@@ -12125,19 +12397,44 @@
     </row>
     <row r="202" spans="1:20" ht="18" customHeight="1">
       <c r="A202" s="38"/>
-      <c r="B202" s="41"/>
-      <c r="C202" s="58"/>
-      <c r="D202" s="58"/>
-      <c r="E202" s="59"/>
-      <c r="F202" s="61"/>
-      <c r="G202" s="55"/>
+      <c r="B202" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C202" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D202" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F202" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G202" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H202" s="60"/>
-      <c r="I202" s="58"/>
-      <c r="J202" s="38"/>
-      <c r="K202" s="38"/>
-      <c r="L202" s="40"/>
-      <c r="M202" s="40"/>
-      <c r="N202" s="40"/>
+      <c r="I202" s="38">
+        <v>298</v>
+      </c>
+      <c r="J202" s="54">
+        <v>2696498054.4747</v>
+      </c>
+      <c r="K202" s="54">
+        <f>3010376134.88975-J202</f>
+        <v>313878080.41505003</v>
+      </c>
+      <c r="L202" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M202" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="N202" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O202" s="37"/>
       <c r="P202" s="38"/>
       <c r="Q202" s="38"/>
@@ -12147,19 +12444,41 @@
     </row>
     <row r="203" spans="1:20" ht="18" customHeight="1">
       <c r="A203" s="38"/>
-      <c r="B203" s="31"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="40"/>
-      <c r="E203" s="46"/>
-      <c r="F203" s="57"/>
-      <c r="G203" s="32"/>
+      <c r="B203" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C203" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D203" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F203" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G203" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H203" s="48"/>
-      <c r="I203" s="58"/>
-      <c r="J203" s="38"/>
+      <c r="I203" s="38">
+        <v>298</v>
+      </c>
+      <c r="J203" s="54">
+        <v>320000000</v>
+      </c>
       <c r="K203" s="38"/>
-      <c r="L203" s="40"/>
-      <c r="M203" s="40"/>
-      <c r="N203" s="40"/>
+      <c r="L203" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M203" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N203" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O203" s="37"/>
       <c r="P203" s="38"/>
       <c r="Q203" s="38"/>
@@ -12169,19 +12488,41 @@
     </row>
     <row r="204" spans="1:20" ht="18" customHeight="1">
       <c r="A204" s="38"/>
-      <c r="B204" s="31"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="40"/>
-      <c r="E204" s="46"/>
-      <c r="F204" s="57"/>
-      <c r="G204" s="32"/>
+      <c r="B204" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C204" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D204" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F204" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G204" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H204" s="48"/>
-      <c r="I204" s="58"/>
-      <c r="J204" s="38"/>
+      <c r="I204" s="38">
+        <v>298</v>
+      </c>
+      <c r="J204" s="54">
+        <v>300000000</v>
+      </c>
       <c r="K204" s="38"/>
-      <c r="L204" s="40"/>
-      <c r="M204" s="40"/>
-      <c r="N204" s="40"/>
+      <c r="L204" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M204" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N204" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O204" s="37"/>
       <c r="P204" s="38"/>
       <c r="Q204" s="38"/>
@@ -12191,19 +12532,41 @@
     </row>
     <row r="205" spans="1:20" ht="18" customHeight="1">
       <c r="A205" s="38"/>
-      <c r="B205" s="31"/>
-      <c r="C205" s="40"/>
-      <c r="D205" s="40"/>
-      <c r="E205" s="46"/>
-      <c r="F205" s="57"/>
-      <c r="G205" s="32"/>
+      <c r="B205" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="C205" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D205" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F205" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G205" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H205" s="48"/>
-      <c r="I205" s="58"/>
-      <c r="J205" s="38"/>
+      <c r="I205" s="38">
+        <v>298</v>
+      </c>
+      <c r="J205" s="54">
+        <v>526000000</v>
+      </c>
       <c r="K205" s="38"/>
-      <c r="L205" s="40"/>
-      <c r="M205" s="40"/>
-      <c r="N205" s="40"/>
+      <c r="L205" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M205" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N205" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O205" s="37"/>
       <c r="P205" s="38"/>
       <c r="Q205" s="38"/>
@@ -12213,19 +12576,41 @@
     </row>
     <row r="206" spans="1:20" ht="18" customHeight="1">
       <c r="A206" s="38"/>
-      <c r="B206" s="31"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="40"/>
-      <c r="E206" s="46"/>
-      <c r="F206" s="57"/>
-      <c r="G206" s="32"/>
+      <c r="B206" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C206" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D206" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F206" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G206" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H206" s="48"/>
-      <c r="I206" s="58"/>
-      <c r="J206" s="38"/>
+      <c r="I206" s="38">
+        <v>298</v>
+      </c>
+      <c r="J206" s="54">
+        <v>739000000</v>
+      </c>
       <c r="K206" s="38"/>
-      <c r="L206" s="40"/>
-      <c r="M206" s="40"/>
-      <c r="N206" s="40"/>
+      <c r="L206" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M206" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N206" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O206" s="37"/>
       <c r="P206" s="38"/>
       <c r="Q206" s="38"/>
@@ -12235,19 +12620,41 @@
     </row>
     <row r="207" spans="1:20" ht="18" customHeight="1">
       <c r="A207" s="38"/>
-      <c r="B207" s="31"/>
-      <c r="C207" s="40"/>
-      <c r="D207" s="40"/>
-      <c r="E207" s="46"/>
-      <c r="F207" s="57"/>
-      <c r="G207" s="32"/>
+      <c r="B207" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C207" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D207" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F207" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G207" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H207" s="48"/>
-      <c r="I207" s="58"/>
-      <c r="J207" s="38"/>
+      <c r="I207" s="38">
+        <v>298</v>
+      </c>
+      <c r="J207" s="54">
+        <v>1132000000</v>
+      </c>
       <c r="K207" s="38"/>
-      <c r="L207" s="40"/>
-      <c r="M207" s="40"/>
-      <c r="N207" s="40"/>
+      <c r="L207" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M207" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N207" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O207" s="37"/>
       <c r="P207" s="38"/>
       <c r="Q207" s="38"/>
@@ -12257,19 +12664,41 @@
     </row>
     <row r="208" spans="1:20" ht="18" customHeight="1">
       <c r="A208" s="38"/>
-      <c r="B208" s="31"/>
-      <c r="C208" s="40"/>
-      <c r="D208" s="40"/>
-      <c r="E208" s="46"/>
-      <c r="F208" s="57"/>
-      <c r="G208" s="32"/>
+      <c r="B208" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="C208" s="137" t="s">
+        <v>224</v>
+      </c>
+      <c r="D208" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="138" t="s">
+        <v>225</v>
+      </c>
+      <c r="F208" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="G208" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H208" s="48"/>
-      <c r="I208" s="38"/>
-      <c r="J208" s="38"/>
+      <c r="I208" s="38">
+        <v>298</v>
+      </c>
+      <c r="J208" s="54">
+        <v>2000000000</v>
+      </c>
       <c r="K208" s="38"/>
-      <c r="L208" s="40"/>
-      <c r="M208" s="40"/>
-      <c r="N208" s="40"/>
+      <c r="L208" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M208" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N208" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O208" s="37"/>
       <c r="P208" s="38"/>
       <c r="Q208" s="38"/>
@@ -12279,19 +12708,41 @@
     </row>
     <row r="209" spans="1:20" ht="18" customHeight="1">
       <c r="A209" s="38"/>
-      <c r="B209" s="31"/>
-      <c r="C209" s="40"/>
-      <c r="D209" s="40"/>
-      <c r="E209" s="46"/>
-      <c r="F209" s="57"/>
-      <c r="G209" s="32"/>
+      <c r="B209" s="139" t="s">
+        <v>218</v>
+      </c>
+      <c r="C209" s="140" t="s">
+        <v>224</v>
+      </c>
+      <c r="D209" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="F209" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="G209" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H209" s="48"/>
-      <c r="I209" s="38"/>
-      <c r="J209" s="38"/>
+      <c r="I209" s="38">
+        <v>298</v>
+      </c>
+      <c r="J209" s="54">
+        <v>2000000000</v>
+      </c>
       <c r="K209" s="38"/>
-      <c r="L209" s="40"/>
-      <c r="M209" s="40"/>
-      <c r="N209" s="40"/>
+      <c r="L209" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M209" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N209" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O209" s="37"/>
       <c r="P209" s="38"/>
       <c r="Q209" s="38"/>
@@ -12301,19 +12752,41 @@
     </row>
     <row r="210" spans="1:20" ht="18" customHeight="1">
       <c r="A210" s="38"/>
-      <c r="B210" s="31"/>
-      <c r="C210" s="40"/>
-      <c r="D210" s="40"/>
-      <c r="E210" s="46"/>
-      <c r="F210" s="57"/>
-      <c r="G210" s="32"/>
+      <c r="B210" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="C210" s="140" t="s">
+        <v>222</v>
+      </c>
+      <c r="D210" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="F210" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G210" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H210" s="48"/>
-      <c r="I210" s="38"/>
-      <c r="J210" s="38"/>
+      <c r="I210" s="38">
+        <v>298</v>
+      </c>
+      <c r="J210" s="54">
+        <v>1410000000</v>
+      </c>
       <c r="K210" s="38"/>
-      <c r="L210" s="40"/>
-      <c r="M210" s="40"/>
-      <c r="N210" s="40"/>
+      <c r="L210" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M210" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N210" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O210" s="37"/>
       <c r="P210" s="38"/>
       <c r="Q210" s="38"/>
@@ -12323,19 +12796,41 @@
     </row>
     <row r="211" spans="1:20" ht="18" customHeight="1">
       <c r="A211" s="38"/>
-      <c r="B211" s="41"/>
-      <c r="C211" s="58"/>
-      <c r="D211" s="58"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="57"/>
-      <c r="G211" s="55"/>
+      <c r="B211" s="139" t="s">
+        <v>220</v>
+      </c>
+      <c r="C211" s="140" t="s">
+        <v>222</v>
+      </c>
+      <c r="D211" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="F211" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G211" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H211" s="60"/>
-      <c r="I211" s="38"/>
-      <c r="J211" s="38"/>
+      <c r="I211" s="38">
+        <v>298</v>
+      </c>
+      <c r="J211" s="54">
+        <v>1394000000</v>
+      </c>
       <c r="K211" s="38"/>
-      <c r="L211" s="40"/>
-      <c r="M211" s="40"/>
-      <c r="N211" s="40"/>
+      <c r="L211" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M211" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N211" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O211" s="37"/>
       <c r="P211" s="38"/>
       <c r="Q211" s="38"/>
@@ -12345,19 +12840,41 @@
     </row>
     <row r="212" spans="1:20" ht="18" customHeight="1">
       <c r="A212" s="38"/>
-      <c r="B212" s="41"/>
-      <c r="C212" s="58"/>
-      <c r="D212" s="58"/>
-      <c r="E212" s="59"/>
-      <c r="F212" s="57"/>
-      <c r="G212" s="55"/>
+      <c r="B212" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="C212" s="140" t="s">
+        <v>222</v>
+      </c>
+      <c r="D212" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="F212" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G212" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H212" s="60"/>
-      <c r="I212" s="38"/>
-      <c r="J212" s="38"/>
+      <c r="I212" s="38">
+        <v>298</v>
+      </c>
+      <c r="J212" s="54">
+        <v>1836000000</v>
+      </c>
       <c r="K212" s="38"/>
-      <c r="L212" s="40"/>
-      <c r="M212" s="40"/>
-      <c r="N212" s="40"/>
+      <c r="L212" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M212" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N212" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O212" s="37"/>
       <c r="P212" s="38"/>
       <c r="Q212" s="38"/>
@@ -12367,19 +12884,41 @@
     </row>
     <row r="213" spans="1:20" ht="18" customHeight="1">
       <c r="A213" s="38"/>
-      <c r="B213" s="41"/>
-      <c r="C213" s="58"/>
-      <c r="D213" s="58"/>
-      <c r="E213" s="59"/>
-      <c r="F213" s="57"/>
-      <c r="G213" s="55"/>
+      <c r="B213" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="C213" s="137" t="s">
+        <v>224</v>
+      </c>
+      <c r="D213" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="138" t="s">
+        <v>225</v>
+      </c>
+      <c r="F213" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G213" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H213" s="60"/>
-      <c r="I213" s="38"/>
-      <c r="J213" s="38"/>
+      <c r="I213" s="38">
+        <v>298</v>
+      </c>
+      <c r="J213" s="38">
+        <v>60</v>
+      </c>
       <c r="K213" s="38"/>
-      <c r="L213" s="40"/>
-      <c r="M213" s="40"/>
-      <c r="N213" s="40"/>
+      <c r="L213" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M213" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N213" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O213" s="37"/>
       <c r="P213" s="38"/>
       <c r="Q213" s="38"/>
@@ -12389,19 +12928,41 @@
     </row>
     <row r="214" spans="1:20" ht="18" customHeight="1">
       <c r="A214" s="38"/>
-      <c r="B214" s="41"/>
-      <c r="C214" s="58"/>
-      <c r="D214" s="58"/>
-      <c r="E214" s="59"/>
-      <c r="F214" s="57"/>
-      <c r="G214" s="55"/>
+      <c r="B214" s="139" t="s">
+        <v>218</v>
+      </c>
+      <c r="C214" s="140" t="s">
+        <v>224</v>
+      </c>
+      <c r="D214" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="F214" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G214" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H214" s="60"/>
-      <c r="I214" s="38"/>
-      <c r="J214" s="38"/>
+      <c r="I214" s="38">
+        <v>298</v>
+      </c>
+      <c r="J214" s="38">
+        <v>60</v>
+      </c>
       <c r="K214" s="38"/>
-      <c r="L214" s="40"/>
-      <c r="M214" s="40"/>
-      <c r="N214" s="40"/>
+      <c r="L214" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M214" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N214" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O214" s="37"/>
       <c r="P214" s="38"/>
       <c r="Q214" s="38"/>
@@ -12411,19 +12972,41 @@
     </row>
     <row r="215" spans="1:20" ht="18" customHeight="1">
       <c r="A215" s="38"/>
-      <c r="B215" s="41"/>
-      <c r="C215" s="58"/>
-      <c r="D215" s="58"/>
-      <c r="E215" s="59"/>
-      <c r="F215" s="57"/>
-      <c r="G215" s="55"/>
+      <c r="B215" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="C215" s="140" t="s">
+        <v>222</v>
+      </c>
+      <c r="D215" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="F215" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G215" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H215" s="60"/>
-      <c r="I215" s="38"/>
-      <c r="J215" s="38"/>
+      <c r="I215" s="38">
+        <v>298</v>
+      </c>
+      <c r="J215" s="38">
+        <v>22.9</v>
+      </c>
       <c r="K215" s="38"/>
-      <c r="L215" s="40"/>
-      <c r="M215" s="40"/>
-      <c r="N215" s="40"/>
+      <c r="L215" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M215" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N215" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O215" s="37"/>
       <c r="P215" s="38"/>
       <c r="Q215" s="38"/>
@@ -12433,19 +13016,41 @@
     </row>
     <row r="216" spans="1:20" ht="18" customHeight="1">
       <c r="A216" s="38"/>
-      <c r="B216" s="41"/>
-      <c r="C216" s="58"/>
-      <c r="D216" s="58"/>
-      <c r="E216" s="59"/>
-      <c r="F216" s="57"/>
-      <c r="G216" s="55"/>
+      <c r="B216" s="139" t="s">
+        <v>220</v>
+      </c>
+      <c r="C216" s="140" t="s">
+        <v>222</v>
+      </c>
+      <c r="D216" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="F216" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G216" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H216" s="60"/>
-      <c r="I216" s="38"/>
-      <c r="J216" s="54"/>
+      <c r="I216" s="38">
+        <v>298</v>
+      </c>
+      <c r="J216" s="54">
+        <v>16.600000000000001</v>
+      </c>
       <c r="K216" s="38"/>
-      <c r="L216" s="40"/>
-      <c r="M216" s="40"/>
-      <c r="N216" s="40"/>
+      <c r="L216" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M216" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N216" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O216" s="45"/>
       <c r="P216" s="38"/>
       <c r="Q216" s="45"/>
@@ -12455,19 +13060,41 @@
     </row>
     <row r="217" spans="1:20" ht="18" customHeight="1">
       <c r="A217" s="38"/>
-      <c r="B217" s="41"/>
-      <c r="C217" s="58"/>
-      <c r="D217" s="58"/>
-      <c r="E217" s="59"/>
-      <c r="F217" s="57"/>
-      <c r="G217" s="55"/>
+      <c r="B217" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="C217" s="140" t="s">
+        <v>222</v>
+      </c>
+      <c r="D217" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="F217" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G217" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H217" s="60"/>
-      <c r="I217" s="38"/>
-      <c r="J217" s="54"/>
+      <c r="I217" s="38">
+        <v>298</v>
+      </c>
+      <c r="J217" s="54">
+        <v>12.8</v>
+      </c>
       <c r="K217" s="38"/>
-      <c r="L217" s="40"/>
-      <c r="M217" s="40"/>
-      <c r="N217" s="40"/>
+      <c r="L217" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M217" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N217" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="O217" s="45"/>
       <c r="P217" s="38"/>
       <c r="Q217" s="45"/>
@@ -28833,6 +29460,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:T8"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="C5:C6"/>
@@ -28847,11 +29479,6 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:T8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/MiscSmallUploads_Apr2025.xlsx
+++ b/MiscSmallUploads_Apr2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933D2038-6B52-EB4B-9CEE-B8E28D7139DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2970E219-506E-0844-B071-008C4FA0CE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17540" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="1660" windowWidth="17540" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="248">
   <si>
     <r>
       <rPr>
@@ -820,6 +820,60 @@
   </si>
   <si>
     <t>10.1016/j.msea.2017.09.102</t>
+  </si>
+  <si>
+    <t>Ni-Ni</t>
+  </si>
+  <si>
+    <t>Eq-Ni</t>
+  </si>
+  <si>
+    <t>Lo-Ni</t>
+  </si>
+  <si>
+    <t>Ni68 Fe12 Co20</t>
+  </si>
+  <si>
+    <t>Ni40 Fe29 Co31</t>
+  </si>
+  <si>
+    <t>Ni16 Fe32 Co52</t>
+  </si>
+  <si>
+    <t>Eq-Cr</t>
+  </si>
+  <si>
+    <t>Lo-Cr</t>
+  </si>
+  <si>
+    <t>Ni28 Fe33 Cr27 O12</t>
+  </si>
+  <si>
+    <t>Ni59 Fe21 Cr14 O7</t>
+  </si>
+  <si>
+    <t>electrodeposition from elemental metal salts</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>ED+A</t>
+  </si>
+  <si>
+    <t>electrodeposition from elemental metal salts; annealed at 573K for 1h</t>
+  </si>
+  <si>
+    <t>electrodeposition from elemental metal salts; annealed at 773K for 1h</t>
+  </si>
+  <si>
+    <t>electrodeposition from elemental metal salts; annealed at 523K for 1h</t>
+  </si>
+  <si>
+    <t>electrodeposition from elemental metal salts; annealed at 1123K for 1h</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2021.163233</t>
   </si>
 </sst>
 </file>
@@ -3308,8 +3362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A186" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N223" sqref="N223"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E209" zoomScale="75" workbookViewId="0">
+      <selection activeCell="O251" sqref="O251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -13103,661 +13157,1621 @@
       <c r="T217" s="37"/>
     </row>
     <row r="218" spans="1:20" ht="18" customHeight="1">
-      <c r="A218" s="38"/>
-      <c r="B218" s="41"/>
-      <c r="C218" s="58"/>
-      <c r="D218" s="58"/>
-      <c r="E218" s="59"/>
-      <c r="F218" s="57"/>
-      <c r="G218" s="55"/>
+      <c r="A218" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B218" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C218" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D218" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="E218" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F218" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G218" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H218" s="60"/>
-      <c r="I218" s="38"/>
-      <c r="J218" s="54"/>
-      <c r="K218" s="38"/>
-      <c r="L218" s="40"/>
-      <c r="M218" s="40"/>
-      <c r="N218" s="40"/>
+      <c r="I218" s="38">
+        <v>298</v>
+      </c>
+      <c r="J218" s="54">
+        <f>P218*1000000000</f>
+        <v>4818181818.1818104</v>
+      </c>
+      <c r="K218" s="38">
+        <f>(Q218-P218)*1000000000</f>
+        <v>227272727.27272928</v>
+      </c>
+      <c r="L218" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M218" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N218" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O218" s="45"/>
-      <c r="P218" s="38"/>
-      <c r="Q218" s="45"/>
+      <c r="P218" s="38">
+        <v>4.8181818181818103</v>
+      </c>
+      <c r="Q218" s="45">
+        <v>5.0454545454545396</v>
+      </c>
       <c r="R218" s="37"/>
       <c r="S218" s="37"/>
       <c r="T218" s="37"/>
     </row>
     <row r="219" spans="1:20" ht="18" customHeight="1">
-      <c r="A219" s="38"/>
-      <c r="B219" s="31"/>
-      <c r="C219" s="40"/>
-      <c r="D219" s="40"/>
-      <c r="E219" s="46"/>
-      <c r="F219" s="57"/>
-      <c r="G219" s="32"/>
-      <c r="H219" s="48"/>
-      <c r="I219" s="38"/>
-      <c r="J219" s="54"/>
-      <c r="K219" s="38"/>
-      <c r="L219" s="40"/>
-      <c r="M219" s="40"/>
-      <c r="N219" s="40"/>
+      <c r="A219" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B219" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C219" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D219" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="E219" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F219" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G219" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H219" s="60"/>
+      <c r="I219" s="38">
+        <v>298</v>
+      </c>
+      <c r="J219" s="54">
+        <f t="shared" ref="J219:J247" si="7">P219*1000000000</f>
+        <v>4610671936.7588902</v>
+      </c>
+      <c r="K219" s="38">
+        <f t="shared" ref="K219:K247" si="8">(Q219-P219)*1000000000</f>
+        <v>69169960.474310338</v>
+      </c>
+      <c r="L219" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M219" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N219" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O219" s="45"/>
-      <c r="P219" s="38"/>
-      <c r="Q219" s="45"/>
+      <c r="P219" s="38">
+        <v>4.61067193675889</v>
+      </c>
+      <c r="Q219" s="45">
+        <v>4.6798418972332003</v>
+      </c>
       <c r="R219" s="37"/>
       <c r="S219" s="37"/>
       <c r="T219" s="37"/>
     </row>
     <row r="220" spans="1:20" ht="18" customHeight="1">
-      <c r="A220" s="38"/>
-      <c r="B220" s="31"/>
-      <c r="C220" s="40"/>
-      <c r="D220" s="40"/>
-      <c r="E220" s="46"/>
-      <c r="F220" s="57"/>
-      <c r="G220" s="32"/>
-      <c r="H220" s="48"/>
-      <c r="I220" s="45"/>
-      <c r="J220" s="38"/>
-      <c r="K220" s="38"/>
-      <c r="L220" s="40"/>
-      <c r="M220" s="40"/>
-      <c r="N220" s="40"/>
+      <c r="A220" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C220" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D220" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="E220" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F220" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G220" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H220" s="60"/>
+      <c r="I220" s="38">
+        <v>298</v>
+      </c>
+      <c r="J220" s="54">
+        <f t="shared" si="7"/>
+        <v>3503952569.16996</v>
+      </c>
+      <c r="K220" s="38">
+        <f t="shared" si="8"/>
+        <v>197628458.4980199</v>
+      </c>
+      <c r="L220" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M220" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N220" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O220" s="45"/>
-      <c r="P220" s="38"/>
-      <c r="Q220" s="45"/>
+      <c r="P220" s="38">
+        <v>3.50395256916996</v>
+      </c>
+      <c r="Q220" s="45">
+        <v>3.7015810276679799</v>
+      </c>
       <c r="R220" s="37"/>
       <c r="S220" s="37"/>
       <c r="T220" s="37"/>
     </row>
     <row r="221" spans="1:20" ht="18" customHeight="1">
-      <c r="A221" s="38"/>
-      <c r="B221" s="31"/>
-      <c r="C221" s="40"/>
-      <c r="D221" s="40"/>
-      <c r="E221" s="46"/>
-      <c r="F221" s="57"/>
-      <c r="G221" s="32"/>
-      <c r="H221" s="48"/>
-      <c r="I221" s="45"/>
-      <c r="J221" s="54"/>
-      <c r="K221" s="38"/>
-      <c r="L221" s="40"/>
-      <c r="M221" s="40"/>
-      <c r="N221" s="40"/>
+      <c r="A221" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B221" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C221" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D221" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E221" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F221" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G221" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H221" s="60"/>
+      <c r="I221" s="38">
+        <v>298</v>
+      </c>
+      <c r="J221" s="54">
+        <f t="shared" si="7"/>
+        <v>5549407114.6244993</v>
+      </c>
+      <c r="K221" s="38">
+        <f t="shared" si="8"/>
+        <v>148221343.87352026</v>
+      </c>
+      <c r="L221" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M221" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N221" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O221" s="45"/>
-      <c r="P221" s="38"/>
-      <c r="Q221" s="45"/>
+      <c r="P221" s="38">
+        <v>5.5494071146244996</v>
+      </c>
+      <c r="Q221" s="45">
+        <v>5.6976284584980199</v>
+      </c>
       <c r="R221" s="37"/>
       <c r="S221" s="37"/>
       <c r="T221" s="37"/>
     </row>
     <row r="222" spans="1:20" ht="18" customHeight="1">
-      <c r="A222" s="38"/>
-      <c r="B222" s="31"/>
-      <c r="C222" s="40"/>
-      <c r="D222" s="40"/>
-      <c r="E222" s="46"/>
-      <c r="F222" s="57"/>
-      <c r="G222" s="32"/>
-      <c r="H222" s="48"/>
-      <c r="I222" s="45"/>
-      <c r="J222" s="54"/>
-      <c r="K222" s="38"/>
-      <c r="L222" s="40"/>
-      <c r="M222" s="40"/>
-      <c r="N222" s="40"/>
+      <c r="A222" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B222" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C222" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D222" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E222" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F222" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G222" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H222" s="60"/>
+      <c r="I222" s="38">
+        <v>298</v>
+      </c>
+      <c r="J222" s="54">
+        <f t="shared" si="7"/>
+        <v>5282608695.6521702</v>
+      </c>
+      <c r="K222" s="38">
+        <f t="shared" si="8"/>
+        <v>187747035.57311946</v>
+      </c>
+      <c r="L222" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M222" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N222" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O222" s="45"/>
-      <c r="P222" s="45"/>
-      <c r="Q222" s="45"/>
+      <c r="P222" s="45">
+        <v>5.2826086956521703</v>
+      </c>
+      <c r="Q222" s="45">
+        <v>5.4703557312252897</v>
+      </c>
       <c r="R222" s="37"/>
       <c r="S222" s="37"/>
       <c r="T222" s="37"/>
     </row>
     <row r="223" spans="1:20" ht="18" customHeight="1">
-      <c r="A223" s="38"/>
-      <c r="B223" s="31"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="40"/>
-      <c r="E223" s="46"/>
-      <c r="F223" s="57"/>
-      <c r="G223" s="32"/>
-      <c r="H223" s="48"/>
-      <c r="I223" s="45"/>
-      <c r="J223" s="54"/>
-      <c r="K223" s="38"/>
-      <c r="L223" s="40"/>
-      <c r="M223" s="40"/>
-      <c r="N223" s="40"/>
+      <c r="A223" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B223" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C223" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D223" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E223" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F223" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G223" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H223" s="60"/>
+      <c r="I223" s="38">
+        <v>298</v>
+      </c>
+      <c r="J223" s="54">
+        <f t="shared" si="7"/>
+        <v>4215415019.7628403</v>
+      </c>
+      <c r="K223" s="38">
+        <f t="shared" si="8"/>
+        <v>316205533.59683967</v>
+      </c>
+      <c r="L223" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M223" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N223" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O223" s="45"/>
-      <c r="P223" s="45"/>
-      <c r="Q223" s="45"/>
+      <c r="P223" s="45">
+        <v>4.2154150197628404</v>
+      </c>
+      <c r="Q223" s="45">
+        <v>4.5316205533596801</v>
+      </c>
       <c r="R223" s="37"/>
       <c r="S223" s="37"/>
       <c r="T223" s="37"/>
     </row>
     <row r="224" spans="1:20" ht="18" customHeight="1">
-      <c r="A224" s="38"/>
-      <c r="B224" s="31"/>
-      <c r="C224" s="40"/>
-      <c r="D224" s="40"/>
-      <c r="E224" s="46"/>
-      <c r="F224" s="57"/>
-      <c r="G224" s="32"/>
-      <c r="H224" s="48"/>
-      <c r="I224" s="45"/>
-      <c r="J224" s="54"/>
-      <c r="K224" s="38"/>
-      <c r="L224" s="40"/>
-      <c r="M224" s="40"/>
-      <c r="N224" s="40"/>
+      <c r="A224" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C224" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D224" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E224" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="F224" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G224" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H224" s="60"/>
+      <c r="I224" s="38">
+        <v>298</v>
+      </c>
+      <c r="J224" s="54">
+        <f t="shared" si="7"/>
+        <v>4205533596.8379397</v>
+      </c>
+      <c r="K224" s="38">
+        <f t="shared" si="8"/>
+        <v>158102766.79841983</v>
+      </c>
+      <c r="L224" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M224" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N224" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O224" s="45"/>
-      <c r="P224" s="45"/>
-      <c r="Q224" s="45"/>
+      <c r="P224" s="45">
+        <v>4.2055335968379399</v>
+      </c>
+      <c r="Q224" s="45">
+        <v>4.3636363636363598</v>
+      </c>
       <c r="R224" s="37"/>
       <c r="S224" s="37"/>
       <c r="T224" s="37"/>
     </row>
     <row r="225" spans="1:20" ht="18" customHeight="1">
-      <c r="A225" s="38"/>
-      <c r="B225" s="31"/>
-      <c r="C225" s="40"/>
-      <c r="D225" s="40"/>
-      <c r="E225" s="46"/>
-      <c r="F225" s="57"/>
-      <c r="G225" s="32"/>
-      <c r="H225" s="48"/>
-      <c r="I225" s="45"/>
-      <c r="J225" s="54"/>
-      <c r="K225" s="45"/>
-      <c r="L225" s="40"/>
-      <c r="M225" s="40"/>
-      <c r="N225" s="40"/>
+      <c r="A225" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C225" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D225" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E225" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="F225" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G225" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H225" s="60"/>
+      <c r="I225" s="38">
+        <v>298</v>
+      </c>
+      <c r="J225" s="54">
+        <f t="shared" si="7"/>
+        <v>3434782608.6956501</v>
+      </c>
+      <c r="K225" s="38">
+        <f t="shared" si="8"/>
+        <v>138339920.94861004</v>
+      </c>
+      <c r="L225" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M225" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N225" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O225" s="45"/>
-      <c r="P225" s="45"/>
-      <c r="Q225" s="45"/>
+      <c r="P225" s="45">
+        <v>3.4347826086956501</v>
+      </c>
+      <c r="Q225" s="45">
+        <v>3.5731225296442601</v>
+      </c>
       <c r="R225" s="37"/>
       <c r="S225" s="37"/>
       <c r="T225" s="37"/>
     </row>
     <row r="226" spans="1:20" ht="18" customHeight="1">
-      <c r="A226" s="38"/>
-      <c r="B226" s="31"/>
-      <c r="C226" s="40"/>
-      <c r="D226" s="40"/>
-      <c r="E226" s="46"/>
-      <c r="F226" s="57"/>
-      <c r="G226" s="32"/>
-      <c r="H226" s="48"/>
-      <c r="I226" s="45"/>
-      <c r="J226" s="63"/>
-      <c r="K226" s="45"/>
-      <c r="L226" s="40"/>
-      <c r="M226" s="40"/>
-      <c r="N226" s="40"/>
+      <c r="A226" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C226" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D226" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E226" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="F226" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G226" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H226" s="60"/>
+      <c r="I226" s="38">
+        <v>298</v>
+      </c>
+      <c r="J226" s="54">
+        <f t="shared" si="7"/>
+        <v>4660079051.3833895</v>
+      </c>
+      <c r="K226" s="38">
+        <f t="shared" si="8"/>
+        <v>247035573.12253022</v>
+      </c>
+      <c r="L226" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M226" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N226" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O226" s="45"/>
-      <c r="P226" s="45"/>
-      <c r="Q226" s="45"/>
+      <c r="P226" s="45">
+        <v>4.6600790513833896</v>
+      </c>
+      <c r="Q226" s="45">
+        <v>4.9071146245059198</v>
+      </c>
       <c r="R226" s="37"/>
       <c r="S226" s="37"/>
       <c r="T226" s="37"/>
     </row>
     <row r="227" spans="1:20" ht="18" customHeight="1">
-      <c r="A227" s="38"/>
-      <c r="B227" s="31"/>
-      <c r="C227" s="40"/>
-      <c r="D227" s="40"/>
-      <c r="E227" s="46"/>
-      <c r="F227" s="57"/>
-      <c r="G227" s="32"/>
-      <c r="H227" s="38"/>
-      <c r="I227" s="45"/>
-      <c r="J227" s="45"/>
-      <c r="K227" s="45"/>
-      <c r="L227" s="40"/>
-      <c r="M227" s="40"/>
-      <c r="N227" s="40"/>
+      <c r="A227" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C227" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D227" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="E227" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F227" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G227" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H227" s="60"/>
+      <c r="I227" s="38">
+        <v>298</v>
+      </c>
+      <c r="J227" s="54">
+        <f t="shared" si="7"/>
+        <v>135741444866.92</v>
+      </c>
+      <c r="K227" s="38">
+        <f t="shared" si="8"/>
+        <v>3802281368.8209853</v>
+      </c>
+      <c r="L227" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M227" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N227" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O227" s="45"/>
-      <c r="P227" s="45"/>
-      <c r="Q227" s="45"/>
+      <c r="P227" s="45">
+        <v>135.74144486692001</v>
+      </c>
+      <c r="Q227" s="45">
+        <v>139.54372623574099</v>
+      </c>
       <c r="R227" s="37"/>
       <c r="S227" s="37"/>
       <c r="T227" s="37"/>
     </row>
     <row r="228" spans="1:20" ht="18" customHeight="1">
-      <c r="A228" s="38"/>
-      <c r="B228" s="31"/>
-      <c r="C228" s="40"/>
-      <c r="D228" s="40"/>
-      <c r="E228" s="46"/>
-      <c r="F228" s="57"/>
-      <c r="G228" s="32"/>
-      <c r="H228" s="38"/>
-      <c r="I228" s="45"/>
-      <c r="J228" s="45"/>
-      <c r="K228" s="45"/>
-      <c r="L228" s="40"/>
-      <c r="M228" s="40"/>
-      <c r="N228" s="40"/>
+      <c r="A228" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C228" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D228" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="E228" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F228" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G228" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H228" s="60"/>
+      <c r="I228" s="38">
+        <v>298</v>
+      </c>
+      <c r="J228" s="54">
+        <f t="shared" si="7"/>
+        <v>116730038022.813</v>
+      </c>
+      <c r="K228" s="38">
+        <f t="shared" si="8"/>
+        <v>7984790874.5249891</v>
+      </c>
+      <c r="L228" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M228" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N228" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O228" s="45"/>
-      <c r="P228" s="45"/>
-      <c r="Q228" s="45"/>
+      <c r="P228" s="45">
+        <v>116.73003802281301</v>
+      </c>
+      <c r="Q228" s="45">
+        <v>124.71482889733799</v>
+      </c>
       <c r="R228" s="37"/>
       <c r="S228" s="37"/>
       <c r="T228" s="37"/>
     </row>
     <row r="229" spans="1:20" ht="18" customHeight="1">
-      <c r="A229" s="38"/>
-      <c r="B229" s="31"/>
-      <c r="C229" s="40"/>
-      <c r="D229" s="40"/>
-      <c r="E229" s="46"/>
-      <c r="F229" s="57"/>
-      <c r="G229" s="32"/>
-      <c r="H229" s="38"/>
-      <c r="I229" s="45"/>
-      <c r="J229" s="45"/>
-      <c r="K229" s="45"/>
-      <c r="L229" s="40"/>
-      <c r="M229" s="40"/>
-      <c r="N229" s="40"/>
+      <c r="A229" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C229" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D229" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="E229" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F229" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G229" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H229" s="60"/>
+      <c r="I229" s="38">
+        <v>298</v>
+      </c>
+      <c r="J229" s="54">
+        <f t="shared" si="7"/>
+        <v>140304182509.505</v>
+      </c>
+      <c r="K229" s="38">
+        <f t="shared" si="8"/>
+        <v>14828897338.402981</v>
+      </c>
+      <c r="L229" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M229" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N229" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O229" s="45"/>
-      <c r="P229" s="45"/>
-      <c r="Q229" s="45"/>
+      <c r="P229" s="45">
+        <v>140.30418250950501</v>
+      </c>
+      <c r="Q229" s="45">
+        <v>155.13307984790799</v>
+      </c>
       <c r="R229" s="37"/>
       <c r="S229" s="37"/>
       <c r="T229" s="37"/>
     </row>
     <row r="230" spans="1:20" ht="18" customHeight="1">
-      <c r="A230" s="38"/>
-      <c r="B230" s="31"/>
-      <c r="C230" s="40"/>
-      <c r="D230" s="40"/>
-      <c r="E230" s="46"/>
-      <c r="F230" s="57"/>
-      <c r="G230" s="32"/>
-      <c r="H230" s="38"/>
-      <c r="I230" s="45"/>
-      <c r="J230" s="45"/>
-      <c r="K230" s="45"/>
-      <c r="L230" s="40"/>
-      <c r="M230" s="40"/>
-      <c r="N230" s="40"/>
+      <c r="A230" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C230" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D230" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E230" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F230" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G230" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H230" s="60"/>
+      <c r="I230" s="38">
+        <v>298</v>
+      </c>
+      <c r="J230" s="54">
+        <f t="shared" si="7"/>
+        <v>143346007604.56201</v>
+      </c>
+      <c r="K230" s="38">
+        <f t="shared" si="8"/>
+        <v>8745247148.2889957</v>
+      </c>
+      <c r="L230" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M230" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N230" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O230" s="45"/>
-      <c r="P230" s="45"/>
-      <c r="Q230" s="45"/>
+      <c r="P230" s="45">
+        <v>143.346007604562</v>
+      </c>
+      <c r="Q230" s="45">
+        <v>152.091254752851</v>
+      </c>
       <c r="R230" s="37"/>
       <c r="S230" s="37"/>
       <c r="T230" s="37"/>
     </row>
     <row r="231" spans="1:20" ht="18" customHeight="1">
-      <c r="A231" s="38"/>
-      <c r="B231" s="62"/>
-      <c r="C231" s="62"/>
-      <c r="D231" s="62"/>
-      <c r="E231" s="45"/>
-      <c r="F231" s="62"/>
-      <c r="G231" s="62"/>
-      <c r="H231" s="45"/>
-      <c r="I231" s="45"/>
-      <c r="J231" s="45"/>
-      <c r="K231" s="45"/>
-      <c r="L231" s="40"/>
-      <c r="M231" s="38"/>
-      <c r="N231" s="40"/>
+      <c r="A231" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D231" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E231" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F231" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G231" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H231" s="60"/>
+      <c r="I231" s="38">
+        <v>298</v>
+      </c>
+      <c r="J231" s="54">
+        <f t="shared" si="7"/>
+        <v>124714828897.338</v>
+      </c>
+      <c r="K231" s="38">
+        <f t="shared" si="8"/>
+        <v>7224334600.7600021</v>
+      </c>
+      <c r="L231" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M231" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N231" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O231" s="45"/>
-      <c r="P231" s="45"/>
-      <c r="Q231" s="45"/>
+      <c r="P231" s="45">
+        <v>124.71482889733799</v>
+      </c>
+      <c r="Q231" s="45">
+        <v>131.939163498098</v>
+      </c>
       <c r="R231" s="37"/>
       <c r="S231" s="37"/>
       <c r="T231" s="37"/>
     </row>
     <row r="232" spans="1:20" ht="18" customHeight="1">
-      <c r="A232" s="38"/>
-      <c r="B232" s="62"/>
-      <c r="C232" s="62"/>
-      <c r="D232" s="62"/>
-      <c r="E232" s="45"/>
-      <c r="F232" s="62"/>
-      <c r="G232" s="62"/>
-      <c r="H232" s="45"/>
-      <c r="I232" s="45"/>
-      <c r="J232" s="45"/>
-      <c r="K232" s="45"/>
-      <c r="L232" s="40"/>
-      <c r="M232" s="40"/>
-      <c r="N232" s="40"/>
+      <c r="A232" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C232" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D232" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E232" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F232" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G232" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H232" s="60"/>
+      <c r="I232" s="38">
+        <v>298</v>
+      </c>
+      <c r="J232" s="54">
+        <f t="shared" si="7"/>
+        <v>163117870722.43298</v>
+      </c>
+      <c r="K232" s="38">
+        <f t="shared" si="8"/>
+        <v>14828897338.403009</v>
+      </c>
+      <c r="L232" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M232" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N232" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O232" s="45"/>
-      <c r="P232" s="45"/>
-      <c r="Q232" s="45"/>
+      <c r="P232" s="45">
+        <v>163.117870722433</v>
+      </c>
+      <c r="Q232" s="45">
+        <v>177.94676806083601</v>
+      </c>
       <c r="R232" s="37"/>
       <c r="S232" s="37"/>
       <c r="T232" s="37"/>
     </row>
     <row r="233" spans="1:20" ht="18" customHeight="1">
-      <c r="A233" s="38"/>
-      <c r="B233" s="62"/>
-      <c r="C233" s="62"/>
-      <c r="D233" s="62"/>
-      <c r="E233" s="45"/>
-      <c r="F233" s="62"/>
-      <c r="G233" s="62"/>
-      <c r="H233" s="45"/>
-      <c r="I233" s="45"/>
-      <c r="J233" s="63"/>
-      <c r="K233" s="45"/>
-      <c r="L233" s="40"/>
-      <c r="M233" s="40"/>
-      <c r="N233" s="40"/>
+      <c r="A233" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B233" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C233" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D233" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E233" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="F233" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G233" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H233" s="60"/>
+      <c r="I233" s="38">
+        <v>298</v>
+      </c>
+      <c r="J233" s="54">
+        <f t="shared" si="7"/>
+        <v>187832699619.771</v>
+      </c>
+      <c r="K233" s="38">
+        <f t="shared" si="8"/>
+        <v>14828897338.402981</v>
+      </c>
+      <c r="L233" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M233" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N233" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O233" s="45"/>
-      <c r="P233" s="45"/>
-      <c r="Q233" s="45"/>
+      <c r="P233" s="45">
+        <v>187.83269961977101</v>
+      </c>
+      <c r="Q233" s="45">
+        <v>202.66159695817399</v>
+      </c>
       <c r="R233" s="37"/>
       <c r="S233" s="37"/>
       <c r="T233" s="37"/>
     </row>
     <row r="234" spans="1:20" ht="18" customHeight="1">
-      <c r="A234" s="38"/>
-      <c r="B234" s="62"/>
-      <c r="C234" s="62"/>
-      <c r="D234" s="62"/>
-      <c r="E234" s="45"/>
-      <c r="F234" s="62"/>
-      <c r="G234" s="62"/>
-      <c r="H234" s="45"/>
-      <c r="I234" s="45"/>
-      <c r="J234" s="63"/>
-      <c r="K234" s="45"/>
-      <c r="L234" s="40"/>
-      <c r="M234" s="40"/>
-      <c r="N234" s="40"/>
+      <c r="A234" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B234" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C234" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D234" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E234" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="F234" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G234" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H234" s="60"/>
+      <c r="I234" s="38">
+        <v>298</v>
+      </c>
+      <c r="J234" s="54">
+        <f t="shared" si="7"/>
+        <v>160836501901.13998</v>
+      </c>
+      <c r="K234" s="38">
+        <f t="shared" si="8"/>
+        <v>15589353612.167997</v>
+      </c>
+      <c r="L234" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M234" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N234" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O234" s="45"/>
-      <c r="P234" s="45"/>
-      <c r="Q234" s="45"/>
+      <c r="P234" s="45">
+        <v>160.83650190114</v>
+      </c>
+      <c r="Q234" s="45">
+        <v>176.42585551330799</v>
+      </c>
       <c r="R234" s="37"/>
       <c r="S234" s="37"/>
       <c r="T234" s="37"/>
     </row>
     <row r="235" spans="1:20" ht="18" customHeight="1">
-      <c r="A235" s="45"/>
-      <c r="B235" s="62"/>
-      <c r="C235" s="62"/>
-      <c r="D235" s="62"/>
-      <c r="E235" s="45"/>
-      <c r="F235" s="62"/>
-      <c r="G235" s="62"/>
-      <c r="H235" s="45"/>
-      <c r="I235" s="45"/>
-      <c r="J235" s="63"/>
-      <c r="K235" s="45"/>
-      <c r="L235" s="40"/>
-      <c r="M235" s="40"/>
-      <c r="N235" s="40"/>
+      <c r="A235" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B235" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C235" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D235" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E235" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="F235" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G235" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H235" s="60"/>
+      <c r="I235" s="38">
+        <v>298</v>
+      </c>
+      <c r="J235" s="54">
+        <f t="shared" si="7"/>
+        <v>166920152091.254</v>
+      </c>
+      <c r="K235" s="38">
+        <f t="shared" si="8"/>
+        <v>16349809885.93199</v>
+      </c>
+      <c r="L235" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M235" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N235" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O235" s="45"/>
-      <c r="P235" s="45"/>
-      <c r="Q235" s="45"/>
+      <c r="P235" s="45">
+        <v>166.92015209125401</v>
+      </c>
+      <c r="Q235" s="45">
+        <v>183.269961977186</v>
+      </c>
       <c r="R235" s="37"/>
       <c r="S235" s="37"/>
       <c r="T235" s="37"/>
     </row>
     <row r="236" spans="1:20" ht="18" customHeight="1">
-      <c r="A236" s="45"/>
-      <c r="B236" s="62"/>
-      <c r="C236" s="62"/>
-      <c r="D236" s="62"/>
-      <c r="E236" s="45"/>
-      <c r="F236" s="62"/>
-      <c r="G236" s="62"/>
+      <c r="A236" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C236" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D236" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E236" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F236" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G236" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H236" s="45"/>
-      <c r="I236" s="45"/>
-      <c r="J236" s="63"/>
-      <c r="K236" s="45"/>
-      <c r="L236" s="40"/>
-      <c r="M236" s="40"/>
-      <c r="N236" s="40"/>
+      <c r="I236" s="38">
+        <v>298</v>
+      </c>
+      <c r="J236" s="54">
+        <f t="shared" si="7"/>
+        <v>5434262948.2071705</v>
+      </c>
+      <c r="K236" s="38">
+        <f t="shared" si="8"/>
+        <v>99601593.62548992</v>
+      </c>
+      <c r="L236" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M236" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N236" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O236" s="45"/>
-      <c r="P236" s="45"/>
-      <c r="Q236" s="45"/>
+      <c r="P236" s="45">
+        <v>5.43426294820717</v>
+      </c>
+      <c r="Q236" s="45">
+        <v>5.53386454183266</v>
+      </c>
       <c r="R236" s="37"/>
       <c r="S236" s="37"/>
       <c r="T236" s="37"/>
     </row>
     <row r="237" spans="1:20" ht="18" customHeight="1">
-      <c r="A237" s="45"/>
-      <c r="B237" s="62"/>
-      <c r="C237" s="62"/>
-      <c r="D237" s="62"/>
-      <c r="E237" s="45"/>
-      <c r="F237" s="62"/>
-      <c r="G237" s="62"/>
+      <c r="A237" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C237" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D237" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E237" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F237" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G237" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H237" s="45"/>
-      <c r="I237" s="45"/>
-      <c r="J237" s="63"/>
-      <c r="K237" s="45"/>
-      <c r="L237" s="40"/>
-      <c r="M237" s="40"/>
-      <c r="N237" s="40"/>
+      <c r="I237" s="38">
+        <v>298</v>
+      </c>
+      <c r="J237" s="54">
+        <f t="shared" si="7"/>
+        <v>4856573705.1792803</v>
+      </c>
+      <c r="K237" s="38">
+        <f t="shared" si="8"/>
+        <v>199203187.25098962</v>
+      </c>
+      <c r="L237" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M237" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N237" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O237" s="45"/>
-      <c r="P237" s="45"/>
-      <c r="Q237" s="45"/>
+      <c r="P237" s="45">
+        <v>4.8565737051792803</v>
+      </c>
+      <c r="Q237" s="45">
+        <v>5.05577689243027</v>
+      </c>
       <c r="R237" s="37"/>
       <c r="S237" s="37"/>
       <c r="T237" s="37"/>
     </row>
     <row r="238" spans="1:20" ht="18" customHeight="1">
-      <c r="A238" s="45"/>
-      <c r="B238" s="62"/>
-      <c r="C238" s="62"/>
-      <c r="D238" s="62"/>
-      <c r="E238" s="45"/>
-      <c r="F238" s="62"/>
-      <c r="G238" s="62"/>
+      <c r="A238" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B238" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C238" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D238" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E238" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="F238" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G238" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H238" s="45"/>
-      <c r="I238" s="45"/>
-      <c r="J238" s="63"/>
-      <c r="K238" s="63"/>
-      <c r="L238" s="62"/>
-      <c r="M238" s="62"/>
-      <c r="N238" s="40"/>
+      <c r="I238" s="38">
+        <v>298</v>
+      </c>
+      <c r="J238" s="54">
+        <f t="shared" si="7"/>
+        <v>7486055776.8924303</v>
+      </c>
+      <c r="K238" s="38">
+        <f t="shared" si="8"/>
+        <v>398406374.5019899</v>
+      </c>
+      <c r="L238" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M238" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N238" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O238" s="45"/>
-      <c r="P238" s="45"/>
-      <c r="Q238" s="45"/>
+      <c r="P238" s="45">
+        <v>7.4860557768924298</v>
+      </c>
+      <c r="Q238" s="45">
+        <v>7.8844621513944197</v>
+      </c>
       <c r="R238" s="45"/>
       <c r="S238" s="37"/>
       <c r="T238" s="37"/>
     </row>
     <row r="239" spans="1:20" ht="18" customHeight="1">
-      <c r="A239" s="45"/>
-      <c r="B239" s="62"/>
-      <c r="C239" s="62"/>
-      <c r="D239" s="62"/>
-      <c r="E239" s="45"/>
-      <c r="F239" s="62"/>
-      <c r="G239" s="62"/>
+      <c r="A239" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B239" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C239" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D239" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E239" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="F239" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G239" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H239" s="45"/>
-      <c r="I239" s="45"/>
-      <c r="J239" s="63"/>
-      <c r="K239" s="63"/>
-      <c r="L239" s="62"/>
-      <c r="M239" s="62"/>
-      <c r="N239" s="40"/>
+      <c r="I239" s="38">
+        <v>298</v>
+      </c>
+      <c r="J239" s="54">
+        <f t="shared" si="7"/>
+        <v>7486055776.8924303</v>
+      </c>
+      <c r="K239" s="38">
+        <f t="shared" si="8"/>
+        <v>318725099.6015898</v>
+      </c>
+      <c r="L239" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M239" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N239" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O239" s="45"/>
-      <c r="P239" s="45"/>
-      <c r="Q239" s="45"/>
+      <c r="P239" s="45">
+        <v>7.4860557768924298</v>
+      </c>
+      <c r="Q239" s="45">
+        <v>7.8047808764940196</v>
+      </c>
       <c r="R239" s="45"/>
       <c r="S239" s="37"/>
       <c r="T239" s="37"/>
     </row>
     <row r="240" spans="1:20" ht="18" customHeight="1">
-      <c r="A240" s="45"/>
-      <c r="B240" s="62"/>
-      <c r="C240" s="62"/>
-      <c r="D240" s="62"/>
-      <c r="E240" s="45"/>
-      <c r="F240" s="62"/>
-      <c r="G240" s="62"/>
+      <c r="A240" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B240" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C240" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D240" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E240" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="F240" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G240" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H240" s="45"/>
-      <c r="I240" s="45"/>
-      <c r="J240" s="49"/>
-      <c r="K240" s="49"/>
-      <c r="L240" s="62"/>
-      <c r="M240" s="62"/>
-      <c r="N240" s="40"/>
+      <c r="I240" s="38">
+        <v>298</v>
+      </c>
+      <c r="J240" s="54">
+        <f t="shared" si="7"/>
+        <v>6031872509.9601498</v>
+      </c>
+      <c r="K240" s="38">
+        <f t="shared" si="8"/>
+        <v>458167330.67730021</v>
+      </c>
+      <c r="L240" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M240" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N240" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O240" s="45"/>
-      <c r="P240" s="45"/>
-      <c r="Q240" s="45"/>
+      <c r="P240" s="45">
+        <v>6.0318725099601496</v>
+      </c>
+      <c r="Q240" s="45">
+        <v>6.4900398406374498</v>
+      </c>
       <c r="R240" s="45"/>
       <c r="S240" s="37"/>
       <c r="T240" s="37"/>
     </row>
     <row r="241" spans="1:20" ht="18" customHeight="1">
-      <c r="A241" s="45"/>
-      <c r="B241" s="62"/>
-      <c r="C241" s="62"/>
-      <c r="D241" s="62"/>
-      <c r="E241" s="45"/>
-      <c r="F241" s="62"/>
-      <c r="G241" s="62"/>
+      <c r="A241" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B241" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C241" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D241" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E241" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="F241" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G241" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H241" s="45"/>
-      <c r="I241" s="45"/>
-      <c r="J241" s="49"/>
-      <c r="K241" s="49"/>
-      <c r="L241" s="62"/>
-      <c r="M241" s="62"/>
-      <c r="N241" s="40"/>
+      <c r="I241" s="38">
+        <v>298</v>
+      </c>
+      <c r="J241" s="54">
+        <f t="shared" si="7"/>
+        <v>4617529880.4780798</v>
+      </c>
+      <c r="K241" s="38">
+        <f t="shared" si="8"/>
+        <v>577689243.02788973</v>
+      </c>
+      <c r="L241" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M241" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N241" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O241" s="45"/>
-      <c r="P241" s="45"/>
-      <c r="Q241" s="45"/>
+      <c r="P241" s="45">
+        <v>4.61752988047808</v>
+      </c>
+      <c r="Q241" s="45">
+        <v>5.1952191235059697</v>
+      </c>
       <c r="R241" s="45"/>
       <c r="S241" s="37"/>
       <c r="T241" s="37"/>
     </row>
     <row r="242" spans="1:20" ht="18" customHeight="1">
-      <c r="A242" s="45"/>
-      <c r="B242" s="62"/>
-      <c r="C242" s="62"/>
-      <c r="D242" s="62"/>
-      <c r="E242" s="45"/>
-      <c r="F242" s="62"/>
-      <c r="G242" s="62"/>
+      <c r="A242" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B242" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C242" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D242" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E242" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F242" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G242" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H242" s="45"/>
-      <c r="I242" s="45"/>
-      <c r="J242" s="63"/>
-      <c r="K242" s="45"/>
-      <c r="L242" s="62"/>
-      <c r="M242" s="62"/>
-      <c r="N242" s="40"/>
+      <c r="I242" s="38">
+        <v>298</v>
+      </c>
+      <c r="J242" s="54">
+        <f t="shared" si="7"/>
+        <v>101415094339.62199</v>
+      </c>
+      <c r="K242" s="38">
+        <f t="shared" si="8"/>
+        <v>5094339622.6419964</v>
+      </c>
+      <c r="L242" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M242" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N242" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O242" s="45"/>
-      <c r="P242" s="45"/>
-      <c r="Q242" s="45"/>
+      <c r="P242" s="45">
+        <v>101.415094339622</v>
+      </c>
+      <c r="Q242" s="45">
+        <v>106.509433962264</v>
+      </c>
       <c r="R242" s="45"/>
       <c r="S242" s="37"/>
       <c r="T242" s="37"/>
     </row>
     <row r="243" spans="1:20" ht="18" customHeight="1">
-      <c r="A243" s="45"/>
-      <c r="B243" s="62"/>
-      <c r="C243" s="62"/>
-      <c r="D243" s="62"/>
-      <c r="E243" s="45"/>
-      <c r="F243" s="62"/>
-      <c r="G243" s="62"/>
+      <c r="A243" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B243" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C243" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D243" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E243" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F243" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G243" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H243" s="45"/>
-      <c r="I243" s="45"/>
-      <c r="J243" s="63"/>
-      <c r="K243" s="45"/>
-      <c r="L243" s="62"/>
-      <c r="M243" s="62"/>
-      <c r="N243" s="40"/>
+      <c r="I243" s="38">
+        <v>298</v>
+      </c>
+      <c r="J243" s="54">
+        <f t="shared" si="7"/>
+        <v>99433962264.150909</v>
+      </c>
+      <c r="K243" s="38">
+        <f t="shared" si="8"/>
+        <v>7358490566.0370903</v>
+      </c>
+      <c r="L243" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M243" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N243" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O243" s="45"/>
-      <c r="P243" s="45"/>
-      <c r="Q243" s="45"/>
+      <c r="P243" s="45">
+        <v>99.433962264150907</v>
+      </c>
+      <c r="Q243" s="45">
+        <v>106.792452830188</v>
+      </c>
       <c r="R243" s="45"/>
       <c r="S243" s="37"/>
       <c r="T243" s="37"/>
     </row>
     <row r="244" spans="1:20" ht="18" customHeight="1">
-      <c r="A244" s="45"/>
-      <c r="B244" s="62"/>
-      <c r="C244" s="62"/>
-      <c r="D244" s="62"/>
-      <c r="E244" s="45"/>
-      <c r="F244" s="62"/>
-      <c r="G244" s="62"/>
+      <c r="A244" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B244" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C244" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D244" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E244" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="F244" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G244" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H244" s="45"/>
-      <c r="I244" s="45"/>
-      <c r="J244" s="63"/>
-      <c r="K244" s="45"/>
-      <c r="L244" s="62"/>
-      <c r="M244" s="62"/>
-      <c r="N244" s="40"/>
+      <c r="I244" s="38">
+        <v>298</v>
+      </c>
+      <c r="J244" s="54">
+        <f t="shared" si="7"/>
+        <v>123773584905.66</v>
+      </c>
+      <c r="K244" s="38">
+        <f t="shared" si="8"/>
+        <v>9339622641.5089951</v>
+      </c>
+      <c r="L244" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M244" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N244" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O244" s="45"/>
-      <c r="P244" s="45"/>
-      <c r="Q244" s="45"/>
+      <c r="P244" s="45">
+        <v>123.77358490566</v>
+      </c>
+      <c r="Q244" s="45">
+        <v>133.113207547169</v>
+      </c>
       <c r="R244" s="45"/>
       <c r="S244" s="37"/>
       <c r="T244" s="37"/>
     </row>
     <row r="245" spans="1:20" ht="18" customHeight="1">
-      <c r="A245" s="45"/>
-      <c r="B245" s="62"/>
-      <c r="C245" s="62"/>
-      <c r="D245" s="62"/>
-      <c r="E245" s="45"/>
-      <c r="F245" s="62"/>
-      <c r="G245" s="62"/>
+      <c r="A245" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B245" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C245" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D245" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E245" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="F245" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G245" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H245" s="45"/>
-      <c r="I245" s="45"/>
-      <c r="J245" s="63"/>
-      <c r="K245" s="45"/>
-      <c r="L245" s="62"/>
-      <c r="M245" s="62"/>
-      <c r="N245" s="40"/>
+      <c r="I245" s="38">
+        <v>298</v>
+      </c>
+      <c r="J245" s="54">
+        <f t="shared" si="7"/>
+        <v>129716981132.07501</v>
+      </c>
+      <c r="K245" s="38">
+        <f t="shared" si="8"/>
+        <v>11037735849.056986</v>
+      </c>
+      <c r="L245" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M245" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N245" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O245" s="45"/>
-      <c r="P245" s="45"/>
-      <c r="Q245" s="45"/>
+      <c r="P245" s="45">
+        <v>129.71698113207501</v>
+      </c>
+      <c r="Q245" s="45">
+        <v>140.75471698113199</v>
+      </c>
       <c r="R245" s="45"/>
       <c r="S245" s="37"/>
       <c r="T245" s="37"/>
     </row>
     <row r="246" spans="1:20" ht="18" customHeight="1">
-      <c r="A246" s="45"/>
-      <c r="B246" s="62"/>
-      <c r="C246" s="62"/>
-      <c r="D246" s="62"/>
-      <c r="E246" s="45"/>
-      <c r="F246" s="62"/>
-      <c r="G246" s="62"/>
+      <c r="A246" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B246" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C246" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D246" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E246" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="F246" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G246" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H246" s="45"/>
-      <c r="I246" s="45"/>
-      <c r="J246" s="45"/>
-      <c r="K246" s="45"/>
-      <c r="L246" s="62"/>
-      <c r="M246" s="62"/>
-      <c r="N246" s="40"/>
+      <c r="I246" s="38">
+        <v>298</v>
+      </c>
+      <c r="J246" s="54">
+        <f t="shared" si="7"/>
+        <v>140188679245.28299</v>
+      </c>
+      <c r="K246" s="38">
+        <f t="shared" si="8"/>
+        <v>8490566037.734993</v>
+      </c>
+      <c r="L246" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M246" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N246" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O246" s="45"/>
-      <c r="P246" s="45"/>
-      <c r="Q246" s="45"/>
+      <c r="P246" s="45">
+        <v>140.188679245283</v>
+      </c>
+      <c r="Q246" s="45">
+        <v>148.67924528301799</v>
+      </c>
       <c r="R246" s="45"/>
       <c r="S246" s="37"/>
       <c r="T246" s="37"/>
     </row>
     <row r="247" spans="1:20" ht="18" customHeight="1">
-      <c r="A247" s="45"/>
-      <c r="B247" s="62"/>
-      <c r="C247" s="62"/>
-      <c r="D247" s="62"/>
-      <c r="E247" s="45"/>
-      <c r="F247" s="62"/>
-      <c r="G247" s="62"/>
+      <c r="A247" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B247" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C247" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D247" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E247" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="F247" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G247" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H247" s="45"/>
-      <c r="I247" s="45"/>
-      <c r="J247" s="63"/>
-      <c r="K247" s="45"/>
-      <c r="L247" s="62"/>
-      <c r="M247" s="62"/>
-      <c r="N247" s="40"/>
+      <c r="I247" s="38">
+        <v>298</v>
+      </c>
+      <c r="J247" s="54">
+        <f t="shared" si="7"/>
+        <v>121792452830.188</v>
+      </c>
+      <c r="K247" s="38">
+        <f t="shared" si="8"/>
+        <v>13584905660.377998</v>
+      </c>
+      <c r="L247" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M247" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N247" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="O247" s="45"/>
-      <c r="P247" s="45"/>
-      <c r="Q247" s="45"/>
+      <c r="P247" s="45">
+        <v>121.792452830188</v>
+      </c>
+      <c r="Q247" s="45">
+        <v>135.377358490566</v>
+      </c>
       <c r="R247" s="45"/>
       <c r="S247" s="37"/>
       <c r="T247" s="45"/>

--- a/MiscSmallUploads_Apr2025.xlsx
+++ b/MiscSmallUploads_Apr2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2970E219-506E-0844-B071-008C4FA0CE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73942163-991A-634C-B316-EE91313655A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1660" windowWidth="17540" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="8760" windowWidth="17540" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="278">
   <si>
     <r>
       <rPr>
@@ -816,6 +816,9 @@
     <t>F6</t>
   </si>
   <si>
+    <t>F10</t>
+  </si>
+  <si>
     <t>T4</t>
   </si>
   <si>
@@ -874,6 +877,93 @@
   </si>
   <si>
     <t>10.1016/j.jallcom.2021.163233</t>
+  </si>
+  <si>
+    <t>electrodeposition from elemental metal salts thermostated at 55*C onto a polished brass anode</t>
+  </si>
+  <si>
+    <t>Co30.7Fe27.4Ni23.6Zn17.7</t>
+  </si>
+  <si>
+    <t>Co28.5Fe27.7Ni22.7Zn20.5</t>
+  </si>
+  <si>
+    <t>Co27.7Fe21.5Ni25.6Zn24.6</t>
+  </si>
+  <si>
+    <t>Co25.9Fe23.2Ni22.1Zn28.3</t>
+  </si>
+  <si>
+    <t>Co22.7Fe24.4Ni20.0Zn32.8</t>
+  </si>
+  <si>
+    <t>Co22.8Fe15.3Ni25.8Zn35.8</t>
+  </si>
+  <si>
+    <t>Co20.5Fe10.1Ni29.0Zn39.5</t>
+  </si>
+  <si>
+    <t>Co20.9Fe11.9Ni24.8Zn42.3</t>
+  </si>
+  <si>
+    <t>Co19.1Fe16.9Ni19.9Zn44.1</t>
+  </si>
+  <si>
+    <t>Pos 1</t>
+  </si>
+  <si>
+    <t>Pos 2</t>
+  </si>
+  <si>
+    <t>Pos 3</t>
+  </si>
+  <si>
+    <t>Pos 4</t>
+  </si>
+  <si>
+    <t>Pos 5</t>
+  </si>
+  <si>
+    <t>Pos 6</t>
+  </si>
+  <si>
+    <t>Pos 7</t>
+  </si>
+  <si>
+    <t>Pos 8</t>
+  </si>
+  <si>
+    <t>Pos 9</t>
+  </si>
+  <si>
+    <t>10.3390/met14060700</t>
+  </si>
+  <si>
+    <t>Ni18 Fe34 Co23 W25</t>
+  </si>
+  <si>
+    <t>NiFeCo</t>
+  </si>
+  <si>
+    <t>W25</t>
+  </si>
+  <si>
+    <t>Mo25</t>
+  </si>
+  <si>
+    <t>MoW-EQ</t>
+  </si>
+  <si>
+    <t>Ni21 Fe27 Co29 Mo23</t>
+  </si>
+  <si>
+    <t>Ni30 Fe23 Co22 Mo13 W13</t>
+  </si>
+  <si>
+    <t>MoW-CF</t>
+  </si>
+  <si>
+    <t>Ni8 Fe34 Co30 Mo14 W13</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2200,6 +2290,7 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3362,8 +3453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E209" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O251" sqref="O251"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F255" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L277" sqref="L277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -12181,7 +12272,7 @@
         <v>227</v>
       </c>
       <c r="N196" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O196" s="37"/>
       <c r="P196" s="38">
@@ -12233,7 +12324,7 @@
         <v>227</v>
       </c>
       <c r="N197" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O197" s="37"/>
       <c r="P197" s="38">
@@ -12285,7 +12376,7 @@
         <v>227</v>
       </c>
       <c r="N198" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O198" s="37"/>
       <c r="P198" s="38">
@@ -12337,7 +12428,7 @@
         <v>227</v>
       </c>
       <c r="N199" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O199" s="37"/>
       <c r="P199" s="38">
@@ -12389,7 +12480,7 @@
         <v>227</v>
       </c>
       <c r="N200" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O200" s="37"/>
       <c r="P200" s="38">
@@ -12440,7 +12531,7 @@
         <v>227</v>
       </c>
       <c r="N201" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O201" s="37"/>
       <c r="P201" s="38"/>
@@ -12487,7 +12578,7 @@
         <v>227</v>
       </c>
       <c r="N202" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O202" s="37"/>
       <c r="P202" s="38"/>
@@ -12528,10 +12619,10 @@
         <v>33</v>
       </c>
       <c r="M203" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N203" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O203" s="37"/>
       <c r="P203" s="38"/>
@@ -12572,10 +12663,10 @@
         <v>33</v>
       </c>
       <c r="M204" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N204" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O204" s="37"/>
       <c r="P204" s="38"/>
@@ -12616,10 +12707,10 @@
         <v>33</v>
       </c>
       <c r="M205" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N205" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O205" s="37"/>
       <c r="P205" s="38"/>
@@ -12660,10 +12751,10 @@
         <v>33</v>
       </c>
       <c r="M206" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N206" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O206" s="37"/>
       <c r="P206" s="38"/>
@@ -12704,10 +12795,10 @@
         <v>33</v>
       </c>
       <c r="M207" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N207" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O207" s="37"/>
       <c r="P207" s="38"/>
@@ -12748,10 +12839,10 @@
         <v>33</v>
       </c>
       <c r="M208" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N208" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O208" s="37"/>
       <c r="P208" s="38"/>
@@ -12792,10 +12883,10 @@
         <v>33</v>
       </c>
       <c r="M209" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N209" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O209" s="37"/>
       <c r="P209" s="38"/>
@@ -12836,10 +12927,10 @@
         <v>33</v>
       </c>
       <c r="M210" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N210" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O210" s="37"/>
       <c r="P210" s="38"/>
@@ -12880,10 +12971,10 @@
         <v>33</v>
       </c>
       <c r="M211" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N211" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O211" s="37"/>
       <c r="P211" s="38"/>
@@ -12924,10 +13015,10 @@
         <v>33</v>
       </c>
       <c r="M212" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N212" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O212" s="37"/>
       <c r="P212" s="38"/>
@@ -12968,10 +13059,10 @@
         <v>68</v>
       </c>
       <c r="M213" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N213" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O213" s="37"/>
       <c r="P213" s="38"/>
@@ -13012,10 +13103,10 @@
         <v>68</v>
       </c>
       <c r="M214" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N214" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O214" s="37"/>
       <c r="P214" s="38"/>
@@ -13056,10 +13147,10 @@
         <v>68</v>
       </c>
       <c r="M215" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N215" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O215" s="37"/>
       <c r="P215" s="38"/>
@@ -13100,10 +13191,10 @@
         <v>68</v>
       </c>
       <c r="M216" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N216" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O216" s="45"/>
       <c r="P216" s="38"/>
@@ -13144,10 +13235,10 @@
         <v>68</v>
       </c>
       <c r="M217" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N217" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O217" s="45"/>
       <c r="P217" s="38"/>
@@ -13158,19 +13249,19 @@
     </row>
     <row r="218" spans="1:20" ht="18" customHeight="1">
       <c r="A218" s="40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B218" s="41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C218" s="58" t="s">
         <v>81</v>
       </c>
       <c r="D218" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E218" s="59" t="s">
         <v>241</v>
-      </c>
-      <c r="E218" s="59" t="s">
-        <v>240</v>
       </c>
       <c r="F218" s="57" t="s">
         <v>63</v>
@@ -13197,7 +13288,7 @@
         <v>102</v>
       </c>
       <c r="N218" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O218" s="45"/>
       <c r="P218" s="38">
@@ -13212,19 +13303,19 @@
     </row>
     <row r="219" spans="1:20" ht="18" customHeight="1">
       <c r="A219" s="40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B219" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C219" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D219" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E219" s="59" t="s">
         <v>241</v>
-      </c>
-      <c r="E219" s="59" t="s">
-        <v>240</v>
       </c>
       <c r="F219" s="57" t="s">
         <v>63</v>
@@ -13237,11 +13328,11 @@
         <v>298</v>
       </c>
       <c r="J219" s="54">
-        <f t="shared" ref="J219:J247" si="7">P219*1000000000</f>
+        <f t="shared" ref="J219:J265" si="7">P219*1000000000</f>
         <v>4610671936.7588902</v>
       </c>
       <c r="K219" s="38">
-        <f t="shared" ref="K219:K247" si="8">(Q219-P219)*1000000000</f>
+        <f t="shared" ref="K219:K265" si="8">(Q219-P219)*1000000000</f>
         <v>69169960.474310338</v>
       </c>
       <c r="L219" s="40" t="s">
@@ -13251,7 +13342,7 @@
         <v>102</v>
       </c>
       <c r="N219" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O219" s="45"/>
       <c r="P219" s="38">
@@ -13266,19 +13357,19 @@
     </row>
     <row r="220" spans="1:20" ht="18" customHeight="1">
       <c r="A220" s="40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B220" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C220" s="40" t="s">
         <v>65</v>
       </c>
       <c r="D220" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E220" s="59" t="s">
         <v>241</v>
-      </c>
-      <c r="E220" s="59" t="s">
-        <v>240</v>
       </c>
       <c r="F220" s="57" t="s">
         <v>63</v>
@@ -13305,7 +13396,7 @@
         <v>102</v>
       </c>
       <c r="N220" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O220" s="45"/>
       <c r="P220" s="38">
@@ -13320,19 +13411,19 @@
     </row>
     <row r="221" spans="1:20" ht="18" customHeight="1">
       <c r="A221" s="40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B221" s="41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C221" s="58" t="s">
         <v>81</v>
       </c>
       <c r="D221" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E221" s="59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F221" s="57" t="s">
         <v>63</v>
@@ -13359,7 +13450,7 @@
         <v>102</v>
       </c>
       <c r="N221" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O221" s="45"/>
       <c r="P221" s="38">
@@ -13374,19 +13465,19 @@
     </row>
     <row r="222" spans="1:20" ht="18" customHeight="1">
       <c r="A222" s="40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B222" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C222" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D222" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E222" s="59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F222" s="57" t="s">
         <v>63</v>
@@ -13413,7 +13504,7 @@
         <v>102</v>
       </c>
       <c r="N222" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O222" s="45"/>
       <c r="P222" s="45">
@@ -13428,19 +13519,19 @@
     </row>
     <row r="223" spans="1:20" ht="18" customHeight="1">
       <c r="A223" s="40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B223" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C223" s="40" t="s">
         <v>65</v>
       </c>
       <c r="D223" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E223" s="59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F223" s="57" t="s">
         <v>63</v>
@@ -13467,7 +13558,7 @@
         <v>102</v>
       </c>
       <c r="N223" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O223" s="45"/>
       <c r="P223" s="45">
@@ -13482,19 +13573,19 @@
     </row>
     <row r="224" spans="1:20" ht="18" customHeight="1">
       <c r="A224" s="40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B224" s="41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C224" s="58" t="s">
         <v>81</v>
       </c>
       <c r="D224" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E224" s="59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F224" s="57" t="s">
         <v>63</v>
@@ -13521,7 +13612,7 @@
         <v>102</v>
       </c>
       <c r="N224" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O224" s="45"/>
       <c r="P224" s="45">
@@ -13536,19 +13627,19 @@
     </row>
     <row r="225" spans="1:20" ht="18" customHeight="1">
       <c r="A225" s="40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B225" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C225" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D225" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E225" s="59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F225" s="57" t="s">
         <v>63</v>
@@ -13575,7 +13666,7 @@
         <v>102</v>
       </c>
       <c r="N225" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O225" s="45"/>
       <c r="P225" s="45">
@@ -13590,19 +13681,19 @@
     </row>
     <row r="226" spans="1:20" ht="18" customHeight="1">
       <c r="A226" s="40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B226" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C226" s="40" t="s">
         <v>65</v>
       </c>
       <c r="D226" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E226" s="59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F226" s="57" t="s">
         <v>63</v>
@@ -13629,7 +13720,7 @@
         <v>102</v>
       </c>
       <c r="N226" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O226" s="45"/>
       <c r="P226" s="45">
@@ -13644,19 +13735,19 @@
     </row>
     <row r="227" spans="1:20" ht="18" customHeight="1">
       <c r="A227" s="40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B227" s="41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C227" s="58" t="s">
         <v>81</v>
       </c>
       <c r="D227" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E227" s="59" t="s">
         <v>241</v>
-      </c>
-      <c r="E227" s="59" t="s">
-        <v>240</v>
       </c>
       <c r="F227" s="57" t="s">
         <v>80</v>
@@ -13683,7 +13774,7 @@
         <v>102</v>
       </c>
       <c r="N227" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O227" s="45"/>
       <c r="P227" s="45">
@@ -13698,19 +13789,19 @@
     </row>
     <row r="228" spans="1:20" ht="18" customHeight="1">
       <c r="A228" s="40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B228" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C228" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D228" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E228" s="59" t="s">
         <v>241</v>
-      </c>
-      <c r="E228" s="59" t="s">
-        <v>240</v>
       </c>
       <c r="F228" s="57" t="s">
         <v>80</v>
@@ -13737,7 +13828,7 @@
         <v>102</v>
       </c>
       <c r="N228" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O228" s="45"/>
       <c r="P228" s="45">
@@ -13752,19 +13843,19 @@
     </row>
     <row r="229" spans="1:20" ht="18" customHeight="1">
       <c r="A229" s="40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C229" s="40" t="s">
         <v>65</v>
       </c>
       <c r="D229" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E229" s="59" t="s">
         <v>241</v>
-      </c>
-      <c r="E229" s="59" t="s">
-        <v>240</v>
       </c>
       <c r="F229" s="57" t="s">
         <v>80</v>
@@ -13791,7 +13882,7 @@
         <v>102</v>
       </c>
       <c r="N229" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O229" s="45"/>
       <c r="P229" s="45">
@@ -13806,19 +13897,19 @@
     </row>
     <row r="230" spans="1:20" ht="18" customHeight="1">
       <c r="A230" s="40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B230" s="41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C230" s="58" t="s">
         <v>81</v>
       </c>
       <c r="D230" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E230" s="59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F230" s="57" t="s">
         <v>80</v>
@@ -13845,7 +13936,7 @@
         <v>102</v>
       </c>
       <c r="N230" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O230" s="45"/>
       <c r="P230" s="45">
@@ -13860,19 +13951,19 @@
     </row>
     <row r="231" spans="1:20" ht="18" customHeight="1">
       <c r="A231" s="40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B231" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C231" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D231" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E231" s="59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F231" s="57" t="s">
         <v>80</v>
@@ -13899,7 +13990,7 @@
         <v>102</v>
       </c>
       <c r="N231" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O231" s="45"/>
       <c r="P231" s="45">
@@ -13914,19 +14005,19 @@
     </row>
     <row r="232" spans="1:20" ht="18" customHeight="1">
       <c r="A232" s="40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B232" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C232" s="40" t="s">
         <v>65</v>
       </c>
       <c r="D232" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E232" s="59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F232" s="57" t="s">
         <v>80</v>
@@ -13953,7 +14044,7 @@
         <v>102</v>
       </c>
       <c r="N232" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O232" s="45"/>
       <c r="P232" s="45">
@@ -13968,19 +14059,19 @@
     </row>
     <row r="233" spans="1:20" ht="18" customHeight="1">
       <c r="A233" s="40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B233" s="41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C233" s="58" t="s">
         <v>81</v>
       </c>
       <c r="D233" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E233" s="59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F233" s="57" t="s">
         <v>80</v>
@@ -14007,7 +14098,7 @@
         <v>102</v>
       </c>
       <c r="N233" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O233" s="45"/>
       <c r="P233" s="45">
@@ -14022,19 +14113,19 @@
     </row>
     <row r="234" spans="1:20" ht="18" customHeight="1">
       <c r="A234" s="40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B234" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C234" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D234" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E234" s="59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F234" s="57" t="s">
         <v>80</v>
@@ -14061,7 +14152,7 @@
         <v>102</v>
       </c>
       <c r="N234" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O234" s="45"/>
       <c r="P234" s="45">
@@ -14076,19 +14167,19 @@
     </row>
     <row r="235" spans="1:20" ht="18" customHeight="1">
       <c r="A235" s="40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B235" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C235" s="40" t="s">
         <v>65</v>
       </c>
       <c r="D235" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E235" s="59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F235" s="57" t="s">
         <v>80</v>
@@ -14115,7 +14206,7 @@
         <v>102</v>
       </c>
       <c r="N235" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O235" s="45"/>
       <c r="P235" s="45">
@@ -14130,19 +14221,19 @@
     </row>
     <row r="236" spans="1:20" ht="18" customHeight="1">
       <c r="A236" s="40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B236" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C236" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D236" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E236" s="59" t="s">
         <v>241</v>
-      </c>
-      <c r="E236" s="59" t="s">
-        <v>240</v>
       </c>
       <c r="F236" s="57" t="s">
         <v>63</v>
@@ -14169,7 +14260,7 @@
         <v>203</v>
       </c>
       <c r="N236" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O236" s="45"/>
       <c r="P236" s="45">
@@ -14184,19 +14275,19 @@
     </row>
     <row r="237" spans="1:20" ht="18" customHeight="1">
       <c r="A237" s="40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B237" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C237" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D237" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E237" s="59" t="s">
         <v>241</v>
-      </c>
-      <c r="E237" s="59" t="s">
-        <v>240</v>
       </c>
       <c r="F237" s="57" t="s">
         <v>63</v>
@@ -14223,7 +14314,7 @@
         <v>203</v>
       </c>
       <c r="N237" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O237" s="45"/>
       <c r="P237" s="45">
@@ -14238,19 +14329,19 @@
     </row>
     <row r="238" spans="1:20" ht="18" customHeight="1">
       <c r="A238" s="40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C238" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D238" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E238" s="59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F238" s="57" t="s">
         <v>63</v>
@@ -14277,7 +14368,7 @@
         <v>203</v>
       </c>
       <c r="N238" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O238" s="45"/>
       <c r="P238" s="45">
@@ -14292,19 +14383,19 @@
     </row>
     <row r="239" spans="1:20" ht="18" customHeight="1">
       <c r="A239" s="40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C239" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D239" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E239" s="59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F239" s="57" t="s">
         <v>63</v>
@@ -14331,7 +14422,7 @@
         <v>203</v>
       </c>
       <c r="N239" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O239" s="45"/>
       <c r="P239" s="45">
@@ -14346,19 +14437,19 @@
     </row>
     <row r="240" spans="1:20" ht="18" customHeight="1">
       <c r="A240" s="40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B240" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C240" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D240" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E240" s="59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F240" s="57" t="s">
         <v>63</v>
@@ -14385,7 +14476,7 @@
         <v>203</v>
       </c>
       <c r="N240" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O240" s="45"/>
       <c r="P240" s="45">
@@ -14400,19 +14491,19 @@
     </row>
     <row r="241" spans="1:20" ht="18" customHeight="1">
       <c r="A241" s="40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B241" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C241" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D241" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E241" s="59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F241" s="57" t="s">
         <v>63</v>
@@ -14439,7 +14530,7 @@
         <v>203</v>
       </c>
       <c r="N241" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O241" s="45"/>
       <c r="P241" s="45">
@@ -14454,19 +14545,19 @@
     </row>
     <row r="242" spans="1:20" ht="18" customHeight="1">
       <c r="A242" s="40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B242" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C242" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D242" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E242" s="59" t="s">
         <v>241</v>
-      </c>
-      <c r="E242" s="59" t="s">
-        <v>240</v>
       </c>
       <c r="F242" s="57" t="s">
         <v>80</v>
@@ -14493,7 +14584,7 @@
         <v>203</v>
       </c>
       <c r="N242" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O242" s="45"/>
       <c r="P242" s="45">
@@ -14508,19 +14599,19 @@
     </row>
     <row r="243" spans="1:20" ht="18" customHeight="1">
       <c r="A243" s="40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B243" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D243" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E243" s="59" t="s">
         <v>241</v>
-      </c>
-      <c r="E243" s="59" t="s">
-        <v>240</v>
       </c>
       <c r="F243" s="57" t="s">
         <v>80</v>
@@ -14547,7 +14638,7 @@
         <v>203</v>
       </c>
       <c r="N243" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O243" s="45"/>
       <c r="P243" s="45">
@@ -14562,19 +14653,19 @@
     </row>
     <row r="244" spans="1:20" ht="18" customHeight="1">
       <c r="A244" s="40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B244" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C244" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D244" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E244" s="59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F244" s="57" t="s">
         <v>80</v>
@@ -14601,7 +14692,7 @@
         <v>203</v>
       </c>
       <c r="N244" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O244" s="45"/>
       <c r="P244" s="45">
@@ -14616,19 +14707,19 @@
     </row>
     <row r="245" spans="1:20" ht="18" customHeight="1">
       <c r="A245" s="40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B245" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C245" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D245" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E245" s="59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F245" s="57" t="s">
         <v>80</v>
@@ -14655,7 +14746,7 @@
         <v>203</v>
       </c>
       <c r="N245" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O245" s="45"/>
       <c r="P245" s="45">
@@ -14670,19 +14761,19 @@
     </row>
     <row r="246" spans="1:20" ht="18" customHeight="1">
       <c r="A246" s="40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B246" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C246" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D246" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E246" s="59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F246" s="57" t="s">
         <v>80</v>
@@ -14709,7 +14800,7 @@
         <v>203</v>
       </c>
       <c r="N246" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O246" s="45"/>
       <c r="P246" s="45">
@@ -14724,19 +14815,19 @@
     </row>
     <row r="247" spans="1:20" ht="18" customHeight="1">
       <c r="A247" s="40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B247" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C247" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D247" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E247" s="59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F247" s="57" t="s">
         <v>80</v>
@@ -14763,7 +14854,7 @@
         <v>203</v>
       </c>
       <c r="N247" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O247" s="45"/>
       <c r="P247" s="45">
@@ -14777,617 +14868,1373 @@
       <c r="T247" s="45"/>
     </row>
     <row r="248" spans="1:20" ht="18" customHeight="1">
-      <c r="A248" s="45"/>
-      <c r="B248" s="62"/>
-      <c r="C248" s="62"/>
-      <c r="D248" s="62"/>
-      <c r="E248" s="45"/>
-      <c r="F248" s="62"/>
-      <c r="G248" s="62"/>
+      <c r="A248" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="B248" s="142" t="s">
+        <v>250</v>
+      </c>
+      <c r="C248" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D248" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E248" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F248" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G248" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H248" s="45"/>
-      <c r="I248" s="45"/>
-      <c r="J248" s="45"/>
-      <c r="K248" s="45"/>
-      <c r="L248" s="62"/>
-      <c r="M248" s="62"/>
-      <c r="N248" s="40"/>
+      <c r="I248" s="38">
+        <v>298</v>
+      </c>
+      <c r="J248" s="54">
+        <f t="shared" si="7"/>
+        <v>3311864406.7796602</v>
+      </c>
+      <c r="K248" s="38">
+        <f t="shared" si="8"/>
+        <v>635593220.33898008</v>
+      </c>
+      <c r="L248" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M248" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N248" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O248" s="45"/>
-      <c r="P248" s="45"/>
-      <c r="Q248" s="45"/>
+      <c r="P248" s="45">
+        <v>3.3118644067796601</v>
+      </c>
+      <c r="Q248" s="45">
+        <v>3.9474576271186401</v>
+      </c>
       <c r="R248" s="45"/>
       <c r="S248" s="37"/>
       <c r="T248" s="45"/>
     </row>
     <row r="249" spans="1:20" ht="18" customHeight="1">
-      <c r="A249" s="45"/>
-      <c r="B249" s="62"/>
-      <c r="C249" s="62"/>
-      <c r="D249" s="62"/>
-      <c r="E249" s="45"/>
-      <c r="F249" s="62"/>
-      <c r="G249" s="62"/>
+      <c r="A249" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="B249" s="142" t="s">
+        <v>251</v>
+      </c>
+      <c r="C249" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D249" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E249" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F249" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G249" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H249" s="45"/>
-      <c r="I249" s="45"/>
-      <c r="J249" s="63"/>
-      <c r="K249" s="63"/>
-      <c r="L249" s="62"/>
-      <c r="M249" s="62"/>
-      <c r="N249" s="62"/>
+      <c r="I249" s="38">
+        <v>298</v>
+      </c>
+      <c r="J249" s="54">
+        <f t="shared" si="7"/>
+        <v>2869491525.4237199</v>
+      </c>
+      <c r="K249" s="38">
+        <f t="shared" si="8"/>
+        <v>905084745.76271999</v>
+      </c>
+      <c r="L249" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M249" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N249" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O249" s="45"/>
-      <c r="P249" s="45"/>
-      <c r="Q249" s="45"/>
+      <c r="P249" s="45">
+        <v>2.8694915254237201</v>
+      </c>
+      <c r="Q249" s="45">
+        <v>3.7745762711864401</v>
+      </c>
       <c r="R249" s="45"/>
       <c r="S249" s="37"/>
       <c r="T249" s="45"/>
     </row>
     <row r="250" spans="1:20" ht="18" customHeight="1">
-      <c r="A250" s="45"/>
-      <c r="B250" s="62"/>
-      <c r="C250" s="62"/>
-      <c r="D250" s="62"/>
-      <c r="E250" s="45"/>
-      <c r="F250" s="62"/>
-      <c r="G250" s="62"/>
+      <c r="A250" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B250" s="142" t="s">
+        <v>252</v>
+      </c>
+      <c r="C250" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D250" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E250" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F250" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G250" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H250" s="45"/>
-      <c r="I250" s="45"/>
-      <c r="J250" s="63"/>
-      <c r="K250" s="63"/>
-      <c r="L250" s="62"/>
-      <c r="M250" s="62"/>
-      <c r="N250" s="62"/>
+      <c r="I250" s="38">
+        <v>298</v>
+      </c>
+      <c r="J250" s="54">
+        <f t="shared" si="7"/>
+        <v>4150847457.62711</v>
+      </c>
+      <c r="K250" s="38">
+        <f t="shared" si="8"/>
+        <v>498305084.74576974</v>
+      </c>
+      <c r="L250" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M250" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N250" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O250" s="45"/>
-      <c r="P250" s="45"/>
-      <c r="Q250" s="45"/>
+      <c r="P250" s="45">
+        <v>4.1508474576271102</v>
+      </c>
+      <c r="Q250" s="45">
+        <v>4.6491525423728799</v>
+      </c>
       <c r="R250" s="45"/>
       <c r="S250" s="37"/>
       <c r="T250" s="37"/>
     </row>
     <row r="251" spans="1:20" ht="18" customHeight="1">
-      <c r="A251" s="45"/>
-      <c r="B251" s="62"/>
-      <c r="C251" s="62"/>
-      <c r="D251" s="62"/>
-      <c r="E251" s="45"/>
-      <c r="F251" s="62"/>
-      <c r="G251" s="62"/>
+      <c r="A251" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B251" s="142" t="s">
+        <v>253</v>
+      </c>
+      <c r="C251" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D251" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E251" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F251" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G251" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H251" s="45"/>
-      <c r="I251" s="45"/>
-      <c r="J251" s="49"/>
-      <c r="K251" s="49"/>
-      <c r="L251" s="62"/>
-      <c r="M251" s="62"/>
-      <c r="N251" s="62"/>
+      <c r="I251" s="38">
+        <v>298</v>
+      </c>
+      <c r="J251" s="54">
+        <f t="shared" si="7"/>
+        <v>4613559322.0338898</v>
+      </c>
+      <c r="K251" s="38">
+        <f t="shared" si="8"/>
+        <v>122033898.30508992</v>
+      </c>
+      <c r="L251" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M251" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N251" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O251" s="45"/>
-      <c r="P251" s="45"/>
-      <c r="Q251" s="45"/>
+      <c r="P251" s="45">
+        <v>4.6135593220338897</v>
+      </c>
+      <c r="Q251" s="45">
+        <v>4.7355932203389797</v>
+      </c>
       <c r="R251" s="45"/>
       <c r="S251" s="37"/>
       <c r="T251" s="37"/>
     </row>
     <row r="252" spans="1:20" ht="18" customHeight="1">
-      <c r="A252" s="45"/>
-      <c r="B252" s="62"/>
-      <c r="C252" s="62"/>
-      <c r="D252" s="62"/>
-      <c r="E252" s="45"/>
-      <c r="F252" s="62"/>
-      <c r="G252" s="62"/>
+      <c r="A252" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="B252" s="142" t="s">
+        <v>254</v>
+      </c>
+      <c r="C252" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D252" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E252" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F252" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G252" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H252" s="45"/>
-      <c r="I252" s="45"/>
-      <c r="J252" s="49"/>
-      <c r="K252" s="49"/>
-      <c r="L252" s="62"/>
-      <c r="M252" s="62"/>
-      <c r="N252" s="62"/>
+      <c r="I252" s="38">
+        <v>298</v>
+      </c>
+      <c r="J252" s="54">
+        <f t="shared" si="7"/>
+        <v>4069491525.4237199</v>
+      </c>
+      <c r="K252" s="38">
+        <f t="shared" si="8"/>
+        <v>167796610.16949987</v>
+      </c>
+      <c r="L252" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M252" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N252" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O252" s="45"/>
-      <c r="P252" s="45"/>
-      <c r="Q252" s="45"/>
+      <c r="P252" s="45">
+        <v>4.0694915254237198</v>
+      </c>
+      <c r="Q252" s="45">
+        <v>4.2372881355932197</v>
+      </c>
       <c r="R252" s="45"/>
       <c r="S252" s="37"/>
       <c r="T252" s="37"/>
     </row>
     <row r="253" spans="1:20" ht="18" customHeight="1">
-      <c r="A253" s="45"/>
-      <c r="B253" s="62"/>
-      <c r="C253" s="62"/>
-      <c r="D253" s="62"/>
-      <c r="E253" s="45"/>
-      <c r="F253" s="62"/>
-      <c r="G253" s="62"/>
+      <c r="A253" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="B253" s="142" t="s">
+        <v>255</v>
+      </c>
+      <c r="C253" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D253" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E253" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F253" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G253" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H253" s="45"/>
-      <c r="I253" s="45"/>
-      <c r="J253" s="63"/>
-      <c r="K253" s="45"/>
-      <c r="L253" s="62"/>
-      <c r="M253" s="62"/>
-      <c r="N253" s="62"/>
+      <c r="I253" s="38">
+        <v>298</v>
+      </c>
+      <c r="J253" s="54">
+        <f t="shared" si="7"/>
+        <v>4852542372.8813505</v>
+      </c>
+      <c r="K253" s="38">
+        <f t="shared" si="8"/>
+        <v>213559322.03390005</v>
+      </c>
+      <c r="L253" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M253" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N253" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O253" s="45"/>
-      <c r="P253" s="45"/>
-      <c r="Q253" s="45"/>
+      <c r="P253" s="45">
+        <v>4.8525423728813504</v>
+      </c>
+      <c r="Q253" s="45">
+        <v>5.0661016949152504</v>
+      </c>
       <c r="R253" s="45"/>
       <c r="S253" s="37"/>
       <c r="T253" s="37"/>
     </row>
     <row r="254" spans="1:20" ht="18" customHeight="1">
-      <c r="A254" s="45"/>
-      <c r="B254" s="62"/>
-      <c r="C254" s="62"/>
-      <c r="D254" s="62"/>
-      <c r="E254" s="45"/>
-      <c r="F254" s="62"/>
-      <c r="G254" s="62"/>
+      <c r="A254" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="B254" s="142" t="s">
+        <v>256</v>
+      </c>
+      <c r="C254" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D254" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E254" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F254" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G254" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H254" s="45"/>
-      <c r="I254" s="45"/>
-      <c r="J254" s="63"/>
-      <c r="K254" s="45"/>
-      <c r="L254" s="62"/>
-      <c r="M254" s="62"/>
-      <c r="N254" s="62"/>
+      <c r="I254" s="38">
+        <v>298</v>
+      </c>
+      <c r="J254" s="54">
+        <f t="shared" si="7"/>
+        <v>4410169491.5254202</v>
+      </c>
+      <c r="K254" s="38">
+        <f t="shared" si="8"/>
+        <v>366101694.91525024</v>
+      </c>
+      <c r="L254" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M254" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N254" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O254" s="45"/>
-      <c r="P254" s="45"/>
-      <c r="Q254" s="45"/>
+      <c r="P254" s="45">
+        <v>4.4101694915254201</v>
+      </c>
+      <c r="Q254" s="45">
+        <v>4.7762711864406704</v>
+      </c>
       <c r="R254" s="45"/>
       <c r="S254" s="37"/>
       <c r="T254" s="37"/>
     </row>
     <row r="255" spans="1:20" ht="18" customHeight="1">
-      <c r="A255" s="45"/>
-      <c r="B255" s="62"/>
-      <c r="C255" s="62"/>
-      <c r="D255" s="62"/>
-      <c r="E255" s="45"/>
-      <c r="F255" s="62"/>
-      <c r="G255" s="62"/>
+      <c r="A255" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="B255" s="142" t="s">
+        <v>257</v>
+      </c>
+      <c r="C255" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D255" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E255" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F255" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G255" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H255" s="45"/>
-      <c r="I255" s="45"/>
-      <c r="J255" s="63"/>
-      <c r="K255" s="45"/>
-      <c r="L255" s="62"/>
-      <c r="M255" s="62"/>
-      <c r="N255" s="62"/>
+      <c r="I255" s="38">
+        <v>298</v>
+      </c>
+      <c r="J255" s="54">
+        <f t="shared" si="7"/>
+        <v>3967796610.1694899</v>
+      </c>
+      <c r="K255" s="38">
+        <f t="shared" si="8"/>
+        <v>386440677.96610051</v>
+      </c>
+      <c r="L255" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M255" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N255" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O255" s="45"/>
-      <c r="P255" s="45"/>
-      <c r="Q255" s="45"/>
+      <c r="P255" s="45">
+        <v>3.9677966101694899</v>
+      </c>
+      <c r="Q255" s="45">
+        <v>4.3542372881355904</v>
+      </c>
       <c r="R255" s="45"/>
       <c r="S255" s="37"/>
       <c r="T255" s="37"/>
     </row>
     <row r="256" spans="1:20" ht="18" customHeight="1">
-      <c r="A256" s="45"/>
-      <c r="B256" s="62"/>
-      <c r="C256" s="62"/>
-      <c r="D256" s="62"/>
-      <c r="E256" s="45"/>
-      <c r="F256" s="62"/>
-      <c r="G256" s="62"/>
+      <c r="A256" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="B256" s="142" t="s">
+        <v>258</v>
+      </c>
+      <c r="C256" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D256" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E256" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F256" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G256" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H256" s="45"/>
-      <c r="I256" s="45"/>
-      <c r="J256" s="63"/>
-      <c r="K256" s="45"/>
-      <c r="L256" s="62"/>
-      <c r="M256" s="62"/>
-      <c r="N256" s="62"/>
+      <c r="I256" s="38">
+        <v>298</v>
+      </c>
+      <c r="J256" s="54">
+        <f t="shared" si="7"/>
+        <v>4338983050.8474493</v>
+      </c>
+      <c r="K256" s="38">
+        <f t="shared" si="8"/>
+        <v>228813559.32203996</v>
+      </c>
+      <c r="L256" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M256" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N256" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O256" s="45"/>
-      <c r="P256" s="45"/>
-      <c r="Q256" s="45"/>
+      <c r="P256" s="45">
+        <v>4.3389830508474496</v>
+      </c>
+      <c r="Q256" s="45">
+        <v>4.5677966101694896</v>
+      </c>
       <c r="R256" s="45"/>
       <c r="S256" s="37"/>
       <c r="T256" s="37"/>
     </row>
     <row r="257" spans="1:20" ht="18" customHeight="1">
-      <c r="A257" s="45"/>
-      <c r="B257" s="62"/>
-      <c r="C257" s="62"/>
-      <c r="D257" s="62"/>
-      <c r="E257" s="45"/>
-      <c r="F257" s="62"/>
-      <c r="G257" s="62"/>
+      <c r="A257" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257" s="142" t="s">
+        <v>250</v>
+      </c>
+      <c r="C257" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D257" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E257" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F257" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G257" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H257" s="45"/>
-      <c r="I257" s="45"/>
-      <c r="J257" s="45"/>
-      <c r="K257" s="45"/>
-      <c r="L257" s="62"/>
-      <c r="M257" s="62"/>
-      <c r="N257" s="62"/>
+      <c r="I257" s="38">
+        <v>298</v>
+      </c>
+      <c r="J257" s="54">
+        <f t="shared" si="7"/>
+        <v>113435114503.81599</v>
+      </c>
+      <c r="K257" s="38">
+        <f t="shared" si="8"/>
+        <v>10000000000</v>
+      </c>
+      <c r="L257" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M257" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N257" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O257" s="45"/>
-      <c r="P257" s="45"/>
-      <c r="Q257" s="45"/>
+      <c r="P257" s="45">
+        <v>113.435114503816</v>
+      </c>
+      <c r="Q257" s="45">
+        <v>123.435114503816</v>
+      </c>
       <c r="R257" s="45"/>
       <c r="S257" s="37"/>
       <c r="T257" s="37"/>
     </row>
     <row r="258" spans="1:20" ht="18" customHeight="1">
-      <c r="A258" s="45"/>
-      <c r="B258" s="62"/>
-      <c r="C258" s="62"/>
-      <c r="D258" s="45"/>
-      <c r="E258" s="45"/>
-      <c r="F258" s="62"/>
-      <c r="G258" s="62"/>
+      <c r="A258" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258" s="142" t="s">
+        <v>251</v>
+      </c>
+      <c r="C258" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D258" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E258" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F258" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G258" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H258" s="45"/>
-      <c r="I258" s="45"/>
-      <c r="J258" s="63"/>
-      <c r="K258" s="45"/>
-      <c r="L258" s="62"/>
-      <c r="M258" s="62"/>
-      <c r="N258" s="62"/>
+      <c r="I258" s="38">
+        <v>298</v>
+      </c>
+      <c r="J258" s="54">
+        <f t="shared" si="7"/>
+        <v>109312977099.23599</v>
+      </c>
+      <c r="K258" s="38">
+        <f t="shared" si="8"/>
+        <v>14274809160.305012</v>
+      </c>
+      <c r="L258" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M258" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N258" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O258" s="45"/>
-      <c r="P258" s="45"/>
-      <c r="Q258" s="45"/>
+      <c r="P258" s="45">
+        <v>109.31297709923599</v>
+      </c>
+      <c r="Q258" s="45">
+        <v>123.58778625954101</v>
+      </c>
       <c r="R258" s="45"/>
       <c r="S258" s="37"/>
       <c r="T258" s="37"/>
     </row>
     <row r="259" spans="1:20" ht="18" customHeight="1">
-      <c r="A259" s="45"/>
-      <c r="B259" s="62"/>
-      <c r="C259" s="62"/>
-      <c r="D259" s="45"/>
-      <c r="E259" s="45"/>
-      <c r="F259" s="62"/>
-      <c r="G259" s="62"/>
+      <c r="A259" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259" s="142" t="s">
+        <v>252</v>
+      </c>
+      <c r="C259" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D259" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E259" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F259" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G259" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H259" s="45"/>
-      <c r="I259" s="45"/>
-      <c r="J259" s="45"/>
-      <c r="K259" s="45"/>
-      <c r="L259" s="45"/>
-      <c r="M259" s="62"/>
-      <c r="N259" s="62"/>
+      <c r="I259" s="38">
+        <v>298</v>
+      </c>
+      <c r="J259" s="54">
+        <f t="shared" si="7"/>
+        <v>132748091603.05301</v>
+      </c>
+      <c r="K259" s="38">
+        <f t="shared" si="8"/>
+        <v>7175572519.0839996</v>
+      </c>
+      <c r="L259" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M259" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N259" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O259" s="45"/>
-      <c r="P259" s="45"/>
-      <c r="Q259" s="45"/>
+      <c r="P259" s="45">
+        <v>132.74809160305301</v>
+      </c>
+      <c r="Q259" s="45">
+        <v>139.92366412213701</v>
+      </c>
       <c r="R259" s="45"/>
       <c r="S259" s="37"/>
       <c r="T259" s="37"/>
     </row>
     <row r="260" spans="1:20" ht="18" customHeight="1">
-      <c r="A260" s="45"/>
-      <c r="B260" s="62"/>
-      <c r="C260" s="62"/>
-      <c r="D260" s="62"/>
-      <c r="E260" s="45"/>
-      <c r="F260" s="62"/>
-      <c r="G260" s="62"/>
+      <c r="A260" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260" s="142" t="s">
+        <v>253</v>
+      </c>
+      <c r="C260" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D260" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E260" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F260" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G260" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H260" s="45"/>
-      <c r="I260" s="45"/>
-      <c r="J260" s="63"/>
-      <c r="K260" s="63"/>
-      <c r="L260" s="62"/>
-      <c r="M260" s="62"/>
-      <c r="N260" s="62"/>
+      <c r="I260" s="38">
+        <v>298</v>
+      </c>
+      <c r="J260" s="54">
+        <f t="shared" si="7"/>
+        <v>133511450381.679</v>
+      </c>
+      <c r="K260" s="38">
+        <f t="shared" si="8"/>
+        <v>5572519083.9690132</v>
+      </c>
+      <c r="L260" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M260" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N260" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O260" s="45"/>
-      <c r="P260" s="45"/>
-      <c r="Q260" s="45"/>
+      <c r="P260" s="45">
+        <v>133.511450381679</v>
+      </c>
+      <c r="Q260" s="45">
+        <v>139.08396946564801</v>
+      </c>
       <c r="R260" s="45"/>
       <c r="S260" s="37"/>
       <c r="T260" s="37"/>
     </row>
     <row r="261" spans="1:20" ht="18" customHeight="1">
-      <c r="A261" s="45"/>
-      <c r="B261" s="62"/>
-      <c r="C261" s="62"/>
-      <c r="D261" s="62"/>
-      <c r="E261" s="45"/>
-      <c r="F261" s="62"/>
-      <c r="G261" s="62"/>
+      <c r="A261" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261" s="142" t="s">
+        <v>254</v>
+      </c>
+      <c r="C261" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D261" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E261" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F261" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G261" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H261" s="45"/>
-      <c r="I261" s="45"/>
-      <c r="J261" s="63"/>
-      <c r="K261" s="63"/>
-      <c r="L261" s="62"/>
-      <c r="M261" s="62"/>
-      <c r="N261" s="62"/>
+      <c r="I261" s="38">
+        <v>298</v>
+      </c>
+      <c r="J261" s="54">
+        <f t="shared" si="7"/>
+        <v>133435114503.81601</v>
+      </c>
+      <c r="K261" s="38">
+        <f t="shared" si="8"/>
+        <v>7251908396.9469872</v>
+      </c>
+      <c r="L261" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M261" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N261" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O261" s="45"/>
-      <c r="P261" s="45"/>
-      <c r="Q261" s="45"/>
+      <c r="P261" s="45">
+        <v>133.43511450381601</v>
+      </c>
+      <c r="Q261" s="45">
+        <v>140.687022900763</v>
+      </c>
       <c r="R261" s="45"/>
       <c r="S261" s="37"/>
       <c r="T261" s="37"/>
     </row>
     <row r="262" spans="1:20" ht="18" customHeight="1">
-      <c r="A262" s="45"/>
-      <c r="B262" s="62"/>
-      <c r="C262" s="62"/>
-      <c r="D262" s="62"/>
-      <c r="E262" s="45"/>
-      <c r="F262" s="62"/>
-      <c r="G262" s="62"/>
+      <c r="A262" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262" s="142" t="s">
+        <v>255</v>
+      </c>
+      <c r="C262" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D262" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E262" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F262" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G262" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H262" s="45"/>
-      <c r="I262" s="45"/>
-      <c r="J262" s="49"/>
-      <c r="K262" s="49"/>
-      <c r="L262" s="62"/>
-      <c r="M262" s="62"/>
-      <c r="N262" s="62"/>
+      <c r="I262" s="38">
+        <v>298</v>
+      </c>
+      <c r="J262" s="54">
+        <f t="shared" si="7"/>
+        <v>140534351145.03799</v>
+      </c>
+      <c r="K262" s="38">
+        <f t="shared" si="8"/>
+        <v>7709923664.122016</v>
+      </c>
+      <c r="L262" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M262" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N262" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O262" s="45"/>
-      <c r="P262" s="45"/>
-      <c r="Q262" s="45"/>
+      <c r="P262" s="45">
+        <v>140.53435114503799</v>
+      </c>
+      <c r="Q262" s="45">
+        <v>148.24427480916</v>
+      </c>
       <c r="R262" s="45"/>
       <c r="S262" s="37"/>
       <c r="T262" s="37"/>
     </row>
     <row r="263" spans="1:20" ht="18" customHeight="1">
-      <c r="A263" s="45"/>
-      <c r="B263" s="62"/>
-      <c r="C263" s="62"/>
-      <c r="D263" s="62"/>
-      <c r="E263" s="45"/>
-      <c r="F263" s="62"/>
-      <c r="G263" s="62"/>
+      <c r="A263" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263" s="142" t="s">
+        <v>256</v>
+      </c>
+      <c r="C263" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D263" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E263" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F263" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G263" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H263" s="45"/>
-      <c r="I263" s="45"/>
-      <c r="J263" s="49"/>
-      <c r="K263" s="49"/>
-      <c r="L263" s="62"/>
-      <c r="M263" s="62"/>
-      <c r="N263" s="62"/>
+      <c r="I263" s="38">
+        <v>298</v>
+      </c>
+      <c r="J263" s="54">
+        <f t="shared" si="7"/>
+        <v>133511450381.679</v>
+      </c>
+      <c r="K263" s="38">
+        <f t="shared" si="8"/>
+        <v>6564885496.1829958</v>
+      </c>
+      <c r="L263" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M263" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N263" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O263" s="45"/>
-      <c r="P263" s="45"/>
-      <c r="Q263" s="45"/>
+      <c r="P263" s="45">
+        <v>133.511450381679</v>
+      </c>
+      <c r="Q263" s="45">
+        <v>140.07633587786199</v>
+      </c>
       <c r="R263" s="45"/>
       <c r="S263" s="37"/>
       <c r="T263" s="37"/>
     </row>
     <row r="264" spans="1:20" ht="18" customHeight="1">
-      <c r="A264" s="45"/>
-      <c r="B264" s="62"/>
-      <c r="C264" s="62"/>
-      <c r="D264" s="62"/>
-      <c r="E264" s="45"/>
-      <c r="F264" s="62"/>
-      <c r="G264" s="62"/>
+      <c r="A264" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="B264" s="142" t="s">
+        <v>257</v>
+      </c>
+      <c r="C264" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D264" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E264" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F264" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G264" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H264" s="45"/>
-      <c r="I264" s="45"/>
-      <c r="J264" s="63"/>
-      <c r="K264" s="45"/>
-      <c r="L264" s="62"/>
-      <c r="M264" s="62"/>
-      <c r="N264" s="62"/>
+      <c r="I264" s="38">
+        <v>298</v>
+      </c>
+      <c r="J264" s="54">
+        <f t="shared" si="7"/>
+        <v>140458015267.17499</v>
+      </c>
+      <c r="K264" s="38">
+        <f t="shared" si="8"/>
+        <v>7175572519.0839996</v>
+      </c>
+      <c r="L264" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M264" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N264" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O264" s="45"/>
-      <c r="P264" s="45"/>
-      <c r="Q264" s="45"/>
+      <c r="P264" s="45">
+        <v>140.458015267175</v>
+      </c>
+      <c r="Q264" s="45">
+        <v>147.633587786259</v>
+      </c>
       <c r="R264" s="45"/>
       <c r="S264" s="37"/>
       <c r="T264" s="37"/>
     </row>
     <row r="265" spans="1:20" ht="18" customHeight="1">
-      <c r="A265" s="45"/>
-      <c r="B265" s="62"/>
-      <c r="C265" s="62"/>
-      <c r="D265" s="62"/>
-      <c r="E265" s="45"/>
-      <c r="F265" s="62"/>
-      <c r="G265" s="62"/>
+      <c r="A265" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="B265" s="142" t="s">
+        <v>258</v>
+      </c>
+      <c r="C265" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D265" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E265" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F265" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G265" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H265" s="45"/>
-      <c r="I265" s="45"/>
-      <c r="J265" s="63"/>
-      <c r="K265" s="45"/>
-      <c r="L265" s="62"/>
-      <c r="M265" s="62"/>
-      <c r="N265" s="62"/>
+      <c r="I265" s="38">
+        <v>298</v>
+      </c>
+      <c r="J265" s="54">
+        <f t="shared" si="7"/>
+        <v>120305343511.45001</v>
+      </c>
+      <c r="K265" s="38">
+        <f t="shared" si="8"/>
+        <v>3511450381.6789975</v>
+      </c>
+      <c r="L265" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M265" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="N265" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="O265" s="45"/>
-      <c r="P265" s="45"/>
-      <c r="Q265" s="45"/>
+      <c r="P265" s="45">
+        <v>120.30534351145</v>
+      </c>
+      <c r="Q265" s="45">
+        <v>123.816793893129</v>
+      </c>
       <c r="R265" s="45"/>
       <c r="S265" s="37"/>
       <c r="T265" s="37"/>
     </row>
     <row r="266" spans="1:20" ht="18" customHeight="1">
-      <c r="A266" s="45"/>
-      <c r="B266" s="62"/>
-      <c r="C266" s="62"/>
-      <c r="D266" s="62"/>
+      <c r="A266" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="B266" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C266" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D266" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="E266" s="45"/>
-      <c r="F266" s="62"/>
-      <c r="G266" s="62"/>
+      <c r="F266" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G266" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H266" s="45"/>
-      <c r="I266" s="45"/>
+      <c r="I266" s="38">
+        <v>298</v>
+      </c>
       <c r="J266" s="63"/>
       <c r="K266" s="45"/>
       <c r="L266" s="62"/>
       <c r="M266" s="62"/>
       <c r="N266" s="62"/>
       <c r="O266" s="45"/>
-      <c r="P266" s="45"/>
-      <c r="Q266" s="45"/>
+      <c r="P266" s="45">
+        <v>4.6152125279642</v>
+      </c>
+      <c r="Q266" s="45">
+        <v>4.6912751677852302</v>
+      </c>
       <c r="R266" s="45"/>
       <c r="S266" s="37"/>
       <c r="T266" s="37"/>
     </row>
     <row r="267" spans="1:20" ht="18" customHeight="1">
-      <c r="A267" s="45"/>
-      <c r="B267" s="62"/>
-      <c r="C267" s="62"/>
-      <c r="D267" s="62"/>
+      <c r="A267" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="B267" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C267" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D267" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="E267" s="45"/>
-      <c r="F267" s="62"/>
-      <c r="G267" s="62"/>
+      <c r="F267" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G267" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H267" s="45"/>
-      <c r="I267" s="45"/>
+      <c r="I267" s="38">
+        <v>298</v>
+      </c>
       <c r="J267" s="63"/>
       <c r="K267" s="45"/>
       <c r="L267" s="62"/>
       <c r="M267" s="62"/>
       <c r="N267" s="62"/>
       <c r="O267" s="45"/>
-      <c r="P267" s="45"/>
-      <c r="Q267" s="45"/>
+      <c r="P267" s="45">
+        <v>5.29082774049217</v>
+      </c>
+      <c r="Q267" s="45">
+        <v>5.4608501118568196</v>
+      </c>
       <c r="R267" s="45"/>
       <c r="S267" s="37"/>
       <c r="T267" s="37"/>
     </row>
     <row r="268" spans="1:20" ht="18" customHeight="1">
-      <c r="A268" s="45"/>
-      <c r="B268" s="62"/>
-      <c r="C268" s="62"/>
-      <c r="D268" s="62"/>
+      <c r="A268" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="B268" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="C268" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D268" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="E268" s="45"/>
-      <c r="F268" s="62"/>
-      <c r="G268" s="62"/>
+      <c r="F268" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G268" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H268" s="45"/>
-      <c r="I268" s="45"/>
+      <c r="I268" s="38">
+        <v>298</v>
+      </c>
       <c r="J268" s="45"/>
       <c r="K268" s="45"/>
       <c r="L268" s="62"/>
       <c r="M268" s="62"/>
       <c r="N268" s="62"/>
       <c r="O268" s="45"/>
-      <c r="P268" s="45"/>
-      <c r="Q268" s="45"/>
+      <c r="P268" s="45">
+        <v>5.2729306487695702</v>
+      </c>
+      <c r="Q268" s="45">
+        <v>5.4832214765100602</v>
+      </c>
       <c r="R268" s="45"/>
       <c r="S268" s="37"/>
       <c r="T268" s="37"/>
     </row>
     <row r="269" spans="1:20" ht="18" customHeight="1">
-      <c r="A269" s="45"/>
-      <c r="B269" s="62"/>
-      <c r="C269" s="62"/>
-      <c r="D269" s="45"/>
+      <c r="A269" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="B269" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C269" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D269" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="E269" s="45"/>
-      <c r="F269" s="62"/>
-      <c r="G269" s="62"/>
+      <c r="F269" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G269" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H269" s="45"/>
-      <c r="I269" s="45"/>
+      <c r="I269" s="38">
+        <v>298</v>
+      </c>
       <c r="J269" s="63"/>
       <c r="K269" s="45"/>
       <c r="L269" s="62"/>
       <c r="M269" s="62"/>
       <c r="N269" s="62"/>
       <c r="O269" s="45"/>
-      <c r="P269" s="45"/>
-      <c r="Q269" s="45"/>
+      <c r="P269" s="45">
+        <v>4.5883668903803096</v>
+      </c>
+      <c r="Q269" s="45">
+        <v>4.7807606263982096</v>
+      </c>
       <c r="R269" s="45"/>
       <c r="S269" s="37"/>
       <c r="T269" s="37"/>
     </row>
     <row r="270" spans="1:20" ht="18" customHeight="1">
-      <c r="A270" s="45"/>
-      <c r="B270" s="62"/>
-      <c r="C270" s="62"/>
-      <c r="D270" s="45"/>
+      <c r="A270" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B270" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="C270" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D270" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="E270" s="45"/>
-      <c r="F270" s="62"/>
-      <c r="G270" s="62"/>
+      <c r="F270" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G270" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H270" s="45"/>
-      <c r="I270" s="45"/>
+      <c r="I270" s="38">
+        <v>298</v>
+      </c>
       <c r="J270" s="45"/>
       <c r="K270" s="45"/>
       <c r="L270" s="45"/>
       <c r="M270" s="62"/>
       <c r="N270" s="62"/>
       <c r="O270" s="45"/>
-      <c r="P270" s="45"/>
-      <c r="Q270" s="45"/>
+      <c r="P270" s="45">
+        <v>4.0111856823266203</v>
+      </c>
+      <c r="Q270" s="45">
+        <v>4.1364653243847798</v>
+      </c>
       <c r="R270" s="45"/>
       <c r="S270" s="37"/>
       <c r="T270" s="37"/>
     </row>
     <row r="271" spans="1:20" ht="18" customHeight="1">
-      <c r="A271" s="45"/>
-      <c r="B271" s="62"/>
-      <c r="C271" s="62"/>
-      <c r="D271" s="62"/>
+      <c r="A271" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C271" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D271" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="E271" s="45"/>
-      <c r="F271" s="62"/>
-      <c r="G271" s="62"/>
+      <c r="F271" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G271" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H271" s="45"/>
-      <c r="I271" s="45"/>
+      <c r="I271" s="38">
+        <v>298</v>
+      </c>
       <c r="J271" s="63"/>
       <c r="K271" s="45"/>
       <c r="L271" s="62"/>
       <c r="M271" s="62"/>
       <c r="N271" s="62"/>
       <c r="O271" s="45"/>
-      <c r="P271" s="45"/>
-      <c r="Q271" s="45"/>
+      <c r="P271" s="45">
+        <v>122.73134328358201</v>
+      </c>
+      <c r="Q271" s="45">
+        <v>132.02985074626801</v>
+      </c>
       <c r="R271" s="45"/>
       <c r="S271" s="37"/>
       <c r="T271" s="37"/>
     </row>
     <row r="272" spans="1:20" ht="18" customHeight="1">
-      <c r="A272" s="45"/>
-      <c r="B272" s="62"/>
-      <c r="C272" s="62"/>
-      <c r="D272" s="62"/>
+      <c r="A272" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C272" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D272" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="E272" s="45"/>
-      <c r="F272" s="62"/>
-      <c r="G272" s="62"/>
+      <c r="F272" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G272" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H272" s="45"/>
-      <c r="I272" s="45"/>
+      <c r="I272" s="38">
+        <v>298</v>
+      </c>
       <c r="J272" s="45"/>
       <c r="K272" s="45"/>
       <c r="L272" s="62"/>
       <c r="M272" s="62"/>
       <c r="N272" s="62"/>
       <c r="O272" s="45"/>
-      <c r="P272" s="45"/>
-      <c r="Q272" s="45"/>
+      <c r="P272" s="45">
+        <v>117.925373134328</v>
+      </c>
+      <c r="Q272" s="45">
+        <v>126.283582089552</v>
+      </c>
       <c r="R272" s="45"/>
       <c r="S272" s="37"/>
       <c r="T272" s="37"/>
     </row>
     <row r="273" spans="1:20" ht="18" customHeight="1">
-      <c r="A273" s="45"/>
-      <c r="B273" s="62"/>
-      <c r="C273" s="62"/>
-      <c r="D273" s="62"/>
+      <c r="A273" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="C273" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D273" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="E273" s="45"/>
-      <c r="F273" s="62"/>
-      <c r="G273" s="62"/>
+      <c r="F273" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G273" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H273" s="45"/>
-      <c r="I273" s="45"/>
+      <c r="I273" s="38">
+        <v>298</v>
+      </c>
       <c r="J273" s="63"/>
       <c r="K273" s="45"/>
       <c r="L273" s="62"/>
       <c r="M273" s="62"/>
       <c r="N273" s="62"/>
       <c r="O273" s="45"/>
-      <c r="P273" s="45"/>
-      <c r="Q273" s="45"/>
+      <c r="P273" s="45">
+        <v>133.283582089552</v>
+      </c>
+      <c r="Q273" s="45">
+        <v>147.283582089552</v>
+      </c>
       <c r="R273" s="45"/>
       <c r="S273" s="37"/>
       <c r="T273" s="37"/>
     </row>
     <row r="274" spans="1:20" ht="18" customHeight="1">
-      <c r="A274" s="45"/>
-      <c r="B274" s="62"/>
-      <c r="C274" s="62"/>
-      <c r="D274" s="62"/>
+      <c r="A274" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C274" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D274" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="E274" s="45"/>
-      <c r="F274" s="62"/>
-      <c r="G274" s="62"/>
+      <c r="F274" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G274" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H274" s="45"/>
-      <c r="I274" s="45"/>
+      <c r="I274" s="38">
+        <v>298</v>
+      </c>
       <c r="J274" s="63"/>
       <c r="K274" s="45"/>
       <c r="L274" s="62"/>
       <c r="M274" s="62"/>
       <c r="N274" s="62"/>
       <c r="O274" s="45"/>
-      <c r="P274" s="45"/>
-      <c r="Q274" s="45"/>
+      <c r="P274" s="45">
+        <v>106.850746268656</v>
+      </c>
+      <c r="Q274" s="45">
+        <v>116.985074626865</v>
+      </c>
       <c r="R274" s="45"/>
       <c r="S274" s="37"/>
       <c r="T274" s="37"/>
     </row>
     <row r="275" spans="1:20" ht="18" customHeight="1">
-      <c r="A275" s="45"/>
-      <c r="B275" s="62"/>
-      <c r="C275" s="62"/>
-      <c r="D275" s="62"/>
+      <c r="A275" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="C275" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D275" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="E275" s="45"/>
-      <c r="F275" s="62"/>
-      <c r="G275" s="62"/>
+      <c r="F275" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G275" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="H275" s="45"/>
-      <c r="I275" s="45"/>
+      <c r="I275" s="38">
+        <v>298</v>
+      </c>
       <c r="J275" s="45"/>
       <c r="K275" s="45"/>
       <c r="L275" s="62"/>
       <c r="M275" s="62"/>
       <c r="N275" s="62"/>
       <c r="O275" s="45"/>
-      <c r="P275" s="45"/>
-      <c r="Q275" s="45"/>
+      <c r="P275" s="45">
+        <v>97.238805970149201</v>
+      </c>
+      <c r="Q275" s="45">
+        <v>103.820895522388</v>
+      </c>
       <c r="R275" s="45"/>
       <c r="S275" s="37"/>
       <c r="T275" s="37"/>

--- a/MiscSmallUploads_Apr2025.xlsx
+++ b/MiscSmallUploads_Apr2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73942163-991A-634C-B316-EE91313655A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7073514-7F8C-4E42-B3D0-410F15ED0459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="8760" windowWidth="17540" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="280">
   <si>
     <r>
       <rPr>
@@ -964,6 +964,12 @@
   </si>
   <si>
     <t>Ni8 Fe34 Co30 Mo14 W13</t>
+  </si>
+  <si>
+    <t>F10a</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2023.170026</t>
   </si>
 </sst>
 </file>
@@ -3453,8 +3459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T962"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F255" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L277" sqref="L277"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A255" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N282" sqref="N282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -13328,11 +13334,11 @@
         <v>298</v>
       </c>
       <c r="J219" s="54">
-        <f t="shared" ref="J219:J265" si="7">P219*1000000000</f>
+        <f t="shared" ref="J219:J275" si="7">P219*1000000000</f>
         <v>4610671936.7588902</v>
       </c>
       <c r="K219" s="38">
-        <f t="shared" ref="K219:K265" si="8">(Q219-P219)*1000000000</f>
+        <f t="shared" ref="K219:K275" si="8">(Q219-P219)*1000000000</f>
         <v>69169960.474310338</v>
       </c>
       <c r="L219" s="40" t="s">
@@ -15863,11 +15869,23 @@
       <c r="I266" s="38">
         <v>298</v>
       </c>
-      <c r="J266" s="63"/>
-      <c r="K266" s="45"/>
-      <c r="L266" s="62"/>
-      <c r="M266" s="62"/>
-      <c r="N266" s="62"/>
+      <c r="J266" s="54">
+        <f t="shared" si="7"/>
+        <v>4615212527.9642</v>
+      </c>
+      <c r="K266" s="38">
+        <f t="shared" si="8"/>
+        <v>76062639.821030229</v>
+      </c>
+      <c r="L266" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M266" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="N266" s="62" t="s">
+        <v>279</v>
+      </c>
       <c r="O266" s="45"/>
       <c r="P266" s="45">
         <v>4.6152125279642</v>
@@ -15903,11 +15921,23 @@
       <c r="I267" s="38">
         <v>298</v>
       </c>
-      <c r="J267" s="63"/>
-      <c r="K267" s="45"/>
-      <c r="L267" s="62"/>
-      <c r="M267" s="62"/>
-      <c r="N267" s="62"/>
+      <c r="J267" s="54">
+        <f t="shared" si="7"/>
+        <v>5290827740.4921703</v>
+      </c>
+      <c r="K267" s="38">
+        <f t="shared" si="8"/>
+        <v>170022371.36464959</v>
+      </c>
+      <c r="L267" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M267" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="N267" s="62" t="s">
+        <v>279</v>
+      </c>
       <c r="O267" s="45"/>
       <c r="P267" s="45">
         <v>5.29082774049217</v>
@@ -15943,11 +15973,23 @@
       <c r="I268" s="38">
         <v>298</v>
       </c>
-      <c r="J268" s="45"/>
-      <c r="K268" s="45"/>
-      <c r="L268" s="62"/>
-      <c r="M268" s="62"/>
-      <c r="N268" s="62"/>
+      <c r="J268" s="54">
+        <f t="shared" si="7"/>
+        <v>5272930648.7695704</v>
+      </c>
+      <c r="K268" s="38">
+        <f t="shared" si="8"/>
+        <v>210290827.74049002</v>
+      </c>
+      <c r="L268" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M268" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="N268" s="62" t="s">
+        <v>279</v>
+      </c>
       <c r="O268" s="45"/>
       <c r="P268" s="45">
         <v>5.2729306487695702</v>
@@ -15983,11 +16025,23 @@
       <c r="I269" s="38">
         <v>298</v>
       </c>
-      <c r="J269" s="63"/>
-      <c r="K269" s="45"/>
-      <c r="L269" s="62"/>
-      <c r="M269" s="62"/>
-      <c r="N269" s="62"/>
+      <c r="J269" s="54">
+        <f t="shared" si="7"/>
+        <v>4588366890.3803101</v>
+      </c>
+      <c r="K269" s="38">
+        <f t="shared" si="8"/>
+        <v>192393736.01789999</v>
+      </c>
+      <c r="L269" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M269" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="N269" s="62" t="s">
+        <v>279</v>
+      </c>
       <c r="O269" s="45"/>
       <c r="P269" s="45">
         <v>4.5883668903803096</v>
@@ -16023,11 +16077,23 @@
       <c r="I270" s="38">
         <v>298</v>
       </c>
-      <c r="J270" s="45"/>
-      <c r="K270" s="45"/>
-      <c r="L270" s="45"/>
-      <c r="M270" s="62"/>
-      <c r="N270" s="62"/>
+      <c r="J270" s="54">
+        <f t="shared" si="7"/>
+        <v>4011185682.3266201</v>
+      </c>
+      <c r="K270" s="38">
+        <f t="shared" si="8"/>
+        <v>125279642.05815944</v>
+      </c>
+      <c r="L270" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M270" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="N270" s="62" t="s">
+        <v>279</v>
+      </c>
       <c r="O270" s="45"/>
       <c r="P270" s="45">
         <v>4.0111856823266203</v>
@@ -16063,11 +16129,23 @@
       <c r="I271" s="38">
         <v>298</v>
       </c>
-      <c r="J271" s="63"/>
-      <c r="K271" s="45"/>
-      <c r="L271" s="62"/>
-      <c r="M271" s="62"/>
-      <c r="N271" s="62"/>
+      <c r="J271" s="54">
+        <f t="shared" si="7"/>
+        <v>122731343283.582</v>
+      </c>
+      <c r="K271" s="38">
+        <f t="shared" si="8"/>
+        <v>9298507462.6860046</v>
+      </c>
+      <c r="L271" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M271" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="N271" s="62" t="s">
+        <v>279</v>
+      </c>
       <c r="O271" s="45"/>
       <c r="P271" s="45">
         <v>122.73134328358201</v>
@@ -16103,11 +16181,23 @@
       <c r="I272" s="38">
         <v>298</v>
       </c>
-      <c r="J272" s="45"/>
-      <c r="K272" s="45"/>
-      <c r="L272" s="62"/>
-      <c r="M272" s="62"/>
-      <c r="N272" s="62"/>
+      <c r="J272" s="54">
+        <f t="shared" si="7"/>
+        <v>117925373134.328</v>
+      </c>
+      <c r="K272" s="38">
+        <f t="shared" si="8"/>
+        <v>8358208955.2240009</v>
+      </c>
+      <c r="L272" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M272" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="N272" s="62" t="s">
+        <v>279</v>
+      </c>
       <c r="O272" s="45"/>
       <c r="P272" s="45">
         <v>117.925373134328</v>
@@ -16143,11 +16233,23 @@
       <c r="I273" s="38">
         <v>298</v>
       </c>
-      <c r="J273" s="63"/>
-      <c r="K273" s="45"/>
-      <c r="L273" s="62"/>
-      <c r="M273" s="62"/>
-      <c r="N273" s="62"/>
+      <c r="J273" s="54">
+        <f t="shared" si="7"/>
+        <v>133283582089.552</v>
+      </c>
+      <c r="K273" s="38">
+        <f t="shared" si="8"/>
+        <v>14000000000</v>
+      </c>
+      <c r="L273" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M273" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="N273" s="62" t="s">
+        <v>279</v>
+      </c>
       <c r="O273" s="45"/>
       <c r="P273" s="45">
         <v>133.283582089552</v>
@@ -16183,11 +16285,23 @@
       <c r="I274" s="38">
         <v>298</v>
       </c>
-      <c r="J274" s="63"/>
-      <c r="K274" s="45"/>
-      <c r="L274" s="62"/>
-      <c r="M274" s="62"/>
-      <c r="N274" s="62"/>
+      <c r="J274" s="54">
+        <f t="shared" si="7"/>
+        <v>106850746268.65599</v>
+      </c>
+      <c r="K274" s="38">
+        <f t="shared" si="8"/>
+        <v>10134328358.209003</v>
+      </c>
+      <c r="L274" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M274" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="N274" s="62" t="s">
+        <v>279</v>
+      </c>
       <c r="O274" s="45"/>
       <c r="P274" s="45">
         <v>106.850746268656</v>
@@ -16223,11 +16337,23 @@
       <c r="I275" s="38">
         <v>298</v>
       </c>
-      <c r="J275" s="45"/>
-      <c r="K275" s="45"/>
-      <c r="L275" s="62"/>
-      <c r="M275" s="62"/>
-      <c r="N275" s="62"/>
+      <c r="J275" s="54">
+        <f t="shared" si="7"/>
+        <v>97238805970.1492</v>
+      </c>
+      <c r="K275" s="38">
+        <f t="shared" si="8"/>
+        <v>6582089552.2387981</v>
+      </c>
+      <c r="L275" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M275" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="N275" s="62" t="s">
+        <v>279</v>
+      </c>
       <c r="O275" s="45"/>
       <c r="P275" s="45">
         <v>97.238805970149201</v>
